--- a/doc/flo/Blocks.xlsx
+++ b/doc/flo/Blocks.xlsx
@@ -665,14 +665,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -977,10 +977,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E24" workbookViewId="0">
-      <pane xSplit="11325" ySplit="6240" topLeftCell="AT49" activePane="topRight"/>
-      <selection activeCell="E42" sqref="A42:XFD42"/>
-      <selection pane="topRight" activeCell="AT43" sqref="AT43"/>
+    <sheetView tabSelected="1" topLeftCell="W21" workbookViewId="0">
+      <pane xSplit="11325" ySplit="6240" topLeftCell="AS49" activePane="topRight"/>
+      <selection activeCell="Z3" sqref="Z3"/>
+      <selection pane="topRight" activeCell="AT25" sqref="AT25"/>
       <selection pane="bottomLeft" activeCell="O56" sqref="O56"/>
       <selection pane="bottomRight" activeCell="AH55" sqref="AH55"/>
     </sheetView>
@@ -1007,10 +1007,10 @@
     <col min="31" max="31" width="32.7109375" customWidth="1"/>
     <col min="34" max="34" width="36.140625" customWidth="1"/>
     <col min="35" max="37" width="9.85546875" customWidth="1"/>
-    <col min="38" max="38" width="9" style="12" customWidth="1"/>
+    <col min="38" max="38" width="9" style="11" customWidth="1"/>
     <col min="39" max="39" width="8.28515625" customWidth="1"/>
     <col min="40" max="40" width="8.5703125" customWidth="1"/>
-    <col min="41" max="41" width="9.42578125" style="12" customWidth="1"/>
+    <col min="41" max="41" width="9.42578125" style="11" customWidth="1"/>
     <col min="42" max="42" width="24" customWidth="1"/>
     <col min="45" max="45" width="23.7109375" customWidth="1"/>
     <col min="46" max="46" width="87.7109375" customWidth="1"/>
@@ -1020,28 +1020,28 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10" t="s">
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
       <c r="T1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1074,10 +1074,10 @@
         <v>Control</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1102,16 +1102,16 @@
         <v>9</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="M3" s="11"/>
+      <c r="M3" s="10"/>
       <c r="N3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1184,7 +1184,7 @@
         <f t="shared" ref="AK3:AL3" si="2">IF(ISBLANK(L3), "", ", "&amp;L3)</f>
         <v>, object</v>
       </c>
-      <c r="AL3" s="12" t="str">
+      <c r="AL3" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1196,7 +1196,7 @@
         <f>IF(ISBLANK(R3), "", ", "&amp;R3)</f>
         <v/>
       </c>
-      <c r="AO3" s="12" t="str">
+      <c r="AO3" s="11" t="str">
         <f>IF(ISBLANK(S3), "", ", "&amp;S3)</f>
         <v/>
       </c>
@@ -1234,16 +1234,16 @@
         <v>9</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="M4" s="11"/>
+      <c r="M4" s="10"/>
       <c r="N4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1317,7 +1317,7 @@
         <f t="shared" ref="AK4:AK53" si="17">IF(ISBLANK(L4), "", ", "&amp;L4)</f>
         <v>, object</v>
       </c>
-      <c r="AL4" s="12" t="str">
+      <c r="AL4" s="11" t="str">
         <f t="shared" ref="AL4:AL53" si="18">IF(ISBLANK(M4), "", ", "&amp;M4)</f>
         <v/>
       </c>
@@ -1329,7 +1329,7 @@
         <f t="shared" ref="AN4:AN53" si="20">IF(ISBLANK(R4), "", ", "&amp;R4)</f>
         <v/>
       </c>
-      <c r="AO4" s="12" t="str">
+      <c r="AO4" s="11" t="str">
         <f t="shared" ref="AO4:AO53" si="21">IF(ISBLANK(S4), "", ", "&amp;S4)</f>
         <v/>
       </c>
@@ -1364,14 +1364,14 @@
         <v>16</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
       <c r="N5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1445,7 +1445,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL5" s="12" t="str">
+      <c r="AL5" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -1457,7 +1457,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO5" s="12" t="str">
+      <c r="AO5" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -1486,10 +1486,10 @@
         <v>Editor Support</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
       <c r="N6" s="4"/>
       <c r="V6" s="9" t="str">
         <f t="shared" si="3"/>
@@ -1555,7 +1555,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL6" s="12" t="str">
+      <c r="AL6" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -1567,7 +1567,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO6" s="12" t="str">
+      <c r="AO6" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -1599,14 +1599,14 @@
         <v>20</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
       <c r="N7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1680,7 +1680,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL7" s="12" t="str">
+      <c r="AL7" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -1692,7 +1692,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO7" s="12" t="str">
+      <c r="AO7" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -1721,10 +1721,10 @@
         <v>22</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
       <c r="N8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1801,7 +1801,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL8" s="12" t="str">
+      <c r="AL8" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -1813,7 +1813,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO8" s="12" t="str">
+      <c r="AO8" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -1845,12 +1845,12 @@
         <v>8</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
       <c r="N9" s="4"/>
       <c r="T9" s="2" t="s">
         <v>23</v>
@@ -1922,7 +1922,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL9" s="12" t="str">
+      <c r="AL9" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -1934,7 +1934,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO9" s="12" t="str">
+      <c r="AO9" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -1963,10 +1963,10 @@
         <v>Math</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
       <c r="N10" s="4"/>
       <c r="V10" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2032,7 +2032,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL10" s="12" t="str">
+      <c r="AL10" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -2044,7 +2044,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO10" s="12" t="str">
+      <c r="AO10" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -2081,16 +2081,16 @@
       <c r="I11" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="10" t="s">
         <v>33</v>
       </c>
       <c r="N11" s="4" t="s">
@@ -2166,7 +2166,7 @@
         <f t="shared" si="17"/>
         <v>, scalar</v>
       </c>
-      <c r="AL11" s="12" t="str">
+      <c r="AL11" s="11" t="str">
         <f t="shared" si="18"/>
         <v>, scalar</v>
       </c>
@@ -2178,7 +2178,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO11" s="12" t="str">
+      <c r="AO11" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -2207,10 +2207,10 @@
         <v>Misc</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
       <c r="N12" s="4"/>
       <c r="V12" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2276,7 +2276,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL12" s="12" t="str">
+      <c r="AL12" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -2288,7 +2288,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO12" s="12" t="str">
+      <c r="AO12" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -2317,12 +2317,12 @@
         <v>8</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
       <c r="N13" s="4" t="s">
         <v>10</v>
       </c>
@@ -2396,7 +2396,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL13" s="12" t="str">
+      <c r="AL13" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -2408,7 +2408,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO13" s="12" t="str">
+      <c r="AO13" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -2437,10 +2437,10 @@
         <v>I/O</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
       <c r="N14" s="4"/>
       <c r="V14" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2506,7 +2506,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL14" s="12" t="str">
+      <c r="AL14" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -2518,7 +2518,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO14" s="12" t="str">
+      <c r="AO14" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -2544,10 +2544,10 @@
         <v>scalar</v>
       </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
       <c r="N15" s="4"/>
       <c r="V15" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2613,7 +2613,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL15" s="12" t="str">
+      <c r="AL15" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -2625,7 +2625,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO15" s="12" t="str">
+      <c r="AO15" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -2651,10 +2651,10 @@
         <v>34</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
       <c r="N16" s="4" t="s">
         <v>10</v>
       </c>
@@ -2731,7 +2731,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL16" s="12" t="str">
+      <c r="AL16" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -2743,7 +2743,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO16" s="12" t="str">
+      <c r="AO16" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -2772,10 +2772,10 @@
         <v>37</v>
       </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
       <c r="N17" s="4" t="s">
         <v>10</v>
       </c>
@@ -2852,7 +2852,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL17" s="12" t="str">
+      <c r="AL17" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -2864,7 +2864,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO17" s="12" t="str">
+      <c r="AO17" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -2893,10 +2893,10 @@
         <v>40</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
       <c r="N18" s="4" t="s">
         <v>10</v>
       </c>
@@ -2973,7 +2973,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL18" s="12" t="str">
+      <c r="AL18" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -2985,7 +2985,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO18" s="12" t="str">
+      <c r="AO18" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -3014,10 +3014,10 @@
         <v>sound</v>
       </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
       <c r="N19" s="4"/>
       <c r="V19" s="9" t="str">
         <f t="shared" si="3"/>
@@ -3083,7 +3083,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL19" s="12" t="str">
+      <c r="AL19" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -3095,7 +3095,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO19" s="12" t="str">
+      <c r="AO19" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -3121,10 +3121,10 @@
         <v>44</v>
       </c>
       <c r="I20" s="3"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
       <c r="N20" s="4" t="s">
         <v>10</v>
       </c>
@@ -3198,7 +3198,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL20" s="12" t="str">
+      <c r="AL20" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -3210,7 +3210,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO20" s="12" t="str">
+      <c r="AO20" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -3242,12 +3242,12 @@
         <v>8</v>
       </c>
       <c r="I21" s="3"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
       <c r="N21" s="4"/>
       <c r="T21" s="2" t="s">
         <v>47</v>
@@ -3319,7 +3319,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL21" s="12" t="str">
+      <c r="AL21" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -3331,7 +3331,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO21" s="12" t="str">
+      <c r="AO21" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -3360,10 +3360,10 @@
         <v>imaging</v>
       </c>
       <c r="I22" s="3"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
       <c r="N22" s="4"/>
       <c r="V22" s="9" t="str">
         <f t="shared" si="3"/>
@@ -3429,7 +3429,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL22" s="12" t="str">
+      <c r="AL22" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -3441,7 +3441,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO22" s="12" t="str">
+      <c r="AO22" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -3467,10 +3467,10 @@
         <v>50</v>
       </c>
       <c r="I23" s="3"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
       <c r="N23" s="4" t="s">
         <v>10</v>
       </c>
@@ -3553,7 +3553,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL23" s="12" t="str">
+      <c r="AL23" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -3565,7 +3565,7 @@
         <f t="shared" si="20"/>
         <v>, intrinsics</v>
       </c>
-      <c r="AO23" s="12" t="str">
+      <c r="AO23" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -3600,14 +3600,14 @@
         <v>55</v>
       </c>
       <c r="I24" s="3"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
       <c r="N24" s="4" t="s">
         <v>56</v>
       </c>
@@ -3681,7 +3681,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL24" s="12" t="str">
+      <c r="AL24" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -3693,7 +3693,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO24" s="12" t="str">
+      <c r="AO24" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -3722,10 +3722,10 @@
         <v>59</v>
       </c>
       <c r="I25" s="3"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
       <c r="N25" s="4" t="s">
         <v>10</v>
       </c>
@@ -3802,7 +3802,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL25" s="12" t="str">
+      <c r="AL25" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -3814,7 +3814,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO25" s="12" t="str">
+      <c r="AO25" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -3849,14 +3849,14 @@
         <v>65</v>
       </c>
       <c r="I26" s="3"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
       <c r="N26" s="4"/>
       <c r="T26" s="2" t="s">
         <v>154</v>
@@ -3928,7 +3928,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL26" s="12" t="str">
+      <c r="AL26" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -3940,7 +3940,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO26" s="12" t="str">
+      <c r="AO26" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -3972,12 +3972,12 @@
         <v>8</v>
       </c>
       <c r="I27" s="3"/>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
       <c r="N27" s="4"/>
       <c r="T27" s="2" t="s">
         <v>68</v>
@@ -4049,7 +4049,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL27" s="12" t="str">
+      <c r="AL27" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -4061,7 +4061,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO27" s="12" t="str">
+      <c r="AO27" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -4090,10 +4090,10 @@
         <v>155</v>
       </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
       <c r="N28" s="4" t="s">
         <v>10</v>
       </c>
@@ -4170,7 +4170,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL28" s="12" t="str">
+      <c r="AL28" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -4182,7 +4182,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO28" s="12" t="str">
+      <c r="AO28" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -4214,12 +4214,12 @@
         <v>8</v>
       </c>
       <c r="I29" s="3"/>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
       <c r="N29" s="4"/>
       <c r="T29" s="2" t="s">
         <v>72</v>
@@ -4291,7 +4291,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL29" s="12" t="str">
+      <c r="AL29" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -4303,7 +4303,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO29" s="12" t="str">
+      <c r="AO29" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -4332,10 +4332,10 @@
         <v>74</v>
       </c>
       <c r="I30" s="3"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
       <c r="N30" s="4" t="s">
         <v>10</v>
       </c>
@@ -4412,7 +4412,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL30" s="12" t="str">
+      <c r="AL30" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -4424,7 +4424,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO30" s="12" t="str">
+      <c r="AO30" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -4453,10 +4453,10 @@
         <v>body</v>
       </c>
       <c r="I31" s="3"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
       <c r="N31" s="4"/>
       <c r="V31" s="9" t="str">
         <f t="shared" si="3"/>
@@ -4522,7 +4522,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL31" s="12" t="str">
+      <c r="AL31" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -4534,7 +4534,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO31" s="12" t="str">
+      <c r="AO31" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -4560,10 +4560,10 @@
         <v>77</v>
       </c>
       <c r="I32" s="3"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
       <c r="N32" s="4" t="s">
         <v>10</v>
       </c>
@@ -4640,7 +4640,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL32" s="12" t="str">
+      <c r="AL32" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -4652,7 +4652,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO32" s="12" t="str">
+      <c r="AO32" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -4681,10 +4681,10 @@
         <v>80</v>
       </c>
       <c r="I33" s="3"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
       <c r="N33" s="4" t="s">
         <v>10</v>
       </c>
@@ -4758,7 +4758,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL33" s="12" t="str">
+      <c r="AL33" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -4770,7 +4770,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO33" s="12" t="str">
+      <c r="AO33" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -4799,10 +4799,10 @@
         <v>82</v>
       </c>
       <c r="I34" s="3"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
       <c r="N34" s="4" t="s">
         <v>10</v>
       </c>
@@ -4876,7 +4876,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL34" s="12" t="str">
+      <c r="AL34" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -4888,7 +4888,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO34" s="12" t="str">
+      <c r="AO34" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -4923,14 +4923,14 @@
         <v>85</v>
       </c>
       <c r="I35" s="3"/>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K35" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
       <c r="N35" s="4"/>
       <c r="T35" s="2" t="s">
         <v>86</v>
@@ -4999,7 +4999,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL35" s="12" t="str">
+      <c r="AL35" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -5011,7 +5011,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO35" s="12" t="str">
+      <c r="AO35" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -5046,14 +5046,14 @@
         <v>85</v>
       </c>
       <c r="I36" s="3"/>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
       <c r="N36" s="4"/>
       <c r="T36" s="2" t="s">
         <v>88</v>
@@ -5122,7 +5122,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL36" s="12" t="str">
+      <c r="AL36" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -5134,7 +5134,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO36" s="12" t="str">
+      <c r="AO36" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -5163,10 +5163,10 @@
         <v>CV</v>
       </c>
       <c r="I37" s="3"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
       <c r="N37" s="4"/>
       <c r="V37" s="9" t="str">
         <f t="shared" si="3"/>
@@ -5232,7 +5232,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL37" s="12" t="str">
+      <c r="AL37" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -5244,7 +5244,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO37" s="12" t="str">
+      <c r="AO37" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -5270,10 +5270,10 @@
         <v>Image Processing</v>
       </c>
       <c r="I38" s="3"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
       <c r="N38" s="4"/>
       <c r="V38" s="9" t="str">
         <f t="shared" si="3"/>
@@ -5339,7 +5339,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL38" s="12" t="str">
+      <c r="AL38" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -5351,7 +5351,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO38" s="12" t="str">
+      <c r="AO38" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -5377,10 +5377,10 @@
         <v>91</v>
       </c>
       <c r="I39" s="3"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
       <c r="N39" s="4" t="s">
         <v>10</v>
       </c>
@@ -5454,7 +5454,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL39" s="12" t="str">
+      <c r="AL39" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -5466,7 +5466,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO39" s="12" t="str">
+      <c r="AO39" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -5495,10 +5495,10 @@
         <v>93</v>
       </c>
       <c r="I40" s="3"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
       <c r="N40" s="4" t="s">
         <v>10</v>
       </c>
@@ -5572,7 +5572,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL40" s="12" t="str">
+      <c r="AL40" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -5584,7 +5584,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO40" s="12" t="str">
+      <c r="AO40" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -5619,14 +5619,14 @@
         <v>96</v>
       </c>
       <c r="I41" s="3"/>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="K41" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
       <c r="N41" s="4" t="s">
         <v>10</v>
       </c>
@@ -5700,7 +5700,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL41" s="12" t="str">
+      <c r="AL41" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -5712,7 +5712,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO41" s="12" t="str">
+      <c r="AO41" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -5744,12 +5744,12 @@
         <v>8</v>
       </c>
       <c r="I42" s="3"/>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
       <c r="N42" s="4" t="s">
         <v>10</v>
       </c>
@@ -5823,7 +5823,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL42" s="12" t="str">
+      <c r="AL42" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -5835,7 +5835,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO42" s="12" t="str">
+      <c r="AO42" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -5867,12 +5867,12 @@
         <v>8</v>
       </c>
       <c r="I43" s="3"/>
-      <c r="J43" s="11" t="s">
+      <c r="J43" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
       <c r="N43" s="4" t="s">
         <v>10</v>
       </c>
@@ -5946,7 +5946,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL43" s="12" t="str">
+      <c r="AL43" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -5958,7 +5958,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO43" s="12" t="str">
+      <c r="AO43" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -5987,12 +5987,12 @@
         <v>8</v>
       </c>
       <c r="I44" s="3"/>
-      <c r="J44" s="11" t="s">
+      <c r="J44" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
       <c r="N44" s="4" t="s">
         <v>10</v>
       </c>
@@ -6066,7 +6066,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL44" s="12" t="str">
+      <c r="AL44" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -6078,7 +6078,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO44" s="12" t="str">
+      <c r="AO44" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -6115,16 +6115,16 @@
       <c r="I45" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="K45" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="L45" s="11" t="s">
+      <c r="L45" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="M45" s="11" t="s">
+      <c r="M45" s="10" t="s">
         <v>98</v>
       </c>
       <c r="N45" s="4" t="s">
@@ -6200,7 +6200,7 @@
         <f t="shared" si="17"/>
         <v>, gray</v>
       </c>
-      <c r="AL45" s="12" t="str">
+      <c r="AL45" s="11" t="str">
         <f t="shared" si="18"/>
         <v>, gray</v>
       </c>
@@ -6212,7 +6212,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO45" s="12" t="str">
+      <c r="AO45" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -6241,12 +6241,12 @@
         <v>8</v>
       </c>
       <c r="I46" s="3"/>
-      <c r="J46" s="11" t="s">
+      <c r="J46" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
       <c r="N46" s="4" t="s">
         <v>105</v>
       </c>
@@ -6332,7 +6332,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL46" s="12" t="str">
+      <c r="AL46" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -6344,7 +6344,7 @@
         <f t="shared" si="20"/>
         <v>, gray</v>
       </c>
-      <c r="AO46" s="12" t="str">
+      <c r="AO46" s="11" t="str">
         <f t="shared" si="21"/>
         <v>, gray</v>
       </c>
@@ -6376,14 +6376,14 @@
         <v>112</v>
       </c>
       <c r="I47" s="3"/>
-      <c r="J47" s="11" t="s">
+      <c r="J47" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="K47" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
       <c r="N47" s="4" t="s">
         <v>10</v>
       </c>
@@ -6460,7 +6460,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL47" s="12" t="str">
+      <c r="AL47" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -6472,7 +6472,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO47" s="12" t="str">
+      <c r="AO47" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -6507,16 +6507,16 @@
         <v>117</v>
       </c>
       <c r="I48" s="3"/>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="K48" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L48" s="11" t="s">
+      <c r="L48" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="M48" s="11"/>
+      <c r="M48" s="10"/>
       <c r="N48" s="4" t="s">
         <v>10</v>
       </c>
@@ -6590,7 +6590,7 @@
         <f t="shared" si="17"/>
         <v>, int</v>
       </c>
-      <c r="AL48" s="12" t="str">
+      <c r="AL48" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -6602,7 +6602,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO48" s="12" t="str">
+      <c r="AO48" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -6637,16 +6637,16 @@
         <v>85</v>
       </c>
       <c r="I49" s="3"/>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="K49" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="L49" s="11" t="s">
+      <c r="L49" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="M49" s="11"/>
+      <c r="M49" s="10"/>
       <c r="N49" s="4" t="s">
         <v>10</v>
       </c>
@@ -6720,7 +6720,7 @@
         <f t="shared" si="17"/>
         <v>, gray</v>
       </c>
-      <c r="AL49" s="12" t="str">
+      <c r="AL49" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -6732,7 +6732,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO49" s="12" t="str">
+      <c r="AO49" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -6764,14 +6764,14 @@
         <v>122</v>
       </c>
       <c r="I50" s="3"/>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K50" s="11" t="s">
+      <c r="K50" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
       <c r="N50" s="4" t="s">
         <v>10</v>
       </c>
@@ -6842,7 +6842,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL50" s="12" t="str">
+      <c r="AL50" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -6854,7 +6854,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO50" s="12" t="str">
+      <c r="AO50" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -6880,10 +6880,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I51" s="3"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
       <c r="N51" s="4"/>
       <c r="V51" s="9" t="str">
         <f t="shared" si="3"/>
@@ -6949,7 +6949,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL51" s="12" t="str">
+      <c r="AL51" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -6961,7 +6961,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO51" s="12" t="str">
+      <c r="AO51" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -6990,12 +6990,12 @@
         <v>8</v>
       </c>
       <c r="I52" s="3"/>
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
       <c r="N52" s="4" t="s">
         <v>10</v>
       </c>
@@ -7069,7 +7069,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL52" s="12" t="str">
+      <c r="AL52" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -7081,7 +7081,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO52" s="12" t="str">
+      <c r="AO52" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -7189,7 +7189,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AL53" s="12" t="str">
+      <c r="AL53" s="11" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
@@ -7201,7 +7201,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AO53" s="12" t="str">
+      <c r="AO53" s="11" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -7224,10 +7224,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I54" s="3"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
       <c r="N54" s="4"/>
       <c r="V54" s="9" t="str">
         <f t="shared" ref="V54:V99" si="34">"["&amp;IF(RIGHT(F54,5)="(opt)","optional('"&amp;LEFT(F54,LEN(F54)-5)&amp;"')",IF(ISBLANK(F54),"","required('"&amp;F54&amp;"')"))</f>
@@ -7280,10 +7280,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I55" s="3"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
       <c r="N55" s="4"/>
       <c r="V55" s="9" t="str">
         <f t="shared" si="34"/>
@@ -7336,10 +7336,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I56" s="3"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
       <c r="N56" s="4"/>
       <c r="V56" s="9" t="str">
         <f t="shared" si="34"/>
@@ -7392,10 +7392,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I57" s="3"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
       <c r="N57" s="4"/>
       <c r="V57" s="9" t="str">
         <f t="shared" si="34"/>
@@ -7448,10 +7448,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I58" s="3"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
       <c r="N58" s="4"/>
       <c r="V58" s="9" t="str">
         <f t="shared" si="34"/>
@@ -7504,10 +7504,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I59" s="3"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
       <c r="N59" s="4"/>
       <c r="V59" s="9" t="str">
         <f t="shared" si="34"/>
@@ -7560,10 +7560,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I60" s="3"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
       <c r="N60" s="4"/>
       <c r="V60" s="9" t="str">
         <f t="shared" si="34"/>
@@ -7616,10 +7616,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I61" s="3"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
       <c r="N61" s="4"/>
       <c r="V61" s="9" t="str">
         <f t="shared" si="34"/>
@@ -7672,10 +7672,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I62" s="3"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
       <c r="N62" s="4"/>
       <c r="V62" s="9" t="str">
         <f t="shared" si="34"/>
@@ -7728,10 +7728,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I63" s="3"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
       <c r="N63" s="4"/>
       <c r="V63" s="9" t="str">
         <f t="shared" si="34"/>
@@ -7784,10 +7784,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I64" s="3"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
       <c r="N64" s="4"/>
       <c r="V64" s="9" t="str">
         <f t="shared" si="34"/>
@@ -7840,10 +7840,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I65" s="3"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
       <c r="N65" s="4"/>
       <c r="V65" s="9" t="str">
         <f t="shared" si="34"/>
@@ -7896,10 +7896,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I66" s="3"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
       <c r="N66" s="4"/>
       <c r="V66" s="9" t="str">
         <f t="shared" si="34"/>
@@ -7952,10 +7952,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I67" s="3"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
       <c r="N67" s="4"/>
       <c r="V67" s="9" t="str">
         <f t="shared" si="34"/>
@@ -8008,10 +8008,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I68" s="3"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
       <c r="N68" s="4"/>
       <c r="V68" s="9" t="str">
         <f t="shared" si="34"/>
@@ -8064,10 +8064,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I69" s="3"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
       <c r="N69" s="4"/>
       <c r="V69" s="9" t="str">
         <f t="shared" si="34"/>
@@ -8120,10 +8120,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I70" s="3"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
       <c r="N70" s="4"/>
       <c r="V70" s="9" t="str">
         <f t="shared" si="34"/>
@@ -8176,10 +8176,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I71" s="3"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
       <c r="N71" s="4"/>
       <c r="V71" s="9" t="str">
         <f t="shared" si="34"/>
@@ -8232,10 +8232,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I72" s="3"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
       <c r="N72" s="4"/>
       <c r="V72" s="9" t="str">
         <f t="shared" si="34"/>
@@ -8288,10 +8288,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I73" s="3"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
       <c r="N73" s="4"/>
       <c r="V73" s="9" t="str">
         <f t="shared" si="34"/>
@@ -8344,10 +8344,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I74" s="3"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
       <c r="N74" s="4"/>
       <c r="V74" s="9" t="str">
         <f t="shared" si="34"/>
@@ -8400,10 +8400,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I75" s="3"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
       <c r="N75" s="4"/>
       <c r="V75" s="9" t="str">
         <f t="shared" si="34"/>
@@ -8456,10 +8456,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I76" s="3"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="11"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
       <c r="N76" s="4"/>
       <c r="V76" s="9" t="str">
         <f t="shared" si="34"/>
@@ -8512,10 +8512,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I77" s="3"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
       <c r="N77" s="4"/>
       <c r="V77" s="9" t="str">
         <f t="shared" si="34"/>
@@ -8568,10 +8568,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I78" s="3"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="11"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
       <c r="N78" s="4"/>
       <c r="V78" s="9" t="str">
         <f t="shared" si="34"/>
@@ -8624,10 +8624,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I79" s="3"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="11"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
       <c r="N79" s="4"/>
       <c r="V79" s="9" t="str">
         <f t="shared" si="34"/>
@@ -8680,10 +8680,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I80" s="3"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11"/>
-      <c r="L80" s="11"/>
-      <c r="M80" s="11"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
       <c r="N80" s="4"/>
       <c r="V80" s="9" t="str">
         <f t="shared" si="34"/>
@@ -8736,10 +8736,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I81" s="3"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11"/>
-      <c r="M81" s="11"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
       <c r="N81" s="4"/>
       <c r="V81" s="9" t="str">
         <f t="shared" si="34"/>
@@ -8792,10 +8792,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I82" s="3"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="11"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="11"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
       <c r="N82" s="4"/>
       <c r="V82" s="9" t="str">
         <f t="shared" si="34"/>
@@ -8848,10 +8848,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I83" s="3"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="11"/>
-      <c r="L83" s="11"/>
-      <c r="M83" s="11"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
       <c r="N83" s="4"/>
       <c r="V83" s="9" t="str">
         <f t="shared" si="34"/>
@@ -8904,10 +8904,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I84" s="3"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="11"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="11"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
       <c r="N84" s="4"/>
       <c r="V84" s="9" t="str">
         <f t="shared" si="34"/>
@@ -8960,10 +8960,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I85" s="3"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-      <c r="L85" s="11"/>
-      <c r="M85" s="11"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
       <c r="N85" s="4"/>
       <c r="V85" s="9" t="str">
         <f t="shared" si="34"/>
@@ -9016,10 +9016,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I86" s="3"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-      <c r="L86" s="11"/>
-      <c r="M86" s="11"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
       <c r="N86" s="4"/>
       <c r="V86" s="9" t="str">
         <f t="shared" si="34"/>
@@ -9072,10 +9072,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I87" s="3"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
       <c r="N87" s="4"/>
       <c r="V87" s="9" t="str">
         <f t="shared" si="34"/>
@@ -9128,10 +9128,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I88" s="3"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="11"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
       <c r="N88" s="4"/>
       <c r="V88" s="9" t="str">
         <f t="shared" si="34"/>
@@ -9184,10 +9184,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I89" s="3"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
       <c r="N89" s="4"/>
       <c r="V89" s="9" t="str">
         <f t="shared" si="34"/>
@@ -9240,10 +9240,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I90" s="3"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-      <c r="L90" s="11"/>
-      <c r="M90" s="11"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
       <c r="N90" s="4"/>
       <c r="V90" s="9" t="str">
         <f t="shared" si="34"/>
@@ -9296,10 +9296,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I91" s="3"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11"/>
-      <c r="M91" s="11"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
       <c r="N91" s="4"/>
       <c r="V91" s="9" t="str">
         <f t="shared" si="34"/>
@@ -9352,10 +9352,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I92" s="3"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="11"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
       <c r="N92" s="4"/>
       <c r="V92" s="9" t="str">
         <f t="shared" si="34"/>
@@ -9408,10 +9408,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I93" s="3"/>
-      <c r="J93" s="11"/>
-      <c r="K93" s="11"/>
-      <c r="L93" s="11"/>
-      <c r="M93" s="11"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
       <c r="N93" s="4"/>
       <c r="V93" s="9" t="str">
         <f t="shared" si="34"/>
@@ -9464,10 +9464,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I94" s="3"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="11"/>
-      <c r="L94" s="11"/>
-      <c r="M94" s="11"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
       <c r="N94" s="4"/>
       <c r="V94" s="9" t="str">
         <f t="shared" si="34"/>
@@ -9520,10 +9520,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I95" s="3"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="11"/>
-      <c r="L95" s="11"/>
-      <c r="M95" s="11"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
       <c r="N95" s="4"/>
       <c r="V95" s="9" t="str">
         <f t="shared" si="34"/>
@@ -9576,10 +9576,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I96" s="3"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="11"/>
-      <c r="L96" s="11"/>
-      <c r="M96" s="11"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
       <c r="N96" s="4"/>
       <c r="V96" s="9" t="str">
         <f t="shared" si="34"/>
@@ -9632,10 +9632,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I97" s="3"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="11"/>
-      <c r="L97" s="11"/>
-      <c r="M97" s="11"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
       <c r="N97" s="4"/>
       <c r="V97" s="9" t="str">
         <f t="shared" si="34"/>
@@ -9688,10 +9688,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I98" s="3"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
-      <c r="L98" s="11"/>
-      <c r="M98" s="11"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
       <c r="N98" s="4"/>
       <c r="V98" s="9" t="str">
         <f t="shared" si="34"/>
@@ -9744,10 +9744,10 @@
         <v>FrequencyDomain</v>
       </c>
       <c r="I99" s="3"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="11"/>
-      <c r="L99" s="11"/>
-      <c r="M99" s="11"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
       <c r="N99" s="4"/>
       <c r="V99" s="9" t="str">
         <f t="shared" si="34"/>
@@ -9792,66 +9792,66 @@
     </row>
     <row r="100" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I100" s="3"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11"/>
-      <c r="L100" s="11"/>
-      <c r="M100" s="11"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
       <c r="N100" s="4"/>
     </row>
     <row r="101" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I101" s="3"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="11"/>
-      <c r="L101" s="11"/>
-      <c r="M101" s="11"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
       <c r="N101" s="4"/>
     </row>
     <row r="102" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I102" s="3"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11"/>
-      <c r="L102" s="11"/>
-      <c r="M102" s="11"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
       <c r="N102" s="4"/>
     </row>
     <row r="103" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I103" s="3"/>
-      <c r="J103" s="11"/>
-      <c r="K103" s="11"/>
-      <c r="L103" s="11"/>
-      <c r="M103" s="11"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
       <c r="N103" s="4"/>
     </row>
     <row r="104" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I104" s="3"/>
-      <c r="J104" s="11"/>
-      <c r="K104" s="11"/>
-      <c r="L104" s="11"/>
-      <c r="M104" s="11"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="10"/>
+      <c r="M104" s="10"/>
       <c r="N104" s="4"/>
     </row>
     <row r="105" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I105" s="3"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="11"/>
-      <c r="L105" s="11"/>
-      <c r="M105" s="11"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
       <c r="N105" s="4"/>
     </row>
     <row r="106" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I106" s="3"/>
-      <c r="J106" s="11"/>
-      <c r="K106" s="11"/>
-      <c r="L106" s="11"/>
-      <c r="M106" s="11"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10"/>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
       <c r="N106" s="4"/>
     </row>
     <row r="107" spans="3:34" x14ac:dyDescent="0.2">
       <c r="I107" s="3"/>
-      <c r="J107" s="11"/>
-      <c r="K107" s="11"/>
-      <c r="L107" s="11"/>
-      <c r="M107" s="11"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
+      <c r="L107" s="10"/>
+      <c r="M107" s="10"/>
       <c r="N107" s="4"/>
     </row>
   </sheetData>
@@ -9870,7 +9870,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/doc/flo/Blocks.xlsx
+++ b/doc/flo/Blocks.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="BlockTypes" sheetId="1" r:id="rId1"/>
     <sheet name="BaseTypes" sheetId="2" r:id="rId2"/>
+    <sheet name="UI" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="238">
   <si>
     <t>Block Types</t>
   </si>
@@ -540,6 +541,195 @@
   </si>
   <si>
     <t>Imgproc.cvtColor($A, $O, COLOR_BGR2GRAY);</t>
+  </si>
+  <si>
+    <t>zoom</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>recenter</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>paste</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>undo</t>
+  </si>
+  <si>
+    <t>redo</t>
+  </si>
+  <si>
+    <t>quit</t>
+  </si>
+  <si>
+    <t>create block</t>
+  </si>
+  <si>
+    <t>create pipe</t>
+  </si>
+  <si>
+    <t>create blocktype</t>
+  </si>
+  <si>
+    <t>move blocktype in hierarchy</t>
+  </si>
+  <si>
+    <t>create same type block</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>display error</t>
+  </si>
+  <si>
+    <t>move one block, keeping connex, in one motion</t>
+  </si>
+  <si>
+    <t>move a group of selected blocks</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>delete a block</t>
+  </si>
+  <si>
+    <t>delete a pipe</t>
+  </si>
+  <si>
+    <t>create one of n frequently used blocks</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>display current flo graph</t>
+  </si>
+  <si>
+    <t>display current flotypes graph</t>
+  </si>
+  <si>
+    <t>inspect</t>
+  </si>
+  <si>
+    <t>way to expand display of a block</t>
+  </si>
+  <si>
+    <t>maybe 'flick'?</t>
+  </si>
+  <si>
+    <t>autoscroll</t>
+  </si>
+  <si>
+    <t>any drag operation</t>
+  </si>
+  <si>
+    <t>enter values in text boxes</t>
+  </si>
+  <si>
+    <t>drag sliders</t>
+  </si>
+  <si>
+    <t>data entry</t>
+  </si>
+  <si>
+    <t>way to check block type (tooltip?) with more info</t>
+  </si>
+  <si>
+    <t>connector</t>
+  </si>
+  <si>
+    <t>pipe</t>
+  </si>
+  <si>
+    <t>drbend</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>bidi pipe connection</t>
+  </si>
+  <si>
+    <t>bidi</t>
+  </si>
+  <si>
+    <t>FloRT.bidi($A, $O);</t>
+  </si>
+  <si>
+    <t>icon_sheet</t>
+  </si>
+  <si>
+    <t>icon_i</t>
+  </si>
+  <si>
+    <t>icon_j</t>
+  </si>
+  <si>
+    <t>icon_i_size</t>
+  </si>
+  <si>
+    <t>icon_j_size</t>
+  </si>
+  <si>
+    <t>dlbend</t>
+  </si>
+  <si>
+    <t>horpipe</t>
+  </si>
+  <si>
+    <t>cross</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>urbend</t>
+  </si>
+  <si>
+    <t>ulbend</t>
+  </si>
+  <si>
+    <t>distributor</t>
+  </si>
+  <si>
+    <t>OC</t>
   </si>
 </sst>
 </file>
@@ -975,20 +1165,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU107"/>
+  <dimension ref="A1:BA117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W21" workbookViewId="0">
-      <pane xSplit="11325" ySplit="6240" topLeftCell="AS49" activePane="topRight"/>
-      <selection activeCell="Z3" sqref="Z3"/>
-      <selection pane="topRight" activeCell="AT25" sqref="AT25"/>
-      <selection pane="bottomLeft" activeCell="O56" sqref="O56"/>
-      <selection pane="bottomRight" activeCell="AH55" sqref="AH55"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane xSplit="8985" ySplit="540" topLeftCell="AU24" activePane="bottomRight"/>
+      <selection activeCell="AW14" sqref="AW14"/>
+      <selection pane="topRight" activeCell="AU1" sqref="AU1"/>
+      <selection pane="bottomLeft" activeCell="T45" sqref="T45"/>
+      <selection pane="bottomRight" activeCell="AW46" sqref="AW46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="17.140625" style="2"/>
-    <col min="3" max="4" width="3.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" style="2"/>
     <col min="6" max="9" width="8.5703125" style="2" customWidth="1"/>
     <col min="10" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
@@ -1016,7 +1207,7 @@
     <col min="46" max="46" width="87.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1060,8 +1251,26 @@
       <c r="AU1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="2" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1080,7 +1289,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Control</v>
@@ -1211,8 +1420,23 @@
       <c r="AT3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="4" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>2</v>
+      </c>
+      <c r="AZ3">
+        <v>1</v>
+      </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Control</v>
@@ -1254,47 +1478,47 @@
         <v>13</v>
       </c>
       <c r="V4" s="9" t="str">
-        <f t="shared" ref="V4:V53" si="3">"["&amp;IF(RIGHT(F4,5)="(opt)","optional('"&amp;LEFT(F4,LEN(F4)-5)&amp;"')",IF(ISBLANK(F4),"","required('"&amp;F4&amp;"')"))</f>
+        <f t="shared" ref="V4:V63" si="3">"["&amp;IF(RIGHT(F4,5)="(opt)","optional('"&amp;LEFT(F4,LEN(F4)-5)&amp;"')",IF(ISBLANK(F4),"","required('"&amp;F4&amp;"')"))</f>
         <v>[required('Cond')</v>
       </c>
       <c r="W4" s="9" t="str">
-        <f t="shared" ref="W4:W52" si="4">IF(RIGHT(G4,5)="(opt)",", optional('"&amp;LEFT(G4, LEN(G4)-5)&amp;"')",IF(ISBLANK(G4),"",", required('"&amp;G4&amp;"')"))</f>
+        <f t="shared" ref="W4:W62" si="4">IF(RIGHT(G4,5)="(opt)",", optional('"&amp;LEFT(G4, LEN(G4)-5)&amp;"')",IF(ISBLANK(G4),"",", required('"&amp;G4&amp;"')"))</f>
         <v>, required('A')</v>
       </c>
       <c r="X4" s="9" t="str">
-        <f t="shared" ref="X4:X52" si="5">IF(RIGHT(H4,5)="(opt)",", optional('"&amp;LEFT(H4, LEN(H4)-5)&amp;"')",IF(ISBLANK(H4),"",", required('"&amp;H4&amp;"')"))</f>
+        <f t="shared" ref="X4:X62" si="5">IF(RIGHT(H4,5)="(opt)",", optional('"&amp;LEFT(H4, LEN(H4)-5)&amp;"')",IF(ISBLANK(H4),"",", required('"&amp;H4&amp;"')"))</f>
         <v>, required('B')</v>
       </c>
       <c r="Y4" s="9" t="str">
-        <f t="shared" ref="Y4:Y52" si="6">IF(RIGHT(I4,5)="(opt)",", optional('"&amp;LEFT(I4, LEN(I4)-5)&amp;"')",IF(ISBLANK(I4),"",", required('"&amp;I4&amp;"')"))</f>
+        <f t="shared" ref="Y4:Y62" si="6">IF(RIGHT(I4,5)="(opt)",", optional('"&amp;LEFT(I4, LEN(I4)-5)&amp;"')",IF(ISBLANK(I4),"",", required('"&amp;I4&amp;"')"))</f>
         <v/>
       </c>
       <c r="Z4" t="str">
-        <f t="shared" ref="Z4:Z66" si="7">V4&amp;W4&amp;X4&amp;"]"</f>
+        <f t="shared" ref="Z4:Z76" si="7">V4&amp;W4&amp;X4&amp;"]"</f>
         <v>[required('Cond'), required('A'), required('B')]</v>
       </c>
       <c r="AA4" s="1" t="str">
-        <f t="shared" ref="AA4:AA53" si="8">"["&amp;IF(ISBLANK(N4),"", "'"&amp;N4&amp;"'")</f>
+        <f t="shared" ref="AA4:AA63" si="8">"["&amp;IF(ISBLANK(N4),"", "'"&amp;N4&amp;"'")</f>
         <v>['O'</v>
       </c>
       <c r="AB4" t="str">
-        <f t="shared" ref="AB4:AB52" si="9">IF(ISBLANK(O4),"",", '"&amp;O4&amp;"'")</f>
+        <f t="shared" ref="AB4:AB62" si="9">IF(ISBLANK(O4),"",", '"&amp;O4&amp;"'")</f>
         <v/>
       </c>
       <c r="AC4" t="str">
-        <f t="shared" ref="AC4:AC52" si="10">IF(ISBLANK(P4),"",", '"&amp;P4&amp;"'")</f>
+        <f t="shared" ref="AC4:AC62" si="10">IF(ISBLANK(P4),"",", '"&amp;P4&amp;"'")</f>
         <v/>
       </c>
       <c r="AD4" t="str">
-        <f t="shared" ref="AD4:AD52" si="11">AA4&amp;AB4&amp;AC4&amp;"]"</f>
+        <f t="shared" ref="AD4:AD62" si="11">AA4&amp;AB4&amp;AC4&amp;"]"</f>
         <v>['O']</v>
       </c>
       <c r="AE4" t="str">
-        <f t="shared" ref="AE4:AE52" si="12">IF(ISBLANK(E4),"","section("&amp;E4&amp;", '"&amp;C4&amp;"').&lt;&gt;subsection("&amp;E4&amp;", '"&amp;D4&amp;"').&lt;&gt;description("&amp;E4&amp;", '"&amp;T4&amp;"').&lt;&gt;visual_style("&amp;E4&amp;",  "&amp;IF(ISBLANK(U4),"normal",AF4))</f>
+        <f t="shared" ref="AE4:AE62" si="12">IF(ISBLANK(E4),"","section("&amp;E4&amp;", '"&amp;C4&amp;"').&lt;&gt;subsection("&amp;E4&amp;", '"&amp;D4&amp;"').&lt;&gt;description("&amp;E4&amp;", '"&amp;T4&amp;"').&lt;&gt;visual_style("&amp;E4&amp;",  "&amp;IF(ISBLANK(U4),"normal",AF4))</f>
         <v>section(ifvar, 'Control').&lt;&gt;subsection(ifvar, 'Control').&lt;&gt;description(ifvar, 'If the value of Va is true, O is A, else O is B. Var is some compile time variable (eg. DEV for development version).').&lt;&gt;visual_style(ifvar,  normal</v>
       </c>
       <c r="AF4" t="str">
-        <f t="shared" ref="AF4:AF66" si="13">"visual_style"&amp;AG4</f>
+        <f t="shared" ref="AF4:AF76" si="13">"visual_style"&amp;AG4</f>
         <v>visual_style0</v>
       </c>
       <c r="AG4">
@@ -1302,50 +1526,65 @@
         <v>0</v>
       </c>
       <c r="AH4" t="str">
-        <f t="shared" ref="AH4:AH53" si="14">IF(ISBLANK(E4),"","&lt;&gt;%  ===== "&amp;E4&amp;" ===========&lt;&gt;"&amp;AE4&amp;").&lt;&gt;inputs("&amp;E4&amp;", "&amp;Z4&amp;").&lt;&gt;outputs("&amp;E4&amp;", "&amp;AD4&amp;").&lt;&gt;input_types("&amp;E4&amp;", "&amp;AP4&amp;").&lt;&gt;output_types("&amp;E4&amp;", "&amp;AQ4&amp;").&lt;&gt;")</f>
+        <f t="shared" ref="AH4:AH63" si="14">IF(ISBLANK(E4),"","&lt;&gt;%  ===== "&amp;E4&amp;" ===========&lt;&gt;"&amp;AE4&amp;").&lt;&gt;inputs("&amp;E4&amp;", "&amp;Z4&amp;").&lt;&gt;outputs("&amp;E4&amp;", "&amp;AD4&amp;").&lt;&gt;input_types("&amp;E4&amp;", "&amp;AP4&amp;").&lt;&gt;output_types("&amp;E4&amp;", "&amp;AQ4&amp;").&lt;&gt;")</f>
         <v>&lt;&gt;%  ===== ifvar ===========&lt;&gt;section(ifvar, 'Control').&lt;&gt;subsection(ifvar, 'Control').&lt;&gt;description(ifvar, 'If the value of Va is true, O is A, else O is B. Var is some compile time variable (eg. DEV for development version).').&lt;&gt;visual_style(ifvar,  normal).&lt;&gt;inputs(ifvar, [required('Cond'), required('A'), required('B')]).&lt;&gt;outputs(ifvar, ['O']).&lt;&gt;input_types(ifvar, [string, object, object]).&lt;&gt;output_types(ifvar, [object]).&lt;&gt;</v>
       </c>
       <c r="AI4" t="str">
-        <f t="shared" ref="AI4:AI53" si="15">IF(ISBLANK(J4),"[","["&amp;J4)</f>
+        <f t="shared" ref="AI4:AI63" si="15">IF(ISBLANK(J4),"[","["&amp;J4)</f>
         <v>[string</v>
       </c>
       <c r="AJ4" t="str">
-        <f t="shared" ref="AJ4:AJ53" si="16">IF(ISBLANK(K4), "", ", "&amp;K4)</f>
+        <f t="shared" ref="AJ4:AJ63" si="16">IF(ISBLANK(K4), "", ", "&amp;K4)</f>
         <v>, object</v>
       </c>
       <c r="AK4" t="str">
-        <f t="shared" ref="AK4:AK53" si="17">IF(ISBLANK(L4), "", ", "&amp;L4)</f>
+        <f t="shared" ref="AK4:AK63" si="17">IF(ISBLANK(L4), "", ", "&amp;L4)</f>
         <v>, object</v>
       </c>
       <c r="AL4" s="11" t="str">
-        <f t="shared" ref="AL4:AL53" si="18">IF(ISBLANK(M4), "", ", "&amp;M4)</f>
+        <f t="shared" ref="AL4:AL63" si="18">IF(ISBLANK(M4), "", ", "&amp;M4)</f>
         <v/>
       </c>
       <c r="AM4" t="str">
-        <f t="shared" ref="AM4:AM53" si="19">IF(ISBLANK(Q4),"[","["&amp;Q4)</f>
+        <f t="shared" ref="AM4:AM63" si="19">IF(ISBLANK(Q4),"[","["&amp;Q4)</f>
         <v>[object</v>
       </c>
       <c r="AN4" t="str">
-        <f t="shared" ref="AN4:AN53" si="20">IF(ISBLANK(R4), "", ", "&amp;R4)</f>
+        <f t="shared" ref="AN4:AN63" si="20">IF(ISBLANK(R4), "", ", "&amp;R4)</f>
         <v/>
       </c>
       <c r="AO4" s="11" t="str">
-        <f t="shared" ref="AO4:AO53" si="21">IF(ISBLANK(S4), "", ", "&amp;S4)</f>
+        <f t="shared" ref="AO4:AO63" si="21">IF(ISBLANK(S4), "", ", "&amp;S4)</f>
         <v/>
       </c>
       <c r="AP4" t="str">
-        <f t="shared" ref="AP4:AP53" si="22">AI4&amp;AJ4&amp;AK4&amp;AL4&amp;"]"</f>
+        <f t="shared" ref="AP4:AP63" si="22">AI4&amp;AJ4&amp;AK4&amp;AL4&amp;"]"</f>
         <v>[string, object, object]</v>
       </c>
       <c r="AQ4" t="str">
-        <f t="shared" ref="AQ4:AQ53" si="23">AM4&amp;AN4&amp;AO4&amp;"]"</f>
+        <f t="shared" ref="AQ4:AQ63" si="23">AM4&amp;AN4&amp;AO4&amp;"]"</f>
         <v>[object]</v>
       </c>
       <c r="AT4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="5" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AY4">
+        <v>2</v>
+      </c>
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Control</v>
@@ -1426,7 +1665,7 @@
         <v>visual_style0</v>
       </c>
       <c r="AG5">
-        <f t="shared" ref="AG5:AG52" si="24">IF(ISBLANK(U4),AG4,AG4+1)</f>
+        <f t="shared" ref="AG5:AG62" si="24">IF(ISBLANK(U4),AG4,AG4+1)</f>
         <v>0</v>
       </c>
       <c r="AH5" t="str">
@@ -1473,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1580,7 +1819,7 @@
         <v>[]</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Editor Support</v>
@@ -1707,8 +1946,23 @@
       <c r="AS7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>2</v>
+      </c>
+      <c r="AY7">
+        <v>2</v>
+      </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Editor Support</v>
@@ -1828,8 +2082,23 @@
       <c r="AU8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>3</v>
+      </c>
+      <c r="AY8">
+        <v>2</v>
+      </c>
+      <c r="AZ8">
+        <v>1</v>
+      </c>
+      <c r="BA8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Editor Support</v>
@@ -1949,8 +2218,23 @@
       <c r="AU9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>3</v>
+      </c>
+      <c r="AY9">
+        <v>3</v>
+      </c>
+      <c r="AZ9">
+        <v>1</v>
+      </c>
+      <c r="BA9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -2057,7 +2341,7 @@
         <v>[]</v>
       </c>
     </row>
-    <row r="11" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Math</v>
@@ -2193,8 +2477,23 @@
       <c r="AS11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11">
+        <v>3</v>
+      </c>
+      <c r="AZ11">
+        <v>2</v>
+      </c>
+      <c r="BA11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -2301,7 +2600,7 @@
         <v>[]</v>
       </c>
     </row>
-    <row r="13" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Misc</v>
@@ -2423,8 +2722,23 @@
       <c r="AS13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>3</v>
+      </c>
+      <c r="AZ13">
+        <v>1</v>
+      </c>
+      <c r="BA13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -2531,7 +2845,7 @@
         <v>[]</v>
       </c>
     </row>
-    <row r="15" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
@@ -2638,7 +2952,7 @@
         <v>[]</v>
       </c>
     </row>
-    <row r="16" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>I/O</v>
@@ -4668,7 +4982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>I/O</v>
@@ -4786,13 +5100,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="str">
-        <f t="shared" ref="C34:C52" si="25">IF(ISBLANK(A34),C33,A34)</f>
+        <f t="shared" ref="C34:C62" si="25">IF(ISBLANK(A34),C33,A34)</f>
         <v>I/O</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f t="shared" ref="D34:D52" si="26">IF(NOT(ISBLANK(B34)), B34, IF(ISBLANK(A34), D33,A34))</f>
+        <f t="shared" ref="D34:D62" si="26">IF(NOT(ISBLANK(B34)), B34, IF(ISBLANK(A34), D33,A34))</f>
         <v>body</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -4904,7 +5218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="str">
         <f t="shared" si="25"/>
         <v>I/O</v>
@@ -5027,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="str">
         <f t="shared" si="25"/>
         <v>I/O</v>
@@ -5150,17 +5464,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>89</v>
+        <v>217</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f t="shared" si="25"/>
-        <v>CV</v>
+        <f t="shared" ref="C37:C46" si="27">IF(ISBLANK(A37),C36,A37)</f>
+        <v>connector</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>CV</v>
+        <f t="shared" ref="D37:D46" si="28">IF(NOT(ISBLANK(B37)), B37, IF(ISBLANK(A37), D36,A37))</f>
+        <v>pipe</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="10"/>
@@ -5169,105 +5486,105 @@
       <c r="M37" s="10"/>
       <c r="N37" s="4"/>
       <c r="V37" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="V37:V46" si="29">"["&amp;IF(RIGHT(F37,5)="(opt)","optional('"&amp;LEFT(F37,LEN(F37)-5)&amp;"')",IF(ISBLANK(F37),"","required('"&amp;F37&amp;"')"))</f>
         <v>[</v>
       </c>
       <c r="W37" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="W37:W46" si="30">IF(RIGHT(G37,5)="(opt)",", optional('"&amp;LEFT(G37, LEN(G37)-5)&amp;"')",IF(ISBLANK(G37),"",", required('"&amp;G37&amp;"')"))</f>
         <v/>
       </c>
       <c r="X37" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="X37:X46" si="31">IF(RIGHT(H37,5)="(opt)",", optional('"&amp;LEFT(H37, LEN(H37)-5)&amp;"')",IF(ISBLANK(H37),"",", required('"&amp;H37&amp;"')"))</f>
         <v/>
       </c>
       <c r="Y37" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="Y37:Y46" si="32">IF(RIGHT(I37,5)="(opt)",", optional('"&amp;LEFT(I37, LEN(I37)-5)&amp;"')",IF(ISBLANK(I37),"",", required('"&amp;I37&amp;"')"))</f>
         <v/>
       </c>
       <c r="Z37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="Z37:Z46" si="33">V37&amp;W37&amp;X37&amp;"]"</f>
         <v>[]</v>
       </c>
       <c r="AA37" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AA37:AA46" si="34">"["&amp;IF(ISBLANK(N37),"", "'"&amp;N37&amp;"'")</f>
         <v>[</v>
       </c>
       <c r="AB37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="AB37:AB46" si="35">IF(ISBLANK(O37),"",", '"&amp;O37&amp;"'")</f>
         <v/>
       </c>
       <c r="AC37" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AC37:AC46" si="36">IF(ISBLANK(P37),"",", '"&amp;P37&amp;"'")</f>
         <v/>
       </c>
       <c r="AD37" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AD37:AD46" si="37">AA37&amp;AB37&amp;AC37&amp;"]"</f>
         <v>[]</v>
       </c>
       <c r="AE37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="AE37:AE46" si="38">IF(ISBLANK(E37),"","section("&amp;E37&amp;", '"&amp;C37&amp;"').&lt;&gt;subsection("&amp;E37&amp;", '"&amp;D37&amp;"').&lt;&gt;description("&amp;E37&amp;", '"&amp;T37&amp;"').&lt;&gt;visual_style("&amp;E37&amp;",  "&amp;IF(ISBLANK(U37),"normal",AF37))</f>
         <v/>
       </c>
       <c r="AF37" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AF37:AF46" si="39">"visual_style"&amp;AG37</f>
         <v>visual_style14</v>
       </c>
       <c r="AG37">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="AG37:AG47" si="40">IF(ISBLANK(U36),AG36,AG36+1)</f>
         <v>14</v>
       </c>
       <c r="AH37" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="AH37:AH48" si="41">IF(ISBLANK(E37),"","&lt;&gt;%  ===== "&amp;E37&amp;" ===========&lt;&gt;"&amp;AE37&amp;").&lt;&gt;inputs("&amp;E37&amp;", "&amp;Z37&amp;").&lt;&gt;outputs("&amp;E37&amp;", "&amp;AD37&amp;").&lt;&gt;input_types("&amp;E37&amp;", "&amp;AP37&amp;").&lt;&gt;output_types("&amp;E37&amp;", "&amp;AQ37&amp;").&lt;&gt;")</f>
         <v/>
       </c>
       <c r="AI37" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="AI37:AI46" si="42">IF(ISBLANK(J37),"[","["&amp;J37)</f>
         <v>[</v>
       </c>
       <c r="AJ37" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="AJ37:AJ46" si="43">IF(ISBLANK(K37), "", ", "&amp;K37)</f>
         <v/>
       </c>
       <c r="AK37" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="AK37:AK46" si="44">IF(ISBLANK(L37), "", ", "&amp;L37)</f>
         <v/>
       </c>
       <c r="AL37" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="AL37:AL46" si="45">IF(ISBLANK(M37), "", ", "&amp;M37)</f>
         <v/>
       </c>
       <c r="AM37" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="AM37:AM46" si="46">IF(ISBLANK(Q37),"[","["&amp;Q37)</f>
         <v>[</v>
       </c>
       <c r="AN37" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="AN37:AN46" si="47">IF(ISBLANK(R37), "", ", "&amp;R37)</f>
         <v/>
       </c>
       <c r="AO37" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="AO37:AO46" si="48">IF(ISBLANK(S37), "", ", "&amp;S37)</f>
         <v/>
       </c>
       <c r="AP37" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="AP37:AP46" si="49">AI37&amp;AJ37&amp;AK37&amp;AL37&amp;"]"</f>
         <v>[]</v>
       </c>
       <c r="AQ37" t="str">
-        <f t="shared" si="23"/>
-        <v>[]</v>
-      </c>
-    </row>
-    <row r="38" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AQ37:AQ46" si="50">AM37&amp;AN37&amp;AO37&amp;"]"</f>
+        <v>[]</v>
+      </c>
+    </row>
+    <row r="38" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="C38" s="1" t="str">
-        <f t="shared" si="25"/>
-        <v>CV</v>
+        <f t="shared" si="27"/>
+        <v>connector</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>Image Processing</v>
+        <f t="shared" si="28"/>
+        <v>pipe</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="10"/>
@@ -5276,108 +5593,113 @@
       <c r="M38" s="10"/>
       <c r="N38" s="4"/>
       <c r="V38" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="29"/>
         <v>[</v>
       </c>
       <c r="W38" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="X38" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="Y38" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Z38" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="33"/>
         <v>[]</v>
       </c>
       <c r="AA38" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="34"/>
         <v>[</v>
       </c>
       <c r="AB38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AC38" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AD38" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>[]</v>
       </c>
       <c r="AE38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AF38" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="39"/>
         <v>visual_style14</v>
       </c>
       <c r="AG38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>14</v>
       </c>
       <c r="AH38" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AI38" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="42"/>
         <v>[</v>
       </c>
       <c r="AJ38" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AK38" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL38" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM38" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="46"/>
         <v>[</v>
       </c>
       <c r="AN38" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AO38" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AP38" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="49"/>
         <v>[]</v>
       </c>
       <c r="AQ38" t="str">
-        <f t="shared" si="23"/>
-        <v>[]</v>
-      </c>
-    </row>
-    <row r="39" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="50"/>
+        <v>[]</v>
+      </c>
+    </row>
+    <row r="39" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="str">
-        <f t="shared" si="25"/>
-        <v>CV</v>
+        <f t="shared" si="27"/>
+        <v>connector</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>Image Processing</v>
+        <f t="shared" si="28"/>
+        <v>pipe</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>91</v>
+        <v>219</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="I39" s="3"/>
-      <c r="J39" s="10"/>
+      <c r="J39" s="10" t="s">
+        <v>220</v>
+      </c>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
@@ -5385,117 +5707,146 @@
         <v>10</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>92</v>
+        <v>221</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="V39" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>[</v>
+        <f t="shared" si="29"/>
+        <v>[required('A')</v>
       </c>
       <c r="W39" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="X39" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="Y39" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Z39" t="str">
-        <f t="shared" si="7"/>
-        <v>[]</v>
+        <f t="shared" si="33"/>
+        <v>[required('A')]</v>
       </c>
       <c r="AA39" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="34"/>
         <v>['O'</v>
       </c>
       <c r="AB39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AC39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AD39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>['O']</v>
       </c>
       <c r="AE39" t="str">
-        <f t="shared" si="12"/>
-        <v>section(black, 'CV').&lt;&gt;subsection(black, 'Image Processing').&lt;&gt;description(black, 'outputs a solid black frame the camera size').&lt;&gt;visual_style(black,  normal</v>
+        <f t="shared" si="38"/>
+        <v>section(drbend, 'connector').&lt;&gt;subsection(drbend, 'pipe').&lt;&gt;description(drbend, 'bidi pipe connection').&lt;&gt;visual_style(drbend,  visual_style14</v>
       </c>
       <c r="AF39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="39"/>
         <v>visual_style14</v>
       </c>
       <c r="AG39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>14</v>
       </c>
       <c r="AH39" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== black ===========&lt;&gt;section(black, 'CV').&lt;&gt;subsection(black, 'Image Processing').&lt;&gt;description(black, 'outputs a solid black frame the camera size').&lt;&gt;visual_style(black,  normal).&lt;&gt;inputs(black, []).&lt;&gt;outputs(black, ['O']).&lt;&gt;input_types(black, []).&lt;&gt;output_types(black, [mask]).&lt;&gt;</v>
+        <f t="shared" si="41"/>
+        <v>&lt;&gt;%  ===== drbend ===========&lt;&gt;section(drbend, 'connector').&lt;&gt;subsection(drbend, 'pipe').&lt;&gt;description(drbend, 'bidi pipe connection').&lt;&gt;visual_style(drbend,  visual_style14).&lt;&gt;inputs(drbend, [required('A')]).&lt;&gt;outputs(drbend, ['O']).&lt;&gt;input_types(drbend, [any]).&lt;&gt;output_types(drbend, [any]).&lt;&gt;</v>
       </c>
       <c r="AI39" t="str">
-        <f t="shared" si="15"/>
-        <v>[</v>
+        <f t="shared" si="42"/>
+        <v>[any</v>
       </c>
       <c r="AJ39" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AK39" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL39" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM39" t="str">
-        <f t="shared" si="19"/>
-        <v>[mask</v>
+        <f t="shared" si="46"/>
+        <v>[any</v>
       </c>
       <c r="AN39" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AO39" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AP39" t="str">
-        <f t="shared" si="22"/>
-        <v>[]</v>
+        <f t="shared" si="49"/>
+        <v>[any]</v>
       </c>
       <c r="AQ39" t="str">
-        <f t="shared" si="23"/>
-        <v>[mask]</v>
+        <f t="shared" si="50"/>
+        <v>[any]</v>
       </c>
       <c r="AT39" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="AU39">
+        <v>1</v>
+      </c>
+      <c r="AV39">
+        <v>1</v>
+      </c>
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>0</v>
+      </c>
+      <c r="AZ39">
+        <v>1</v>
+      </c>
+      <c r="BA39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="str">
-        <f t="shared" si="25"/>
-        <v>CV</v>
+        <f t="shared" si="27"/>
+        <v>connector</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>Image Processing</v>
+        <f t="shared" si="28"/>
+        <v>pipe</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>93</v>
+        <v>229</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="I40" s="3"/>
-      <c r="J40" s="10"/>
+      <c r="J40" s="10" t="s">
+        <v>220</v>
+      </c>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
@@ -5503,372 +5854,441 @@
         <v>10</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>94</v>
+        <v>221</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="V40" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>[</v>
+        <f t="shared" si="29"/>
+        <v>[required('A')</v>
       </c>
       <c r="W40" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="X40" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="Y40" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Z40" t="str">
-        <f t="shared" si="7"/>
-        <v>[]</v>
+        <f t="shared" si="33"/>
+        <v>[required('A')]</v>
       </c>
       <c r="AA40" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="34"/>
         <v>['O'</v>
       </c>
       <c r="AB40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AC40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AD40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>['O']</v>
       </c>
       <c r="AE40" t="str">
-        <f t="shared" si="12"/>
-        <v>section(white, 'CV').&lt;&gt;subsection(white, 'Image Processing').&lt;&gt;description(white, 'outputs a solid white frame the camera size').&lt;&gt;visual_style(white,  normal</v>
+        <f t="shared" si="38"/>
+        <v>section(dlbend, 'connector').&lt;&gt;subsection(dlbend, 'pipe').&lt;&gt;description(dlbend, 'bidi pipe connection').&lt;&gt;visual_style(dlbend,  visual_style15</v>
       </c>
       <c r="AF40" t="str">
-        <f t="shared" si="13"/>
-        <v>visual_style14</v>
+        <f t="shared" si="39"/>
+        <v>visual_style15</v>
       </c>
       <c r="AG40">
-        <f t="shared" si="24"/>
-        <v>14</v>
+        <f t="shared" si="40"/>
+        <v>15</v>
       </c>
       <c r="AH40" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== white ===========&lt;&gt;section(white, 'CV').&lt;&gt;subsection(white, 'Image Processing').&lt;&gt;description(white, 'outputs a solid white frame the camera size').&lt;&gt;visual_style(white,  normal).&lt;&gt;inputs(white, []).&lt;&gt;outputs(white, ['O']).&lt;&gt;input_types(white, []).&lt;&gt;output_types(white, [mask]).&lt;&gt;</v>
+        <f t="shared" si="41"/>
+        <v>&lt;&gt;%  ===== dlbend ===========&lt;&gt;section(dlbend, 'connector').&lt;&gt;subsection(dlbend, 'pipe').&lt;&gt;description(dlbend, 'bidi pipe connection').&lt;&gt;visual_style(dlbend,  visual_style15).&lt;&gt;inputs(dlbend, [required('A')]).&lt;&gt;outputs(dlbend, ['O']).&lt;&gt;input_types(dlbend, [any]).&lt;&gt;output_types(dlbend, [any]).&lt;&gt;</v>
       </c>
       <c r="AI40" t="str">
-        <f t="shared" si="15"/>
-        <v>[</v>
+        <f t="shared" si="42"/>
+        <v>[any</v>
       </c>
       <c r="AJ40" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AK40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL40" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM40" t="str">
-        <f t="shared" si="19"/>
-        <v>[mask</v>
+        <f t="shared" si="46"/>
+        <v>[any</v>
       </c>
       <c r="AN40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AO40" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AP40" t="str">
-        <f t="shared" si="22"/>
-        <v>[]</v>
+        <f t="shared" si="49"/>
+        <v>[any]</v>
       </c>
       <c r="AQ40" t="str">
-        <f t="shared" si="23"/>
-        <v>[mask]</v>
-      </c>
-      <c r="AT40" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="50"/>
+        <v>[any]</v>
+      </c>
+      <c r="AU40">
+        <v>1</v>
+      </c>
+      <c r="AV40">
+        <v>1</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>1</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>1</v>
+      </c>
+      <c r="BA40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="str">
-        <f t="shared" si="25"/>
-        <v>CV</v>
+        <f t="shared" si="27"/>
+        <v>connector</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>Image Processing</v>
+        <f t="shared" si="28"/>
+        <v>pipe</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="I41" s="3"/>
       <c r="J41" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>37</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="K41" s="10"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="4" t="s">
         <v>10</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>97</v>
+        <v>221</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="V41" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="29"/>
         <v>[required('A')</v>
       </c>
       <c r="W41" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>, required('Thresh')</v>
+        <f t="shared" si="30"/>
+        <v/>
       </c>
       <c r="X41" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="Y41" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Z41" t="str">
-        <f t="shared" si="7"/>
-        <v>[required('A'), required('Thresh')]</v>
+        <f t="shared" si="33"/>
+        <v>[required('A')]</v>
       </c>
       <c r="AA41" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="34"/>
         <v>['O'</v>
       </c>
       <c r="AB41" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AC41" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AD41" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>['O']</v>
       </c>
       <c r="AE41" t="str">
-        <f t="shared" si="12"/>
-        <v>section(threshold, 'CV').&lt;&gt;subsection(threshold, 'Image Processing').&lt;&gt;description(threshold, 'out is mask with black in areas above threshold').&lt;&gt;visual_style(threshold,  normal</v>
+        <f t="shared" si="38"/>
+        <v>section(horpipe, 'connector').&lt;&gt;subsection(horpipe, 'pipe').&lt;&gt;description(horpipe, 'bidi pipe connection').&lt;&gt;visual_style(horpipe,  visual_style16</v>
       </c>
       <c r="AF41" t="str">
-        <f t="shared" si="13"/>
-        <v>visual_style14</v>
+        <f t="shared" si="39"/>
+        <v>visual_style16</v>
       </c>
       <c r="AG41">
-        <f t="shared" si="24"/>
-        <v>14</v>
+        <f t="shared" si="40"/>
+        <v>16</v>
       </c>
       <c r="AH41" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== threshold ===========&lt;&gt;section(threshold, 'CV').&lt;&gt;subsection(threshold, 'Image Processing').&lt;&gt;description(threshold, 'out is mask with black in areas above threshold').&lt;&gt;visual_style(threshold,  normal).&lt;&gt;inputs(threshold, [required('A'), required('Thresh')]).&lt;&gt;outputs(threshold, ['O']).&lt;&gt;input_types(threshold, [image, proportion]).&lt;&gt;output_types(threshold, [mask]).&lt;&gt;</v>
+        <f t="shared" si="41"/>
+        <v>&lt;&gt;%  ===== horpipe ===========&lt;&gt;section(horpipe, 'connector').&lt;&gt;subsection(horpipe, 'pipe').&lt;&gt;description(horpipe, 'bidi pipe connection').&lt;&gt;visual_style(horpipe,  visual_style16).&lt;&gt;inputs(horpipe, [required('A')]).&lt;&gt;outputs(horpipe, ['O']).&lt;&gt;input_types(horpipe, [any]).&lt;&gt;output_types(horpipe, [any]).&lt;&gt;</v>
       </c>
       <c r="AI41" t="str">
-        <f t="shared" si="15"/>
-        <v>[image</v>
+        <f t="shared" si="42"/>
+        <v>[any</v>
       </c>
       <c r="AJ41" t="str">
-        <f t="shared" si="16"/>
-        <v>, proportion</v>
+        <f t="shared" si="43"/>
+        <v/>
       </c>
       <c r="AK41" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL41" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM41" t="str">
-        <f t="shared" si="19"/>
-        <v>[mask</v>
+        <f t="shared" si="46"/>
+        <v>[any</v>
       </c>
       <c r="AN41" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AO41" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AP41" t="str">
-        <f t="shared" si="22"/>
-        <v>[image, proportion]</v>
+        <f t="shared" si="49"/>
+        <v>[any]</v>
       </c>
       <c r="AQ41" t="str">
-        <f t="shared" si="23"/>
-        <v>[mask]</v>
-      </c>
-      <c r="AT41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="1" t="e">
-        <f>IF(ISBLANK(A42),#REF!,A42)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D42" s="1" t="e">
-        <f>IF(NOT(ISBLANK(B42)), B42, IF(ISBLANK(A42),#REF!, A42))</f>
-        <v>#REF!</v>
+        <f t="shared" si="50"/>
+        <v>[any]</v>
+      </c>
+      <c r="AU41">
+        <v>1</v>
+      </c>
+      <c r="AV41">
+        <v>1</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
+        <v>2</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>1</v>
+      </c>
+      <c r="BA41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>connector</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>pipe</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>98</v>
+        <v>231</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="G42" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="I42" s="3"/>
       <c r="J42" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K42" s="10"/>
+        <v>220</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>220</v>
+      </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="4" t="s">
-        <v>10</v>
+        <v>232</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>98</v>
+        <v>220</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>99</v>
+        <v>221</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="V42" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="29"/>
         <v>[required('A')</v>
       </c>
       <c r="W42" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>, required('B')</v>
       </c>
       <c r="X42" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="Y42" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Z42" t="str">
-        <f t="shared" si="7"/>
-        <v>[required('A')]</v>
+        <f t="shared" si="33"/>
+        <v>[required('A'), required('B')]</v>
       </c>
       <c r="AA42" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>['O'</v>
+        <f t="shared" si="34"/>
+        <v>['OA'</v>
       </c>
       <c r="AB42" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="35"/>
+        <v>, 'OB'</v>
       </c>
       <c r="AC42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AD42" t="str">
-        <f t="shared" si="11"/>
-        <v>['O']</v>
-      </c>
-      <c r="AE42" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AF42" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG42" t="e">
-        <f>IF(ISBLANK(#REF!),#REF!,#REF!+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AH42" t="e">
-        <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <f t="shared" si="37"/>
+        <v>['OA', 'OB']</v>
+      </c>
+      <c r="AE42" t="str">
+        <f t="shared" si="38"/>
+        <v>section(cross, 'connector').&lt;&gt;subsection(cross, 'pipe').&lt;&gt;description(cross, 'bidi pipe connection').&lt;&gt;visual_style(cross,  visual_style17</v>
+      </c>
+      <c r="AF42" t="str">
+        <f t="shared" si="39"/>
+        <v>visual_style17</v>
+      </c>
+      <c r="AG42">
+        <f t="shared" si="40"/>
+        <v>17</v>
+      </c>
+      <c r="AH42" t="str">
+        <f t="shared" si="41"/>
+        <v>&lt;&gt;%  ===== cross ===========&lt;&gt;section(cross, 'connector').&lt;&gt;subsection(cross, 'pipe').&lt;&gt;description(cross, 'bidi pipe connection').&lt;&gt;visual_style(cross,  visual_style17).&lt;&gt;inputs(cross, [required('A'), required('B')]).&lt;&gt;outputs(cross, ['OA', 'OB']).&lt;&gt;input_types(cross, [any, any]).&lt;&gt;output_types(cross, [any, any]).&lt;&gt;</v>
       </c>
       <c r="AI42" t="str">
-        <f t="shared" si="15"/>
-        <v>[image</v>
+        <f t="shared" si="42"/>
+        <v>[any</v>
       </c>
       <c r="AJ42" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="43"/>
+        <v>, any</v>
       </c>
       <c r="AK42" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL42" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM42" t="str">
-        <f t="shared" si="19"/>
-        <v>[gray</v>
+        <f t="shared" si="46"/>
+        <v>[any</v>
       </c>
       <c r="AN42" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="47"/>
+        <v>, any</v>
       </c>
       <c r="AO42" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AP42" t="str">
-        <f t="shared" si="22"/>
-        <v>[image]</v>
+        <f t="shared" si="49"/>
+        <v>[any, any]</v>
       </c>
       <c r="AQ42" t="str">
-        <f t="shared" si="23"/>
-        <v>[gray]</v>
-      </c>
-      <c r="AT42" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="43" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="1" t="e">
-        <f t="shared" si="25"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D43" s="1" t="e">
-        <f t="shared" si="26"/>
-        <v>#REF!</v>
+        <f t="shared" si="50"/>
+        <v>[any, any]</v>
+      </c>
+      <c r="AU42">
+        <v>1</v>
+      </c>
+      <c r="AV42">
+        <v>1</v>
+      </c>
+      <c r="AW42">
+        <v>0</v>
+      </c>
+      <c r="AX42">
+        <v>3</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>1</v>
+      </c>
+      <c r="BA42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>connector</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>pipe</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="10" t="s">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
@@ -5877,118 +6297,142 @@
         <v>10</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>101</v>
+        <v>221</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="V43" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="29"/>
         <v>[required('A')</v>
       </c>
       <c r="W43" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="X43" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="Y43" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Z43" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="33"/>
         <v>[required('A')]</v>
       </c>
       <c r="AA43" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="34"/>
         <v>['O'</v>
       </c>
       <c r="AB43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AC43" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AD43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>['O']</v>
       </c>
-      <c r="AE43" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AF43" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG43" t="e">
-        <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AH43" t="e">
-        <f t="shared" si="14"/>
-        <v>#REF!</v>
+      <c r="AE43" t="str">
+        <f t="shared" si="38"/>
+        <v>section(urbend, 'connector').&lt;&gt;subsection(urbend, 'pipe').&lt;&gt;description(urbend, 'bidi pipe connection').&lt;&gt;visual_style(urbend,  visual_style18</v>
+      </c>
+      <c r="AF43" t="str">
+        <f t="shared" si="39"/>
+        <v>visual_style18</v>
+      </c>
+      <c r="AG43">
+        <f t="shared" si="40"/>
+        <v>18</v>
+      </c>
+      <c r="AH43" t="str">
+        <f t="shared" si="41"/>
+        <v>&lt;&gt;%  ===== urbend ===========&lt;&gt;section(urbend, 'connector').&lt;&gt;subsection(urbend, 'pipe').&lt;&gt;description(urbend, 'bidi pipe connection').&lt;&gt;visual_style(urbend,  visual_style18).&lt;&gt;inputs(urbend, [required('A')]).&lt;&gt;outputs(urbend, ['O']).&lt;&gt;input_types(urbend, [any]).&lt;&gt;output_types(urbend, [any]).&lt;&gt;</v>
       </c>
       <c r="AI43" t="str">
-        <f t="shared" si="15"/>
-        <v>[image</v>
+        <f t="shared" si="42"/>
+        <v>[any</v>
       </c>
       <c r="AJ43" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AK43" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL43" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM43" t="str">
-        <f t="shared" si="19"/>
-        <v>[hdr</v>
+        <f t="shared" si="46"/>
+        <v>[any</v>
       </c>
       <c r="AN43" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AO43" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AP43" t="str">
-        <f t="shared" si="22"/>
-        <v>[image]</v>
+        <f t="shared" si="49"/>
+        <v>[any]</v>
       </c>
       <c r="AQ43" t="str">
-        <f t="shared" si="23"/>
-        <v>[hdr]</v>
-      </c>
-    </row>
-    <row r="44" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="1" t="e">
-        <f t="shared" si="25"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D44" s="1" t="e">
-        <f t="shared" si="26"/>
-        <v>#REF!</v>
+        <f t="shared" si="50"/>
+        <v>[any]</v>
+      </c>
+      <c r="AU43">
+        <v>1</v>
+      </c>
+      <c r="AV43">
+        <v>1</v>
+      </c>
+      <c r="AW43">
+        <v>0</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>1</v>
+      </c>
+      <c r="AZ43">
+        <v>1</v>
+      </c>
+      <c r="BA43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>connector</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>pipe</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="10" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
@@ -5997,412 +6441,403 @@
         <v>10</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>103</v>
+        <v>221</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="V44" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="29"/>
         <v>[required('A')</v>
       </c>
       <c r="W44" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="X44" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="Y44" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Z44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="33"/>
         <v>[required('A')]</v>
       </c>
       <c r="AA44" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="34"/>
         <v>['O'</v>
       </c>
       <c r="AB44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AC44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AD44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="37"/>
         <v>['O']</v>
       </c>
-      <c r="AE44" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AF44" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG44" t="e">
-        <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AH44" t="e">
-        <f t="shared" si="14"/>
-        <v>#REF!</v>
+      <c r="AE44" t="str">
+        <f t="shared" si="38"/>
+        <v>section(ulbend, 'connector').&lt;&gt;subsection(ulbend, 'pipe').&lt;&gt;description(ulbend, 'bidi pipe connection').&lt;&gt;visual_style(ulbend,  visual_style19</v>
+      </c>
+      <c r="AF44" t="str">
+        <f t="shared" si="39"/>
+        <v>visual_style19</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="40"/>
+        <v>19</v>
+      </c>
+      <c r="AH44" t="str">
+        <f t="shared" si="41"/>
+        <v>&lt;&gt;%  ===== ulbend ===========&lt;&gt;section(ulbend, 'connector').&lt;&gt;subsection(ulbend, 'pipe').&lt;&gt;description(ulbend, 'bidi pipe connection').&lt;&gt;visual_style(ulbend,  visual_style19).&lt;&gt;inputs(ulbend, [required('A')]).&lt;&gt;outputs(ulbend, ['O']).&lt;&gt;input_types(ulbend, [any]).&lt;&gt;output_types(ulbend, [any]).&lt;&gt;</v>
       </c>
       <c r="AI44" t="str">
-        <f t="shared" si="15"/>
-        <v>[hdr</v>
+        <f t="shared" si="42"/>
+        <v>[any</v>
       </c>
       <c r="AJ44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AK44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL44" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM44" t="str">
-        <f t="shared" si="19"/>
-        <v>[image</v>
+        <f t="shared" si="46"/>
+        <v>[any</v>
       </c>
       <c r="AN44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AO44" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AP44" t="str">
-        <f t="shared" si="22"/>
-        <v>[hdr]</v>
+        <f t="shared" si="49"/>
+        <v>[any]</v>
       </c>
       <c r="AQ44" t="str">
-        <f t="shared" si="23"/>
-        <v>[image]</v>
-      </c>
-    </row>
-    <row r="45" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="1" t="e">
-        <f t="shared" si="25"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D45" s="1" t="e">
-        <f t="shared" si="26"/>
-        <v>#REF!</v>
+        <f t="shared" si="50"/>
+        <v>[any]</v>
+      </c>
+      <c r="AU44">
+        <v>1</v>
+      </c>
+      <c r="AV44">
+        <v>1</v>
+      </c>
+      <c r="AW44">
+        <v>0</v>
+      </c>
+      <c r="AX44">
+        <v>1</v>
+      </c>
+      <c r="AY44">
+        <v>1</v>
+      </c>
+      <c r="AZ44">
+        <v>1</v>
+      </c>
+      <c r="BA44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>connector</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>pipe</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>104</v>
+        <v>236</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>107</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I45" s="3"/>
       <c r="J45" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K45" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="L45" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="M45" s="10" t="s">
-        <v>98</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
       <c r="N45" s="4" t="s">
-        <v>10</v>
+        <v>232</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>108</v>
+        <v>220</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="V45" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>[required('R')</v>
+        <f t="shared" si="29"/>
+        <v>[required('A')</v>
       </c>
       <c r="W45" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>, required('G')</v>
+        <f t="shared" si="30"/>
+        <v/>
       </c>
       <c r="X45" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>, required('B')</v>
+        <f t="shared" si="31"/>
+        <v/>
       </c>
       <c r="Y45" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>, optional('A')</v>
+        <f t="shared" si="32"/>
+        <v/>
       </c>
       <c r="Z45" t="str">
-        <f t="shared" si="7"/>
-        <v>[required('R'), required('G'), required('B')]</v>
+        <f t="shared" si="33"/>
+        <v>[required('A')]</v>
       </c>
       <c r="AA45" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>['O'</v>
+        <f t="shared" si="34"/>
+        <v>['OA'</v>
       </c>
       <c r="AB45" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="35"/>
+        <v>, 'OB'</v>
       </c>
       <c r="AC45" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+        <f t="shared" si="36"/>
+        <v>, 'OC'</v>
       </c>
       <c r="AD45" t="str">
-        <f t="shared" si="11"/>
-        <v>['O']</v>
-      </c>
-      <c r="AE45" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AF45" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG45" t="e">
-        <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AH45" t="e">
-        <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <f t="shared" si="37"/>
+        <v>['OA', 'OB', 'OC']</v>
+      </c>
+      <c r="AE45" t="str">
+        <f t="shared" si="38"/>
+        <v>section(distributor, 'connector').&lt;&gt;subsection(distributor, 'pipe').&lt;&gt;description(distributor, '').&lt;&gt;visual_style(distributor,  normal</v>
+      </c>
+      <c r="AF45" t="str">
+        <f t="shared" si="39"/>
+        <v>visual_style20</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="40"/>
+        <v>20</v>
+      </c>
+      <c r="AH45" t="str">
+        <f t="shared" si="41"/>
+        <v>&lt;&gt;%  ===== distributor ===========&lt;&gt;section(distributor, 'connector').&lt;&gt;subsection(distributor, 'pipe').&lt;&gt;description(distributor, '').&lt;&gt;visual_style(distributor,  normal).&lt;&gt;inputs(distributor, [required('A')]).&lt;&gt;outputs(distributor, ['OA', 'OB', 'OC']).&lt;&gt;input_types(distributor, [any]).&lt;&gt;output_types(distributor, [any, any, any]).&lt;&gt;</v>
       </c>
       <c r="AI45" t="str">
-        <f t="shared" si="15"/>
-        <v>[gray</v>
+        <f t="shared" si="42"/>
+        <v>[any</v>
       </c>
       <c r="AJ45" t="str">
-        <f t="shared" si="16"/>
-        <v>, gray</v>
+        <f t="shared" si="43"/>
+        <v/>
       </c>
       <c r="AK45" t="str">
-        <f t="shared" si="17"/>
-        <v>, gray</v>
+        <f t="shared" si="44"/>
+        <v/>
       </c>
       <c r="AL45" s="11" t="str">
-        <f t="shared" si="18"/>
-        <v>, gray</v>
+        <f t="shared" si="45"/>
+        <v/>
       </c>
       <c r="AM45" t="str">
-        <f t="shared" si="19"/>
-        <v>[image</v>
+        <f t="shared" si="46"/>
+        <v>[any</v>
       </c>
       <c r="AN45" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="47"/>
+        <v>, any</v>
       </c>
       <c r="AO45" s="11" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+        <f t="shared" si="48"/>
+        <v>, any</v>
       </c>
       <c r="AP45" t="str">
-        <f t="shared" si="22"/>
-        <v>[gray, gray, gray, gray]</v>
+        <f t="shared" si="49"/>
+        <v>[any]</v>
       </c>
       <c r="AQ45" t="str">
-        <f t="shared" si="23"/>
-        <v>[image]</v>
-      </c>
-    </row>
-    <row r="46" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="1" t="e">
-        <f t="shared" si="25"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D46" s="1" t="e">
-        <f t="shared" si="26"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>8</v>
+        <f t="shared" si="50"/>
+        <v>[any, any, any]</v>
+      </c>
+      <c r="AU45">
+        <v>1</v>
+      </c>
+      <c r="AV45">
+        <v>1</v>
+      </c>
+      <c r="AW45">
+        <v>0</v>
+      </c>
+      <c r="AX45">
+        <v>2</v>
+      </c>
+      <c r="AY45">
+        <v>1</v>
+      </c>
+      <c r="AZ45">
+        <v>1</v>
+      </c>
+      <c r="BA45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>connector</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>pipe</v>
       </c>
       <c r="I46" s="3"/>
-      <c r="J46" s="10" t="s">
-        <v>139</v>
-      </c>
+      <c r="J46" s="10"/>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
-      <c r="N46" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="N46" s="4"/>
       <c r="V46" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>[required('A')</v>
+        <f t="shared" si="29"/>
+        <v>[</v>
       </c>
       <c r="W46" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="X46" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="Y46" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Z46" t="str">
-        <f t="shared" si="7"/>
-        <v>[required('A')]</v>
+        <f t="shared" si="33"/>
+        <v>[]</v>
       </c>
       <c r="AA46" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>['R'</v>
+        <f t="shared" si="34"/>
+        <v>[</v>
       </c>
       <c r="AB46" t="str">
-        <f t="shared" si="9"/>
-        <v>, 'G'</v>
+        <f t="shared" si="35"/>
+        <v/>
       </c>
       <c r="AC46" t="str">
-        <f t="shared" si="10"/>
-        <v>, 'B'</v>
+        <f t="shared" si="36"/>
+        <v/>
       </c>
       <c r="AD46" t="str">
-        <f t="shared" si="11"/>
-        <v>['R', 'G', 'B']</v>
-      </c>
-      <c r="AE46" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AF46" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG46" t="e">
-        <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AH46" t="e">
-        <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <f t="shared" si="37"/>
+        <v>[]</v>
+      </c>
+      <c r="AE46" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="AF46" t="str">
+        <f t="shared" si="39"/>
+        <v>visual_style20</v>
+      </c>
+      <c r="AG46">
+        <f t="shared" si="40"/>
+        <v>20</v>
+      </c>
+      <c r="AH46" t="str">
+        <f t="shared" si="41"/>
+        <v/>
       </c>
       <c r="AI46" t="str">
-        <f t="shared" si="15"/>
-        <v>[rgb</v>
+        <f t="shared" si="42"/>
+        <v>[</v>
       </c>
       <c r="AJ46" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AK46" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AL46" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AM46" t="str">
-        <f t="shared" si="19"/>
-        <v>[gray</v>
+        <f t="shared" si="46"/>
+        <v>[</v>
       </c>
       <c r="AN46" t="str">
-        <f t="shared" si="20"/>
-        <v>, gray</v>
+        <f t="shared" si="47"/>
+        <v/>
       </c>
       <c r="AO46" s="11" t="str">
-        <f t="shared" si="21"/>
-        <v>, gray</v>
+        <f t="shared" si="48"/>
+        <v/>
       </c>
       <c r="AP46" t="str">
-        <f t="shared" si="22"/>
-        <v>[rgb]</v>
+        <f t="shared" si="49"/>
+        <v>[]</v>
       </c>
       <c r="AQ46" t="str">
-        <f t="shared" si="23"/>
-        <v>[gray, gray, gray]</v>
-      </c>
-    </row>
-    <row r="47" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="1" t="e">
-        <f t="shared" si="25"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D47" s="1" t="e">
-        <f t="shared" si="26"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>112</v>
+        <f t="shared" si="50"/>
+        <v>[]</v>
+      </c>
+    </row>
+    <row r="47" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f t="shared" ref="C47" si="51">IF(ISBLANK(A47),C46,A47)</f>
+        <v>CV</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f t="shared" ref="D47" si="52">IF(NOT(ISBLANK(B47)), B47, IF(ISBLANK(A47), D46,A47))</f>
+        <v>CV</v>
       </c>
       <c r="I47" s="3"/>
-      <c r="J47" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>137</v>
-      </c>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="U47" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="N47" s="4"/>
       <c r="V47" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>[required('A')</v>
+        <v>[</v>
       </c>
       <c r="W47" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>, optional('M')</v>
+        <v/>
       </c>
       <c r="X47" s="9" t="str">
         <f t="shared" si="5"/>
@@ -6414,11 +6849,11 @@
       </c>
       <c r="Z47" t="str">
         <f t="shared" si="7"/>
-        <v>[required('A'), optional('M')]</v>
+        <v>[]</v>
       </c>
       <c r="AA47" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>['O'</v>
+        <v>[</v>
       </c>
       <c r="AB47" t="str">
         <f t="shared" si="9"/>
@@ -6430,31 +6865,31 @@
       </c>
       <c r="AD47" t="str">
         <f t="shared" si="11"/>
-        <v>['O']</v>
-      </c>
-      <c r="AE47" t="e">
+        <v>[]</v>
+      </c>
+      <c r="AE47" t="str">
         <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AF47" t="e">
+        <v/>
+      </c>
+      <c r="AF47" t="str">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG47" t="e">
-        <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AH47" t="e">
-        <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>visual_style20</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="40"/>
+        <v>20</v>
+      </c>
+      <c r="AH47" t="str">
+        <f t="shared" si="41"/>
+        <v/>
       </c>
       <c r="AI47" t="str">
         <f t="shared" si="15"/>
-        <v>[image</v>
+        <v>[</v>
       </c>
       <c r="AJ47" t="str">
         <f t="shared" si="16"/>
-        <v>, mask</v>
+        <v/>
       </c>
       <c r="AK47" t="str">
         <f t="shared" si="17"/>
@@ -6466,7 +6901,7 @@
       </c>
       <c r="AM47" t="str">
         <f t="shared" si="19"/>
-        <v>[image</v>
+        <v>[</v>
       </c>
       <c r="AN47" t="str">
         <f t="shared" si="20"/>
@@ -6478,65 +6913,42 @@
       </c>
       <c r="AP47" t="str">
         <f t="shared" si="22"/>
-        <v>[image, mask]</v>
+        <v>[]</v>
       </c>
       <c r="AQ47" t="str">
         <f t="shared" si="23"/>
-        <v>[image]</v>
-      </c>
-    </row>
-    <row r="48" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="1" t="e">
+        <v>[]</v>
+      </c>
+    </row>
+    <row r="48" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D48" s="1" t="e">
+        <v>CV</v>
+      </c>
+      <c r="D48" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>117</v>
+        <v>Image Processing</v>
       </c>
       <c r="I48" s="3"/>
-      <c r="J48" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="T48" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="N48" s="4"/>
       <c r="V48" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>[required('A')</v>
+        <v>[</v>
       </c>
       <c r="W48" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>, required('Prop')</v>
+        <v/>
       </c>
       <c r="X48" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>, required('Block')</v>
+        <v/>
       </c>
       <c r="Y48" s="9" t="str">
         <f t="shared" si="6"/>
@@ -6544,11 +6956,11 @@
       </c>
       <c r="Z48" t="str">
         <f t="shared" si="7"/>
-        <v>[required('A'), required('Prop'), required('Block')]</v>
+        <v>[]</v>
       </c>
       <c r="AA48" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>['O'</v>
+        <v>[</v>
       </c>
       <c r="AB48" t="str">
         <f t="shared" si="9"/>
@@ -6560,35 +6972,35 @@
       </c>
       <c r="AD48" t="str">
         <f t="shared" si="11"/>
-        <v>['O']</v>
-      </c>
-      <c r="AE48" t="e">
+        <v>[]</v>
+      </c>
+      <c r="AE48" t="str">
         <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AF48" t="e">
+        <v/>
+      </c>
+      <c r="AF48" t="str">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG48" t="e">
+        <v>visual_style20</v>
+      </c>
+      <c r="AG48">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AH48" t="e">
-        <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>20</v>
+      </c>
+      <c r="AH48" t="str">
+        <f t="shared" si="41"/>
+        <v/>
       </c>
       <c r="AI48" t="str">
         <f t="shared" si="15"/>
-        <v>[image</v>
+        <v>[</v>
       </c>
       <c r="AJ48" t="str">
         <f t="shared" si="16"/>
-        <v>, proportion</v>
+        <v/>
       </c>
       <c r="AK48" t="str">
         <f t="shared" si="17"/>
-        <v>, int</v>
+        <v/>
       </c>
       <c r="AL48" s="11" t="str">
         <f t="shared" si="18"/>
@@ -6596,7 +7008,7 @@
       </c>
       <c r="AM48" t="str">
         <f t="shared" si="19"/>
-        <v>[image</v>
+        <v>[</v>
       </c>
       <c r="AN48" t="str">
         <f t="shared" si="20"/>
@@ -6608,65 +7020,50 @@
       </c>
       <c r="AP48" t="str">
         <f t="shared" si="22"/>
-        <v>[image, proportion, int]</v>
+        <v>[]</v>
       </c>
       <c r="AQ48" t="str">
         <f t="shared" si="23"/>
-        <v>[image]</v>
-      </c>
-    </row>
-    <row r="49" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="1" t="e">
+        <v>[]</v>
+      </c>
+    </row>
+    <row r="49" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D49" s="1" t="e">
+        <v>CV</v>
+      </c>
+      <c r="D49" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>#REF!</v>
+        <v>Image Processing</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I49" s="3"/>
-      <c r="J49" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="L49" s="10" t="s">
-        <v>98</v>
-      </c>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="4" t="s">
         <v>10</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="V49" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>[required('A')</v>
+        <v>[</v>
       </c>
       <c r="W49" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>, required('B')</v>
+        <v/>
       </c>
       <c r="X49" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>, required('Mask')</v>
+        <v/>
       </c>
       <c r="Y49" s="9" t="str">
         <f t="shared" si="6"/>
@@ -6674,7 +7071,7 @@
       </c>
       <c r="Z49" t="str">
         <f t="shared" si="7"/>
-        <v>[required('A'), required('B'), required('Mask')]</v>
+        <v>[]</v>
       </c>
       <c r="AA49" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6692,33 +7089,33 @@
         <f t="shared" si="11"/>
         <v>['O']</v>
       </c>
-      <c r="AE49" t="e">
+      <c r="AE49" t="str">
         <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AF49" t="e">
+        <v>section(black, 'CV').&lt;&gt;subsection(black, 'Image Processing').&lt;&gt;description(black, 'outputs a solid black frame the camera size').&lt;&gt;visual_style(black,  normal</v>
+      </c>
+      <c r="AF49" t="str">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG49" t="e">
+        <v>visual_style20</v>
+      </c>
+      <c r="AG49">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AH49" t="e">
+        <v>20</v>
+      </c>
+      <c r="AH49" t="str">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>&lt;&gt;%  ===== black ===========&lt;&gt;section(black, 'CV').&lt;&gt;subsection(black, 'Image Processing').&lt;&gt;description(black, 'outputs a solid black frame the camera size').&lt;&gt;visual_style(black,  normal).&lt;&gt;inputs(black, []).&lt;&gt;outputs(black, ['O']).&lt;&gt;input_types(black, []).&lt;&gt;output_types(black, [mask]).&lt;&gt;</v>
       </c>
       <c r="AI49" t="str">
         <f t="shared" si="15"/>
-        <v>[image</v>
+        <v>[</v>
       </c>
       <c r="AJ49" t="str">
         <f t="shared" si="16"/>
-        <v>, image</v>
+        <v/>
       </c>
       <c r="AK49" t="str">
         <f t="shared" si="17"/>
-        <v>, gray</v>
+        <v/>
       </c>
       <c r="AL49" s="11" t="str">
         <f t="shared" si="18"/>
@@ -6726,7 +7123,7 @@
       </c>
       <c r="AM49" t="str">
         <f t="shared" si="19"/>
-        <v>[image</v>
+        <v>[mask</v>
       </c>
       <c r="AN49" t="str">
         <f t="shared" si="20"/>
@@ -6738,53 +7135,49 @@
       </c>
       <c r="AP49" t="str">
         <f t="shared" si="22"/>
-        <v>[image, image, gray]</v>
+        <v>[]</v>
       </c>
       <c r="AQ49" t="str">
         <f t="shared" si="23"/>
-        <v>[image]</v>
-      </c>
-    </row>
-    <row r="50" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="1" t="e">
+        <v>[mask]</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D50" s="1" t="e">
+        <v>CV</v>
+      </c>
+      <c r="D50" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>#REF!</v>
+        <v>Image Processing</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="I50" s="3"/>
-      <c r="J50" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>74</v>
-      </c>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="4" t="s">
         <v>10</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="V50" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>[required('A')</v>
+        <v>[</v>
       </c>
       <c r="W50" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>, required('Kernal')</v>
+        <v/>
       </c>
       <c r="X50" s="9" t="str">
         <f t="shared" si="5"/>
@@ -6796,7 +7189,7 @@
       </c>
       <c r="Z50" t="str">
         <f t="shared" si="7"/>
-        <v>[required('A'), required('Kernal')]</v>
+        <v>[]</v>
       </c>
       <c r="AA50" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6814,29 +7207,29 @@
         <f t="shared" si="11"/>
         <v>['O']</v>
       </c>
-      <c r="AE50" t="e">
+      <c r="AE50" t="str">
         <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AF50" t="e">
+        <v>section(white, 'CV').&lt;&gt;subsection(white, 'Image Processing').&lt;&gt;description(white, 'outputs a solid white frame the camera size').&lt;&gt;visual_style(white,  normal</v>
+      </c>
+      <c r="AF50" t="str">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG50" t="e">
+        <v>visual_style20</v>
+      </c>
+      <c r="AG50">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AH50" t="e">
+        <v>20</v>
+      </c>
+      <c r="AH50" t="str">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>&lt;&gt;%  ===== white ===========&lt;&gt;section(white, 'CV').&lt;&gt;subsection(white, 'Image Processing').&lt;&gt;description(white, 'outputs a solid white frame the camera size').&lt;&gt;visual_style(white,  normal).&lt;&gt;inputs(white, []).&lt;&gt;outputs(white, ['O']).&lt;&gt;input_types(white, []).&lt;&gt;output_types(white, [mask]).&lt;&gt;</v>
       </c>
       <c r="AI50" t="str">
         <f t="shared" si="15"/>
-        <v>[image</v>
+        <v>[</v>
       </c>
       <c r="AJ50" t="str">
         <f t="shared" si="16"/>
-        <v>, kernal</v>
+        <v/>
       </c>
       <c r="AK50" t="str">
         <f t="shared" si="17"/>
@@ -6848,7 +7241,7 @@
       </c>
       <c r="AM50" t="str">
         <f t="shared" si="19"/>
-        <v>[image</v>
+        <v>[mask</v>
       </c>
       <c r="AN50" t="str">
         <f t="shared" si="20"/>
@@ -6860,38 +7253,59 @@
       </c>
       <c r="AP50" t="str">
         <f t="shared" si="22"/>
-        <v>[image, kernal]</v>
+        <v>[]</v>
       </c>
       <c r="AQ50" t="str">
         <f t="shared" si="23"/>
-        <v>[image]</v>
-      </c>
-    </row>
-    <row r="51" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" s="1" t="e">
+        <v>[mask]</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>#REF!</v>
+        <v>CV</v>
       </c>
       <c r="D51" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>FrequencyDomain</v>
+        <v>Image Processing</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="I51" s="3"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
+      <c r="J51" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
-      <c r="N51" s="4"/>
+      <c r="N51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="V51" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>[</v>
+        <v>[required('A')</v>
       </c>
       <c r="W51" s="9" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>, required('Thresh')</v>
       </c>
       <c r="X51" s="9" t="str">
         <f t="shared" si="5"/>
@@ -6903,11 +7317,11 @@
       </c>
       <c r="Z51" t="str">
         <f t="shared" si="7"/>
-        <v>[]</v>
+        <v>[required('A'), required('Thresh')]</v>
       </c>
       <c r="AA51" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>[</v>
+        <v>['O'</v>
       </c>
       <c r="AB51" t="str">
         <f t="shared" si="9"/>
@@ -6919,31 +7333,31 @@
       </c>
       <c r="AD51" t="str">
         <f t="shared" si="11"/>
-        <v>[]</v>
+        <v>['O']</v>
       </c>
       <c r="AE51" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AF51" t="e">
+        <v>section(threshold, 'CV').&lt;&gt;subsection(threshold, 'Image Processing').&lt;&gt;description(threshold, 'out is mask with black in areas above threshold').&lt;&gt;visual_style(threshold,  normal</v>
+      </c>
+      <c r="AF51" t="str">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG51" t="e">
+        <v>visual_style20</v>
+      </c>
+      <c r="AG51">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
+        <v>20</v>
       </c>
       <c r="AH51" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>&lt;&gt;%  ===== threshold ===========&lt;&gt;section(threshold, 'CV').&lt;&gt;subsection(threshold, 'Image Processing').&lt;&gt;description(threshold, 'out is mask with black in areas above threshold').&lt;&gt;visual_style(threshold,  normal).&lt;&gt;inputs(threshold, [required('A'), required('Thresh')]).&lt;&gt;outputs(threshold, ['O']).&lt;&gt;input_types(threshold, [image, proportion]).&lt;&gt;output_types(threshold, [mask]).&lt;&gt;</v>
       </c>
       <c r="AI51" t="str">
         <f t="shared" si="15"/>
-        <v>[</v>
+        <v>[image</v>
       </c>
       <c r="AJ51" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>, proportion</v>
       </c>
       <c r="AK51" t="str">
         <f t="shared" si="17"/>
@@ -6955,7 +7369,7 @@
       </c>
       <c r="AM51" t="str">
         <f t="shared" si="19"/>
-        <v>[</v>
+        <v>[mask</v>
       </c>
       <c r="AN51" t="str">
         <f t="shared" si="20"/>
@@ -6967,24 +7381,27 @@
       </c>
       <c r="AP51" t="str">
         <f t="shared" si="22"/>
-        <v>[]</v>
+        <v>[image, proportion]</v>
       </c>
       <c r="AQ51" t="str">
         <f t="shared" si="23"/>
-        <v>[]</v>
-      </c>
-    </row>
-    <row r="52" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="1" t="e">
+        <v>[mask]</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>#REF!</v>
+        <v>CV</v>
       </c>
       <c r="D52" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>FrequencyDomain</v>
+        <v>Image Processing</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>8</v>
@@ -7000,10 +7417,10 @@
         <v>10</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="V52" s="9" t="str">
         <f t="shared" si="3"/>
@@ -7041,21 +7458,21 @@
         <f t="shared" si="11"/>
         <v>['O']</v>
       </c>
-      <c r="AE52" t="e">
+      <c r="AE52" t="str">
         <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AF52" t="e">
+        <v>section(gray, 'CV').&lt;&gt;subsection(gray, 'Image Processing').&lt;&gt;description(gray, 'desaturates an image andoutputs grayscale image').&lt;&gt;visual_style(gray,  normal</v>
+      </c>
+      <c r="AF52" t="str">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG52" t="e">
+        <v>visual_style20</v>
+      </c>
+      <c r="AG52">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AH52" t="e">
+        <v>20</v>
+      </c>
+      <c r="AH52" t="str">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>&lt;&gt;%  ===== gray ===========&lt;&gt;section(gray, 'CV').&lt;&gt;subsection(gray, 'Image Processing').&lt;&gt;description(gray, 'desaturates an image andoutputs grayscale image').&lt;&gt;visual_style(gray,  normal).&lt;&gt;inputs(gray, [required('A')]).&lt;&gt;outputs(gray, ['O']).&lt;&gt;input_types(gray, [image]).&lt;&gt;output_types(gray, [gray]).&lt;&gt;</v>
       </c>
       <c r="AI52" t="str">
         <f t="shared" si="15"/>
@@ -7075,7 +7492,7 @@
       </c>
       <c r="AM52" t="str">
         <f t="shared" si="19"/>
-        <v>[complex16</v>
+        <v>[gray</v>
       </c>
       <c r="AN52" t="str">
         <f t="shared" si="20"/>
@@ -7091,95 +7508,98 @@
       </c>
       <c r="AQ52" t="str">
         <f t="shared" si="23"/>
-        <v>[complex16]</v>
-      </c>
-    </row>
-    <row r="53" spans="1:43" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="1" t="e">
-        <f t="shared" ref="C53:C79" si="27">IF(ISBLANK(A53),C52,A53)</f>
-        <v>#REF!</v>
+        <v>[gray]</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>CV</v>
       </c>
       <c r="D53" s="1" t="str">
-        <f t="shared" ref="D53:D79" si="28">IF(NOT(ISBLANK(B53)), B53, IF(ISBLANK(A53), D52,A53))</f>
-        <v>FrequencyDomain</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F53" s="5" t="s">
+        <f t="shared" si="26"/>
+        <v>Image Processing</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="7" t="s">
+      <c r="I53" s="3"/>
+      <c r="J53" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O53" s="5"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="U53" s="5"/>
+      <c r="Q53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="V53" s="9" t="str">
         <f t="shared" si="3"/>
         <v>[required('A')</v>
       </c>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
+      <c r="W53" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="X53" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y53" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="Z53" t="str">
         <f t="shared" si="7"/>
         <v>[required('A')]</v>
       </c>
-      <c r="AA53" s="8" t="str">
+      <c r="AA53" s="1" t="str">
         <f t="shared" si="8"/>
         <v>['O'</v>
       </c>
       <c r="AB53" t="str">
-        <f t="shared" ref="AB53:AB99" si="29">IF(ISBLANK(O53),"",", '"&amp;O53&amp;"'")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC53" t="str">
-        <f t="shared" ref="AC53:AC99" si="30">IF(ISBLANK(P53),"",", '"&amp;P53&amp;"'")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD53" t="str">
-        <f t="shared" ref="AD53:AD99" si="31">AA53&amp;AB53&amp;AC53&amp;"]"</f>
+        <f t="shared" si="11"/>
         <v>['O']</v>
       </c>
-      <c r="AE53" t="e">
-        <f t="shared" ref="AE53:AE99" si="32">IF(ISBLANK(E53),"","section("&amp;E53&amp;", '"&amp;C53&amp;"').&lt;&gt;subsection("&amp;E53&amp;", '"&amp;D53&amp;"').&lt;&gt;description("&amp;E53&amp;", '"&amp;T53&amp;"').&lt;&gt;visual_style("&amp;E53&amp;",  "&amp;IF(ISBLANK(U53),"normal",AF53))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AF53" t="e">
+      <c r="AE53" t="str">
+        <f t="shared" si="12"/>
+        <v>section(hdr, 'CV').&lt;&gt;subsection(hdr, 'Image Processing').&lt;&gt;description(hdr, 'converts image to high dynamic range from RGB or gray').&lt;&gt;visual_style(hdr,  normal</v>
+      </c>
+      <c r="AF53" t="str">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG53" t="e">
-        <f t="shared" ref="AG53:AG99" si="33">IF(ISBLANK(U52),AG52,AG52+1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AH53" t="e">
+        <v>visual_style20</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" si="24"/>
+        <v>20</v>
+      </c>
+      <c r="AH53" t="str">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>&lt;&gt;%  ===== hdr ===========&lt;&gt;section(hdr, 'CV').&lt;&gt;subsection(hdr, 'Image Processing').&lt;&gt;description(hdr, 'converts image to high dynamic range from RGB or gray').&lt;&gt;visual_style(hdr,  normal).&lt;&gt;inputs(hdr, [required('A')]).&lt;&gt;outputs(hdr, ['O']).&lt;&gt;input_types(hdr, [image]).&lt;&gt;output_types(hdr, [hdr]).&lt;&gt;</v>
       </c>
       <c r="AI53" t="str">
         <f t="shared" si="15"/>
-        <v>[complex16</v>
+        <v>[image</v>
       </c>
       <c r="AJ53" t="str">
         <f t="shared" si="16"/>
@@ -7195,7 +7615,7 @@
       </c>
       <c r="AM53" t="str">
         <f t="shared" si="19"/>
-        <v>[gray</v>
+        <v>[hdr</v>
       </c>
       <c r="AN53" t="str">
         <f t="shared" si="20"/>
@@ -7207,412 +7627,919 @@
       </c>
       <c r="AP53" t="str">
         <f t="shared" si="22"/>
-        <v>[complex16]</v>
+        <v>[image]</v>
       </c>
       <c r="AQ53" t="str">
         <f t="shared" si="23"/>
-        <v>[gray]</v>
-      </c>
-    </row>
-    <row r="54" spans="1:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+        <v>[hdr]</v>
+      </c>
+    </row>
+    <row r="54" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>CV</v>
       </c>
       <c r="D54" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>FrequencyDomain</v>
+        <f t="shared" si="26"/>
+        <v>Image Processing</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="I54" s="3"/>
-      <c r="J54" s="10"/>
+      <c r="J54" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
-      <c r="N54" s="4"/>
+      <c r="N54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="V54" s="9" t="str">
-        <f t="shared" ref="V54:V99" si="34">"["&amp;IF(RIGHT(F54,5)="(opt)","optional('"&amp;LEFT(F54,LEN(F54)-5)&amp;"')",IF(ISBLANK(F54),"","required('"&amp;F54&amp;"')"))</f>
-        <v>[</v>
+        <f t="shared" si="3"/>
+        <v>[required('A')</v>
+      </c>
+      <c r="W54" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="X54" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y54" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="Z54" t="str">
         <f t="shared" si="7"/>
-        <v>[]</v>
-      </c>
-      <c r="AA54" s="8" t="str">
-        <f t="shared" ref="AA54:AA99" si="35">"["&amp;IF(ISBLANK(N54),"", "'"&amp;N54&amp;"'")</f>
-        <v>[</v>
+        <v>[required('A')]</v>
+      </c>
+      <c r="AA54" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>['O'</v>
       </c>
       <c r="AB54" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC54" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD54" t="str">
-        <f t="shared" si="31"/>
-        <v>[]</v>
+        <f t="shared" si="11"/>
+        <v>['O']</v>
       </c>
       <c r="AE54" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF54" t="e">
+        <f t="shared" si="12"/>
+        <v>section(dehdr, 'CV').&lt;&gt;subsection(dehdr, 'Image Processing').&lt;&gt;description(dehdr, 'converts HDR image to RGB').&lt;&gt;visual_style(dehdr,  normal</v>
+      </c>
+      <c r="AF54" t="str">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG54" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <v>visual_style20</v>
+      </c>
+      <c r="AG54">
+        <f t="shared" si="24"/>
+        <v>20</v>
       </c>
       <c r="AH54" t="str">
-        <f t="shared" ref="AH54:AH99" si="36">IF(ISBLANK(E54),"","&lt;&gt;%  ===== "&amp;E54&amp;" ===========&lt;&gt;"&amp;AE54&amp;").&lt;&gt;inputs("&amp;E54&amp;", "&amp;Z54&amp;").&lt;&gt;outputs("&amp;E54&amp;", "&amp;AD54&amp;").")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+        <f t="shared" si="14"/>
+        <v>&lt;&gt;%  ===== dehdr ===========&lt;&gt;section(dehdr, 'CV').&lt;&gt;subsection(dehdr, 'Image Processing').&lt;&gt;description(dehdr, 'converts HDR image to RGB').&lt;&gt;visual_style(dehdr,  normal).&lt;&gt;inputs(dehdr, [required('A')]).&lt;&gt;outputs(dehdr, ['O']).&lt;&gt;input_types(dehdr, [hdr]).&lt;&gt;output_types(dehdr, [image]).&lt;&gt;</v>
+      </c>
+      <c r="AI54" t="str">
+        <f t="shared" si="15"/>
+        <v>[hdr</v>
+      </c>
+      <c r="AJ54" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AK54" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AL54" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AM54" t="str">
+        <f t="shared" si="19"/>
+        <v>[image</v>
+      </c>
+      <c r="AN54" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AO54" s="11" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="AP54" t="str">
+        <f t="shared" si="22"/>
+        <v>[hdr]</v>
+      </c>
+      <c r="AQ54" t="str">
+        <f t="shared" si="23"/>
+        <v>[image]</v>
+      </c>
+    </row>
+    <row r="55" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>CV</v>
       </c>
       <c r="D55" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>FrequencyDomain</v>
-      </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="4"/>
+        <f t="shared" si="26"/>
+        <v>Image Processing</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M55" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="V55" s="9" t="str">
-        <f t="shared" si="34"/>
-        <v>[</v>
+        <f t="shared" si="3"/>
+        <v>[required('R')</v>
+      </c>
+      <c r="W55" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>, required('G')</v>
+      </c>
+      <c r="X55" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>, required('B')</v>
+      </c>
+      <c r="Y55" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>, optional('A')</v>
       </c>
       <c r="Z55" t="str">
         <f t="shared" si="7"/>
-        <v>[]</v>
-      </c>
-      <c r="AA55" s="8" t="str">
-        <f t="shared" si="35"/>
-        <v>[</v>
+        <v>[required('R'), required('G'), required('B')]</v>
+      </c>
+      <c r="AA55" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>['O'</v>
       </c>
       <c r="AB55" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC55" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD55" t="str">
-        <f t="shared" si="31"/>
-        <v>[]</v>
+        <f t="shared" si="11"/>
+        <v>['O']</v>
       </c>
       <c r="AE55" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF55" t="e">
+        <f t="shared" si="12"/>
+        <v>section(channels, 'CV').&lt;&gt;subsection(channels, 'Image Processing').&lt;&gt;description(channels, 'takes 3 grayscale images and an optional mask or grayscale image and produces an RGB/RGBA image').&lt;&gt;visual_style(channels,  normal</v>
+      </c>
+      <c r="AF55" t="str">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG55" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <v>visual_style20</v>
+      </c>
+      <c r="AG55">
+        <f t="shared" si="24"/>
+        <v>20</v>
       </c>
       <c r="AH55" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+        <f t="shared" si="14"/>
+        <v>&lt;&gt;%  ===== channels ===========&lt;&gt;section(channels, 'CV').&lt;&gt;subsection(channels, 'Image Processing').&lt;&gt;description(channels, 'takes 3 grayscale images and an optional mask or grayscale image and produces an RGB/RGBA image').&lt;&gt;visual_style(channels,  normal).&lt;&gt;inputs(channels, [required('R'), required('G'), required('B')]).&lt;&gt;outputs(channels, ['O']).&lt;&gt;input_types(channels, [gray, gray, gray, gray]).&lt;&gt;output_types(channels, [image]).&lt;&gt;</v>
+      </c>
+      <c r="AI55" t="str">
+        <f t="shared" si="15"/>
+        <v>[gray</v>
+      </c>
+      <c r="AJ55" t="str">
+        <f t="shared" si="16"/>
+        <v>, gray</v>
+      </c>
+      <c r="AK55" t="str">
+        <f t="shared" si="17"/>
+        <v>, gray</v>
+      </c>
+      <c r="AL55" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v>, gray</v>
+      </c>
+      <c r="AM55" t="str">
+        <f t="shared" si="19"/>
+        <v>[image</v>
+      </c>
+      <c r="AN55" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AO55" s="11" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="AP55" t="str">
+        <f t="shared" si="22"/>
+        <v>[gray, gray, gray, gray]</v>
+      </c>
+      <c r="AQ55" t="str">
+        <f t="shared" si="23"/>
+        <v>[image]</v>
+      </c>
+    </row>
+    <row r="56" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>CV</v>
       </c>
       <c r="D56" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>FrequencyDomain</v>
+        <f t="shared" si="26"/>
+        <v>Image Processing</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="I56" s="3"/>
-      <c r="J56" s="10"/>
+      <c r="J56" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
-      <c r="N56" s="4"/>
+      <c r="N56" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="V56" s="9" t="str">
-        <f t="shared" si="34"/>
-        <v>[</v>
+        <f t="shared" si="3"/>
+        <v>[required('A')</v>
+      </c>
+      <c r="W56" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="X56" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y56" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="Z56" t="str">
         <f t="shared" si="7"/>
-        <v>[]</v>
-      </c>
-      <c r="AA56" s="8" t="str">
-        <f t="shared" si="35"/>
-        <v>[</v>
+        <v>[required('A')]</v>
+      </c>
+      <c r="AA56" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>['R'</v>
       </c>
       <c r="AB56" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>, 'G'</v>
       </c>
       <c r="AC56" t="str">
-        <f t="shared" si="30"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>, 'B'</v>
       </c>
       <c r="AD56" t="str">
-        <f t="shared" si="31"/>
-        <v>[]</v>
+        <f t="shared" si="11"/>
+        <v>['R', 'G', 'B']</v>
       </c>
       <c r="AE56" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF56" t="e">
+        <f t="shared" si="12"/>
+        <v>section(aschannels, 'CV').&lt;&gt;subsection(aschannels, 'Image Processing').&lt;&gt;description(aschannels, 'takes an RGB image and produces 3 grayscale images, one for each channel').&lt;&gt;visual_style(aschannels,  normal</v>
+      </c>
+      <c r="AF56" t="str">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG56" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <v>visual_style20</v>
+      </c>
+      <c r="AG56">
+        <f t="shared" si="24"/>
+        <v>20</v>
       </c>
       <c r="AH56" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+        <f t="shared" si="14"/>
+        <v>&lt;&gt;%  ===== aschannels ===========&lt;&gt;section(aschannels, 'CV').&lt;&gt;subsection(aschannels, 'Image Processing').&lt;&gt;description(aschannels, 'takes an RGB image and produces 3 grayscale images, one for each channel').&lt;&gt;visual_style(aschannels,  normal).&lt;&gt;inputs(aschannels, [required('A')]).&lt;&gt;outputs(aschannels, ['R', 'G', 'B']).&lt;&gt;input_types(aschannels, [rgb]).&lt;&gt;output_types(aschannels, [gray, gray, gray]).&lt;&gt;</v>
+      </c>
+      <c r="AI56" t="str">
+        <f t="shared" si="15"/>
+        <v>[rgb</v>
+      </c>
+      <c r="AJ56" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AK56" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AL56" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AM56" t="str">
+        <f t="shared" si="19"/>
+        <v>[gray</v>
+      </c>
+      <c r="AN56" t="str">
+        <f t="shared" si="20"/>
+        <v>, gray</v>
+      </c>
+      <c r="AO56" s="11" t="str">
+        <f t="shared" si="21"/>
+        <v>, gray</v>
+      </c>
+      <c r="AP56" t="str">
+        <f t="shared" si="22"/>
+        <v>[rgb]</v>
+      </c>
+      <c r="AQ56" t="str">
+        <f t="shared" si="23"/>
+        <v>[gray, gray, gray]</v>
+      </c>
+    </row>
+    <row r="57" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>CV</v>
       </c>
       <c r="D57" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>FrequencyDomain</v>
+        <f t="shared" si="26"/>
+        <v>Image Processing</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="I57" s="3"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
+      <c r="J57" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>137</v>
+      </c>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
-      <c r="N57" s="4"/>
+      <c r="N57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="V57" s="9" t="str">
-        <f t="shared" si="34"/>
-        <v>[</v>
+        <f t="shared" si="3"/>
+        <v>[required('A')</v>
+      </c>
+      <c r="W57" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>, optional('M')</v>
+      </c>
+      <c r="X57" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y57" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="Z57" t="str">
         <f t="shared" si="7"/>
-        <v>[]</v>
-      </c>
-      <c r="AA57" s="8" t="str">
-        <f t="shared" si="35"/>
-        <v>[</v>
+        <v>[required('A'), optional('M')]</v>
+      </c>
+      <c r="AA57" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>['O'</v>
       </c>
       <c r="AB57" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC57" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD57" t="str">
-        <f t="shared" si="31"/>
-        <v>[]</v>
+        <f t="shared" si="11"/>
+        <v>['O']</v>
       </c>
       <c r="AE57" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF57" t="e">
+        <f t="shared" si="12"/>
+        <v>section(pixel, 'CV').&lt;&gt;subsection(pixel, 'Image Processing').&lt;&gt;description(pixel, 'as func, but has three formula boxes. Each one knows about r,g,b,m variables. Runs this formula for each pixel in image.').&lt;&gt;visual_style(pixel,  visual_style20</v>
+      </c>
+      <c r="AF57" t="str">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG57" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <v>visual_style20</v>
+      </c>
+      <c r="AG57">
+        <f t="shared" si="24"/>
+        <v>20</v>
       </c>
       <c r="AH57" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+        <f t="shared" si="14"/>
+        <v>&lt;&gt;%  ===== pixel ===========&lt;&gt;section(pixel, 'CV').&lt;&gt;subsection(pixel, 'Image Processing').&lt;&gt;description(pixel, 'as func, but has three formula boxes. Each one knows about r,g,b,m variables. Runs this formula for each pixel in image.').&lt;&gt;visual_style(pixel,  visual_style20).&lt;&gt;inputs(pixel, [required('A'), optional('M')]).&lt;&gt;outputs(pixel, ['O']).&lt;&gt;input_types(pixel, [image, mask]).&lt;&gt;output_types(pixel, [image]).&lt;&gt;</v>
+      </c>
+      <c r="AI57" t="str">
+        <f t="shared" si="15"/>
+        <v>[image</v>
+      </c>
+      <c r="AJ57" t="str">
+        <f t="shared" si="16"/>
+        <v>, mask</v>
+      </c>
+      <c r="AK57" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AL57" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AM57" t="str">
+        <f t="shared" si="19"/>
+        <v>[image</v>
+      </c>
+      <c r="AN57" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AO57" s="11" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="AP57" t="str">
+        <f t="shared" si="22"/>
+        <v>[image, mask]</v>
+      </c>
+      <c r="AQ57" t="str">
+        <f t="shared" si="23"/>
+        <v>[image]</v>
+      </c>
+    </row>
+    <row r="58" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>CV</v>
       </c>
       <c r="D58" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>FrequencyDomain</v>
+        <f t="shared" si="26"/>
+        <v>Image Processing</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="I58" s="3"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
+      <c r="J58" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="M58" s="10"/>
-      <c r="N58" s="4"/>
+      <c r="N58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="V58" s="9" t="str">
-        <f t="shared" si="34"/>
-        <v>[</v>
+        <f t="shared" si="3"/>
+        <v>[required('A')</v>
+      </c>
+      <c r="W58" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>, required('Prop')</v>
+      </c>
+      <c r="X58" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>, required('Block')</v>
+      </c>
+      <c r="Y58" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="Z58" t="str">
         <f t="shared" si="7"/>
-        <v>[]</v>
-      </c>
-      <c r="AA58" s="8" t="str">
-        <f t="shared" si="35"/>
-        <v>[</v>
+        <v>[required('A'), required('Prop'), required('Block')]</v>
+      </c>
+      <c r="AA58" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>['O'</v>
       </c>
       <c r="AB58" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC58" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD58" t="str">
-        <f t="shared" si="31"/>
-        <v>[]</v>
+        <f t="shared" si="11"/>
+        <v>['O']</v>
       </c>
       <c r="AE58" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF58" t="e">
+        <f t="shared" si="12"/>
+        <v>section(adaptivehistoequal, 'CV').&lt;&gt;subsection(adaptivehistoequal, 'Image Processing').&lt;&gt;description(adaptivehistoequal, 'apply adaptive histogram equalization with blocksize Block and proportion Prop').&lt;&gt;visual_style(adaptivehistoequal,  normal</v>
+      </c>
+      <c r="AF58" t="str">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG58" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG58">
+        <f t="shared" si="24"/>
+        <v>21</v>
       </c>
       <c r="AH58" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+        <f t="shared" si="14"/>
+        <v>&lt;&gt;%  ===== adaptivehistoequal ===========&lt;&gt;section(adaptivehistoequal, 'CV').&lt;&gt;subsection(adaptivehistoequal, 'Image Processing').&lt;&gt;description(adaptivehistoequal, 'apply adaptive histogram equalization with blocksize Block and proportion Prop').&lt;&gt;visual_style(adaptivehistoequal,  normal).&lt;&gt;inputs(adaptivehistoequal, [required('A'), required('Prop'), required('Block')]).&lt;&gt;outputs(adaptivehistoequal, ['O']).&lt;&gt;input_types(adaptivehistoequal, [image, proportion, int]).&lt;&gt;output_types(adaptivehistoequal, [image]).&lt;&gt;</v>
+      </c>
+      <c r="AI58" t="str">
+        <f t="shared" si="15"/>
+        <v>[image</v>
+      </c>
+      <c r="AJ58" t="str">
+        <f t="shared" si="16"/>
+        <v>, proportion</v>
+      </c>
+      <c r="AK58" t="str">
+        <f t="shared" si="17"/>
+        <v>, int</v>
+      </c>
+      <c r="AL58" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AM58" t="str">
+        <f t="shared" si="19"/>
+        <v>[image</v>
+      </c>
+      <c r="AN58" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AO58" s="11" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="AP58" t="str">
+        <f t="shared" si="22"/>
+        <v>[image, proportion, int]</v>
+      </c>
+      <c r="AQ58" t="str">
+        <f t="shared" si="23"/>
+        <v>[image]</v>
+      </c>
+    </row>
+    <row r="59" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>CV</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>FrequencyDomain</v>
+        <f t="shared" si="26"/>
+        <v>Image Processing</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I59" s="3"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
+      <c r="J59" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>98</v>
+      </c>
       <c r="M59" s="10"/>
-      <c r="N59" s="4"/>
+      <c r="N59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="V59" s="9" t="str">
-        <f t="shared" si="34"/>
-        <v>[</v>
+        <f t="shared" si="3"/>
+        <v>[required('A')</v>
+      </c>
+      <c r="W59" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>, required('B')</v>
+      </c>
+      <c r="X59" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>, required('Mask')</v>
+      </c>
+      <c r="Y59" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="Z59" t="str">
         <f t="shared" si="7"/>
-        <v>[]</v>
-      </c>
-      <c r="AA59" s="8" t="str">
-        <f t="shared" si="35"/>
-        <v>[</v>
+        <v>[required('A'), required('B'), required('Mask')]</v>
+      </c>
+      <c r="AA59" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>['O'</v>
       </c>
       <c r="AB59" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC59" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD59" t="str">
-        <f t="shared" si="31"/>
-        <v>[]</v>
+        <f t="shared" si="11"/>
+        <v>['O']</v>
       </c>
       <c r="AE59" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF59" t="e">
+        <f t="shared" si="12"/>
+        <v>section(composite, 'CV').&lt;&gt;subsection(composite, 'Image Processing').&lt;&gt;description(composite, 'Output is A where Mask is white and B where it is black, and proportional mix in between').&lt;&gt;visual_style(composite,  normal</v>
+      </c>
+      <c r="AF59" t="str">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG59" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG59">
+        <f t="shared" si="24"/>
+        <v>21</v>
       </c>
       <c r="AH59" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+        <f t="shared" si="14"/>
+        <v>&lt;&gt;%  ===== composite ===========&lt;&gt;section(composite, 'CV').&lt;&gt;subsection(composite, 'Image Processing').&lt;&gt;description(composite, 'Output is A where Mask is white and B where it is black, and proportional mix in between').&lt;&gt;visual_style(composite,  normal).&lt;&gt;inputs(composite, [required('A'), required('B'), required('Mask')]).&lt;&gt;outputs(composite, ['O']).&lt;&gt;input_types(composite, [image, image, gray]).&lt;&gt;output_types(composite, [image]).&lt;&gt;</v>
+      </c>
+      <c r="AI59" t="str">
+        <f t="shared" si="15"/>
+        <v>[image</v>
+      </c>
+      <c r="AJ59" t="str">
+        <f t="shared" si="16"/>
+        <v>, image</v>
+      </c>
+      <c r="AK59" t="str">
+        <f t="shared" si="17"/>
+        <v>, gray</v>
+      </c>
+      <c r="AL59" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AM59" t="str">
+        <f t="shared" si="19"/>
+        <v>[image</v>
+      </c>
+      <c r="AN59" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AO59" s="11" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="AP59" t="str">
+        <f t="shared" si="22"/>
+        <v>[image, image, gray]</v>
+      </c>
+      <c r="AQ59" t="str">
+        <f t="shared" si="23"/>
+        <v>[image]</v>
+      </c>
+    </row>
+    <row r="60" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>CV</v>
       </c>
       <c r="D60" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>FrequencyDomain</v>
+        <f t="shared" si="26"/>
+        <v>Image Processing</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="I60" s="3"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
+      <c r="J60" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
-      <c r="N60" s="4"/>
+      <c r="N60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="V60" s="9" t="str">
-        <f t="shared" si="34"/>
-        <v>[</v>
+        <f t="shared" si="3"/>
+        <v>[required('A')</v>
+      </c>
+      <c r="W60" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>, required('Kernal')</v>
+      </c>
+      <c r="X60" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y60" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="Z60" t="str">
         <f t="shared" si="7"/>
-        <v>[]</v>
-      </c>
-      <c r="AA60" s="8" t="str">
-        <f t="shared" si="35"/>
-        <v>[</v>
+        <v>[required('A'), required('Kernal')]</v>
+      </c>
+      <c r="AA60" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>['O'</v>
       </c>
       <c r="AB60" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC60" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD60" t="str">
-        <f t="shared" si="31"/>
-        <v>[]</v>
+        <f t="shared" si="11"/>
+        <v>['O']</v>
       </c>
       <c r="AE60" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF60" t="e">
+        <f t="shared" si="12"/>
+        <v>section(convolve, 'CV').&lt;&gt;subsection(convolve, 'Image Processing').&lt;&gt;description(convolve, '').&lt;&gt;visual_style(convolve,  normal</v>
+      </c>
+      <c r="AF60" t="str">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG60" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG60">
+        <f t="shared" si="24"/>
+        <v>21</v>
       </c>
       <c r="AH60" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+        <f t="shared" si="14"/>
+        <v>&lt;&gt;%  ===== convolve ===========&lt;&gt;section(convolve, 'CV').&lt;&gt;subsection(convolve, 'Image Processing').&lt;&gt;description(convolve, '').&lt;&gt;visual_style(convolve,  normal).&lt;&gt;inputs(convolve, [required('A'), required('Kernal')]).&lt;&gt;outputs(convolve, ['O']).&lt;&gt;input_types(convolve, [image, kernal]).&lt;&gt;output_types(convolve, [image]).&lt;&gt;</v>
+      </c>
+      <c r="AI60" t="str">
+        <f t="shared" si="15"/>
+        <v>[image</v>
+      </c>
+      <c r="AJ60" t="str">
+        <f t="shared" si="16"/>
+        <v>, kernal</v>
+      </c>
+      <c r="AK60" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AL60" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AM60" t="str">
+        <f t="shared" si="19"/>
+        <v>[image</v>
+      </c>
+      <c r="AN60" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AO60" s="11" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="AP60" t="str">
+        <f t="shared" si="22"/>
+        <v>[image, kernal]</v>
+      </c>
+      <c r="AQ60" t="str">
+        <f t="shared" si="23"/>
+        <v>[image]</v>
+      </c>
+    </row>
+    <row r="61" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>CV</v>
       </c>
       <c r="D61" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I61" s="3"/>
@@ -7622,165 +8549,341 @@
       <c r="M61" s="10"/>
       <c r="N61" s="4"/>
       <c r="V61" s="9" t="str">
-        <f t="shared" si="34"/>
-        <v>[</v>
+        <f t="shared" si="3"/>
+        <v>[</v>
+      </c>
+      <c r="W61" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="X61" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y61" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="Z61" t="str">
         <f t="shared" si="7"/>
         <v>[]</v>
       </c>
-      <c r="AA61" s="8" t="str">
-        <f t="shared" si="35"/>
+      <c r="AA61" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>[</v>
       </c>
       <c r="AB61" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC61" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD61" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="11"/>
         <v>[]</v>
       </c>
       <c r="AE61" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF61" t="e">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AF61" t="str">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG61" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG61">
+        <f t="shared" si="24"/>
+        <v>21</v>
       </c>
       <c r="AH61" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AI61" t="str">
+        <f t="shared" si="15"/>
+        <v>[</v>
+      </c>
+      <c r="AJ61" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AK61" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AL61" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AM61" t="str">
+        <f t="shared" si="19"/>
+        <v>[</v>
+      </c>
+      <c r="AN61" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AO61" s="11" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="AP61" t="str">
+        <f t="shared" si="22"/>
+        <v>[]</v>
+      </c>
+      <c r="AQ61" t="str">
+        <f t="shared" si="23"/>
+        <v>[]</v>
+      </c>
+    </row>
+    <row r="62" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>CV</v>
       </c>
       <c r="D62" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>FrequencyDomain</v>
       </c>
+      <c r="E62" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="I62" s="3"/>
-      <c r="J62" s="10"/>
+      <c r="J62" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
-      <c r="N62" s="4"/>
+      <c r="N62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="V62" s="9" t="str">
-        <f t="shared" si="34"/>
-        <v>[</v>
+        <f t="shared" si="3"/>
+        <v>[required('A')</v>
+      </c>
+      <c r="W62" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="X62" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y62" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="Z62" t="str">
         <f t="shared" si="7"/>
-        <v>[]</v>
-      </c>
-      <c r="AA62" s="8" t="str">
-        <f t="shared" si="35"/>
-        <v>[</v>
+        <v>[required('A')]</v>
+      </c>
+      <c r="AA62" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>['O'</v>
       </c>
       <c r="AB62" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC62" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD62" t="str">
-        <f t="shared" si="31"/>
-        <v>[]</v>
+        <f t="shared" si="11"/>
+        <v>['O']</v>
       </c>
       <c r="AE62" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF62" t="e">
+        <f t="shared" si="12"/>
+        <v>section(fft, 'CV').&lt;&gt;subsection(fft, 'FrequencyDomain').&lt;&gt;description(fft, 'Output is the forward fourier transform as complex16').&lt;&gt;visual_style(fft,  normal</v>
+      </c>
+      <c r="AF62" t="str">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG62" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG62">
+        <f t="shared" si="24"/>
+        <v>21</v>
       </c>
       <c r="AH62" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+        <f t="shared" si="14"/>
+        <v>&lt;&gt;%  ===== fft ===========&lt;&gt;section(fft, 'CV').&lt;&gt;subsection(fft, 'FrequencyDomain').&lt;&gt;description(fft, 'Output is the forward fourier transform as complex16').&lt;&gt;visual_style(fft,  normal).&lt;&gt;inputs(fft, [required('A')]).&lt;&gt;outputs(fft, ['O']).&lt;&gt;input_types(fft, [image]).&lt;&gt;output_types(fft, [complex16]).&lt;&gt;</v>
+      </c>
+      <c r="AI62" t="str">
+        <f t="shared" si="15"/>
+        <v>[image</v>
+      </c>
+      <c r="AJ62" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AK62" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AL62" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AM62" t="str">
+        <f t="shared" si="19"/>
+        <v>[complex16</v>
+      </c>
+      <c r="AN62" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AO62" s="11" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="AP62" t="str">
+        <f t="shared" si="22"/>
+        <v>[image]</v>
+      </c>
+      <c r="AQ62" t="str">
+        <f t="shared" si="23"/>
+        <v>[complex16]</v>
+      </c>
+    </row>
+    <row r="63" spans="1:46" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1" t="str">
+        <f t="shared" ref="C63:C89" si="53">IF(ISBLANK(A63),C62,A63)</f>
+        <v>CV</v>
       </c>
       <c r="D63" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="D63:D89" si="54">IF(NOT(ISBLANK(B63)), B63, IF(ISBLANK(A63), D62,A63))</f>
         <v>FrequencyDomain</v>
       </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="4"/>
+      <c r="E63" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O63" s="5"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="U63" s="5"/>
       <c r="V63" s="9" t="str">
-        <f t="shared" si="34"/>
-        <v>[</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>[required('A')</v>
+      </c>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
       <c r="Z63" t="str">
         <f t="shared" si="7"/>
-        <v>[]</v>
+        <v>[required('A')]</v>
       </c>
       <c r="AA63" s="8" t="str">
-        <f t="shared" si="35"/>
-        <v>[</v>
+        <f t="shared" si="8"/>
+        <v>['O'</v>
       </c>
       <c r="AB63" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="AB63:AB109" si="55">IF(ISBLANK(O63),"",", '"&amp;O63&amp;"'")</f>
         <v/>
       </c>
       <c r="AC63" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="AC63:AC109" si="56">IF(ISBLANK(P63),"",", '"&amp;P63&amp;"'")</f>
         <v/>
       </c>
       <c r="AD63" t="str">
-        <f t="shared" si="31"/>
-        <v>[]</v>
+        <f t="shared" ref="AD63:AD109" si="57">AA63&amp;AB63&amp;AC63&amp;"]"</f>
+        <v>['O']</v>
       </c>
       <c r="AE63" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF63" t="e">
+        <f t="shared" ref="AE63:AE109" si="58">IF(ISBLANK(E63),"","section("&amp;E63&amp;", '"&amp;C63&amp;"').&lt;&gt;subsection("&amp;E63&amp;", '"&amp;D63&amp;"').&lt;&gt;description("&amp;E63&amp;", '"&amp;T63&amp;"').&lt;&gt;visual_style("&amp;E63&amp;",  "&amp;IF(ISBLANK(U63),"normal",AF63))</f>
+        <v>section(inv_fft, 'CV').&lt;&gt;subsection(inv_fft, 'FrequencyDomain').&lt;&gt;description(inv_fft, 'Input is the ft spectrum as complex16, Output is the inverse fourier transform as gray').&lt;&gt;visual_style(inv_fft,  normal</v>
+      </c>
+      <c r="AF63" t="str">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG63" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG63">
+        <f t="shared" ref="AG63:AG109" si="59">IF(ISBLANK(U62),AG62,AG62+1)</f>
+        <v>21</v>
       </c>
       <c r="AH63" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+        <f t="shared" si="14"/>
+        <v>&lt;&gt;%  ===== inv_fft ===========&lt;&gt;section(inv_fft, 'CV').&lt;&gt;subsection(inv_fft, 'FrequencyDomain').&lt;&gt;description(inv_fft, 'Input is the ft spectrum as complex16, Output is the inverse fourier transform as gray').&lt;&gt;visual_style(inv_fft,  normal).&lt;&gt;inputs(inv_fft, [required('A')]).&lt;&gt;outputs(inv_fft, ['O']).&lt;&gt;input_types(inv_fft, [complex16]).&lt;&gt;output_types(inv_fft, [gray]).&lt;&gt;</v>
+      </c>
+      <c r="AI63" t="str">
+        <f t="shared" si="15"/>
+        <v>[complex16</v>
+      </c>
+      <c r="AJ63" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AK63" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AL63" s="11" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AM63" t="str">
+        <f t="shared" si="19"/>
+        <v>[gray</v>
+      </c>
+      <c r="AN63" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AO63" s="11" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="AP63" t="str">
+        <f t="shared" si="22"/>
+        <v>[complex16]</v>
+      </c>
+      <c r="AQ63" t="str">
+        <f t="shared" si="23"/>
+        <v>[gray]</v>
+      </c>
+    </row>
+    <row r="64" spans="1:46" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D64" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I64" s="3"/>
@@ -7790,7 +8893,7 @@
       <c r="M64" s="10"/>
       <c r="N64" s="4"/>
       <c r="V64" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="V64:V109" si="60">"["&amp;IF(RIGHT(F64,5)="(opt)","optional('"&amp;LEFT(F64,LEN(F64)-5)&amp;"')",IF(ISBLANK(F64),"","required('"&amp;F64&amp;"')"))</f>
         <v>[</v>
       </c>
       <c r="Z64" t="str">
@@ -7798,45 +8901,45 @@
         <v>[]</v>
       </c>
       <c r="AA64" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="AA64:AA109" si="61">"["&amp;IF(ISBLANK(N64),"", "'"&amp;N64&amp;"'")</f>
         <v>[</v>
       </c>
       <c r="AB64" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC64" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD64" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE64" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF64" t="e">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF64" t="str">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG64" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG64">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH64" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="AH64:AH109" si="62">IF(ISBLANK(E64),"","&lt;&gt;%  ===== "&amp;E64&amp;" ===========&lt;&gt;"&amp;AE64&amp;").&lt;&gt;inputs("&amp;E64&amp;", "&amp;Z64&amp;").&lt;&gt;outputs("&amp;E64&amp;", "&amp;AD64&amp;").")</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+      <c r="C65" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I65" s="3"/>
@@ -7846,7 +8949,7 @@
       <c r="M65" s="10"/>
       <c r="N65" s="4"/>
       <c r="V65" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z65" t="str">
@@ -7854,45 +8957,45 @@
         <v>[]</v>
       </c>
       <c r="AA65" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB65" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC65" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD65" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF65" t="e">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF65" t="str">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG65" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG65">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH65" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+      <c r="C66" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I66" s="3"/>
@@ -7902,7 +9005,7 @@
       <c r="M66" s="10"/>
       <c r="N66" s="4"/>
       <c r="V66" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z66" t="str">
@@ -7910,45 +9013,45 @@
         <v>[]</v>
       </c>
       <c r="AA66" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB66" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC66" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD66" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE66" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF66" t="e">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF66" t="str">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG66" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG66">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH66" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+      <c r="C67" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I67" s="3"/>
@@ -7958,53 +9061,53 @@
       <c r="M67" s="10"/>
       <c r="N67" s="4"/>
       <c r="V67" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z99" si="37">V67&amp;W67&amp;X67&amp;"]"</f>
+        <f t="shared" si="7"/>
         <v>[]</v>
       </c>
       <c r="AA67" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF67" t="e">
-        <f t="shared" ref="AF67:AF99" si="38">"visual_style"&amp;AG67</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AG67" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF67" t="str">
+        <f t="shared" si="13"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG67">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH67" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+      <c r="C68" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D68" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I68" s="3"/>
@@ -8014,53 +9117,53 @@
       <c r="M68" s="10"/>
       <c r="N68" s="4"/>
       <c r="V68" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z68" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="7"/>
         <v>[]</v>
       </c>
       <c r="AA68" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB68" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC68" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD68" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE68" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF68" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG68" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF68" t="str">
+        <f t="shared" si="13"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG68">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH68" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+      <c r="C69" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D69" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I69" s="3"/>
@@ -8070,53 +9173,53 @@
       <c r="M69" s="10"/>
       <c r="N69" s="4"/>
       <c r="V69" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z69" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="7"/>
         <v>[]</v>
       </c>
       <c r="AA69" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB69" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC69" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD69" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE69" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF69" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG69" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF69" t="str">
+        <f t="shared" si="13"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG69">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH69" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+      <c r="C70" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D70" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I70" s="3"/>
@@ -8126,53 +9229,53 @@
       <c r="M70" s="10"/>
       <c r="N70" s="4"/>
       <c r="V70" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z70" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="7"/>
         <v>[]</v>
       </c>
       <c r="AA70" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB70" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC70" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD70" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE70" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF70" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG70" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF70" t="str">
+        <f t="shared" si="13"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG70">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH70" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+      <c r="C71" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D71" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I71" s="3"/>
@@ -8182,53 +9285,53 @@
       <c r="M71" s="10"/>
       <c r="N71" s="4"/>
       <c r="V71" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z71" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="7"/>
         <v>[]</v>
       </c>
       <c r="AA71" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB71" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC71" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD71" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE71" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF71" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG71" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF71" t="str">
+        <f t="shared" si="13"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG71">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH71" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+      <c r="C72" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D72" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I72" s="3"/>
@@ -8238,53 +9341,53 @@
       <c r="M72" s="10"/>
       <c r="N72" s="4"/>
       <c r="V72" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z72" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="7"/>
         <v>[]</v>
       </c>
       <c r="AA72" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB72" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC72" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD72" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE72" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF72" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG72" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF72" t="str">
+        <f t="shared" si="13"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG72">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH72" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+      <c r="C73" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D73" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I73" s="3"/>
@@ -8294,53 +9397,53 @@
       <c r="M73" s="10"/>
       <c r="N73" s="4"/>
       <c r="V73" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z73" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="7"/>
         <v>[]</v>
       </c>
       <c r="AA73" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB73" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC73" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD73" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE73" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF73" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG73" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF73" t="str">
+        <f t="shared" si="13"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG73">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH73" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+      <c r="C74" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D74" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I74" s="3"/>
@@ -8350,53 +9453,53 @@
       <c r="M74" s="10"/>
       <c r="N74" s="4"/>
       <c r="V74" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z74" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="7"/>
         <v>[]</v>
       </c>
       <c r="AA74" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB74" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC74" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD74" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE74" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF74" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG74" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF74" t="str">
+        <f t="shared" si="13"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG74">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH74" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+      <c r="C75" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D75" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I75" s="3"/>
@@ -8406,53 +9509,53 @@
       <c r="M75" s="10"/>
       <c r="N75" s="4"/>
       <c r="V75" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z75" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="7"/>
         <v>[]</v>
       </c>
       <c r="AA75" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB75" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC75" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD75" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE75" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF75" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG75" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF75" t="str">
+        <f t="shared" si="13"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG75">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH75" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+      <c r="C76" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I76" s="3"/>
@@ -8462,53 +9565,53 @@
       <c r="M76" s="10"/>
       <c r="N76" s="4"/>
       <c r="V76" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z76" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="7"/>
         <v>[]</v>
       </c>
       <c r="AA76" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB76" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC76" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD76" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE76" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF76" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG76" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF76" t="str">
+        <f t="shared" si="13"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG76">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH76" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+      <c r="C77" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D77" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I77" s="3"/>
@@ -8518,53 +9621,53 @@
       <c r="M77" s="10"/>
       <c r="N77" s="4"/>
       <c r="V77" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z77" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="Z77:Z109" si="63">V77&amp;W77&amp;X77&amp;"]"</f>
         <v>[]</v>
       </c>
       <c r="AA77" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB77" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC77" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD77" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE77" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF77" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG77" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF77" t="str">
+        <f t="shared" ref="AF77:AF109" si="64">"visual_style"&amp;AG77</f>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG77">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH77" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+      <c r="C78" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D78" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I78" s="3"/>
@@ -8574,53 +9677,53 @@
       <c r="M78" s="10"/>
       <c r="N78" s="4"/>
       <c r="V78" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z78" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>[]</v>
       </c>
       <c r="AA78" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB78" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC78" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD78" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE78" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF78" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG78" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF78" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG78">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH78" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="1" t="e">
-        <f t="shared" si="27"/>
-        <v>#REF!</v>
+      <c r="C79" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D79" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I79" s="3"/>
@@ -8630,53 +9733,53 @@
       <c r="M79" s="10"/>
       <c r="N79" s="4"/>
       <c r="V79" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z79" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>[]</v>
       </c>
       <c r="AA79" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB79" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC79" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD79" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE79" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF79" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG79" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF79" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG79">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH79" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="1" t="e">
-        <f t="shared" ref="C80:C99" si="39">IF(ISBLANK(A80),C79,A80)</f>
-        <v>#REF!</v>
+      <c r="C80" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D80" s="1" t="str">
-        <f t="shared" ref="D80:D99" si="40">IF(NOT(ISBLANK(B80)), B80, IF(ISBLANK(A80), D79,A80))</f>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I80" s="3"/>
@@ -8686,53 +9789,53 @@
       <c r="M80" s="10"/>
       <c r="N80" s="4"/>
       <c r="V80" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z80" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>[]</v>
       </c>
       <c r="AA80" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB80" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC80" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD80" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE80" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF80" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG80" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF80" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG80">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH80" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
+      <c r="C81" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D81" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I81" s="3"/>
@@ -8742,53 +9845,53 @@
       <c r="M81" s="10"/>
       <c r="N81" s="4"/>
       <c r="V81" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z81" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>[]</v>
       </c>
       <c r="AA81" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB81" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC81" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD81" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE81" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF81" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG81" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF81" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG81">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH81" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C82" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
+      <c r="C82" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D82" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I82" s="3"/>
@@ -8798,53 +9901,53 @@
       <c r="M82" s="10"/>
       <c r="N82" s="4"/>
       <c r="V82" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z82" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>[]</v>
       </c>
       <c r="AA82" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB82" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC82" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD82" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE82" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF82" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG82" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF82" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG82">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH82" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C83" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
+      <c r="C83" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D83" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I83" s="3"/>
@@ -8854,53 +9957,53 @@
       <c r="M83" s="10"/>
       <c r="N83" s="4"/>
       <c r="V83" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z83" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>[]</v>
       </c>
       <c r="AA83" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB83" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC83" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD83" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE83" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF83" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG83" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG83">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH83" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
+      <c r="C84" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D84" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I84" s="3"/>
@@ -8910,53 +10013,53 @@
       <c r="M84" s="10"/>
       <c r="N84" s="4"/>
       <c r="V84" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z84" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>[]</v>
       </c>
       <c r="AA84" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB84" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC84" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD84" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE84" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF84" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG84" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG84">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH84" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C85" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
+      <c r="C85" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D85" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I85" s="3"/>
@@ -8966,53 +10069,53 @@
       <c r="M85" s="10"/>
       <c r="N85" s="4"/>
       <c r="V85" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z85" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>[]</v>
       </c>
       <c r="AA85" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB85" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC85" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD85" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE85" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF85" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG85" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG85">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH85" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C86" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
+      <c r="C86" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D86" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I86" s="3"/>
@@ -9022,53 +10125,53 @@
       <c r="M86" s="10"/>
       <c r="N86" s="4"/>
       <c r="V86" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z86" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>[]</v>
       </c>
       <c r="AA86" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB86" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC86" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD86" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE86" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF86" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG86" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG86">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH86" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C87" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
+      <c r="C87" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D87" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I87" s="3"/>
@@ -9078,53 +10181,53 @@
       <c r="M87" s="10"/>
       <c r="N87" s="4"/>
       <c r="V87" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z87" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>[]</v>
       </c>
       <c r="AA87" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB87" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC87" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD87" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE87" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF87" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG87" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG87">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH87" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
+      <c r="C88" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D88" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I88" s="3"/>
@@ -9134,53 +10237,53 @@
       <c r="M88" s="10"/>
       <c r="N88" s="4"/>
       <c r="V88" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z88" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>[]</v>
       </c>
       <c r="AA88" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB88" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC88" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD88" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE88" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF88" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG88" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG88">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH88" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C89" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
+      <c r="C89" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>CV</v>
       </c>
       <c r="D89" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I89" s="3"/>
@@ -9190,53 +10293,53 @@
       <c r="M89" s="10"/>
       <c r="N89" s="4"/>
       <c r="V89" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z89" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>[]</v>
       </c>
       <c r="AA89" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB89" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC89" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD89" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE89" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF89" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG89" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG89">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH89" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C90" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
+      <c r="C90" s="1" t="str">
+        <f t="shared" ref="C90:C109" si="65">IF(ISBLANK(A90),C89,A90)</f>
+        <v>CV</v>
       </c>
       <c r="D90" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="D90:D109" si="66">IF(NOT(ISBLANK(B90)), B90, IF(ISBLANK(A90), D89,A90))</f>
         <v>FrequencyDomain</v>
       </c>
       <c r="I90" s="3"/>
@@ -9246,53 +10349,53 @@
       <c r="M90" s="10"/>
       <c r="N90" s="4"/>
       <c r="V90" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z90" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>[]</v>
       </c>
       <c r="AA90" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB90" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC90" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD90" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE90" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF90" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG90" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG90">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH90" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C91" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
+      <c r="C91" s="1" t="str">
+        <f t="shared" si="65"/>
+        <v>CV</v>
       </c>
       <c r="D91" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="66"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I91" s="3"/>
@@ -9302,53 +10405,53 @@
       <c r="M91" s="10"/>
       <c r="N91" s="4"/>
       <c r="V91" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z91" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>[]</v>
       </c>
       <c r="AA91" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB91" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC91" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD91" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE91" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF91" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG91" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG91">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH91" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C92" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
+      <c r="C92" s="1" t="str">
+        <f t="shared" si="65"/>
+        <v>CV</v>
       </c>
       <c r="D92" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="66"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I92" s="3"/>
@@ -9358,53 +10461,53 @@
       <c r="M92" s="10"/>
       <c r="N92" s="4"/>
       <c r="V92" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z92" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>[]</v>
       </c>
       <c r="AA92" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB92" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC92" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD92" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE92" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF92" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG92" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG92">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH92" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C93" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
+      <c r="C93" s="1" t="str">
+        <f t="shared" si="65"/>
+        <v>CV</v>
       </c>
       <c r="D93" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="66"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I93" s="3"/>
@@ -9414,53 +10517,53 @@
       <c r="M93" s="10"/>
       <c r="N93" s="4"/>
       <c r="V93" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z93" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>[]</v>
       </c>
       <c r="AA93" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB93" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC93" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD93" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE93" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF93" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG93" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG93">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH93" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C94" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
+      <c r="C94" s="1" t="str">
+        <f t="shared" si="65"/>
+        <v>CV</v>
       </c>
       <c r="D94" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="66"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I94" s="3"/>
@@ -9470,53 +10573,53 @@
       <c r="M94" s="10"/>
       <c r="N94" s="4"/>
       <c r="V94" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z94" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>[]</v>
       </c>
       <c r="AA94" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB94" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC94" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD94" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE94" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF94" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG94" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG94">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH94" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C95" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
+      <c r="C95" s="1" t="str">
+        <f t="shared" si="65"/>
+        <v>CV</v>
       </c>
       <c r="D95" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="66"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I95" s="3"/>
@@ -9526,53 +10629,53 @@
       <c r="M95" s="10"/>
       <c r="N95" s="4"/>
       <c r="V95" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z95" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>[]</v>
       </c>
       <c r="AA95" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB95" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC95" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD95" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE95" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF95" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG95" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG95">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH95" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C96" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
+      <c r="C96" s="1" t="str">
+        <f t="shared" si="65"/>
+        <v>CV</v>
       </c>
       <c r="D96" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="66"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I96" s="3"/>
@@ -9582,53 +10685,53 @@
       <c r="M96" s="10"/>
       <c r="N96" s="4"/>
       <c r="V96" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z96" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>[]</v>
       </c>
       <c r="AA96" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB96" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC96" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD96" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE96" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF96" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG96" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG96">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH96" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C97" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
+      <c r="C97" s="1" t="str">
+        <f t="shared" si="65"/>
+        <v>CV</v>
       </c>
       <c r="D97" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="66"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I97" s="3"/>
@@ -9638,53 +10741,53 @@
       <c r="M97" s="10"/>
       <c r="N97" s="4"/>
       <c r="V97" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z97" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>[]</v>
       </c>
       <c r="AA97" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB97" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC97" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD97" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE97" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF97" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG97" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG97">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH97" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C98" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
+      <c r="C98" s="1" t="str">
+        <f t="shared" si="65"/>
+        <v>CV</v>
       </c>
       <c r="D98" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="66"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I98" s="3"/>
@@ -9694,53 +10797,53 @@
       <c r="M98" s="10"/>
       <c r="N98" s="4"/>
       <c r="V98" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z98" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>[]</v>
       </c>
       <c r="AA98" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB98" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC98" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD98" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE98" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF98" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG98" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG98">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH98" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C99" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
+      <c r="C99" s="1" t="str">
+        <f t="shared" si="65"/>
+        <v>CV</v>
       </c>
       <c r="D99" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="66"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I99" s="3"/>
@@ -9750,109 +10853,669 @@
       <c r="M99" s="10"/>
       <c r="N99" s="4"/>
       <c r="V99" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>[</v>
       </c>
       <c r="Z99" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>[]</v>
       </c>
       <c r="AA99" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="AB99" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AC99" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AD99" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>[]</v>
       </c>
       <c r="AE99" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AF99" t="e">
-        <f t="shared" si="38"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG99" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG99">
+        <f t="shared" si="59"/>
+        <v>21</v>
       </c>
       <c r="AH99" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="3:34" x14ac:dyDescent="0.2">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C100" s="1" t="str">
+        <f t="shared" si="65"/>
+        <v>CV</v>
+      </c>
+      <c r="D100" s="1" t="str">
+        <f t="shared" si="66"/>
+        <v>FrequencyDomain</v>
+      </c>
       <c r="I100" s="3"/>
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
       <c r="L100" s="10"/>
       <c r="M100" s="10"/>
       <c r="N100" s="4"/>
-    </row>
-    <row r="101" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="V100" s="9" t="str">
+        <f t="shared" si="60"/>
+        <v>[</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="63"/>
+        <v>[]</v>
+      </c>
+      <c r="AA100" s="8" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="57"/>
+        <v>[]</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG100">
+        <f t="shared" si="59"/>
+        <v>21</v>
+      </c>
+      <c r="AH100" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C101" s="1" t="str">
+        <f t="shared" si="65"/>
+        <v>CV</v>
+      </c>
+      <c r="D101" s="1" t="str">
+        <f t="shared" si="66"/>
+        <v>FrequencyDomain</v>
+      </c>
       <c r="I101" s="3"/>
       <c r="J101" s="10"/>
       <c r="K101" s="10"/>
       <c r="L101" s="10"/>
       <c r="M101" s="10"/>
       <c r="N101" s="4"/>
-    </row>
-    <row r="102" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="V101" s="9" t="str">
+        <f t="shared" si="60"/>
+        <v>[</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="63"/>
+        <v>[]</v>
+      </c>
+      <c r="AA101" s="8" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="57"/>
+        <v>[]</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG101">
+        <f t="shared" si="59"/>
+        <v>21</v>
+      </c>
+      <c r="AH101" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C102" s="1" t="str">
+        <f t="shared" si="65"/>
+        <v>CV</v>
+      </c>
+      <c r="D102" s="1" t="str">
+        <f t="shared" si="66"/>
+        <v>FrequencyDomain</v>
+      </c>
       <c r="I102" s="3"/>
       <c r="J102" s="10"/>
       <c r="K102" s="10"/>
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
       <c r="N102" s="4"/>
-    </row>
-    <row r="103" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="V102" s="9" t="str">
+        <f t="shared" si="60"/>
+        <v>[</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="63"/>
+        <v>[]</v>
+      </c>
+      <c r="AA102" s="8" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="57"/>
+        <v>[]</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG102">
+        <f t="shared" si="59"/>
+        <v>21</v>
+      </c>
+      <c r="AH102" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C103" s="1" t="str">
+        <f t="shared" si="65"/>
+        <v>CV</v>
+      </c>
+      <c r="D103" s="1" t="str">
+        <f t="shared" si="66"/>
+        <v>FrequencyDomain</v>
+      </c>
       <c r="I103" s="3"/>
       <c r="J103" s="10"/>
       <c r="K103" s="10"/>
       <c r="L103" s="10"/>
       <c r="M103" s="10"/>
       <c r="N103" s="4"/>
-    </row>
-    <row r="104" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="V103" s="9" t="str">
+        <f t="shared" si="60"/>
+        <v>[</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="63"/>
+        <v>[]</v>
+      </c>
+      <c r="AA103" s="8" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="57"/>
+        <v>[]</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG103">
+        <f t="shared" si="59"/>
+        <v>21</v>
+      </c>
+      <c r="AH103" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C104" s="1" t="str">
+        <f t="shared" si="65"/>
+        <v>CV</v>
+      </c>
+      <c r="D104" s="1" t="str">
+        <f t="shared" si="66"/>
+        <v>FrequencyDomain</v>
+      </c>
       <c r="I104" s="3"/>
       <c r="J104" s="10"/>
       <c r="K104" s="10"/>
       <c r="L104" s="10"/>
       <c r="M104" s="10"/>
       <c r="N104" s="4"/>
-    </row>
-    <row r="105" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="V104" s="9" t="str">
+        <f t="shared" si="60"/>
+        <v>[</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="63"/>
+        <v>[]</v>
+      </c>
+      <c r="AA104" s="8" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="57"/>
+        <v>[]</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG104">
+        <f t="shared" si="59"/>
+        <v>21</v>
+      </c>
+      <c r="AH104" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C105" s="1" t="str">
+        <f t="shared" si="65"/>
+        <v>CV</v>
+      </c>
+      <c r="D105" s="1" t="str">
+        <f t="shared" si="66"/>
+        <v>FrequencyDomain</v>
+      </c>
       <c r="I105" s="3"/>
       <c r="J105" s="10"/>
       <c r="K105" s="10"/>
       <c r="L105" s="10"/>
       <c r="M105" s="10"/>
       <c r="N105" s="4"/>
-    </row>
-    <row r="106" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="V105" s="9" t="str">
+        <f t="shared" si="60"/>
+        <v>[</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="63"/>
+        <v>[]</v>
+      </c>
+      <c r="AA105" s="8" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="57"/>
+        <v>[]</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="59"/>
+        <v>21</v>
+      </c>
+      <c r="AH105" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="1" t="str">
+        <f t="shared" si="65"/>
+        <v>CV</v>
+      </c>
+      <c r="D106" s="1" t="str">
+        <f t="shared" si="66"/>
+        <v>FrequencyDomain</v>
+      </c>
       <c r="I106" s="3"/>
       <c r="J106" s="10"/>
       <c r="K106" s="10"/>
       <c r="L106" s="10"/>
       <c r="M106" s="10"/>
       <c r="N106" s="4"/>
-    </row>
-    <row r="107" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="V106" s="9" t="str">
+        <f t="shared" si="60"/>
+        <v>[</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="63"/>
+        <v>[]</v>
+      </c>
+      <c r="AA106" s="8" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="57"/>
+        <v>[]</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG106">
+        <f t="shared" si="59"/>
+        <v>21</v>
+      </c>
+      <c r="AH106" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C107" s="1" t="str">
+        <f t="shared" si="65"/>
+        <v>CV</v>
+      </c>
+      <c r="D107" s="1" t="str">
+        <f t="shared" si="66"/>
+        <v>FrequencyDomain</v>
+      </c>
       <c r="I107" s="3"/>
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
       <c r="M107" s="10"/>
       <c r="N107" s="4"/>
+      <c r="V107" s="9" t="str">
+        <f t="shared" si="60"/>
+        <v>[</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="63"/>
+        <v>[]</v>
+      </c>
+      <c r="AA107" s="8" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="57"/>
+        <v>[]</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG107">
+        <f t="shared" si="59"/>
+        <v>21</v>
+      </c>
+      <c r="AH107" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C108" s="1" t="str">
+        <f t="shared" si="65"/>
+        <v>CV</v>
+      </c>
+      <c r="D108" s="1" t="str">
+        <f t="shared" si="66"/>
+        <v>FrequencyDomain</v>
+      </c>
+      <c r="I108" s="3"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
+      <c r="L108" s="10"/>
+      <c r="M108" s="10"/>
+      <c r="N108" s="4"/>
+      <c r="V108" s="9" t="str">
+        <f t="shared" si="60"/>
+        <v>[</v>
+      </c>
+      <c r="Z108" t="str">
+        <f t="shared" si="63"/>
+        <v>[]</v>
+      </c>
+      <c r="AA108" s="8" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="AB108" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="AC108" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AD108" t="str">
+        <f t="shared" si="57"/>
+        <v>[]</v>
+      </c>
+      <c r="AE108" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF108" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG108">
+        <f t="shared" si="59"/>
+        <v>21</v>
+      </c>
+      <c r="AH108" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C109" s="1" t="str">
+        <f t="shared" si="65"/>
+        <v>CV</v>
+      </c>
+      <c r="D109" s="1" t="str">
+        <f t="shared" si="66"/>
+        <v>FrequencyDomain</v>
+      </c>
+      <c r="I109" s="3"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="4"/>
+      <c r="V109" s="9" t="str">
+        <f t="shared" si="60"/>
+        <v>[</v>
+      </c>
+      <c r="Z109" t="str">
+        <f t="shared" si="63"/>
+        <v>[]</v>
+      </c>
+      <c r="AA109" s="8" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="AB109" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="AC109" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AD109" t="str">
+        <f t="shared" si="57"/>
+        <v>[]</v>
+      </c>
+      <c r="AE109" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AF109" t="str">
+        <f t="shared" si="64"/>
+        <v>visual_style21</v>
+      </c>
+      <c r="AG109">
+        <f t="shared" si="59"/>
+        <v>21</v>
+      </c>
+      <c r="AH109" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="I110" s="3"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="4"/>
+    </row>
+    <row r="111" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="I111" s="3"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="4"/>
+    </row>
+    <row r="112" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="I112" s="3"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="10"/>
+      <c r="M112" s="10"/>
+      <c r="N112" s="4"/>
+    </row>
+    <row r="113" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I113" s="3"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="10"/>
+      <c r="M113" s="10"/>
+      <c r="N113" s="4"/>
+    </row>
+    <row r="114" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I114" s="3"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="4"/>
+    </row>
+    <row r="115" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I115" s="3"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="4"/>
+    </row>
+    <row r="116" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I116" s="3"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="10"/>
+      <c r="N116" s="4"/>
+    </row>
+    <row r="117" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I117" s="3"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="10"/>
+      <c r="M117" s="10"/>
+      <c r="N117" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10065,4 +11728,246 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/flo/Blocks.xlsx
+++ b/doc/flo/Blocks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="555" windowWidth="12135" windowHeight="8520"/>
+    <workbookView xWindow="270" yWindow="555" windowWidth="12135" windowHeight="8520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BlockTypes" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="246">
   <si>
     <t>Block Types</t>
   </si>
@@ -730,6 +730,30 @@
   </si>
   <si>
     <t>OC</t>
+  </si>
+  <si>
+    <t>flick pan</t>
+  </si>
+  <si>
+    <t>mouse wheel</t>
+  </si>
+  <si>
+    <t>ctrl space</t>
+  </si>
+  <si>
+    <t>strictly on any drag that exits the main window</t>
+  </si>
+  <si>
+    <t>Right menu</t>
+  </si>
+  <si>
+    <t>extend select</t>
+  </si>
+  <si>
+    <t>drag select</t>
+  </si>
+  <si>
+    <t>all controls show up in a panel, tab or click in panel to focus there</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <pane xSplit="8985" ySplit="540" topLeftCell="AU24" activePane="bottomRight"/>
       <selection activeCell="AW14" sqref="AW14"/>
       <selection pane="topRight" activeCell="AU1" sqref="AU1"/>
@@ -11732,10 +11756,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11743,226 +11767,264 @@
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="36.140625" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>177</v>
       </c>
       <c r="D2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>211</v>
       </c>
       <c r="D5" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>190</v>
-      </c>
-    </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>182</v>
+      <c r="B20" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>193</v>
+      <c r="A22" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>197</v>
+      <c r="B27" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="33" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="36" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+      <c r="F36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+    <row r="50" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>216</v>
       </c>
     </row>

--- a/doc/flo/Blocks.xlsx
+++ b/doc/flo/Blocks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="262">
   <si>
     <t>Block Types</t>
   </si>
@@ -732,9 +732,6 @@
     <t>OC</t>
   </si>
   <si>
-    <t>flick pan</t>
-  </si>
-  <si>
     <t>mouse wheel</t>
   </si>
   <si>
@@ -754,17 +751,79 @@
   </si>
   <si>
     <t>all controls show up in a panel, tab or click in panel to focus there</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Wheel</t>
+  </si>
+  <si>
+    <t>plain</t>
+  </si>
+  <si>
+    <t>grabber pan</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>c-space</t>
+  </si>
+  <si>
+    <t>last screen</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>not now</t>
+  </si>
+  <si>
+    <t>c-C</t>
+  </si>
+  <si>
+    <t>c-V</t>
+  </si>
+  <si>
+    <t>c-X</t>
+  </si>
+  <si>
+    <t>c-Z</t>
+  </si>
+  <si>
+    <t>c-Y</t>
+  </si>
+  <si>
+    <t>bigscreen</t>
+  </si>
+  <si>
+    <t>shift select - it's box selection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -848,7 +907,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -887,6 +946,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1191,12 +1256,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA117"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <pane xSplit="8985" ySplit="540" topLeftCell="AU24" activePane="bottomRight"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="8985" ySplit="540" topLeftCell="AU17" activePane="bottomRight"/>
       <selection activeCell="AW14" sqref="AW14"/>
       <selection pane="topRight" activeCell="AU1" sqref="AU1"/>
       <selection pane="bottomLeft" activeCell="T45" sqref="T45"/>
-      <selection pane="bottomRight" activeCell="AW46" sqref="AW46"/>
+      <selection pane="bottomRight" activeCell="AX24" sqref="AX24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11756,10 +11821,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11767,15 +11832,34 @@
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="36.140625" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="49" customWidth="1"/>
+    <col min="6" max="6" width="39.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" t="s">
+        <v>247</v>
+      </c>
+      <c r="K1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>176</v>
+      </c>
       <c r="B2" t="s">
         <v>177</v>
       </c>
@@ -11783,26 +11867,44 @@
         <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+      <c r="H2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>176</v>
+      </c>
       <c r="B3" t="s">
         <v>175</v>
       </c>
       <c r="F3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="J3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>176</v>
+      </c>
       <c r="B4" t="s">
         <v>178</v>
       </c>
       <c r="F4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="K4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>176</v>
+      </c>
       <c r="B5" t="s">
         <v>211</v>
       </c>
@@ -11810,221 +11912,303 @@
         <v>212</v>
       </c>
       <c r="F5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="I6" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="B7" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="F7" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="F9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>183</v>
+      </c>
       <c r="B10" t="s">
-        <v>191</v>
-      </c>
-      <c r="F10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="G10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>183</v>
+      </c>
       <c r="B12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>183</v>
+      </c>
       <c r="B14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>183</v>
+      </c>
       <c r="B15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>183</v>
+      </c>
       <c r="B16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>189</v>
+      </c>
       <c r="B17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>189</v>
+      </c>
       <c r="B18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="B19" t="s">
+        <v>192</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>182</v>
+      </c>
       <c r="B20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>182</v>
+      </c>
       <c r="B21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>182</v>
+      </c>
       <c r="B23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>182</v>
+      </c>
       <c r="B24" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>197</v>
+      </c>
       <c r="B25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>184</v>
+      </c>
       <c r="B26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>184</v>
+      </c>
       <c r="B27" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>213</v>
+      </c>
+      <c r="F29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>213</v>
-      </c>
-      <c r="F36" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>216</v>
       </c>
     </row>

--- a/doc/flo/Blocks.xlsx
+++ b/doc/flo/Blocks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="555" windowWidth="12135" windowHeight="8520" activeTab="2"/>
+    <workbookView xWindow="270" yWindow="555" windowWidth="12135" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="BlockTypes" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="272">
   <si>
     <t>Block Types</t>
   </si>
@@ -802,6 +802,36 @@
   </si>
   <si>
     <t>shift select - it's box selection</t>
+  </si>
+  <si>
+    <t>imagename</t>
+  </si>
+  <si>
+    <t>blocksheet0-_02.png</t>
+  </si>
+  <si>
+    <t>blocksheet0-_03.png</t>
+  </si>
+  <si>
+    <t>blocksheet0-_04.png</t>
+  </si>
+  <si>
+    <t>blocksheet0-_05.png</t>
+  </si>
+  <si>
+    <t>blocksheet0-_14.png</t>
+  </si>
+  <si>
+    <t>blocksheet0-_11.png</t>
+  </si>
+  <si>
+    <t>blocksheet0-_09.png</t>
+  </si>
+  <si>
+    <t>vertpipe</t>
+  </si>
+  <si>
+    <t>protocoords</t>
   </si>
 </sst>
 </file>
@@ -907,7 +937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -944,14 +974,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1254,14 +1287,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA117"/>
+  <dimension ref="A1:BE117"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="8985" ySplit="540" topLeftCell="AU17" activePane="bottomRight"/>
-      <selection activeCell="AW14" sqref="AW14"/>
-      <selection pane="topRight" activeCell="AU1" sqref="AU1"/>
-      <selection pane="bottomLeft" activeCell="T45" sqref="T45"/>
-      <selection pane="bottomRight" activeCell="AX24" sqref="AX24"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <pane xSplit="8985" ySplit="540" topLeftCell="BC5" activePane="bottomRight"/>
+      <selection activeCell="AH1" sqref="AH1"/>
+      <selection pane="topRight" activeCell="BE1" sqref="BE1"/>
+      <selection pane="bottomLeft" activeCell="AH3" sqref="AH3:AH109"/>
+      <selection pane="bottomRight" activeCell="BF11" sqref="BF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1294,43 +1327,42 @@
     <col min="42" max="42" width="24" customWidth="1"/>
     <col min="45" max="45" width="23.7109375" customWidth="1"/>
     <col min="46" max="46" width="87.7109375" customWidth="1"/>
+    <col min="54" max="54" width="21.28515625" customWidth="1"/>
+    <col min="57" max="57" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12" t="s">
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
       <c r="T1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" t="s">
-        <v>164</v>
-      </c>
       <c r="AS1" t="s">
         <v>165</v>
       </c>
@@ -1358,8 +1390,18 @@
       <c r="BA1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="2" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BC1" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="BD1" s="15"/>
+      <c r="BE1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1378,7 +1420,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Control</v>
@@ -1467,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AH3" t="str">
-        <f>IF(ISBLANK(E3),"","&lt;&gt;%  ===== "&amp;E3&amp;" ===========&lt;&gt;"&amp;AE3&amp;").&lt;&gt;inputs("&amp;E3&amp;", "&amp;Z3&amp;").&lt;&gt;outputs("&amp;E3&amp;", "&amp;AD3&amp;").&lt;&gt;input_types("&amp;E3&amp;", "&amp;AP3&amp;").&lt;&gt;output_types("&amp;E3&amp;", "&amp;AQ3&amp;").&lt;&gt;")</f>
+        <f>IF(ISBLANK(E3),"","&lt;&gt;%  ===== "&amp;E3&amp;" ===========&lt;&gt;"&amp;AE3&amp;").&lt;&gt;inputs("&amp;E3&amp;", "&amp;Z3&amp;").&lt;&gt;outputs("&amp;E3&amp;", "&amp;AD3&amp;").&lt;&gt;input_types("&amp;E3&amp;", "&amp;AP3&amp;").&lt;&gt;output_types("&amp;E3&amp;", "&amp;AQ3&amp;").&lt;&gt;"&amp;IF(OR(ISBLANK(E3),ISBLANK(BB3)),"","image_name("&amp;E3&amp;", '/img/blocks/"&amp;BB3&amp;"').&lt;&gt;"))</f>
         <v>&lt;&gt;%  ===== if ===========&lt;&gt;section(if, 'Control').&lt;&gt;subsection(if, 'Control').&lt;&gt;description(if, 'If Cond is true, O is A, else O is B').&lt;&gt;visual_style(if,  normal).&lt;&gt;inputs(if, [required('Cond'), required('A'), required('B')]).&lt;&gt;outputs(if, ['O']).&lt;&gt;input_types(if, [scalar, object, object]).&lt;&gt;output_types(if, [object]).&lt;&gt;</v>
       </c>
       <c r="AI3" t="str">
@@ -1524,8 +1566,12 @@
       <c r="BA3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE3" t="str">
+        <f>AH3&amp;IF(OR(ISBLANK(E3),ISBLANK(BC3)), "", "prototype_coordinates("&amp;E3&amp;", "&amp;BC3&amp;", "&amp;BD3&amp;").&lt;&gt;")</f>
+        <v>&lt;&gt;%  ===== if ===========&lt;&gt;section(if, 'Control').&lt;&gt;subsection(if, 'Control').&lt;&gt;description(if, 'If Cond is true, O is A, else O is B').&lt;&gt;visual_style(if,  normal).&lt;&gt;inputs(if, [required('Cond'), required('A'), required('B')]).&lt;&gt;outputs(if, ['O']).&lt;&gt;input_types(if, [scalar, object, object]).&lt;&gt;output_types(if, [object]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Control</v>
@@ -1615,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="AH4" t="str">
-        <f t="shared" ref="AH4:AH63" si="14">IF(ISBLANK(E4),"","&lt;&gt;%  ===== "&amp;E4&amp;" ===========&lt;&gt;"&amp;AE4&amp;").&lt;&gt;inputs("&amp;E4&amp;", "&amp;Z4&amp;").&lt;&gt;outputs("&amp;E4&amp;", "&amp;AD4&amp;").&lt;&gt;input_types("&amp;E4&amp;", "&amp;AP4&amp;").&lt;&gt;output_types("&amp;E4&amp;", "&amp;AQ4&amp;").&lt;&gt;")</f>
+        <f t="shared" ref="AH4:AH67" si="14">IF(ISBLANK(E4),"","&lt;&gt;%  ===== "&amp;E4&amp;" ===========&lt;&gt;"&amp;AE4&amp;").&lt;&gt;inputs("&amp;E4&amp;", "&amp;Z4&amp;").&lt;&gt;outputs("&amp;E4&amp;", "&amp;AD4&amp;").&lt;&gt;input_types("&amp;E4&amp;", "&amp;AP4&amp;").&lt;&gt;output_types("&amp;E4&amp;", "&amp;AQ4&amp;").&lt;&gt;"&amp;IF(OR(ISBLANK(E4),ISBLANK(BB4)),"","image_name("&amp;E4&amp;", '/img/blocks/"&amp;BB4&amp;"').&lt;&gt;"))</f>
         <v>&lt;&gt;%  ===== ifvar ===========&lt;&gt;section(ifvar, 'Control').&lt;&gt;subsection(ifvar, 'Control').&lt;&gt;description(ifvar, 'If the value of Va is true, O is A, else O is B. Var is some compile time variable (eg. DEV for development version).').&lt;&gt;visual_style(ifvar,  normal).&lt;&gt;inputs(ifvar, [required('Cond'), required('A'), required('B')]).&lt;&gt;outputs(ifvar, ['O']).&lt;&gt;input_types(ifvar, [string, object, object]).&lt;&gt;output_types(ifvar, [object]).&lt;&gt;</v>
       </c>
       <c r="AI4" t="str">
@@ -1672,8 +1718,12 @@
       <c r="BA4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE4" t="str">
+        <f t="shared" ref="BE4:BE67" si="24">AH4&amp;IF(OR(ISBLANK(E4),ISBLANK(BC4)), "", "prototype_coordinates("&amp;E4&amp;", "&amp;BC4&amp;", "&amp;BD4&amp;").&lt;&gt;")</f>
+        <v>&lt;&gt;%  ===== ifvar ===========&lt;&gt;section(ifvar, 'Control').&lt;&gt;subsection(ifvar, 'Control').&lt;&gt;description(ifvar, 'If the value of Va is true, O is A, else O is B. Var is some compile time variable (eg. DEV for development version).').&lt;&gt;visual_style(ifvar,  normal).&lt;&gt;inputs(ifvar, [required('Cond'), required('A'), required('B')]).&lt;&gt;outputs(ifvar, ['O']).&lt;&gt;input_types(ifvar, [string, object, object]).&lt;&gt;output_types(ifvar, [object]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Control</v>
@@ -1754,7 +1804,7 @@
         <v>visual_style0</v>
       </c>
       <c r="AG5">
-        <f t="shared" ref="AG5:AG62" si="24">IF(ISBLANK(U4),AG4,AG4+1)</f>
+        <f t="shared" ref="AG5:AG62" si="25">IF(ISBLANK(U4),AG4,AG4+1)</f>
         <v>0</v>
       </c>
       <c r="AH5" t="str">
@@ -1800,8 +1850,12 @@
       <c r="AS5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE5" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== flipflop ===========&lt;&gt;section(flipflop, 'Control').&lt;&gt;subsection(flipflop, 'Control').&lt;&gt;description(flipflop, 'a jk flipflop').&lt;&gt;visual_style(flipflop,  normal).&lt;&gt;inputs(flipflop, [required('J'), required('K')]).&lt;&gt;outputs(flipflop, ['O']).&lt;&gt;input_types(flipflop, [pulse, pulse]).&lt;&gt;output_types(flipflop, [int]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1864,7 +1918,7 @@
         <v>visual_style0</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AH6" t="str">
@@ -1907,8 +1961,12 @@
         <f t="shared" si="23"/>
         <v>[]</v>
       </c>
-    </row>
-    <row r="7" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE6" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Editor Support</v>
@@ -1989,7 +2047,7 @@
         <v>visual_style0</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AH7" t="str">
@@ -2050,8 +2108,12 @@
       <c r="BA7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE7" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== isolate ===========&lt;&gt;section(isolate, 'Editor Support').&lt;&gt;subsection(isolate, 'Editor Support').&lt;&gt;description(isolate, 'if the connection to A is visible, runs the network beyond A and passes A to O. Otherwise passes default to O. Used during development to prevent, for example, having to run the entire sound system because the sound system sends a hint to the CV system.').&lt;&gt;visual_style(isolate,  normal).&lt;&gt;inputs(isolate, [required('A'), required('Default')]).&lt;&gt;outputs(isolate, ['O']).&lt;&gt;input_types(isolate, [object, object]).&lt;&gt;output_types(isolate, [object]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Editor Support</v>
@@ -2125,7 +2187,7 @@
         <v>visual_style0</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AH8" t="str">
@@ -2186,8 +2248,12 @@
       <c r="BA8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE8" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== inputparam ===========&lt;&gt;section(inputparam, 'Editor Support').&lt;&gt;subsection(inputparam, 'Editor Support').&lt;&gt;description(inputparam, 'used when defining new blocks').&lt;&gt;visual_style(inputparam,  visual_style0).&lt;&gt;inputs(inputparam, []).&lt;&gt;outputs(inputparam, ['O']).&lt;&gt;input_types(inputparam, []).&lt;&gt;output_types(inputparam, [object]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Editor Support</v>
@@ -2261,7 +2327,7 @@
         <v>visual_style1</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AH9" t="str">
@@ -2322,8 +2388,12 @@
       <c r="BA9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE9" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== outputparam ===========&lt;&gt;section(outputparam, 'Editor Support').&lt;&gt;subsection(outputparam, 'Editor Support').&lt;&gt;description(outputparam, 'used when defining new blocks').&lt;&gt;visual_style(outputparam,  visual_style1).&lt;&gt;inputs(outputparam, [required('A')]).&lt;&gt;outputs(outputparam, []).&lt;&gt;input_types(outputparam, [object]).&lt;&gt;output_types(outputparam, []).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -2386,7 +2456,7 @@
         <v>visual_style2</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="AH10" t="str">
@@ -2429,8 +2499,12 @@
         <f t="shared" si="23"/>
         <v>[]</v>
       </c>
-    </row>
-    <row r="11" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE10" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Math</v>
@@ -2520,7 +2594,7 @@
         <v>visual_style2</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="AH11" t="str">
@@ -2581,8 +2655,12 @@
       <c r="BA11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE11" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== func ===========&lt;&gt;section(func, 'Math').&lt;&gt;subsection(func, 'Math').&lt;&gt;description(func, 'This special block has a textbox for a formula. So if you type 3x+2 you see an input parameter x. Operator meaning depends on whats connected to x (scalar or vector). Understands LSL angle bracket quat syntax').&lt;&gt;visual_style(func,  normal).&lt;&gt;inputs(func, [required('A'), required('B'), required('C')]).&lt;&gt;outputs(func, ['O']).&lt;&gt;input_types(func, [scalar, scalar, scalar, scalar]).&lt;&gt;output_types(func, [object]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -2645,7 +2723,7 @@
         <v>visual_style2</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="AH12" t="str">
@@ -2688,8 +2766,12 @@
         <f t="shared" si="23"/>
         <v>[]</v>
       </c>
-    </row>
-    <row r="13" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE12" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Misc</v>
@@ -2765,7 +2847,7 @@
         <v>visual_style2</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="AH13" t="str">
@@ -2826,8 +2908,12 @@
       <c r="BA13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE13" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== delay ===========&lt;&gt;section(delay, 'Misc').&lt;&gt;subsection(delay, 'Misc').&lt;&gt;description(delay, 'O is the previous stable value of A').&lt;&gt;visual_style(delay,  normal).&lt;&gt;inputs(delay, [required('A')]).&lt;&gt;outputs(delay, ['O']).&lt;&gt;input_types(delay, [object]).&lt;&gt;output_types(delay, [object]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -2890,7 +2976,7 @@
         <v>visual_style2</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="AH14" t="str">
@@ -2933,8 +3019,12 @@
         <f t="shared" si="23"/>
         <v>[]</v>
       </c>
-    </row>
-    <row r="15" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
@@ -2997,7 +3087,7 @@
         <v>visual_style2</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="AH15" t="str">
@@ -3040,8 +3130,12 @@
         <f t="shared" si="23"/>
         <v>[]</v>
       </c>
-    </row>
-    <row r="16" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE15" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>I/O</v>
@@ -3115,7 +3209,7 @@
         <v>visual_style2</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="AH16" t="str">
@@ -3161,8 +3255,12 @@
       <c r="AS16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE16" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== pulse ===========&lt;&gt;section(pulse, 'I/O').&lt;&gt;subsection(pulse, 'scalar').&lt;&gt;description(pulse, 'Is 1 on the next frame after mouseup').&lt;&gt;visual_style(pulse,  visual_style2).&lt;&gt;inputs(pulse, []).&lt;&gt;outputs(pulse, ['O']).&lt;&gt;input_types(pulse, []).&lt;&gt;output_types(pulse, [pulse]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>I/O</v>
@@ -3236,7 +3334,7 @@
         <v>visual_style3</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="AH17" t="str">
@@ -3282,8 +3380,12 @@
       <c r="AS17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE17" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== proportion ===========&lt;&gt;section(proportion, 'I/O').&lt;&gt;subsection(proportion, 'scalar').&lt;&gt;description(proportion, 'slider value from 0-1').&lt;&gt;visual_style(proportion,  visual_style3).&lt;&gt;inputs(proportion, []).&lt;&gt;outputs(proportion, ['O']).&lt;&gt;input_types(proportion, []).&lt;&gt;output_types(proportion, [proportion]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>I/O</v>
@@ -3357,7 +3459,7 @@
         <v>visual_style4</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AH18" t="str">
@@ -3403,8 +3505,12 @@
       <c r="AS18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE18" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== floatval ===========&lt;&gt;section(floatval, 'I/O').&lt;&gt;subsection(floatval, 'scalar').&lt;&gt;description(floatval, 'float value that varies over -inf to +inf').&lt;&gt;visual_style(floatval,  visual_style4).&lt;&gt;inputs(floatval, []).&lt;&gt;outputs(floatval, ['O']).&lt;&gt;input_types(floatval, []).&lt;&gt;output_types(floatval, [float]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>43</v>
       </c>
@@ -3467,7 +3573,7 @@
         <v>visual_style5</v>
       </c>
       <c r="AG19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="AH19" t="str">
@@ -3510,8 +3616,12 @@
         <f t="shared" si="23"/>
         <v>[]</v>
       </c>
-    </row>
-    <row r="20" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE19" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>I/O</v>
@@ -3582,7 +3692,7 @@
         <v>visual_style5</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="AH20" t="str">
@@ -3628,8 +3738,12 @@
       <c r="AS20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE20" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== mic ===========&lt;&gt;section(mic, 'I/O').&lt;&gt;subsection(mic, 'sound').&lt;&gt;description(mic, 'samples from mic').&lt;&gt;visual_style(mic,  normal).&lt;&gt;inputs(mic, []).&lt;&gt;outputs(mic, ['O']).&lt;&gt;input_types(mic, []).&lt;&gt;output_types(mic, [sample]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>I/O</v>
@@ -3703,7 +3817,7 @@
         <v>visual_style5</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="AH21" t="str">
@@ -3749,8 +3863,12 @@
       <c r="AS21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE21" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== listen ===========&lt;&gt;section(listen, 'I/O').&lt;&gt;subsection(listen, 'sound').&lt;&gt;description(listen, 'Sends sound to default output').&lt;&gt;visual_style(listen,  visual_style5).&lt;&gt;inputs(listen, [required('A')]).&lt;&gt;outputs(listen, []).&lt;&gt;input_types(listen, [sample]).&lt;&gt;output_types(listen, []).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>49</v>
       </c>
@@ -3813,7 +3931,7 @@
         <v>visual_style6</v>
       </c>
       <c r="AG22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="AH22" t="str">
@@ -3856,8 +3974,12 @@
         <f t="shared" si="23"/>
         <v>[]</v>
       </c>
-    </row>
-    <row r="23" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE22" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>I/O</v>
@@ -3937,7 +4059,7 @@
         <v>visual_style6</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="AH23" t="str">
@@ -3983,8 +4105,12 @@
       <c r="AS23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE23" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== camera ===========&lt;&gt;section(camera, 'I/O').&lt;&gt;subsection(camera, 'imaging').&lt;&gt;description(camera, 'O is frames out of camera, K is camera intrinsics').&lt;&gt;visual_style(camera,  visual_style6).&lt;&gt;inputs(camera, []).&lt;&gt;outputs(camera, ['O', 'K']).&lt;&gt;input_types(camera, []).&lt;&gt;output_types(camera, [rgb, intrinsics]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>I/O</v>
@@ -4065,7 +4191,7 @@
         <v>visual_style7</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="AH24" t="str">
@@ -4111,8 +4237,12 @@
       <c r="AS24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE24" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== eyes ===========&lt;&gt;section(eyes, 'I/O').&lt;&gt;subsection(eyes, 'imaging').&lt;&gt;description(eyes, 'input is commanded eye position, output is left and right eye cams').&lt;&gt;visual_style(eyes,  normal).&lt;&gt;inputs(eyes, [required('x'), required('y')]).&lt;&gt;outputs(eyes, ['OL', 'OR']).&lt;&gt;input_types(eyes, [proportion, proportion]).&lt;&gt;output_types(eyes, []).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>I/O</v>
@@ -4186,7 +4316,7 @@
         <v>visual_style7</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="AH25" t="str">
@@ -4232,8 +4362,12 @@
       <c r="AS25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE25" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== videoplayer ===========&lt;&gt;section(videoplayer, 'I/O').&lt;&gt;subsection(videoplayer, 'imaging').&lt;&gt;description(videoplayer, 'Sends frames out O, sound out S').&lt;&gt;visual_style(videoplayer,  visual_style7).&lt;&gt;inputs(videoplayer, []).&lt;&gt;outputs(videoplayer, ['O', 'S']).&lt;&gt;input_types(videoplayer, []).&lt;&gt;output_types(videoplayer, []).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>I/O</v>
@@ -4312,7 +4446,7 @@
         <v>visual_style8</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="AH26" t="str">
@@ -4358,8 +4492,12 @@
       <c r="AS26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE26" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== videorecord ===========&lt;&gt;section(videorecord, 'I/O').&lt;&gt;subsection(videorecord, 'imaging').&lt;&gt;description(videorecord, 'Records frames to file. Figures out what to record from filetype and what\'s connected.').&lt;&gt;visual_style(videorecord,  visual_style8).&lt;&gt;inputs(videorecord, [optional('Vid'), optional('Snd')]).&lt;&gt;outputs(videorecord, []).&lt;&gt;input_types(videorecord, [image, sample]).&lt;&gt;output_types(videorecord, []).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>I/O</v>
@@ -4433,7 +4571,7 @@
         <v>visual_style9</v>
       </c>
       <c r="AG27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="AH27" t="str">
@@ -4479,8 +4617,12 @@
       <c r="AS27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE27" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== spectrum ===========&lt;&gt;section(spectrum, 'I/O').&lt;&gt;subsection(spectrum, 'imaging').&lt;&gt;description(spectrum, 'dancing spectrum display').&lt;&gt;visual_style(spectrum,  visual_style9).&lt;&gt;inputs(spectrum, [required('A')]).&lt;&gt;outputs(spectrum, []).&lt;&gt;input_types(spectrum, [sample]).&lt;&gt;output_types(spectrum, []).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>I/O</v>
@@ -4554,7 +4696,7 @@
         <v>visual_style10</v>
       </c>
       <c r="AG28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="AH28" t="str">
@@ -4600,8 +4742,12 @@
       <c r="AS28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE28" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== draw_tool ===========&lt;&gt;section(draw_tool, 'I/O').&lt;&gt;subsection(draw_tool, 'imaging').&lt;&gt;description(draw_tool, 'output frame each time updated').&lt;&gt;visual_style(draw_tool,  visual_style10).&lt;&gt;inputs(draw_tool, []).&lt;&gt;outputs(draw_tool, ['O']).&lt;&gt;input_types(draw_tool, []).&lt;&gt;output_types(draw_tool, [rgb]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>I/O</v>
@@ -4675,7 +4821,7 @@
         <v>visual_style11</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="AH29" t="str">
@@ -4721,8 +4867,12 @@
       <c r="AS29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE29" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== viewer ===========&lt;&gt;section(viewer, 'I/O').&lt;&gt;subsection(viewer, 'imaging').&lt;&gt;description(viewer, 'displays image').&lt;&gt;visual_style(viewer,  visual_style11).&lt;&gt;inputs(viewer, [required('A')]).&lt;&gt;outputs(viewer, []).&lt;&gt;input_types(viewer, [image]).&lt;&gt;output_types(viewer, []).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>I/O</v>
@@ -4796,7 +4946,7 @@
         <v>visual_style12</v>
       </c>
       <c r="AG30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="AH30" t="str">
@@ -4842,8 +4992,12 @@
       <c r="AS30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE30" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== kernal ===========&lt;&gt;section(kernal, 'I/O').&lt;&gt;subsection(kernal, 'imaging').&lt;&gt;description(kernal, 'kernal UI for defining kernals').&lt;&gt;visual_style(kernal,  visual_style12).&lt;&gt;inputs(kernal, []).&lt;&gt;outputs(kernal, ['O']).&lt;&gt;input_types(kernal, []).&lt;&gt;output_types(kernal, [kernal]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>76</v>
       </c>
@@ -4906,7 +5060,7 @@
         <v>visual_style13</v>
       </c>
       <c r="AG31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>13</v>
       </c>
       <c r="AH31" t="str">
@@ -4949,8 +5103,12 @@
         <f t="shared" si="23"/>
         <v>[]</v>
       </c>
-    </row>
-    <row r="32" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE31" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>I/O</v>
@@ -5024,7 +5182,7 @@
         <v>visual_style13</v>
       </c>
       <c r="AG32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>13</v>
       </c>
       <c r="AH32" t="str">
@@ -5070,8 +5228,12 @@
       <c r="AS32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE32" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== bodymask ===========&lt;&gt;section(bodymask, 'I/O').&lt;&gt;subsection(bodymask, 'body').&lt;&gt;description(bodymask, 'output is a vector of booleans for joints').&lt;&gt;visual_style(bodymask,  visual_style13).&lt;&gt;inputs(bodymask, []).&lt;&gt;outputs(bodymask, ['O']).&lt;&gt;input_types(bodymask, []).&lt;&gt;output_types(bodymask, [mask]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>I/O</v>
@@ -5142,7 +5304,7 @@
         <v>visual_style14</v>
       </c>
       <c r="AG33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="AH33" t="str">
@@ -5188,14 +5350,18 @@
       <c r="AS33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE33" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== bodyposition ===========&lt;&gt;section(bodyposition, 'I/O').&lt;&gt;subsection(bodyposition, 'body').&lt;&gt;description(bodyposition, 'output is a vector of joint positions from physivcal bot').&lt;&gt;visual_style(bodyposition,  normal).&lt;&gt;inputs(bodyposition, []).&lt;&gt;outputs(bodyposition, ['O']).&lt;&gt;input_types(bodyposition, []).&lt;&gt;output_types(bodyposition, [joints]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="str">
-        <f t="shared" ref="C34:C62" si="25">IF(ISBLANK(A34),C33,A34)</f>
+        <f t="shared" ref="C34:C62" si="26">IF(ISBLANK(A34),C33,A34)</f>
         <v>I/O</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f t="shared" ref="D34:D62" si="26">IF(NOT(ISBLANK(B34)), B34, IF(ISBLANK(A34), D33,A34))</f>
+        <f t="shared" ref="D34:D62" si="27">IF(NOT(ISBLANK(B34)), B34, IF(ISBLANK(A34), D33,A34))</f>
         <v>body</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -5260,7 +5426,7 @@
         <v>visual_style14</v>
       </c>
       <c r="AG34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="AH34" t="str">
@@ -5306,14 +5472,18 @@
       <c r="AS34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE34" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== bodypossim ===========&lt;&gt;section(bodypossim, 'I/O').&lt;&gt;subsection(bodypossim, 'body').&lt;&gt;description(bodypossim, 'as per bodyposition but from the simulator').&lt;&gt;visual_style(bodypossim,  normal).&lt;&gt;inputs(bodypossim, []).&lt;&gt;outputs(bodypossim, ['O']).&lt;&gt;input_types(bodypossim, []).&lt;&gt;output_types(bodypossim, [joints]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>I/O</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>body</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -5383,7 +5553,7 @@
         <v>visual_style14</v>
       </c>
       <c r="AG35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="AH35" t="str">
@@ -5429,14 +5599,18 @@
       <c r="AS35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE35" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== motors ===========&lt;&gt;section(motors, 'I/O').&lt;&gt;subsection(motors, 'body').&lt;&gt;description(motors, 'Send channels of vector A matching Mask to robot servos').&lt;&gt;visual_style(motors,  normal).&lt;&gt;inputs(motors, [required('A'), required('Mask')]).&lt;&gt;outputs(motors, []).&lt;&gt;input_types(motors, [joints, jointmask]).&lt;&gt;output_types(motors, []).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>I/O</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>body</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -5506,7 +5680,7 @@
         <v>visual_style14</v>
       </c>
       <c r="AG36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="AH36" t="str">
@@ -5552,8 +5726,12 @@
       <c r="AS36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE36" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== motorsim ===========&lt;&gt;section(motorsim, 'I/O').&lt;&gt;subsection(motorsim, 'body').&lt;&gt;description(motorsim, 'As per motors, but to simulator').&lt;&gt;visual_style(motorsim,  normal).&lt;&gt;inputs(motorsim, [required('A'), required('Mask')]).&lt;&gt;outputs(motorsim, []).&lt;&gt;input_types(motorsim, [joints, jointmask]).&lt;&gt;output_types(motorsim, []).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>217</v>
       </c>
@@ -5561,11 +5739,11 @@
         <v>218</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f t="shared" ref="C37:C46" si="27">IF(ISBLANK(A37),C36,A37)</f>
+        <f t="shared" ref="C37:C46" si="28">IF(ISBLANK(A37),C36,A37)</f>
         <v>connector</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f t="shared" ref="D37:D46" si="28">IF(NOT(ISBLANK(B37)), B37, IF(ISBLANK(A37), D36,A37))</f>
+        <f t="shared" ref="D37:D46" si="29">IF(NOT(ISBLANK(B37)), B37, IF(ISBLANK(A37), D36,A37))</f>
         <v>pipe</v>
       </c>
       <c r="I37" s="3"/>
@@ -5575,55 +5753,55 @@
       <c r="M37" s="10"/>
       <c r="N37" s="4"/>
       <c r="V37" s="9" t="str">
-        <f t="shared" ref="V37:V46" si="29">"["&amp;IF(RIGHT(F37,5)="(opt)","optional('"&amp;LEFT(F37,LEN(F37)-5)&amp;"')",IF(ISBLANK(F37),"","required('"&amp;F37&amp;"')"))</f>
+        <f t="shared" ref="V37:V46" si="30">"["&amp;IF(RIGHT(F37,5)="(opt)","optional('"&amp;LEFT(F37,LEN(F37)-5)&amp;"')",IF(ISBLANK(F37),"","required('"&amp;F37&amp;"')"))</f>
         <v>[</v>
       </c>
       <c r="W37" s="9" t="str">
-        <f t="shared" ref="W37:W46" si="30">IF(RIGHT(G37,5)="(opt)",", optional('"&amp;LEFT(G37, LEN(G37)-5)&amp;"')",IF(ISBLANK(G37),"",", required('"&amp;G37&amp;"')"))</f>
+        <f t="shared" ref="W37:W46" si="31">IF(RIGHT(G37,5)="(opt)",", optional('"&amp;LEFT(G37, LEN(G37)-5)&amp;"')",IF(ISBLANK(G37),"",", required('"&amp;G37&amp;"')"))</f>
         <v/>
       </c>
       <c r="X37" s="9" t="str">
-        <f t="shared" ref="X37:X46" si="31">IF(RIGHT(H37,5)="(opt)",", optional('"&amp;LEFT(H37, LEN(H37)-5)&amp;"')",IF(ISBLANK(H37),"",", required('"&amp;H37&amp;"')"))</f>
+        <f t="shared" ref="X37:X46" si="32">IF(RIGHT(H37,5)="(opt)",", optional('"&amp;LEFT(H37, LEN(H37)-5)&amp;"')",IF(ISBLANK(H37),"",", required('"&amp;H37&amp;"')"))</f>
         <v/>
       </c>
       <c r="Y37" s="9" t="str">
-        <f t="shared" ref="Y37:Y46" si="32">IF(RIGHT(I37,5)="(opt)",", optional('"&amp;LEFT(I37, LEN(I37)-5)&amp;"')",IF(ISBLANK(I37),"",", required('"&amp;I37&amp;"')"))</f>
+        <f t="shared" ref="Y37:Y46" si="33">IF(RIGHT(I37,5)="(opt)",", optional('"&amp;LEFT(I37, LEN(I37)-5)&amp;"')",IF(ISBLANK(I37),"",", required('"&amp;I37&amp;"')"))</f>
         <v/>
       </c>
       <c r="Z37" t="str">
-        <f t="shared" ref="Z37:Z46" si="33">V37&amp;W37&amp;X37&amp;"]"</f>
+        <f t="shared" ref="Z37:Z46" si="34">V37&amp;W37&amp;X37&amp;"]"</f>
         <v>[]</v>
       </c>
       <c r="AA37" s="1" t="str">
-        <f t="shared" ref="AA37:AA46" si="34">"["&amp;IF(ISBLANK(N37),"", "'"&amp;N37&amp;"'")</f>
+        <f t="shared" ref="AA37:AA46" si="35">"["&amp;IF(ISBLANK(N37),"", "'"&amp;N37&amp;"'")</f>
         <v>[</v>
       </c>
       <c r="AB37" t="str">
-        <f t="shared" ref="AB37:AB46" si="35">IF(ISBLANK(O37),"",", '"&amp;O37&amp;"'")</f>
+        <f t="shared" ref="AB37:AB46" si="36">IF(ISBLANK(O37),"",", '"&amp;O37&amp;"'")</f>
         <v/>
       </c>
       <c r="AC37" t="str">
-        <f t="shared" ref="AC37:AC46" si="36">IF(ISBLANK(P37),"",", '"&amp;P37&amp;"'")</f>
+        <f t="shared" ref="AC37:AC46" si="37">IF(ISBLANK(P37),"",", '"&amp;P37&amp;"'")</f>
         <v/>
       </c>
       <c r="AD37" t="str">
-        <f t="shared" ref="AD37:AD46" si="37">AA37&amp;AB37&amp;AC37&amp;"]"</f>
+        <f t="shared" ref="AD37:AD46" si="38">AA37&amp;AB37&amp;AC37&amp;"]"</f>
         <v>[]</v>
       </c>
       <c r="AE37" t="str">
-        <f t="shared" ref="AE37:AE46" si="38">IF(ISBLANK(E37),"","section("&amp;E37&amp;", '"&amp;C37&amp;"').&lt;&gt;subsection("&amp;E37&amp;", '"&amp;D37&amp;"').&lt;&gt;description("&amp;E37&amp;", '"&amp;T37&amp;"').&lt;&gt;visual_style("&amp;E37&amp;",  "&amp;IF(ISBLANK(U37),"normal",AF37))</f>
+        <f t="shared" ref="AE37:AE46" si="39">IF(ISBLANK(E37),"","section("&amp;E37&amp;", '"&amp;C37&amp;"').&lt;&gt;subsection("&amp;E37&amp;", '"&amp;D37&amp;"').&lt;&gt;description("&amp;E37&amp;", '"&amp;T37&amp;"').&lt;&gt;visual_style("&amp;E37&amp;",  "&amp;IF(ISBLANK(U37),"normal",AF37))</f>
         <v/>
       </c>
       <c r="AF37" t="str">
-        <f t="shared" ref="AF37:AF46" si="39">"visual_style"&amp;AG37</f>
+        <f t="shared" ref="AF37:AF46" si="40">"visual_style"&amp;AG37</f>
         <v>visual_style14</v>
       </c>
       <c r="AG37">
-        <f t="shared" ref="AG37:AG47" si="40">IF(ISBLANK(U36),AG36,AG36+1)</f>
+        <f t="shared" ref="AG37:AG47" si="41">IF(ISBLANK(U36),AG36,AG36+1)</f>
         <v>14</v>
       </c>
       <c r="AH37" t="str">
-        <f t="shared" ref="AH37:AH48" si="41">IF(ISBLANK(E37),"","&lt;&gt;%  ===== "&amp;E37&amp;" ===========&lt;&gt;"&amp;AE37&amp;").&lt;&gt;inputs("&amp;E37&amp;", "&amp;Z37&amp;").&lt;&gt;outputs("&amp;E37&amp;", "&amp;AD37&amp;").&lt;&gt;input_types("&amp;E37&amp;", "&amp;AP37&amp;").&lt;&gt;output_types("&amp;E37&amp;", "&amp;AQ37&amp;").&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AI37" t="str">
@@ -5662,17 +5840,21 @@
         <f t="shared" ref="AQ37:AQ46" si="50">AM37&amp;AN37&amp;AO37&amp;"]"</f>
         <v>[]</v>
       </c>
-    </row>
-    <row r="38" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE37" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>218</v>
       </c>
       <c r="C38" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>connector</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>pipe</v>
       </c>
       <c r="I38" s="3"/>
@@ -5682,55 +5864,55 @@
       <c r="M38" s="10"/>
       <c r="N38" s="4"/>
       <c r="V38" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>[</v>
       </c>
       <c r="W38" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="X38" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y38" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="Z38" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>[]</v>
       </c>
       <c r="AA38" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>[</v>
       </c>
       <c r="AB38" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AC38" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AD38" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>[]</v>
       </c>
       <c r="AE38" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AF38" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>visual_style14</v>
       </c>
       <c r="AG38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>14</v>
       </c>
       <c r="AH38" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AI38" t="str">
@@ -5769,14 +5951,18 @@
         <f t="shared" si="50"/>
         <v>[]</v>
       </c>
-    </row>
-    <row r="39" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE38" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>connector</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>pipe</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -5805,56 +5991,56 @@
         <v>222</v>
       </c>
       <c r="V39" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>[required('A')</v>
       </c>
       <c r="W39" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="X39" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y39" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="Z39" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>[required('A')]</v>
       </c>
       <c r="AA39" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>['O'</v>
       </c>
       <c r="AB39" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AC39" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AD39" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>['O']</v>
       </c>
       <c r="AE39" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>section(drbend, 'connector').&lt;&gt;subsection(drbend, 'pipe').&lt;&gt;description(drbend, 'bidi pipe connection').&lt;&gt;visual_style(drbend,  visual_style14</v>
       </c>
       <c r="AF39" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>visual_style14</v>
       </c>
       <c r="AG39">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>14</v>
       </c>
       <c r="AH39" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;&gt;%  ===== drbend ===========&lt;&gt;section(drbend, 'connector').&lt;&gt;subsection(drbend, 'pipe').&lt;&gt;description(drbend, 'bidi pipe connection').&lt;&gt;visual_style(drbend,  visual_style14).&lt;&gt;inputs(drbend, [required('A')]).&lt;&gt;outputs(drbend, ['O']).&lt;&gt;input_types(drbend, [any]).&lt;&gt;output_types(drbend, [any]).&lt;&gt;</v>
+        <f t="shared" si="14"/>
+        <v>&lt;&gt;%  ===== drbend ===========&lt;&gt;section(drbend, 'connector').&lt;&gt;subsection(drbend, 'pipe').&lt;&gt;description(drbend, 'bidi pipe connection').&lt;&gt;visual_style(drbend,  visual_style14).&lt;&gt;inputs(drbend, [required('A')]).&lt;&gt;outputs(drbend, ['O']).&lt;&gt;input_types(drbend, [any]).&lt;&gt;output_types(drbend, [any]).&lt;&gt;image_name(drbend, '/img/blocks/blocksheet0-_02.png').&lt;&gt;</v>
       </c>
       <c r="AI39" t="str">
         <f t="shared" si="42"/>
@@ -5916,14 +6102,27 @@
       <c r="BA39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB39" t="s">
+        <v>263</v>
+      </c>
+      <c r="BC39">
+        <v>20</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+      <c r="BE39" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== drbend ===========&lt;&gt;section(drbend, 'connector').&lt;&gt;subsection(drbend, 'pipe').&lt;&gt;description(drbend, 'bidi pipe connection').&lt;&gt;visual_style(drbend,  visual_style14).&lt;&gt;inputs(drbend, [required('A')]).&lt;&gt;outputs(drbend, ['O']).&lt;&gt;input_types(drbend, [any]).&lt;&gt;output_types(drbend, [any]).&lt;&gt;image_name(drbend, '/img/blocks/blocksheet0-_02.png').&lt;&gt;prototype_coordinates(drbend, 20, 0).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>connector</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>pipe</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -5952,56 +6151,56 @@
         <v>222</v>
       </c>
       <c r="V40" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>[required('A')</v>
       </c>
       <c r="W40" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="X40" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y40" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="Z40" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>[required('A')]</v>
       </c>
       <c r="AA40" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>['O'</v>
       </c>
       <c r="AB40" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AC40" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AD40" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>['O']</v>
       </c>
       <c r="AE40" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>section(dlbend, 'connector').&lt;&gt;subsection(dlbend, 'pipe').&lt;&gt;description(dlbend, 'bidi pipe connection').&lt;&gt;visual_style(dlbend,  visual_style15</v>
       </c>
       <c r="AF40" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>visual_style15</v>
       </c>
       <c r="AG40">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>15</v>
       </c>
       <c r="AH40" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;&gt;%  ===== dlbend ===========&lt;&gt;section(dlbend, 'connector').&lt;&gt;subsection(dlbend, 'pipe').&lt;&gt;description(dlbend, 'bidi pipe connection').&lt;&gt;visual_style(dlbend,  visual_style15).&lt;&gt;inputs(dlbend, [required('A')]).&lt;&gt;outputs(dlbend, ['O']).&lt;&gt;input_types(dlbend, [any]).&lt;&gt;output_types(dlbend, [any]).&lt;&gt;</v>
+        <f t="shared" si="14"/>
+        <v>&lt;&gt;%  ===== dlbend ===========&lt;&gt;section(dlbend, 'connector').&lt;&gt;subsection(dlbend, 'pipe').&lt;&gt;description(dlbend, 'bidi pipe connection').&lt;&gt;visual_style(dlbend,  visual_style15).&lt;&gt;inputs(dlbend, [required('A')]).&lt;&gt;outputs(dlbend, ['O']).&lt;&gt;input_types(dlbend, [any]).&lt;&gt;output_types(dlbend, [any]).&lt;&gt;image_name(dlbend, '/img/blocks/blocksheet0-_03.png').&lt;&gt;</v>
       </c>
       <c r="AI40" t="str">
         <f t="shared" si="42"/>
@@ -6060,14 +6259,27 @@
       <c r="BA40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB40" t="s">
+        <v>264</v>
+      </c>
+      <c r="BC40">
+        <v>20</v>
+      </c>
+      <c r="BD40">
+        <v>1</v>
+      </c>
+      <c r="BE40" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== dlbend ===========&lt;&gt;section(dlbend, 'connector').&lt;&gt;subsection(dlbend, 'pipe').&lt;&gt;description(dlbend, 'bidi pipe connection').&lt;&gt;visual_style(dlbend,  visual_style15).&lt;&gt;inputs(dlbend, [required('A')]).&lt;&gt;outputs(dlbend, ['O']).&lt;&gt;input_types(dlbend, [any]).&lt;&gt;output_types(dlbend, [any]).&lt;&gt;image_name(dlbend, '/img/blocks/blocksheet0-_03.png').&lt;&gt;prototype_coordinates(dlbend, 20, 1).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>connector</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>pipe</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -6096,56 +6308,56 @@
         <v>222</v>
       </c>
       <c r="V41" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>[required('A')</v>
       </c>
       <c r="W41" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="X41" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y41" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="Z41" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>[required('A')]</v>
       </c>
       <c r="AA41" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>['O'</v>
       </c>
       <c r="AB41" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AC41" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AD41" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>['O']</v>
       </c>
       <c r="AE41" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>section(horpipe, 'connector').&lt;&gt;subsection(horpipe, 'pipe').&lt;&gt;description(horpipe, 'bidi pipe connection').&lt;&gt;visual_style(horpipe,  visual_style16</v>
       </c>
       <c r="AF41" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>visual_style16</v>
       </c>
       <c r="AG41">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>16</v>
       </c>
       <c r="AH41" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;&gt;%  ===== horpipe ===========&lt;&gt;section(horpipe, 'connector').&lt;&gt;subsection(horpipe, 'pipe').&lt;&gt;description(horpipe, 'bidi pipe connection').&lt;&gt;visual_style(horpipe,  visual_style16).&lt;&gt;inputs(horpipe, [required('A')]).&lt;&gt;outputs(horpipe, ['O']).&lt;&gt;input_types(horpipe, [any]).&lt;&gt;output_types(horpipe, [any]).&lt;&gt;</v>
+        <f t="shared" si="14"/>
+        <v>&lt;&gt;%  ===== horpipe ===========&lt;&gt;section(horpipe, 'connector').&lt;&gt;subsection(horpipe, 'pipe').&lt;&gt;description(horpipe, 'bidi pipe connection').&lt;&gt;visual_style(horpipe,  visual_style16).&lt;&gt;inputs(horpipe, [required('A')]).&lt;&gt;outputs(horpipe, ['O']).&lt;&gt;input_types(horpipe, [any]).&lt;&gt;output_types(horpipe, [any]).&lt;&gt;image_name(horpipe, '/img/blocks/blocksheet0-_04.png').&lt;&gt;</v>
       </c>
       <c r="AI41" t="str">
         <f t="shared" si="42"/>
@@ -6204,14 +6416,28 @@
       <c r="BA41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB41" t="s">
+        <v>265</v>
+      </c>
+      <c r="BC41">
+        <v>20</v>
+      </c>
+      <c r="BD41">
+        <f>BD40+1</f>
+        <v>2</v>
+      </c>
+      <c r="BE41" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== horpipe ===========&lt;&gt;section(horpipe, 'connector').&lt;&gt;subsection(horpipe, 'pipe').&lt;&gt;description(horpipe, 'bidi pipe connection').&lt;&gt;visual_style(horpipe,  visual_style16).&lt;&gt;inputs(horpipe, [required('A')]).&lt;&gt;outputs(horpipe, ['O']).&lt;&gt;input_types(horpipe, [any]).&lt;&gt;output_types(horpipe, [any]).&lt;&gt;image_name(horpipe, '/img/blocks/blocksheet0-_04.png').&lt;&gt;prototype_coordinates(horpipe, 20, 2).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>connector</v>
       </c>
       <c r="D42" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>pipe</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -6251,56 +6477,56 @@
         <v>222</v>
       </c>
       <c r="V42" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>[required('A')</v>
       </c>
       <c r="W42" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>, required('B')</v>
       </c>
       <c r="X42" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y42" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="Z42" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>[required('A'), required('B')]</v>
       </c>
       <c r="AA42" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>['OA'</v>
       </c>
       <c r="AB42" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>, 'OB'</v>
       </c>
       <c r="AC42" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AD42" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>['OA', 'OB']</v>
       </c>
       <c r="AE42" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>section(cross, 'connector').&lt;&gt;subsection(cross, 'pipe').&lt;&gt;description(cross, 'bidi pipe connection').&lt;&gt;visual_style(cross,  visual_style17</v>
       </c>
       <c r="AF42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>visual_style17</v>
       </c>
       <c r="AG42">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>17</v>
       </c>
       <c r="AH42" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;&gt;%  ===== cross ===========&lt;&gt;section(cross, 'connector').&lt;&gt;subsection(cross, 'pipe').&lt;&gt;description(cross, 'bidi pipe connection').&lt;&gt;visual_style(cross,  visual_style17).&lt;&gt;inputs(cross, [required('A'), required('B')]).&lt;&gt;outputs(cross, ['OA', 'OB']).&lt;&gt;input_types(cross, [any, any]).&lt;&gt;output_types(cross, [any, any]).&lt;&gt;</v>
+        <f t="shared" si="14"/>
+        <v>&lt;&gt;%  ===== cross ===========&lt;&gt;section(cross, 'connector').&lt;&gt;subsection(cross, 'pipe').&lt;&gt;description(cross, 'bidi pipe connection').&lt;&gt;visual_style(cross,  visual_style17).&lt;&gt;inputs(cross, [required('A'), required('B')]).&lt;&gt;outputs(cross, ['OA', 'OB']).&lt;&gt;input_types(cross, [any, any]).&lt;&gt;output_types(cross, [any, any]).&lt;&gt;image_name(cross, '/img/blocks/blocksheet0-_05.png').&lt;&gt;</v>
       </c>
       <c r="AI42" t="str">
         <f t="shared" si="42"/>
@@ -6359,14 +6585,28 @@
       <c r="BA42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB42" t="s">
+        <v>266</v>
+      </c>
+      <c r="BC42">
+        <v>20</v>
+      </c>
+      <c r="BD42">
+        <f t="shared" ref="BD42:BD45" si="51">BD41+1</f>
+        <v>3</v>
+      </c>
+      <c r="BE42" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== cross ===========&lt;&gt;section(cross, 'connector').&lt;&gt;subsection(cross, 'pipe').&lt;&gt;description(cross, 'bidi pipe connection').&lt;&gt;visual_style(cross,  visual_style17).&lt;&gt;inputs(cross, [required('A'), required('B')]).&lt;&gt;outputs(cross, ['OA', 'OB']).&lt;&gt;input_types(cross, [any, any]).&lt;&gt;output_types(cross, [any, any]).&lt;&gt;image_name(cross, '/img/blocks/blocksheet0-_05.png').&lt;&gt;prototype_coordinates(cross, 20, 3).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>connector</v>
       </c>
       <c r="D43" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>pipe</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -6395,56 +6635,56 @@
         <v>222</v>
       </c>
       <c r="V43" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>[required('A')</v>
       </c>
       <c r="W43" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="X43" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y43" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="Z43" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>[required('A')]</v>
       </c>
       <c r="AA43" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>['O'</v>
       </c>
       <c r="AB43" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AC43" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AD43" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>['O']</v>
       </c>
       <c r="AE43" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>section(urbend, 'connector').&lt;&gt;subsection(urbend, 'pipe').&lt;&gt;description(urbend, 'bidi pipe connection').&lt;&gt;visual_style(urbend,  visual_style18</v>
       </c>
       <c r="AF43" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>visual_style18</v>
       </c>
       <c r="AG43">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>18</v>
       </c>
       <c r="AH43" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;&gt;%  ===== urbend ===========&lt;&gt;section(urbend, 'connector').&lt;&gt;subsection(urbend, 'pipe').&lt;&gt;description(urbend, 'bidi pipe connection').&lt;&gt;visual_style(urbend,  visual_style18).&lt;&gt;inputs(urbend, [required('A')]).&lt;&gt;outputs(urbend, ['O']).&lt;&gt;input_types(urbend, [any]).&lt;&gt;output_types(urbend, [any]).&lt;&gt;</v>
+        <f t="shared" si="14"/>
+        <v>&lt;&gt;%  ===== urbend ===========&lt;&gt;section(urbend, 'connector').&lt;&gt;subsection(urbend, 'pipe').&lt;&gt;description(urbend, 'bidi pipe connection').&lt;&gt;visual_style(urbend,  visual_style18).&lt;&gt;inputs(urbend, [required('A')]).&lt;&gt;outputs(urbend, ['O']).&lt;&gt;input_types(urbend, [any]).&lt;&gt;output_types(urbend, [any]).&lt;&gt;image_name(urbend, '/img/blocks/blocksheet0-_14.png').&lt;&gt;</v>
       </c>
       <c r="AI43" t="str">
         <f t="shared" si="42"/>
@@ -6503,14 +6743,28 @@
       <c r="BA43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB43" t="s">
+        <v>267</v>
+      </c>
+      <c r="BC43">
+        <v>20</v>
+      </c>
+      <c r="BD43">
+        <f t="shared" si="51"/>
+        <v>4</v>
+      </c>
+      <c r="BE43" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== urbend ===========&lt;&gt;section(urbend, 'connector').&lt;&gt;subsection(urbend, 'pipe').&lt;&gt;description(urbend, 'bidi pipe connection').&lt;&gt;visual_style(urbend,  visual_style18).&lt;&gt;inputs(urbend, [required('A')]).&lt;&gt;outputs(urbend, ['O']).&lt;&gt;input_types(urbend, [any]).&lt;&gt;output_types(urbend, [any]).&lt;&gt;image_name(urbend, '/img/blocks/blocksheet0-_14.png').&lt;&gt;prototype_coordinates(urbend, 20, 4).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>connector</v>
       </c>
       <c r="D44" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>pipe</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -6539,56 +6793,56 @@
         <v>222</v>
       </c>
       <c r="V44" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>[required('A')</v>
       </c>
       <c r="W44" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="X44" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y44" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="Z44" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>[required('A')]</v>
       </c>
       <c r="AA44" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>['O'</v>
       </c>
       <c r="AB44" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AC44" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AD44" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>['O']</v>
       </c>
       <c r="AE44" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>section(ulbend, 'connector').&lt;&gt;subsection(ulbend, 'pipe').&lt;&gt;description(ulbend, 'bidi pipe connection').&lt;&gt;visual_style(ulbend,  visual_style19</v>
       </c>
       <c r="AF44" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>visual_style19</v>
       </c>
       <c r="AG44">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>19</v>
       </c>
       <c r="AH44" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;&gt;%  ===== ulbend ===========&lt;&gt;section(ulbend, 'connector').&lt;&gt;subsection(ulbend, 'pipe').&lt;&gt;description(ulbend, 'bidi pipe connection').&lt;&gt;visual_style(ulbend,  visual_style19).&lt;&gt;inputs(ulbend, [required('A')]).&lt;&gt;outputs(ulbend, ['O']).&lt;&gt;input_types(ulbend, [any]).&lt;&gt;output_types(ulbend, [any]).&lt;&gt;</v>
+        <f t="shared" si="14"/>
+        <v>&lt;&gt;%  ===== ulbend ===========&lt;&gt;section(ulbend, 'connector').&lt;&gt;subsection(ulbend, 'pipe').&lt;&gt;description(ulbend, 'bidi pipe connection').&lt;&gt;visual_style(ulbend,  visual_style19).&lt;&gt;inputs(ulbend, [required('A')]).&lt;&gt;outputs(ulbend, ['O']).&lt;&gt;input_types(ulbend, [any]).&lt;&gt;output_types(ulbend, [any]).&lt;&gt;image_name(ulbend, '/img/blocks/blocksheet0-_11.png').&lt;&gt;</v>
       </c>
       <c r="AI44" t="str">
         <f t="shared" si="42"/>
@@ -6647,14 +6901,28 @@
       <c r="BA44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB44" t="s">
+        <v>268</v>
+      </c>
+      <c r="BC44">
+        <v>20</v>
+      </c>
+      <c r="BD44">
+        <f t="shared" si="51"/>
+        <v>5</v>
+      </c>
+      <c r="BE44" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== ulbend ===========&lt;&gt;section(ulbend, 'connector').&lt;&gt;subsection(ulbend, 'pipe').&lt;&gt;description(ulbend, 'bidi pipe connection').&lt;&gt;visual_style(ulbend,  visual_style19).&lt;&gt;inputs(ulbend, [required('A')]).&lt;&gt;outputs(ulbend, ['O']).&lt;&gt;input_types(ulbend, [any]).&lt;&gt;output_types(ulbend, [any]).&lt;&gt;image_name(ulbend, '/img/blocks/blocksheet0-_11.png').&lt;&gt;prototype_coordinates(ulbend, 20, 5).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>connector</v>
       </c>
       <c r="D45" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>pipe</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -6688,57 +6956,63 @@
       <c r="S45" s="2" t="s">
         <v>220</v>
       </c>
+      <c r="T45" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="V45" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>[required('A')</v>
       </c>
       <c r="W45" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="X45" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y45" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="Z45" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>[required('A')]</v>
       </c>
       <c r="AA45" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>['OA'</v>
       </c>
       <c r="AB45" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>, 'OB'</v>
       </c>
       <c r="AC45" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>, 'OC'</v>
       </c>
       <c r="AD45" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>['OA', 'OB', 'OC']</v>
       </c>
       <c r="AE45" t="str">
-        <f t="shared" si="38"/>
-        <v>section(distributor, 'connector').&lt;&gt;subsection(distributor, 'pipe').&lt;&gt;description(distributor, '').&lt;&gt;visual_style(distributor,  normal</v>
+        <f t="shared" si="39"/>
+        <v>section(distributor, 'connector').&lt;&gt;subsection(distributor, 'pipe').&lt;&gt;description(distributor, 'bidi pipe connection').&lt;&gt;visual_style(distributor,  visual_style20</v>
       </c>
       <c r="AF45" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>visual_style20</v>
       </c>
       <c r="AG45">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>20</v>
       </c>
       <c r="AH45" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;&gt;%  ===== distributor ===========&lt;&gt;section(distributor, 'connector').&lt;&gt;subsection(distributor, 'pipe').&lt;&gt;description(distributor, '').&lt;&gt;visual_style(distributor,  normal).&lt;&gt;inputs(distributor, [required('A')]).&lt;&gt;outputs(distributor, ['OA', 'OB', 'OC']).&lt;&gt;input_types(distributor, [any]).&lt;&gt;output_types(distributor, [any, any, any]).&lt;&gt;</v>
+        <f t="shared" si="14"/>
+        <v>&lt;&gt;%  ===== distributor ===========&lt;&gt;section(distributor, 'connector').&lt;&gt;subsection(distributor, 'pipe').&lt;&gt;description(distributor, 'bidi pipe connection').&lt;&gt;visual_style(distributor,  visual_style20).&lt;&gt;inputs(distributor, [required('A')]).&lt;&gt;outputs(distributor, ['OA', 'OB', 'OC']).&lt;&gt;input_types(distributor, [any]).&lt;&gt;output_types(distributor, [any, any, any]).&lt;&gt;image_name(distributor, '/img/blocks/blocksheet0-_09.png').&lt;&gt;</v>
       </c>
       <c r="AI45" t="str">
         <f t="shared" si="42"/>
@@ -6797,77 +7071,110 @@
       <c r="BA45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB45" t="s">
+        <v>269</v>
+      </c>
+      <c r="BC45">
+        <v>20</v>
+      </c>
+      <c r="BD45">
+        <f t="shared" si="51"/>
+        <v>6</v>
+      </c>
+      <c r="BE45" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== distributor ===========&lt;&gt;section(distributor, 'connector').&lt;&gt;subsection(distributor, 'pipe').&lt;&gt;description(distributor, 'bidi pipe connection').&lt;&gt;visual_style(distributor,  visual_style20).&lt;&gt;inputs(distributor, [required('A')]).&lt;&gt;outputs(distributor, ['OA', 'OB', 'OC']).&lt;&gt;input_types(distributor, [any]).&lt;&gt;output_types(distributor, [any, any, any]).&lt;&gt;image_name(distributor, '/img/blocks/blocksheet0-_09.png').&lt;&gt;prototype_coordinates(distributor, 20, 6).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>connector</v>
       </c>
       <c r="D46" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>pipe</v>
       </c>
+      <c r="E46" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="I46" s="3"/>
-      <c r="J46" s="10"/>
+      <c r="J46" s="10" t="s">
+        <v>220</v>
+      </c>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
-      <c r="N46" s="4"/>
+      <c r="N46" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="V46" s="9" t="str">
-        <f t="shared" si="29"/>
-        <v>[</v>
+        <f t="shared" si="30"/>
+        <v>[required('A')</v>
       </c>
       <c r="W46" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="X46" s="9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Y46" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="Z46" t="str">
-        <f t="shared" si="33"/>
-        <v>[]</v>
+        <f t="shared" si="34"/>
+        <v>[required('A')]</v>
       </c>
       <c r="AA46" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>[</v>
+        <f t="shared" si="35"/>
+        <v>['OA'</v>
       </c>
       <c r="AB46" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AC46" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="AD46" t="str">
-        <f t="shared" si="37"/>
-        <v>[]</v>
+        <f t="shared" si="38"/>
+        <v>['OA']</v>
       </c>
       <c r="AE46" t="str">
-        <f t="shared" si="38"/>
-        <v/>
+        <f t="shared" si="39"/>
+        <v>section(vertpipe, 'connector').&lt;&gt;subsection(vertpipe, 'pipe').&lt;&gt;description(vertpipe, 'bidi pipe connection').&lt;&gt;visual_style(vertpipe,  visual_style21</v>
       </c>
       <c r="AF46" t="str">
-        <f t="shared" si="39"/>
-        <v>visual_style20</v>
+        <f t="shared" si="40"/>
+        <v>visual_style21</v>
       </c>
       <c r="AG46">
-        <f t="shared" si="40"/>
-        <v>20</v>
+        <f t="shared" si="41"/>
+        <v>21</v>
       </c>
       <c r="AH46" t="str">
-        <f t="shared" si="41"/>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>&lt;&gt;%  ===== vertpipe ===========&lt;&gt;section(vertpipe, 'connector').&lt;&gt;subsection(vertpipe, 'pipe').&lt;&gt;description(vertpipe, 'bidi pipe connection').&lt;&gt;visual_style(vertpipe,  visual_style21).&lt;&gt;inputs(vertpipe, [required('A')]).&lt;&gt;outputs(vertpipe, ['OA']).&lt;&gt;input_types(vertpipe, [any]).&lt;&gt;output_types(vertpipe, [any]).&lt;&gt;</v>
       </c>
       <c r="AI46" t="str">
         <f t="shared" si="42"/>
-        <v>[</v>
+        <v>[any</v>
       </c>
       <c r="AJ46" t="str">
         <f t="shared" si="43"/>
@@ -6883,7 +7190,7 @@
       </c>
       <c r="AM46" t="str">
         <f t="shared" si="46"/>
-        <v>[</v>
+        <v>[any</v>
       </c>
       <c r="AN46" t="str">
         <f t="shared" si="47"/>
@@ -6895,23 +7202,27 @@
       </c>
       <c r="AP46" t="str">
         <f t="shared" si="49"/>
-        <v>[]</v>
+        <v>[any]</v>
       </c>
       <c r="AQ46" t="str">
         <f t="shared" si="50"/>
-        <v>[]</v>
-      </c>
-    </row>
-    <row r="47" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[any]</v>
+      </c>
+      <c r="BE46" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== vertpipe ===========&lt;&gt;section(vertpipe, 'connector').&lt;&gt;subsection(vertpipe, 'pipe').&lt;&gt;description(vertpipe, 'bidi pipe connection').&lt;&gt;visual_style(vertpipe,  visual_style21).&lt;&gt;inputs(vertpipe, [required('A')]).&lt;&gt;outputs(vertpipe, ['OA']).&lt;&gt;input_types(vertpipe, [any]).&lt;&gt;output_types(vertpipe, [any]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C47" s="1" t="str">
-        <f t="shared" ref="C47" si="51">IF(ISBLANK(A47),C46,A47)</f>
+        <f t="shared" ref="C47" si="52">IF(ISBLANK(A47),C46,A47)</f>
         <v>CV</v>
       </c>
       <c r="D47" s="1" t="str">
-        <f t="shared" ref="D47" si="52">IF(NOT(ISBLANK(B47)), B47, IF(ISBLANK(A47), D46,A47))</f>
+        <f t="shared" ref="D47" si="53">IF(NOT(ISBLANK(B47)), B47, IF(ISBLANK(A47), D46,A47))</f>
         <v>CV</v>
       </c>
       <c r="I47" s="3"/>
@@ -6962,14 +7273,14 @@
       </c>
       <c r="AF47" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style20</v>
+        <v>visual_style22</v>
       </c>
       <c r="AG47">
-        <f t="shared" si="40"/>
-        <v>20</v>
+        <f t="shared" si="41"/>
+        <v>22</v>
       </c>
       <c r="AH47" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AI47" t="str">
@@ -7008,17 +7319,21 @@
         <f t="shared" si="23"/>
         <v>[]</v>
       </c>
-    </row>
-    <row r="48" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE47" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C48" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>CV</v>
       </c>
       <c r="D48" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Image Processing</v>
       </c>
       <c r="I48" s="3"/>
@@ -7069,14 +7384,14 @@
       </c>
       <c r="AF48" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style20</v>
+        <v>visual_style22</v>
       </c>
       <c r="AG48">
-        <f t="shared" si="24"/>
-        <v>20</v>
+        <f t="shared" si="25"/>
+        <v>22</v>
       </c>
       <c r="AH48" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AI48" t="str">
@@ -7115,14 +7430,18 @@
         <f t="shared" si="23"/>
         <v>[]</v>
       </c>
-    </row>
-    <row r="49" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE48" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>CV</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Image Processing</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -7184,11 +7503,11 @@
       </c>
       <c r="AF49" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style20</v>
+        <v>visual_style22</v>
       </c>
       <c r="AG49">
-        <f t="shared" si="24"/>
-        <v>20</v>
+        <f t="shared" si="25"/>
+        <v>22</v>
       </c>
       <c r="AH49" t="str">
         <f t="shared" si="14"/>
@@ -7233,14 +7552,18 @@
       <c r="AT49" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="50" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE49" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== black ===========&lt;&gt;section(black, 'CV').&lt;&gt;subsection(black, 'Image Processing').&lt;&gt;description(black, 'outputs a solid black frame the camera size').&lt;&gt;visual_style(black,  normal).&lt;&gt;inputs(black, []).&lt;&gt;outputs(black, ['O']).&lt;&gt;input_types(black, []).&lt;&gt;output_types(black, [mask]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>CV</v>
       </c>
       <c r="D50" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Image Processing</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -7302,11 +7625,11 @@
       </c>
       <c r="AF50" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style20</v>
+        <v>visual_style22</v>
       </c>
       <c r="AG50">
-        <f t="shared" si="24"/>
-        <v>20</v>
+        <f t="shared" si="25"/>
+        <v>22</v>
       </c>
       <c r="AH50" t="str">
         <f t="shared" si="14"/>
@@ -7351,14 +7674,18 @@
       <c r="AT50" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="51" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE50" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== white ===========&lt;&gt;section(white, 'CV').&lt;&gt;subsection(white, 'Image Processing').&lt;&gt;description(white, 'outputs a solid white frame the camera size').&lt;&gt;visual_style(white,  normal).&lt;&gt;inputs(white, []).&lt;&gt;outputs(white, ['O']).&lt;&gt;input_types(white, []).&lt;&gt;output_types(white, [mask]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>CV</v>
       </c>
       <c r="D51" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Image Processing</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -7430,11 +7757,11 @@
       </c>
       <c r="AF51" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style20</v>
+        <v>visual_style22</v>
       </c>
       <c r="AG51">
-        <f t="shared" si="24"/>
-        <v>20</v>
+        <f t="shared" si="25"/>
+        <v>22</v>
       </c>
       <c r="AH51" t="str">
         <f t="shared" si="14"/>
@@ -7479,14 +7806,18 @@
       <c r="AT51" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="52" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE51" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== threshold ===========&lt;&gt;section(threshold, 'CV').&lt;&gt;subsection(threshold, 'Image Processing').&lt;&gt;description(threshold, 'out is mask with black in areas above threshold').&lt;&gt;visual_style(threshold,  normal).&lt;&gt;inputs(threshold, [required('A'), required('Thresh')]).&lt;&gt;outputs(threshold, ['O']).&lt;&gt;input_types(threshold, [image, proportion]).&lt;&gt;output_types(threshold, [mask]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>CV</v>
       </c>
       <c r="D52" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Image Processing</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -7553,11 +7884,11 @@
       </c>
       <c r="AF52" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style20</v>
+        <v>visual_style22</v>
       </c>
       <c r="AG52">
-        <f t="shared" si="24"/>
-        <v>20</v>
+        <f t="shared" si="25"/>
+        <v>22</v>
       </c>
       <c r="AH52" t="str">
         <f t="shared" si="14"/>
@@ -7602,14 +7933,18 @@
       <c r="AT52" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="53" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE52" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== gray ===========&lt;&gt;section(gray, 'CV').&lt;&gt;subsection(gray, 'Image Processing').&lt;&gt;description(gray, 'desaturates an image andoutputs grayscale image').&lt;&gt;visual_style(gray,  normal).&lt;&gt;inputs(gray, [required('A')]).&lt;&gt;outputs(gray, ['O']).&lt;&gt;input_types(gray, [image]).&lt;&gt;output_types(gray, [gray]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>CV</v>
       </c>
       <c r="D53" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Image Processing</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -7676,11 +8011,11 @@
       </c>
       <c r="AF53" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style20</v>
+        <v>visual_style22</v>
       </c>
       <c r="AG53">
-        <f t="shared" si="24"/>
-        <v>20</v>
+        <f t="shared" si="25"/>
+        <v>22</v>
       </c>
       <c r="AH53" t="str">
         <f t="shared" si="14"/>
@@ -7722,14 +8057,18 @@
         <f t="shared" si="23"/>
         <v>[hdr]</v>
       </c>
-    </row>
-    <row r="54" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE53" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== hdr ===========&lt;&gt;section(hdr, 'CV').&lt;&gt;subsection(hdr, 'Image Processing').&lt;&gt;description(hdr, 'converts image to high dynamic range from RGB or gray').&lt;&gt;visual_style(hdr,  normal).&lt;&gt;inputs(hdr, [required('A')]).&lt;&gt;outputs(hdr, ['O']).&lt;&gt;input_types(hdr, [image]).&lt;&gt;output_types(hdr, [hdr]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>CV</v>
       </c>
       <c r="D54" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Image Processing</v>
       </c>
       <c r="E54" s="2" t="s">
@@ -7796,11 +8135,11 @@
       </c>
       <c r="AF54" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style20</v>
+        <v>visual_style22</v>
       </c>
       <c r="AG54">
-        <f t="shared" si="24"/>
-        <v>20</v>
+        <f t="shared" si="25"/>
+        <v>22</v>
       </c>
       <c r="AH54" t="str">
         <f t="shared" si="14"/>
@@ -7842,14 +8181,18 @@
         <f t="shared" si="23"/>
         <v>[image]</v>
       </c>
-    </row>
-    <row r="55" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE54" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== dehdr ===========&lt;&gt;section(dehdr, 'CV').&lt;&gt;subsection(dehdr, 'Image Processing').&lt;&gt;description(dehdr, 'converts HDR image to RGB').&lt;&gt;visual_style(dehdr,  normal).&lt;&gt;inputs(dehdr, [required('A')]).&lt;&gt;outputs(dehdr, ['O']).&lt;&gt;input_types(dehdr, [hdr]).&lt;&gt;output_types(dehdr, [image]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>CV</v>
       </c>
       <c r="D55" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Image Processing</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -7930,11 +8273,11 @@
       </c>
       <c r="AF55" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style20</v>
+        <v>visual_style22</v>
       </c>
       <c r="AG55">
-        <f t="shared" si="24"/>
-        <v>20</v>
+        <f t="shared" si="25"/>
+        <v>22</v>
       </c>
       <c r="AH55" t="str">
         <f t="shared" si="14"/>
@@ -7976,14 +8319,18 @@
         <f t="shared" si="23"/>
         <v>[image]</v>
       </c>
-    </row>
-    <row r="56" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE55" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== channels ===========&lt;&gt;section(channels, 'CV').&lt;&gt;subsection(channels, 'Image Processing').&lt;&gt;description(channels, 'takes 3 grayscale images and an optional mask or grayscale image and produces an RGB/RGBA image').&lt;&gt;visual_style(channels,  normal).&lt;&gt;inputs(channels, [required('R'), required('G'), required('B')]).&lt;&gt;outputs(channels, ['O']).&lt;&gt;input_types(channels, [gray, gray, gray, gray]).&lt;&gt;output_types(channels, [image]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>CV</v>
       </c>
       <c r="D56" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Image Processing</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -8062,11 +8409,11 @@
       </c>
       <c r="AF56" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style20</v>
+        <v>visual_style22</v>
       </c>
       <c r="AG56">
-        <f t="shared" si="24"/>
-        <v>20</v>
+        <f t="shared" si="25"/>
+        <v>22</v>
       </c>
       <c r="AH56" t="str">
         <f t="shared" si="14"/>
@@ -8108,14 +8455,18 @@
         <f t="shared" si="23"/>
         <v>[gray, gray, gray]</v>
       </c>
-    </row>
-    <row r="57" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE56" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== aschannels ===========&lt;&gt;section(aschannels, 'CV').&lt;&gt;subsection(aschannels, 'Image Processing').&lt;&gt;description(aschannels, 'takes an RGB image and produces 3 grayscale images, one for each channel').&lt;&gt;visual_style(aschannels,  normal).&lt;&gt;inputs(aschannels, [required('A')]).&lt;&gt;outputs(aschannels, ['R', 'G', 'B']).&lt;&gt;input_types(aschannels, [rgb]).&lt;&gt;output_types(aschannels, [gray, gray, gray]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>CV</v>
       </c>
       <c r="D57" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Image Processing</v>
       </c>
       <c r="E57" s="2" t="s">
@@ -8186,19 +8537,19 @@
       </c>
       <c r="AE57" t="str">
         <f t="shared" si="12"/>
-        <v>section(pixel, 'CV').&lt;&gt;subsection(pixel, 'Image Processing').&lt;&gt;description(pixel, 'as func, but has three formula boxes. Each one knows about r,g,b,m variables. Runs this formula for each pixel in image.').&lt;&gt;visual_style(pixel,  visual_style20</v>
+        <v>section(pixel, 'CV').&lt;&gt;subsection(pixel, 'Image Processing').&lt;&gt;description(pixel, 'as func, but has three formula boxes. Each one knows about r,g,b,m variables. Runs this formula for each pixel in image.').&lt;&gt;visual_style(pixel,  visual_style22</v>
       </c>
       <c r="AF57" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style20</v>
+        <v>visual_style22</v>
       </c>
       <c r="AG57">
-        <f t="shared" si="24"/>
-        <v>20</v>
+        <f t="shared" si="25"/>
+        <v>22</v>
       </c>
       <c r="AH57" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== pixel ===========&lt;&gt;section(pixel, 'CV').&lt;&gt;subsection(pixel, 'Image Processing').&lt;&gt;description(pixel, 'as func, but has three formula boxes. Each one knows about r,g,b,m variables. Runs this formula for each pixel in image.').&lt;&gt;visual_style(pixel,  visual_style20).&lt;&gt;inputs(pixel, [required('A'), optional('M')]).&lt;&gt;outputs(pixel, ['O']).&lt;&gt;input_types(pixel, [image, mask]).&lt;&gt;output_types(pixel, [image]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== pixel ===========&lt;&gt;section(pixel, 'CV').&lt;&gt;subsection(pixel, 'Image Processing').&lt;&gt;description(pixel, 'as func, but has three formula boxes. Each one knows about r,g,b,m variables. Runs this formula for each pixel in image.').&lt;&gt;visual_style(pixel,  visual_style22).&lt;&gt;inputs(pixel, [required('A'), optional('M')]).&lt;&gt;outputs(pixel, ['O']).&lt;&gt;input_types(pixel, [image, mask]).&lt;&gt;output_types(pixel, [image]).&lt;&gt;</v>
       </c>
       <c r="AI57" t="str">
         <f t="shared" si="15"/>
@@ -8236,14 +8587,18 @@
         <f t="shared" si="23"/>
         <v>[image]</v>
       </c>
-    </row>
-    <row r="58" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE57" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== pixel ===========&lt;&gt;section(pixel, 'CV').&lt;&gt;subsection(pixel, 'Image Processing').&lt;&gt;description(pixel, 'as func, but has three formula boxes. Each one knows about r,g,b,m variables. Runs this formula for each pixel in image.').&lt;&gt;visual_style(pixel,  visual_style22).&lt;&gt;inputs(pixel, [required('A'), optional('M')]).&lt;&gt;outputs(pixel, ['O']).&lt;&gt;input_types(pixel, [image, mask]).&lt;&gt;output_types(pixel, [image]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>CV</v>
       </c>
       <c r="D58" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Image Processing</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -8320,11 +8675,11 @@
       </c>
       <c r="AF58" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style21</v>
+        <v>visual_style23</v>
       </c>
       <c r="AG58">
-        <f t="shared" si="24"/>
-        <v>21</v>
+        <f t="shared" si="25"/>
+        <v>23</v>
       </c>
       <c r="AH58" t="str">
         <f t="shared" si="14"/>
@@ -8366,14 +8721,18 @@
         <f t="shared" si="23"/>
         <v>[image]</v>
       </c>
-    </row>
-    <row r="59" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE58" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== adaptivehistoequal ===========&lt;&gt;section(adaptivehistoequal, 'CV').&lt;&gt;subsection(adaptivehistoequal, 'Image Processing').&lt;&gt;description(adaptivehistoequal, 'apply adaptive histogram equalization with blocksize Block and proportion Prop').&lt;&gt;visual_style(adaptivehistoequal,  normal).&lt;&gt;inputs(adaptivehistoequal, [required('A'), required('Prop'), required('Block')]).&lt;&gt;outputs(adaptivehistoequal, ['O']).&lt;&gt;input_types(adaptivehistoequal, [image, proportion, int]).&lt;&gt;output_types(adaptivehistoequal, [image]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>CV</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Image Processing</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -8450,11 +8809,11 @@
       </c>
       <c r="AF59" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style21</v>
+        <v>visual_style23</v>
       </c>
       <c r="AG59">
-        <f t="shared" si="24"/>
-        <v>21</v>
+        <f t="shared" si="25"/>
+        <v>23</v>
       </c>
       <c r="AH59" t="str">
         <f t="shared" si="14"/>
@@ -8496,14 +8855,18 @@
         <f t="shared" si="23"/>
         <v>[image]</v>
       </c>
-    </row>
-    <row r="60" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE59" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== composite ===========&lt;&gt;section(composite, 'CV').&lt;&gt;subsection(composite, 'Image Processing').&lt;&gt;description(composite, 'Output is A where Mask is white and B where it is black, and proportional mix in between').&lt;&gt;visual_style(composite,  normal).&lt;&gt;inputs(composite, [required('A'), required('B'), required('Mask')]).&lt;&gt;outputs(composite, ['O']).&lt;&gt;input_types(composite, [image, image, gray]).&lt;&gt;output_types(composite, [image]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>CV</v>
       </c>
       <c r="D60" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Image Processing</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -8572,11 +8935,11 @@
       </c>
       <c r="AF60" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style21</v>
+        <v>visual_style23</v>
       </c>
       <c r="AG60">
-        <f t="shared" si="24"/>
-        <v>21</v>
+        <f t="shared" si="25"/>
+        <v>23</v>
       </c>
       <c r="AH60" t="str">
         <f t="shared" si="14"/>
@@ -8618,17 +8981,21 @@
         <f t="shared" si="23"/>
         <v>[image]</v>
       </c>
-    </row>
-    <row r="61" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE60" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== convolve ===========&lt;&gt;section(convolve, 'CV').&lt;&gt;subsection(convolve, 'Image Processing').&lt;&gt;description(convolve, '').&lt;&gt;visual_style(convolve,  normal).&lt;&gt;inputs(convolve, [required('A'), required('Kernal')]).&lt;&gt;outputs(convolve, ['O']).&lt;&gt;input_types(convolve, [image, kernal]).&lt;&gt;output_types(convolve, [image]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C61" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>CV</v>
       </c>
       <c r="D61" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I61" s="3"/>
@@ -8679,11 +9046,11 @@
       </c>
       <c r="AF61" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style21</v>
+        <v>visual_style23</v>
       </c>
       <c r="AG61">
-        <f t="shared" si="24"/>
-        <v>21</v>
+        <f t="shared" si="25"/>
+        <v>23</v>
       </c>
       <c r="AH61" t="str">
         <f t="shared" si="14"/>
@@ -8725,14 +9092,18 @@
         <f t="shared" si="23"/>
         <v>[]</v>
       </c>
-    </row>
-    <row r="62" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE61" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>CV</v>
       </c>
       <c r="D62" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -8799,11 +9170,11 @@
       </c>
       <c r="AF62" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style21</v>
+        <v>visual_style23</v>
       </c>
       <c r="AG62">
-        <f t="shared" si="24"/>
-        <v>21</v>
+        <f t="shared" si="25"/>
+        <v>23</v>
       </c>
       <c r="AH62" t="str">
         <f t="shared" si="14"/>
@@ -8845,16 +9216,20 @@
         <f t="shared" si="23"/>
         <v>[complex16]</v>
       </c>
-    </row>
-    <row r="63" spans="1:46" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE62" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== fft ===========&lt;&gt;section(fft, 'CV').&lt;&gt;subsection(fft, 'FrequencyDomain').&lt;&gt;description(fft, 'Output is the forward fourier transform as complex16').&lt;&gt;visual_style(fft,  normal).&lt;&gt;inputs(fft, [required('A')]).&lt;&gt;outputs(fft, ['O']).&lt;&gt;input_types(fft, [image]).&lt;&gt;output_types(fft, [complex16]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:57" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="1" t="str">
-        <f t="shared" ref="C63:C89" si="53">IF(ISBLANK(A63),C62,A63)</f>
+        <f t="shared" ref="C63:C89" si="54">IF(ISBLANK(A63),C62,A63)</f>
         <v>CV</v>
       </c>
       <c r="D63" s="1" t="str">
-        <f t="shared" ref="D63:D89" si="54">IF(NOT(ISBLANK(B63)), B63, IF(ISBLANK(A63), D62,A63))</f>
+        <f t="shared" ref="D63:D89" si="55">IF(NOT(ISBLANK(B63)), B63, IF(ISBLANK(A63), D62,A63))</f>
         <v>FrequencyDomain</v>
       </c>
       <c r="E63" s="5" t="s">
@@ -8902,28 +9277,28 @@
         <v>['O'</v>
       </c>
       <c r="AB63" t="str">
-        <f t="shared" ref="AB63:AB109" si="55">IF(ISBLANK(O63),"",", '"&amp;O63&amp;"'")</f>
+        <f t="shared" ref="AB63:AB109" si="56">IF(ISBLANK(O63),"",", '"&amp;O63&amp;"'")</f>
         <v/>
       </c>
       <c r="AC63" t="str">
-        <f t="shared" ref="AC63:AC109" si="56">IF(ISBLANK(P63),"",", '"&amp;P63&amp;"'")</f>
+        <f t="shared" ref="AC63:AC109" si="57">IF(ISBLANK(P63),"",", '"&amp;P63&amp;"'")</f>
         <v/>
       </c>
       <c r="AD63" t="str">
-        <f t="shared" ref="AD63:AD109" si="57">AA63&amp;AB63&amp;AC63&amp;"]"</f>
+        <f t="shared" ref="AD63:AD109" si="58">AA63&amp;AB63&amp;AC63&amp;"]"</f>
         <v>['O']</v>
       </c>
       <c r="AE63" t="str">
-        <f t="shared" ref="AE63:AE109" si="58">IF(ISBLANK(E63),"","section("&amp;E63&amp;", '"&amp;C63&amp;"').&lt;&gt;subsection("&amp;E63&amp;", '"&amp;D63&amp;"').&lt;&gt;description("&amp;E63&amp;", '"&amp;T63&amp;"').&lt;&gt;visual_style("&amp;E63&amp;",  "&amp;IF(ISBLANK(U63),"normal",AF63))</f>
+        <f t="shared" ref="AE63:AE109" si="59">IF(ISBLANK(E63),"","section("&amp;E63&amp;", '"&amp;C63&amp;"').&lt;&gt;subsection("&amp;E63&amp;", '"&amp;D63&amp;"').&lt;&gt;description("&amp;E63&amp;", '"&amp;T63&amp;"').&lt;&gt;visual_style("&amp;E63&amp;",  "&amp;IF(ISBLANK(U63),"normal",AF63))</f>
         <v>section(inv_fft, 'CV').&lt;&gt;subsection(inv_fft, 'FrequencyDomain').&lt;&gt;description(inv_fft, 'Input is the ft spectrum as complex16, Output is the inverse fourier transform as gray').&lt;&gt;visual_style(inv_fft,  normal</v>
       </c>
       <c r="AF63" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style21</v>
+        <v>visual_style23</v>
       </c>
       <c r="AG63">
-        <f t="shared" ref="AG63:AG109" si="59">IF(ISBLANK(U62),AG62,AG62+1)</f>
-        <v>21</v>
+        <f t="shared" ref="AG63:AG109" si="60">IF(ISBLANK(U62),AG62,AG62+1)</f>
+        <v>23</v>
       </c>
       <c r="AH63" t="str">
         <f t="shared" si="14"/>
@@ -8965,14 +9340,18 @@
         <f t="shared" si="23"/>
         <v>[gray]</v>
       </c>
-    </row>
-    <row r="64" spans="1:46" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE63" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;&gt;%  ===== inv_fft ===========&lt;&gt;section(inv_fft, 'CV').&lt;&gt;subsection(inv_fft, 'FrequencyDomain').&lt;&gt;description(inv_fft, 'Input is the ft spectrum as complex16, Output is the inverse fourier transform as gray').&lt;&gt;visual_style(inv_fft,  normal).&lt;&gt;inputs(inv_fft, [required('A')]).&lt;&gt;outputs(inv_fft, ['O']).&lt;&gt;input_types(inv_fft, [complex16]).&lt;&gt;output_types(inv_fft, [gray]).&lt;&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>CV</v>
       </c>
       <c r="D64" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I64" s="3"/>
@@ -8982,7 +9361,7 @@
       <c r="M64" s="10"/>
       <c r="N64" s="4"/>
       <c r="V64" s="9" t="str">
-        <f t="shared" ref="V64:V109" si="60">"["&amp;IF(RIGHT(F64,5)="(opt)","optional('"&amp;LEFT(F64,LEN(F64)-5)&amp;"')",IF(ISBLANK(F64),"","required('"&amp;F64&amp;"')"))</f>
+        <f t="shared" ref="V64:V109" si="61">"["&amp;IF(RIGHT(F64,5)="(opt)","optional('"&amp;LEFT(F64,LEN(F64)-5)&amp;"')",IF(ISBLANK(F64),"","required('"&amp;F64&amp;"')"))</f>
         <v>[</v>
       </c>
       <c r="Z64" t="str">
@@ -8990,45 +9369,49 @@
         <v>[]</v>
       </c>
       <c r="AA64" s="8" t="str">
-        <f t="shared" ref="AA64:AA109" si="61">"["&amp;IF(ISBLANK(N64),"", "'"&amp;N64&amp;"'")</f>
+        <f t="shared" ref="AA64:AA109" si="62">"["&amp;IF(ISBLANK(N64),"", "'"&amp;N64&amp;"'")</f>
         <v>[</v>
       </c>
       <c r="AB64" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AC64" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AD64" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>[]</v>
       </c>
       <c r="AE64" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AF64" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style21</v>
+        <v>visual_style23</v>
       </c>
       <c r="AG64">
-        <f t="shared" si="59"/>
-        <v>21</v>
+        <f t="shared" si="60"/>
+        <v>23</v>
       </c>
       <c r="AH64" t="str">
-        <f t="shared" ref="AH64:AH109" si="62">IF(ISBLANK(E64),"","&lt;&gt;%  ===== "&amp;E64&amp;" ===========&lt;&gt;"&amp;AE64&amp;").&lt;&gt;inputs("&amp;E64&amp;", "&amp;Z64&amp;").&lt;&gt;outputs("&amp;E64&amp;", "&amp;AD64&amp;").")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="BE64" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>CV</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I65" s="3"/>
@@ -9038,7 +9421,7 @@
       <c r="M65" s="10"/>
       <c r="N65" s="4"/>
       <c r="V65" s="9" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="Z65" t="str">
@@ -9046,45 +9429,49 @@
         <v>[]</v>
       </c>
       <c r="AA65" s="8" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>[</v>
       </c>
       <c r="AB65" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AC65" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AD65" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>[]</v>
       </c>
       <c r="AE65" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AF65" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style21</v>
+        <v>visual_style23</v>
       </c>
       <c r="AG65">
-        <f t="shared" si="59"/>
-        <v>21</v>
+        <f t="shared" si="60"/>
+        <v>23</v>
       </c>
       <c r="AH65" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="BE65" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>CV</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I66" s="3"/>
@@ -9094,7 +9481,7 @@
       <c r="M66" s="10"/>
       <c r="N66" s="4"/>
       <c r="V66" s="9" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="Z66" t="str">
@@ -9102,45 +9489,49 @@
         <v>[]</v>
       </c>
       <c r="AA66" s="8" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>[</v>
       </c>
       <c r="AB66" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AC66" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AD66" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>[]</v>
       </c>
       <c r="AE66" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AF66" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style21</v>
+        <v>visual_style23</v>
       </c>
       <c r="AG66">
-        <f t="shared" si="59"/>
-        <v>21</v>
+        <f t="shared" si="60"/>
+        <v>23</v>
       </c>
       <c r="AH66" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="BE66" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>CV</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I67" s="3"/>
@@ -9150,7 +9541,7 @@
       <c r="M67" s="10"/>
       <c r="N67" s="4"/>
       <c r="V67" s="9" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="Z67" t="str">
@@ -9158,45 +9549,49 @@
         <v>[]</v>
       </c>
       <c r="AA67" s="8" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>[</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>[]</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AF67" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style21</v>
+        <v>visual_style23</v>
       </c>
       <c r="AG67">
-        <f t="shared" si="59"/>
-        <v>21</v>
+        <f t="shared" si="60"/>
+        <v>23</v>
       </c>
       <c r="AH67" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="BE67" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>CV</v>
       </c>
       <c r="D68" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I68" s="3"/>
@@ -9206,7 +9601,7 @@
       <c r="M68" s="10"/>
       <c r="N68" s="4"/>
       <c r="V68" s="9" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="Z68" t="str">
@@ -9214,45 +9609,49 @@
         <v>[]</v>
       </c>
       <c r="AA68" s="8" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>[</v>
       </c>
       <c r="AB68" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AC68" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AD68" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>[]</v>
       </c>
       <c r="AE68" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AF68" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style21</v>
+        <v>visual_style23</v>
       </c>
       <c r="AG68">
-        <f t="shared" si="59"/>
-        <v>21</v>
+        <f t="shared" si="60"/>
+        <v>23</v>
       </c>
       <c r="AH68" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AH68:AH109" si="63">IF(ISBLANK(E68),"","&lt;&gt;%  ===== "&amp;E68&amp;" ===========&lt;&gt;"&amp;AE68&amp;").&lt;&gt;inputs("&amp;E68&amp;", "&amp;Z68&amp;").&lt;&gt;outputs("&amp;E68&amp;", "&amp;AD68&amp;").&lt;&gt;input_types("&amp;E68&amp;", "&amp;AP68&amp;").&lt;&gt;output_types("&amp;E68&amp;", "&amp;AQ68&amp;").&lt;&gt;"&amp;IF(OR(ISBLANK(E68),ISBLANK(BB68)),"","image_name("&amp;E68&amp;", '/img/blocks/"&amp;BB68&amp;"').&lt;&gt;"))</f>
+        <v/>
+      </c>
+      <c r="BE68" t="str">
+        <f t="shared" ref="BE68:BE109" si="64">AH68&amp;IF(OR(ISBLANK(E68),ISBLANK(BC68)), "", "prototype_coordinates("&amp;E68&amp;", "&amp;BC68&amp;", "&amp;BD68&amp;").&lt;&gt;")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>CV</v>
       </c>
       <c r="D69" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I69" s="3"/>
@@ -9262,7 +9661,7 @@
       <c r="M69" s="10"/>
       <c r="N69" s="4"/>
       <c r="V69" s="9" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="Z69" t="str">
@@ -9270,45 +9669,49 @@
         <v>[]</v>
       </c>
       <c r="AA69" s="8" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>[</v>
       </c>
       <c r="AB69" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AC69" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AD69" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>[]</v>
       </c>
       <c r="AE69" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AF69" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style21</v>
+        <v>visual_style23</v>
       </c>
       <c r="AG69">
-        <f t="shared" si="59"/>
-        <v>21</v>
+        <f t="shared" si="60"/>
+        <v>23</v>
       </c>
       <c r="AH69" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="BE69" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>CV</v>
       </c>
       <c r="D70" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I70" s="3"/>
@@ -9318,7 +9721,7 @@
       <c r="M70" s="10"/>
       <c r="N70" s="4"/>
       <c r="V70" s="9" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="Z70" t="str">
@@ -9326,45 +9729,49 @@
         <v>[]</v>
       </c>
       <c r="AA70" s="8" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>[</v>
       </c>
       <c r="AB70" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AC70" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AD70" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>[]</v>
       </c>
       <c r="AE70" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AF70" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style21</v>
+        <v>visual_style23</v>
       </c>
       <c r="AG70">
-        <f t="shared" si="59"/>
-        <v>21</v>
+        <f t="shared" si="60"/>
+        <v>23</v>
       </c>
       <c r="AH70" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="BE70" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>CV</v>
       </c>
       <c r="D71" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I71" s="3"/>
@@ -9374,7 +9781,7 @@
       <c r="M71" s="10"/>
       <c r="N71" s="4"/>
       <c r="V71" s="9" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="Z71" t="str">
@@ -9382,45 +9789,49 @@
         <v>[]</v>
       </c>
       <c r="AA71" s="8" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>[</v>
       </c>
       <c r="AB71" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AC71" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AD71" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>[]</v>
       </c>
       <c r="AE71" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AF71" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style21</v>
+        <v>visual_style23</v>
       </c>
       <c r="AG71">
-        <f t="shared" si="59"/>
-        <v>21</v>
+        <f t="shared" si="60"/>
+        <v>23</v>
       </c>
       <c r="AH71" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="BE71" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>CV</v>
       </c>
       <c r="D72" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I72" s="3"/>
@@ -9430,7 +9841,7 @@
       <c r="M72" s="10"/>
       <c r="N72" s="4"/>
       <c r="V72" s="9" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="Z72" t="str">
@@ -9438,45 +9849,49 @@
         <v>[]</v>
       </c>
       <c r="AA72" s="8" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>[</v>
       </c>
       <c r="AB72" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AC72" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AD72" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>[]</v>
       </c>
       <c r="AE72" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AF72" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style21</v>
+        <v>visual_style23</v>
       </c>
       <c r="AG72">
-        <f t="shared" si="59"/>
-        <v>21</v>
+        <f t="shared" si="60"/>
+        <v>23</v>
       </c>
       <c r="AH72" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="BE72" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>CV</v>
       </c>
       <c r="D73" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I73" s="3"/>
@@ -9486,7 +9901,7 @@
       <c r="M73" s="10"/>
       <c r="N73" s="4"/>
       <c r="V73" s="9" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="Z73" t="str">
@@ -9494,45 +9909,49 @@
         <v>[]</v>
       </c>
       <c r="AA73" s="8" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>[</v>
       </c>
       <c r="AB73" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AC73" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AD73" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>[]</v>
       </c>
       <c r="AE73" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AF73" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style21</v>
+        <v>visual_style23</v>
       </c>
       <c r="AG73">
-        <f t="shared" si="59"/>
-        <v>21</v>
+        <f t="shared" si="60"/>
+        <v>23</v>
       </c>
       <c r="AH73" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="BE73" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>CV</v>
       </c>
       <c r="D74" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I74" s="3"/>
@@ -9542,7 +9961,7 @@
       <c r="M74" s="10"/>
       <c r="N74" s="4"/>
       <c r="V74" s="9" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="Z74" t="str">
@@ -9550,45 +9969,49 @@
         <v>[]</v>
       </c>
       <c r="AA74" s="8" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>[</v>
       </c>
       <c r="AB74" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AC74" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AD74" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>[]</v>
       </c>
       <c r="AE74" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AF74" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style21</v>
+        <v>visual_style23</v>
       </c>
       <c r="AG74">
-        <f t="shared" si="59"/>
-        <v>21</v>
+        <f t="shared" si="60"/>
+        <v>23</v>
       </c>
       <c r="AH74" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="BE74" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>CV</v>
       </c>
       <c r="D75" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I75" s="3"/>
@@ -9598,7 +10021,7 @@
       <c r="M75" s="10"/>
       <c r="N75" s="4"/>
       <c r="V75" s="9" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="Z75" t="str">
@@ -9606,45 +10029,49 @@
         <v>[]</v>
       </c>
       <c r="AA75" s="8" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>[</v>
       </c>
       <c r="AB75" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AC75" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AD75" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>[]</v>
       </c>
       <c r="AE75" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AF75" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style21</v>
+        <v>visual_style23</v>
       </c>
       <c r="AG75">
-        <f t="shared" si="59"/>
-        <v>21</v>
+        <f t="shared" si="60"/>
+        <v>23</v>
       </c>
       <c r="AH75" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="BE75" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>CV</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I76" s="3"/>
@@ -9654,7 +10081,7 @@
       <c r="M76" s="10"/>
       <c r="N76" s="4"/>
       <c r="V76" s="9" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>[</v>
       </c>
       <c r="Z76" t="str">
@@ -9662,45 +10089,49 @@
         <v>[]</v>
       </c>
       <c r="AA76" s="8" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>[</v>
       </c>
       <c r="AB76" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AC76" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AD76" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>[]</v>
       </c>
       <c r="AE76" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="AF76" t="str">
         <f t="shared" si="13"/>
-        <v>visual_style21</v>
+        <v>visual_style23</v>
       </c>
       <c r="AG76">
-        <f t="shared" si="59"/>
-        <v>21</v>
+        <f t="shared" si="60"/>
+        <v>23</v>
       </c>
       <c r="AH76" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="BE76" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>CV</v>
       </c>
       <c r="D77" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I77" s="3"/>
@@ -9710,53 +10141,57 @@
       <c r="M77" s="10"/>
       <c r="N77" s="4"/>
       <c r="V77" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z77" t="str">
+        <f t="shared" ref="Z77:Z109" si="65">V77&amp;W77&amp;X77&amp;"]"</f>
+        <v>[]</v>
+      </c>
+      <c r="AA77" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB77" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC77" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD77" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE77" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF77" t="str">
+        <f t="shared" ref="AF77:AF109" si="66">"visual_style"&amp;AG77</f>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG77">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z77" t="str">
-        <f t="shared" ref="Z77:Z109" si="63">V77&amp;W77&amp;X77&amp;"]"</f>
-        <v>[]</v>
-      </c>
-      <c r="AA77" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB77" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH77" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="BE77" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>CV</v>
+      </c>
+      <c r="D78" s="1" t="str">
         <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC77" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD77" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE77" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF77" t="str">
-        <f t="shared" ref="AF77:AF109" si="64">"visual_style"&amp;AG77</f>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG77">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH77" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v>CV</v>
-      </c>
-      <c r="D78" s="1" t="str">
-        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I78" s="3"/>
@@ -9766,53 +10201,57 @@
       <c r="M78" s="10"/>
       <c r="N78" s="4"/>
       <c r="V78" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z78" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA78" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB78" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC78" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD78" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE78" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF78" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG78">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z78" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH78" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA78" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB78" t="str">
+        <v/>
+      </c>
+      <c r="BE78" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>CV</v>
+      </c>
+      <c r="D79" s="1" t="str">
         <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC78" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD78" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE78" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF78" t="str">
-        <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG78">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH78" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v>CV</v>
-      </c>
-      <c r="D79" s="1" t="str">
-        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I79" s="3"/>
@@ -9822,53 +10261,57 @@
       <c r="M79" s="10"/>
       <c r="N79" s="4"/>
       <c r="V79" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z79" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA79" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB79" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC79" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD79" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE79" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF79" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG79">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z79" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH79" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA79" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB79" t="str">
+        <v/>
+      </c>
+      <c r="BE79" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>CV</v>
+      </c>
+      <c r="D80" s="1" t="str">
         <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC79" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD79" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE79" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF79" t="str">
-        <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG79">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH79" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v>CV</v>
-      </c>
-      <c r="D80" s="1" t="str">
-        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I80" s="3"/>
@@ -9878,53 +10321,57 @@
       <c r="M80" s="10"/>
       <c r="N80" s="4"/>
       <c r="V80" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z80" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA80" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB80" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC80" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD80" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE80" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF80" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG80">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z80" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH80" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA80" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB80" t="str">
+        <v/>
+      </c>
+      <c r="BE80" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C81" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>CV</v>
+      </c>
+      <c r="D81" s="1" t="str">
         <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC80" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD80" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE80" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF80" t="str">
-        <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG80">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH80" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v>CV</v>
-      </c>
-      <c r="D81" s="1" t="str">
-        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I81" s="3"/>
@@ -9934,53 +10381,57 @@
       <c r="M81" s="10"/>
       <c r="N81" s="4"/>
       <c r="V81" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z81" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA81" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB81" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC81" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD81" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE81" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF81" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG81">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z81" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH81" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA81" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB81" t="str">
+        <v/>
+      </c>
+      <c r="BE81" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C82" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>CV</v>
+      </c>
+      <c r="D82" s="1" t="str">
         <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC81" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD81" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE81" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF81" t="str">
-        <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG81">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH81" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C82" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v>CV</v>
-      </c>
-      <c r="D82" s="1" t="str">
-        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I82" s="3"/>
@@ -9990,53 +10441,57 @@
       <c r="M82" s="10"/>
       <c r="N82" s="4"/>
       <c r="V82" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z82" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA82" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB82" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC82" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD82" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE82" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF82" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG82">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z82" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH82" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA82" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB82" t="str">
+        <v/>
+      </c>
+      <c r="BE82" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>CV</v>
+      </c>
+      <c r="D83" s="1" t="str">
         <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC82" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD82" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE82" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF82" t="str">
-        <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG82">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH82" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C83" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v>CV</v>
-      </c>
-      <c r="D83" s="1" t="str">
-        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I83" s="3"/>
@@ -10046,53 +10501,57 @@
       <c r="M83" s="10"/>
       <c r="N83" s="4"/>
       <c r="V83" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA83" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG83">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z83" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH83" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA83" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB83" t="str">
+        <v/>
+      </c>
+      <c r="BE83" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C84" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>CV</v>
+      </c>
+      <c r="D84" s="1" t="str">
         <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC83" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD83" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE83" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF83" t="str">
-        <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG83">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH83" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v>CV</v>
-      </c>
-      <c r="D84" s="1" t="str">
-        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I84" s="3"/>
@@ -10102,53 +10561,57 @@
       <c r="M84" s="10"/>
       <c r="N84" s="4"/>
       <c r="V84" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA84" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG84">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z84" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH84" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA84" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB84" t="str">
+        <v/>
+      </c>
+      <c r="BE84" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>CV</v>
+      </c>
+      <c r="D85" s="1" t="str">
         <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC84" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD84" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE84" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF84" t="str">
-        <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG84">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH84" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C85" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v>CV</v>
-      </c>
-      <c r="D85" s="1" t="str">
-        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I85" s="3"/>
@@ -10158,53 +10621,57 @@
       <c r="M85" s="10"/>
       <c r="N85" s="4"/>
       <c r="V85" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA85" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG85">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z85" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH85" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA85" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB85" t="str">
+        <v/>
+      </c>
+      <c r="BE85" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>CV</v>
+      </c>
+      <c r="D86" s="1" t="str">
         <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC85" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD85" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE85" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF85" t="str">
-        <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG85">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH85" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C86" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v>CV</v>
-      </c>
-      <c r="D86" s="1" t="str">
-        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I86" s="3"/>
@@ -10214,53 +10681,57 @@
       <c r="M86" s="10"/>
       <c r="N86" s="4"/>
       <c r="V86" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA86" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG86">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z86" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH86" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA86" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB86" t="str">
+        <v/>
+      </c>
+      <c r="BE86" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C87" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>CV</v>
+      </c>
+      <c r="D87" s="1" t="str">
         <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC86" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD86" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE86" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF86" t="str">
-        <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG86">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH86" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C87" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v>CV</v>
-      </c>
-      <c r="D87" s="1" t="str">
-        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I87" s="3"/>
@@ -10270,53 +10741,57 @@
       <c r="M87" s="10"/>
       <c r="N87" s="4"/>
       <c r="V87" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA87" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG87">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z87" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH87" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA87" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB87" t="str">
+        <v/>
+      </c>
+      <c r="BE87" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C88" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>CV</v>
+      </c>
+      <c r="D88" s="1" t="str">
         <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC87" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD87" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE87" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF87" t="str">
-        <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG87">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH87" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v>CV</v>
-      </c>
-      <c r="D88" s="1" t="str">
-        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I88" s="3"/>
@@ -10326,53 +10801,57 @@
       <c r="M88" s="10"/>
       <c r="N88" s="4"/>
       <c r="V88" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA88" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG88">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z88" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH88" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA88" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB88" t="str">
+        <v/>
+      </c>
+      <c r="BE88" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C89" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>CV</v>
+      </c>
+      <c r="D89" s="1" t="str">
         <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC88" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD88" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE88" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF88" t="str">
-        <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG88">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH88" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C89" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v>CV</v>
-      </c>
-      <c r="D89" s="1" t="str">
-        <f t="shared" si="54"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I89" s="3"/>
@@ -10382,53 +10861,57 @@
       <c r="M89" s="10"/>
       <c r="N89" s="4"/>
       <c r="V89" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA89" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG89">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z89" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH89" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA89" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB89" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC89" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD89" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE89" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF89" t="str">
+        <v/>
+      </c>
+      <c r="BE89" t="str">
         <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG89">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH89" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="str">
-        <f t="shared" ref="C90:C109" si="65">IF(ISBLANK(A90),C89,A90)</f>
+        <f t="shared" ref="C90:C109" si="67">IF(ISBLANK(A90),C89,A90)</f>
         <v>CV</v>
       </c>
       <c r="D90" s="1" t="str">
-        <f t="shared" ref="D90:D109" si="66">IF(NOT(ISBLANK(B90)), B90, IF(ISBLANK(A90), D89,A90))</f>
+        <f t="shared" ref="D90:D109" si="68">IF(NOT(ISBLANK(B90)), B90, IF(ISBLANK(A90), D89,A90))</f>
         <v>FrequencyDomain</v>
       </c>
       <c r="I90" s="3"/>
@@ -10438,53 +10921,57 @@
       <c r="M90" s="10"/>
       <c r="N90" s="4"/>
       <c r="V90" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA90" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG90">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z90" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH90" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA90" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB90" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC90" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD90" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE90" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF90" t="str">
+        <v/>
+      </c>
+      <c r="BE90" t="str">
         <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG90">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH90" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>CV</v>
       </c>
       <c r="D91" s="1" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I91" s="3"/>
@@ -10494,53 +10981,57 @@
       <c r="M91" s="10"/>
       <c r="N91" s="4"/>
       <c r="V91" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA91" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG91">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z91" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH91" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA91" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB91" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC91" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD91" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE91" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF91" t="str">
+        <v/>
+      </c>
+      <c r="BE91" t="str">
         <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG91">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH91" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>CV</v>
       </c>
       <c r="D92" s="1" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I92" s="3"/>
@@ -10550,53 +11041,57 @@
       <c r="M92" s="10"/>
       <c r="N92" s="4"/>
       <c r="V92" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA92" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG92">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z92" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH92" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA92" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB92" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC92" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD92" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE92" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF92" t="str">
+        <v/>
+      </c>
+      <c r="BE92" t="str">
         <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG92">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH92" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>CV</v>
       </c>
       <c r="D93" s="1" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I93" s="3"/>
@@ -10606,53 +11101,57 @@
       <c r="M93" s="10"/>
       <c r="N93" s="4"/>
       <c r="V93" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA93" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG93">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z93" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH93" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA93" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB93" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC93" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD93" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE93" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF93" t="str">
+        <v/>
+      </c>
+      <c r="BE93" t="str">
         <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG93">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH93" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>CV</v>
       </c>
       <c r="D94" s="1" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I94" s="3"/>
@@ -10662,53 +11161,57 @@
       <c r="M94" s="10"/>
       <c r="N94" s="4"/>
       <c r="V94" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA94" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG94">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z94" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH94" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA94" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB94" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC94" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD94" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE94" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF94" t="str">
+        <v/>
+      </c>
+      <c r="BE94" t="str">
         <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG94">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH94" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>CV</v>
       </c>
       <c r="D95" s="1" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I95" s="3"/>
@@ -10718,53 +11221,57 @@
       <c r="M95" s="10"/>
       <c r="N95" s="4"/>
       <c r="V95" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA95" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG95">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z95" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH95" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA95" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB95" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC95" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD95" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE95" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF95" t="str">
+        <v/>
+      </c>
+      <c r="BE95" t="str">
         <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG95">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH95" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>CV</v>
       </c>
       <c r="D96" s="1" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I96" s="3"/>
@@ -10774,53 +11281,57 @@
       <c r="M96" s="10"/>
       <c r="N96" s="4"/>
       <c r="V96" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA96" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG96">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z96" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH96" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA96" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB96" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC96" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD96" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE96" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF96" t="str">
+        <v/>
+      </c>
+      <c r="BE96" t="str">
         <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG96">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH96" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>CV</v>
       </c>
       <c r="D97" s="1" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I97" s="3"/>
@@ -10830,53 +11341,57 @@
       <c r="M97" s="10"/>
       <c r="N97" s="4"/>
       <c r="V97" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA97" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG97">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z97" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH97" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA97" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB97" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC97" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD97" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE97" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF97" t="str">
+        <v/>
+      </c>
+      <c r="BE97" t="str">
         <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG97">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH97" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>CV</v>
       </c>
       <c r="D98" s="1" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I98" s="3"/>
@@ -10886,53 +11401,57 @@
       <c r="M98" s="10"/>
       <c r="N98" s="4"/>
       <c r="V98" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA98" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG98">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z98" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH98" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA98" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB98" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC98" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD98" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE98" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF98" t="str">
+        <v/>
+      </c>
+      <c r="BE98" t="str">
         <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG98">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH98" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>CV</v>
       </c>
       <c r="D99" s="1" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I99" s="3"/>
@@ -10942,53 +11461,57 @@
       <c r="M99" s="10"/>
       <c r="N99" s="4"/>
       <c r="V99" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA99" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG99">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z99" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH99" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA99" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB99" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC99" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD99" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE99" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF99" t="str">
+        <v/>
+      </c>
+      <c r="BE99" t="str">
         <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG99">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH99" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>CV</v>
       </c>
       <c r="D100" s="1" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I100" s="3"/>
@@ -10998,53 +11521,57 @@
       <c r="M100" s="10"/>
       <c r="N100" s="4"/>
       <c r="V100" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA100" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG100">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z100" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH100" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA100" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB100" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC100" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD100" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE100" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF100" t="str">
+        <v/>
+      </c>
+      <c r="BE100" t="str">
         <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG100">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH100" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>CV</v>
       </c>
       <c r="D101" s="1" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I101" s="3"/>
@@ -11054,53 +11581,57 @@
       <c r="M101" s="10"/>
       <c r="N101" s="4"/>
       <c r="V101" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA101" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG101">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z101" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH101" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA101" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB101" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC101" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD101" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE101" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF101" t="str">
+        <v/>
+      </c>
+      <c r="BE101" t="str">
         <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG101">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH101" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>CV</v>
       </c>
       <c r="D102" s="1" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I102" s="3"/>
@@ -11110,53 +11641,57 @@
       <c r="M102" s="10"/>
       <c r="N102" s="4"/>
       <c r="V102" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA102" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG102">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z102" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH102" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA102" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB102" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC102" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD102" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE102" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF102" t="str">
+        <v/>
+      </c>
+      <c r="BE102" t="str">
         <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG102">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH102" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="1" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>CV</v>
       </c>
       <c r="D103" s="1" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I103" s="3"/>
@@ -11166,53 +11701,57 @@
       <c r="M103" s="10"/>
       <c r="N103" s="4"/>
       <c r="V103" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA103" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG103">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z103" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH103" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA103" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB103" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC103" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD103" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE103" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF103" t="str">
+        <v/>
+      </c>
+      <c r="BE103" t="str">
         <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG103">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH103" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="1" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>CV</v>
       </c>
       <c r="D104" s="1" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I104" s="3"/>
@@ -11222,53 +11761,57 @@
       <c r="M104" s="10"/>
       <c r="N104" s="4"/>
       <c r="V104" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA104" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG104">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z104" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH104" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA104" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB104" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC104" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD104" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE104" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF104" t="str">
+        <v/>
+      </c>
+      <c r="BE104" t="str">
         <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG104">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH104" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="1" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>CV</v>
       </c>
       <c r="D105" s="1" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I105" s="3"/>
@@ -11278,53 +11821,57 @@
       <c r="M105" s="10"/>
       <c r="N105" s="4"/>
       <c r="V105" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA105" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG105">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z105" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH105" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA105" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB105" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC105" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD105" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE105" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF105" t="str">
+        <v/>
+      </c>
+      <c r="BE105" t="str">
         <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG105">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH105" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="1" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>CV</v>
       </c>
       <c r="D106" s="1" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I106" s="3"/>
@@ -11334,53 +11881,57 @@
       <c r="M106" s="10"/>
       <c r="N106" s="4"/>
       <c r="V106" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA106" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG106">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z106" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH106" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA106" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB106" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC106" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD106" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE106" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF106" t="str">
+        <v/>
+      </c>
+      <c r="BE106" t="str">
         <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG106">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH106" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="1" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>CV</v>
       </c>
       <c r="D107" s="1" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I107" s="3"/>
@@ -11390,53 +11941,57 @@
       <c r="M107" s="10"/>
       <c r="N107" s="4"/>
       <c r="V107" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA107" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG107">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z107" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH107" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA107" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB107" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC107" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD107" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE107" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF107" t="str">
+        <v/>
+      </c>
+      <c r="BE107" t="str">
         <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG107">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH107" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="1" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>CV</v>
       </c>
       <c r="D108" s="1" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I108" s="3"/>
@@ -11446,53 +12001,57 @@
       <c r="M108" s="10"/>
       <c r="N108" s="4"/>
       <c r="V108" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z108" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA108" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB108" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC108" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD108" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE108" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF108" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG108">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z108" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH108" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA108" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB108" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC108" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD108" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE108" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF108" t="str">
+        <v/>
+      </c>
+      <c r="BE108" t="str">
         <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG108">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH108" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="3:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="1" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>CV</v>
       </c>
       <c r="D109" s="1" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>FrequencyDomain</v>
       </c>
       <c r="I109" s="3"/>
@@ -11502,47 +12061,51 @@
       <c r="M109" s="10"/>
       <c r="N109" s="4"/>
       <c r="V109" s="9" t="str">
+        <f t="shared" si="61"/>
+        <v>[</v>
+      </c>
+      <c r="Z109" t="str">
+        <f t="shared" si="65"/>
+        <v>[]</v>
+      </c>
+      <c r="AA109" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>[</v>
+      </c>
+      <c r="AB109" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AC109" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="AD109" t="str">
+        <f t="shared" si="58"/>
+        <v>[]</v>
+      </c>
+      <c r="AE109" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AF109" t="str">
+        <f t="shared" si="66"/>
+        <v>visual_style23</v>
+      </c>
+      <c r="AG109">
         <f t="shared" si="60"/>
-        <v>[</v>
-      </c>
-      <c r="Z109" t="str">
+        <v>23</v>
+      </c>
+      <c r="AH109" t="str">
         <f t="shared" si="63"/>
-        <v>[]</v>
-      </c>
-      <c r="AA109" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>[</v>
-      </c>
-      <c r="AB109" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AC109" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="AD109" t="str">
-        <f t="shared" si="57"/>
-        <v>[]</v>
-      </c>
-      <c r="AE109" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AF109" t="str">
+        <v/>
+      </c>
+      <c r="BE109" t="str">
         <f t="shared" si="64"/>
-        <v>visual_style21</v>
-      </c>
-      <c r="AG109">
-        <f t="shared" si="59"/>
-        <v>21</v>
-      </c>
-      <c r="AH109" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="3:34" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="3:57" x14ac:dyDescent="0.2">
       <c r="I110" s="3"/>
       <c r="J110" s="10"/>
       <c r="K110" s="10"/>
@@ -11550,7 +12113,7 @@
       <c r="M110" s="10"/>
       <c r="N110" s="4"/>
     </row>
-    <row r="111" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:57" x14ac:dyDescent="0.2">
       <c r="I111" s="3"/>
       <c r="J111" s="10"/>
       <c r="K111" s="10"/>
@@ -11558,7 +12121,7 @@
       <c r="M111" s="10"/>
       <c r="N111" s="4"/>
     </row>
-    <row r="112" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:57" x14ac:dyDescent="0.2">
       <c r="I112" s="3"/>
       <c r="J112" s="10"/>
       <c r="K112" s="10"/>
@@ -11607,13 +12170,15 @@
       <c r="N117" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="BC1:BD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11823,7 +12388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -11857,7 +12422,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>176</v>
       </c>
       <c r="B2" t="s">
@@ -11874,7 +12439,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>176</v>
       </c>
       <c r="B3" t="s">
@@ -11888,7 +12453,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>176</v>
       </c>
       <c r="B4" t="s">
@@ -11902,7 +12467,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>176</v>
       </c>
       <c r="B5" t="s">
@@ -11915,59 +12480,59 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="12" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="12" t="s">
         <v>252</v>
       </c>
     </row>
@@ -12000,7 +12565,7 @@
       <c r="B12" t="s">
         <v>243</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>261</v>
       </c>
     </row>
@@ -12011,10 +12576,10 @@
       <c r="B13" t="s">
         <v>185</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="K13" s="14"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -12023,7 +12588,7 @@
       <c r="B14" t="s">
         <v>186</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="13" t="s">
         <v>255</v>
       </c>
     </row>
@@ -12034,7 +12599,7 @@
       <c r="B15" t="s">
         <v>187</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="13" t="s">
         <v>256</v>
       </c>
     </row>
@@ -12045,7 +12610,7 @@
       <c r="B16" t="s">
         <v>188</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="13" t="s">
         <v>257</v>
       </c>
     </row>
@@ -12056,7 +12621,7 @@
       <c r="B17" t="s">
         <v>189</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="13" t="s">
         <v>258</v>
       </c>
     </row>
@@ -12067,7 +12632,7 @@
       <c r="B18" t="s">
         <v>190</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="13" t="s">
         <v>259</v>
       </c>
     </row>
@@ -12078,7 +12643,7 @@
       <c r="B19" t="s">
         <v>192</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="13" t="s">
         <v>260</v>
       </c>
     </row>
@@ -12089,7 +12654,7 @@
       <c r="B20" t="s">
         <v>193</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="13" t="s">
         <v>260</v>
       </c>
     </row>

--- a/doc/flo/Blocks.xlsx
+++ b/doc/flo/Blocks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="272">
   <si>
     <t>Block Types</t>
   </si>
@@ -1289,11 +1289,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <pane xSplit="8985" ySplit="540" topLeftCell="BC5" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane xSplit="8985" ySplit="540" topLeftCell="BC12" activePane="bottomLeft"/>
       <selection activeCell="AH1" sqref="AH1"/>
       <selection pane="topRight" activeCell="BE1" sqref="BE1"/>
-      <selection pane="bottomLeft" activeCell="AH3" sqref="AH3:AH109"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
       <selection pane="bottomRight" activeCell="BF11" sqref="BF11"/>
     </sheetView>
   </sheetViews>
@@ -4143,6 +4143,12 @@
       <c r="O24" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="Q24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="T24" s="2" t="s">
         <v>58</v>
       </c>
@@ -4196,7 +4202,7 @@
       </c>
       <c r="AH24" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== eyes ===========&lt;&gt;section(eyes, 'I/O').&lt;&gt;subsection(eyes, 'imaging').&lt;&gt;description(eyes, 'input is commanded eye position, output is left and right eye cams').&lt;&gt;visual_style(eyes,  normal).&lt;&gt;inputs(eyes, [required('x'), required('y')]).&lt;&gt;outputs(eyes, ['OL', 'OR']).&lt;&gt;input_types(eyes, [proportion, proportion]).&lt;&gt;output_types(eyes, []).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== eyes ===========&lt;&gt;section(eyes, 'I/O').&lt;&gt;subsection(eyes, 'imaging').&lt;&gt;description(eyes, 'input is commanded eye position, output is left and right eye cams').&lt;&gt;visual_style(eyes,  normal).&lt;&gt;inputs(eyes, [required('x'), required('y')]).&lt;&gt;outputs(eyes, ['OL', 'OR']).&lt;&gt;input_types(eyes, [proportion, proportion]).&lt;&gt;output_types(eyes, [rgb, rgb]).&lt;&gt;</v>
       </c>
       <c r="AI24" t="str">
         <f t="shared" si="15"/>
@@ -4216,11 +4222,11 @@
       </c>
       <c r="AM24" t="str">
         <f t="shared" si="19"/>
-        <v>[</v>
+        <v>[rgb</v>
       </c>
       <c r="AN24" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>, rgb</v>
       </c>
       <c r="AO24" s="11" t="str">
         <f t="shared" si="21"/>
@@ -4232,14 +4238,14 @@
       </c>
       <c r="AQ24" t="str">
         <f t="shared" si="23"/>
-        <v>[]</v>
+        <v>[rgb, rgb]</v>
       </c>
       <c r="AS24">
         <v>1</v>
       </c>
       <c r="BE24" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== eyes ===========&lt;&gt;section(eyes, 'I/O').&lt;&gt;subsection(eyes, 'imaging').&lt;&gt;description(eyes, 'input is commanded eye position, output is left and right eye cams').&lt;&gt;visual_style(eyes,  normal).&lt;&gt;inputs(eyes, [required('x'), required('y')]).&lt;&gt;outputs(eyes, ['OL', 'OR']).&lt;&gt;input_types(eyes, [proportion, proportion]).&lt;&gt;output_types(eyes, []).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== eyes ===========&lt;&gt;section(eyes, 'I/O').&lt;&gt;subsection(eyes, 'imaging').&lt;&gt;description(eyes, 'input is commanded eye position, output is left and right eye cams').&lt;&gt;visual_style(eyes,  normal).&lt;&gt;inputs(eyes, [required('x'), required('y')]).&lt;&gt;outputs(eyes, ['OL', 'OR']).&lt;&gt;input_types(eyes, [proportion, proportion]).&lt;&gt;output_types(eyes, [rgb, rgb]).&lt;&gt;</v>
       </c>
     </row>
     <row r="25" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4265,6 +4271,12 @@
       <c r="O25" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="Q25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="T25" s="2" t="s">
         <v>61</v>
       </c>
@@ -4321,7 +4333,7 @@
       </c>
       <c r="AH25" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== videoplayer ===========&lt;&gt;section(videoplayer, 'I/O').&lt;&gt;subsection(videoplayer, 'imaging').&lt;&gt;description(videoplayer, 'Sends frames out O, sound out S').&lt;&gt;visual_style(videoplayer,  visual_style7).&lt;&gt;inputs(videoplayer, []).&lt;&gt;outputs(videoplayer, ['O', 'S']).&lt;&gt;input_types(videoplayer, []).&lt;&gt;output_types(videoplayer, []).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== videoplayer ===========&lt;&gt;section(videoplayer, 'I/O').&lt;&gt;subsection(videoplayer, 'imaging').&lt;&gt;description(videoplayer, 'Sends frames out O, sound out S').&lt;&gt;visual_style(videoplayer,  visual_style7).&lt;&gt;inputs(videoplayer, []).&lt;&gt;outputs(videoplayer, ['O', 'S']).&lt;&gt;input_types(videoplayer, []).&lt;&gt;output_types(videoplayer, [rgb, sample]).&lt;&gt;</v>
       </c>
       <c r="AI25" t="str">
         <f t="shared" si="15"/>
@@ -4341,11 +4353,11 @@
       </c>
       <c r="AM25" t="str">
         <f t="shared" si="19"/>
-        <v>[</v>
+        <v>[rgb</v>
       </c>
       <c r="AN25" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>, sample</v>
       </c>
       <c r="AO25" s="11" t="str">
         <f t="shared" si="21"/>
@@ -4357,14 +4369,14 @@
       </c>
       <c r="AQ25" t="str">
         <f t="shared" si="23"/>
-        <v>[]</v>
+        <v>[rgb, sample]</v>
       </c>
       <c r="AS25">
         <v>1</v>
       </c>
       <c r="BE25" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== videoplayer ===========&lt;&gt;section(videoplayer, 'I/O').&lt;&gt;subsection(videoplayer, 'imaging').&lt;&gt;description(videoplayer, 'Sends frames out O, sound out S').&lt;&gt;visual_style(videoplayer,  visual_style7).&lt;&gt;inputs(videoplayer, []).&lt;&gt;outputs(videoplayer, ['O', 'S']).&lt;&gt;input_types(videoplayer, []).&lt;&gt;output_types(videoplayer, []).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== videoplayer ===========&lt;&gt;section(videoplayer, 'I/O').&lt;&gt;subsection(videoplayer, 'imaging').&lt;&gt;description(videoplayer, 'Sends frames out O, sound out S').&lt;&gt;visual_style(videoplayer,  visual_style7).&lt;&gt;inputs(videoplayer, []).&lt;&gt;outputs(videoplayer, ['O', 'S']).&lt;&gt;input_types(videoplayer, []).&lt;&gt;output_types(videoplayer, [rgb, sample]).&lt;&gt;</v>
       </c>
     </row>
     <row r="26" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/doc/flo/Blocks.xlsx
+++ b/doc/flo/Blocks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="555" windowWidth="12135" windowHeight="8520"/>
+    <workbookView xWindow="270" yWindow="555" windowWidth="12135" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="BlockTypes" sheetId="1" r:id="rId1"/>

--- a/doc/flo/Blocks.xlsx
+++ b/doc/flo/Blocks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="288">
   <si>
     <t>Block Types</t>
   </si>
@@ -832,6 +832,54 @@
   </si>
   <si>
     <t>protocoords</t>
+  </si>
+  <si>
+    <t>blocksheet1_01.png</t>
+  </si>
+  <si>
+    <t>blocksheet1_02.png</t>
+  </si>
+  <si>
+    <t>blocksheet1_03.png</t>
+  </si>
+  <si>
+    <t>blocksheet1_04.png</t>
+  </si>
+  <si>
+    <t>blocksheet1_05.png</t>
+  </si>
+  <si>
+    <t>blocksheet1_06.png</t>
+  </si>
+  <si>
+    <t>blocksheet1_07.png</t>
+  </si>
+  <si>
+    <t>blocksheet1_09.png</t>
+  </si>
+  <si>
+    <t>blocksheet1_13.png</t>
+  </si>
+  <si>
+    <t>blocksheet1_14.png</t>
+  </si>
+  <si>
+    <t>blocksheet1_10.png</t>
+  </si>
+  <si>
+    <t>blocksheet1_15.png</t>
+  </si>
+  <si>
+    <t>blocksheet1_11.png</t>
+  </si>
+  <si>
+    <t>blocksheet1_16.png</t>
+  </si>
+  <si>
+    <t>blocksheet1_17.png</t>
+  </si>
+  <si>
+    <t>blocksheet0-_08.png</t>
   </si>
 </sst>
 </file>
@@ -1289,12 +1337,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane xSplit="8985" ySplit="540" topLeftCell="BC12" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9000" ySplit="540" topLeftCell="BC1" activePane="bottomRight"/>
       <selection activeCell="AH1" sqref="AH1"/>
       <selection pane="topRight" activeCell="BE1" sqref="BE1"/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
-      <selection pane="bottomRight" activeCell="BF11" sqref="BF11"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="BD6" sqref="BD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1808,8 +1856,8 @@
         <v>0</v>
       </c>
       <c r="AH5" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== flipflop ===========&lt;&gt;section(flipflop, 'Control').&lt;&gt;subsection(flipflop, 'Control').&lt;&gt;description(flipflop, 'a jk flipflop').&lt;&gt;visual_style(flipflop,  normal).&lt;&gt;inputs(flipflop, [required('J'), required('K')]).&lt;&gt;outputs(flipflop, ['O']).&lt;&gt;input_types(flipflop, [pulse, pulse]).&lt;&gt;output_types(flipflop, [int]).&lt;&gt;</v>
+        <f>IF(ISBLANK(E5),"","&lt;&gt;%  ===== "&amp;E5&amp;" ===========&lt;&gt;"&amp;AE5&amp;").&lt;&gt;inputs("&amp;E5&amp;", "&amp;Z5&amp;").&lt;&gt;outputs("&amp;E5&amp;", "&amp;AD5&amp;").&lt;&gt;input_types("&amp;E5&amp;", "&amp;AP5&amp;").&lt;&gt;output_types("&amp;E5&amp;", "&amp;AQ5&amp;").&lt;&gt;"&amp;IF(OR(ISBLANK(E5),ISBLANK(BB16)),"","image_name("&amp;E5&amp;", '/img/blocks/"&amp;BB16&amp;"').&lt;&gt;"))</f>
+        <v>&lt;&gt;%  ===== flipflop ===========&lt;&gt;section(flipflop, 'Control').&lt;&gt;subsection(flipflop, 'Control').&lt;&gt;description(flipflop, 'a jk flipflop').&lt;&gt;visual_style(flipflop,  normal).&lt;&gt;inputs(flipflop, [required('J'), required('K')]).&lt;&gt;outputs(flipflop, ['O']).&lt;&gt;input_types(flipflop, [pulse, pulse]).&lt;&gt;output_types(flipflop, [int]).&lt;&gt;image_name(flipflop, '/img/blocks/blocksheet1_01.png').&lt;&gt;</v>
       </c>
       <c r="AI5" t="str">
         <f t="shared" si="15"/>
@@ -1852,7 +1900,7 @@
       </c>
       <c r="BE5" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== flipflop ===========&lt;&gt;section(flipflop, 'Control').&lt;&gt;subsection(flipflop, 'Control').&lt;&gt;description(flipflop, 'a jk flipflop').&lt;&gt;visual_style(flipflop,  normal).&lt;&gt;inputs(flipflop, [required('J'), required('K')]).&lt;&gt;outputs(flipflop, ['O']).&lt;&gt;input_types(flipflop, [pulse, pulse]).&lt;&gt;output_types(flipflop, [int]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== flipflop ===========&lt;&gt;section(flipflop, 'Control').&lt;&gt;subsection(flipflop, 'Control').&lt;&gt;description(flipflop, 'a jk flipflop').&lt;&gt;visual_style(flipflop,  normal).&lt;&gt;inputs(flipflop, [required('J'), required('K')]).&lt;&gt;outputs(flipflop, ['O']).&lt;&gt;input_types(flipflop, [pulse, pulse]).&lt;&gt;output_types(flipflop, [int]).&lt;&gt;image_name(flipflop, '/img/blocks/blocksheet1_01.png').&lt;&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3214,7 +3262,7 @@
       </c>
       <c r="AH16" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== pulse ===========&lt;&gt;section(pulse, 'I/O').&lt;&gt;subsection(pulse, 'scalar').&lt;&gt;description(pulse, 'Is 1 on the next frame after mouseup').&lt;&gt;visual_style(pulse,  visual_style2).&lt;&gt;inputs(pulse, []).&lt;&gt;outputs(pulse, ['O']).&lt;&gt;input_types(pulse, []).&lt;&gt;output_types(pulse, [pulse]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== pulse ===========&lt;&gt;section(pulse, 'I/O').&lt;&gt;subsection(pulse, 'scalar').&lt;&gt;description(pulse, 'Is 1 on the next frame after mouseup').&lt;&gt;visual_style(pulse,  visual_style2).&lt;&gt;inputs(pulse, []).&lt;&gt;outputs(pulse, ['O']).&lt;&gt;input_types(pulse, []).&lt;&gt;output_types(pulse, [pulse]).&lt;&gt;image_name(pulse, '/img/blocks/blocksheet1_01.png').&lt;&gt;</v>
       </c>
       <c r="AI16" t="str">
         <f t="shared" si="15"/>
@@ -3255,9 +3303,18 @@
       <c r="AS16">
         <v>1</v>
       </c>
+      <c r="BB16" t="s">
+        <v>272</v>
+      </c>
+      <c r="BC16">
+        <v>21</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
       <c r="BE16" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== pulse ===========&lt;&gt;section(pulse, 'I/O').&lt;&gt;subsection(pulse, 'scalar').&lt;&gt;description(pulse, 'Is 1 on the next frame after mouseup').&lt;&gt;visual_style(pulse,  visual_style2).&lt;&gt;inputs(pulse, []).&lt;&gt;outputs(pulse, ['O']).&lt;&gt;input_types(pulse, []).&lt;&gt;output_types(pulse, [pulse]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== pulse ===========&lt;&gt;section(pulse, 'I/O').&lt;&gt;subsection(pulse, 'scalar').&lt;&gt;description(pulse, 'Is 1 on the next frame after mouseup').&lt;&gt;visual_style(pulse,  visual_style2).&lt;&gt;inputs(pulse, []).&lt;&gt;outputs(pulse, ['O']).&lt;&gt;input_types(pulse, []).&lt;&gt;output_types(pulse, [pulse]).&lt;&gt;image_name(pulse, '/img/blocks/blocksheet1_01.png').&lt;&gt;prototype_coordinates(pulse, 21, 0).&lt;&gt;</v>
       </c>
     </row>
     <row r="17" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3339,7 +3396,7 @@
       </c>
       <c r="AH17" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== proportion ===========&lt;&gt;section(proportion, 'I/O').&lt;&gt;subsection(proportion, 'scalar').&lt;&gt;description(proportion, 'slider value from 0-1').&lt;&gt;visual_style(proportion,  visual_style3).&lt;&gt;inputs(proportion, []).&lt;&gt;outputs(proportion, ['O']).&lt;&gt;input_types(proportion, []).&lt;&gt;output_types(proportion, [proportion]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== proportion ===========&lt;&gt;section(proportion, 'I/O').&lt;&gt;subsection(proportion, 'scalar').&lt;&gt;description(proportion, 'slider value from 0-1').&lt;&gt;visual_style(proportion,  visual_style3).&lt;&gt;inputs(proportion, []).&lt;&gt;outputs(proportion, ['O']).&lt;&gt;input_types(proportion, []).&lt;&gt;output_types(proportion, [proportion]).&lt;&gt;image_name(proportion, '/img/blocks/blocksheet1_02.png').&lt;&gt;</v>
       </c>
       <c r="AI17" t="str">
         <f t="shared" si="15"/>
@@ -3380,9 +3437,19 @@
       <c r="AS17">
         <v>1</v>
       </c>
+      <c r="BB17" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC17">
+        <v>21</v>
+      </c>
+      <c r="BD17">
+        <f>BD16+1</f>
+        <v>1</v>
+      </c>
       <c r="BE17" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== proportion ===========&lt;&gt;section(proportion, 'I/O').&lt;&gt;subsection(proportion, 'scalar').&lt;&gt;description(proportion, 'slider value from 0-1').&lt;&gt;visual_style(proportion,  visual_style3).&lt;&gt;inputs(proportion, []).&lt;&gt;outputs(proportion, ['O']).&lt;&gt;input_types(proportion, []).&lt;&gt;output_types(proportion, [proportion]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== proportion ===========&lt;&gt;section(proportion, 'I/O').&lt;&gt;subsection(proportion, 'scalar').&lt;&gt;description(proportion, 'slider value from 0-1').&lt;&gt;visual_style(proportion,  visual_style3).&lt;&gt;inputs(proportion, []).&lt;&gt;outputs(proportion, ['O']).&lt;&gt;input_types(proportion, []).&lt;&gt;output_types(proportion, [proportion]).&lt;&gt;image_name(proportion, '/img/blocks/blocksheet1_02.png').&lt;&gt;prototype_coordinates(proportion, 21, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="18" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3464,7 +3531,7 @@
       </c>
       <c r="AH18" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== floatval ===========&lt;&gt;section(floatval, 'I/O').&lt;&gt;subsection(floatval, 'scalar').&lt;&gt;description(floatval, 'float value that varies over -inf to +inf').&lt;&gt;visual_style(floatval,  visual_style4).&lt;&gt;inputs(floatval, []).&lt;&gt;outputs(floatval, ['O']).&lt;&gt;input_types(floatval, []).&lt;&gt;output_types(floatval, [float]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== floatval ===========&lt;&gt;section(floatval, 'I/O').&lt;&gt;subsection(floatval, 'scalar').&lt;&gt;description(floatval, 'float value that varies over -inf to +inf').&lt;&gt;visual_style(floatval,  visual_style4).&lt;&gt;inputs(floatval, []).&lt;&gt;outputs(floatval, ['O']).&lt;&gt;input_types(floatval, []).&lt;&gt;output_types(floatval, [float]).&lt;&gt;image_name(floatval, '/img/blocks/blocksheet1_03.png').&lt;&gt;</v>
       </c>
       <c r="AI18" t="str">
         <f t="shared" si="15"/>
@@ -3505,9 +3572,19 @@
       <c r="AS18">
         <v>1</v>
       </c>
+      <c r="BB18" t="s">
+        <v>274</v>
+      </c>
+      <c r="BC18">
+        <v>21</v>
+      </c>
+      <c r="BD18">
+        <f>BD17+1</f>
+        <v>2</v>
+      </c>
       <c r="BE18" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== floatval ===========&lt;&gt;section(floatval, 'I/O').&lt;&gt;subsection(floatval, 'scalar').&lt;&gt;description(floatval, 'float value that varies over -inf to +inf').&lt;&gt;visual_style(floatval,  visual_style4).&lt;&gt;inputs(floatval, []).&lt;&gt;outputs(floatval, ['O']).&lt;&gt;input_types(floatval, []).&lt;&gt;output_types(floatval, [float]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== floatval ===========&lt;&gt;section(floatval, 'I/O').&lt;&gt;subsection(floatval, 'scalar').&lt;&gt;description(floatval, 'float value that varies over -inf to +inf').&lt;&gt;visual_style(floatval,  visual_style4).&lt;&gt;inputs(floatval, []).&lt;&gt;outputs(floatval, ['O']).&lt;&gt;input_types(floatval, []).&lt;&gt;output_types(floatval, [float]).&lt;&gt;image_name(floatval, '/img/blocks/blocksheet1_03.png').&lt;&gt;prototype_coordinates(floatval, 21, 2).&lt;&gt;</v>
       </c>
     </row>
     <row r="19" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3697,7 +3774,7 @@
       </c>
       <c r="AH20" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== mic ===========&lt;&gt;section(mic, 'I/O').&lt;&gt;subsection(mic, 'sound').&lt;&gt;description(mic, 'samples from mic').&lt;&gt;visual_style(mic,  normal).&lt;&gt;inputs(mic, []).&lt;&gt;outputs(mic, ['O']).&lt;&gt;input_types(mic, []).&lt;&gt;output_types(mic, [sample]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== mic ===========&lt;&gt;section(mic, 'I/O').&lt;&gt;subsection(mic, 'sound').&lt;&gt;description(mic, 'samples from mic').&lt;&gt;visual_style(mic,  normal).&lt;&gt;inputs(mic, []).&lt;&gt;outputs(mic, ['O']).&lt;&gt;input_types(mic, []).&lt;&gt;output_types(mic, [sample]).&lt;&gt;image_name(mic, '/img/blocks/blocksheet1_04.png').&lt;&gt;</v>
       </c>
       <c r="AI20" t="str">
         <f t="shared" si="15"/>
@@ -3738,9 +3815,18 @@
       <c r="AS20">
         <v>1</v>
       </c>
+      <c r="BB20" t="s">
+        <v>275</v>
+      </c>
+      <c r="BC20">
+        <v>21</v>
+      </c>
+      <c r="BD20">
+        <v>3</v>
+      </c>
       <c r="BE20" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== mic ===========&lt;&gt;section(mic, 'I/O').&lt;&gt;subsection(mic, 'sound').&lt;&gt;description(mic, 'samples from mic').&lt;&gt;visual_style(mic,  normal).&lt;&gt;inputs(mic, []).&lt;&gt;outputs(mic, ['O']).&lt;&gt;input_types(mic, []).&lt;&gt;output_types(mic, [sample]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== mic ===========&lt;&gt;section(mic, 'I/O').&lt;&gt;subsection(mic, 'sound').&lt;&gt;description(mic, 'samples from mic').&lt;&gt;visual_style(mic,  normal).&lt;&gt;inputs(mic, []).&lt;&gt;outputs(mic, ['O']).&lt;&gt;input_types(mic, []).&lt;&gt;output_types(mic, [sample]).&lt;&gt;image_name(mic, '/img/blocks/blocksheet1_04.png').&lt;&gt;prototype_coordinates(mic, 21, 3).&lt;&gt;</v>
       </c>
     </row>
     <row r="21" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3822,7 +3908,7 @@
       </c>
       <c r="AH21" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== listen ===========&lt;&gt;section(listen, 'I/O').&lt;&gt;subsection(listen, 'sound').&lt;&gt;description(listen, 'Sends sound to default output').&lt;&gt;visual_style(listen,  visual_style5).&lt;&gt;inputs(listen, [required('A')]).&lt;&gt;outputs(listen, []).&lt;&gt;input_types(listen, [sample]).&lt;&gt;output_types(listen, []).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== listen ===========&lt;&gt;section(listen, 'I/O').&lt;&gt;subsection(listen, 'sound').&lt;&gt;description(listen, 'Sends sound to default output').&lt;&gt;visual_style(listen,  visual_style5).&lt;&gt;inputs(listen, [required('A')]).&lt;&gt;outputs(listen, []).&lt;&gt;input_types(listen, [sample]).&lt;&gt;output_types(listen, []).&lt;&gt;image_name(listen, '/img/blocks/blocksheet1_05.png').&lt;&gt;</v>
       </c>
       <c r="AI21" t="str">
         <f t="shared" si="15"/>
@@ -3863,9 +3949,18 @@
       <c r="AS21">
         <v>1</v>
       </c>
+      <c r="BB21" t="s">
+        <v>276</v>
+      </c>
+      <c r="BC21">
+        <v>21</v>
+      </c>
+      <c r="BD21">
+        <v>4</v>
+      </c>
       <c r="BE21" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== listen ===========&lt;&gt;section(listen, 'I/O').&lt;&gt;subsection(listen, 'sound').&lt;&gt;description(listen, 'Sends sound to default output').&lt;&gt;visual_style(listen,  visual_style5).&lt;&gt;inputs(listen, [required('A')]).&lt;&gt;outputs(listen, []).&lt;&gt;input_types(listen, [sample]).&lt;&gt;output_types(listen, []).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== listen ===========&lt;&gt;section(listen, 'I/O').&lt;&gt;subsection(listen, 'sound').&lt;&gt;description(listen, 'Sends sound to default output').&lt;&gt;visual_style(listen,  visual_style5).&lt;&gt;inputs(listen, [required('A')]).&lt;&gt;outputs(listen, []).&lt;&gt;input_types(listen, [sample]).&lt;&gt;output_types(listen, []).&lt;&gt;image_name(listen, '/img/blocks/blocksheet1_05.png').&lt;&gt;prototype_coordinates(listen, 21, 4).&lt;&gt;</v>
       </c>
     </row>
     <row r="22" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4064,7 +4159,7 @@
       </c>
       <c r="AH23" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== camera ===========&lt;&gt;section(camera, 'I/O').&lt;&gt;subsection(camera, 'imaging').&lt;&gt;description(camera, 'O is frames out of camera, K is camera intrinsics').&lt;&gt;visual_style(camera,  visual_style6).&lt;&gt;inputs(camera, []).&lt;&gt;outputs(camera, ['O', 'K']).&lt;&gt;input_types(camera, []).&lt;&gt;output_types(camera, [rgb, intrinsics]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== camera ===========&lt;&gt;section(camera, 'I/O').&lt;&gt;subsection(camera, 'imaging').&lt;&gt;description(camera, 'O is frames out of camera, K is camera intrinsics').&lt;&gt;visual_style(camera,  visual_style6).&lt;&gt;inputs(camera, []).&lt;&gt;outputs(camera, ['O', 'K']).&lt;&gt;input_types(camera, []).&lt;&gt;output_types(camera, [rgb, intrinsics]).&lt;&gt;image_name(camera, '/img/blocks/blocksheet1_06.png').&lt;&gt;</v>
       </c>
       <c r="AI23" t="str">
         <f t="shared" si="15"/>
@@ -4105,9 +4200,18 @@
       <c r="AS23">
         <v>1</v>
       </c>
+      <c r="BB23" t="s">
+        <v>277</v>
+      </c>
+      <c r="BC23">
+        <v>21</v>
+      </c>
+      <c r="BD23">
+        <v>5</v>
+      </c>
       <c r="BE23" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== camera ===========&lt;&gt;section(camera, 'I/O').&lt;&gt;subsection(camera, 'imaging').&lt;&gt;description(camera, 'O is frames out of camera, K is camera intrinsics').&lt;&gt;visual_style(camera,  visual_style6).&lt;&gt;inputs(camera, []).&lt;&gt;outputs(camera, ['O', 'K']).&lt;&gt;input_types(camera, []).&lt;&gt;output_types(camera, [rgb, intrinsics]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== camera ===========&lt;&gt;section(camera, 'I/O').&lt;&gt;subsection(camera, 'imaging').&lt;&gt;description(camera, 'O is frames out of camera, K is camera intrinsics').&lt;&gt;visual_style(camera,  visual_style6).&lt;&gt;inputs(camera, []).&lt;&gt;outputs(camera, ['O', 'K']).&lt;&gt;input_types(camera, []).&lt;&gt;output_types(camera, [rgb, intrinsics]).&lt;&gt;image_name(camera, '/img/blocks/blocksheet1_06.png').&lt;&gt;prototype_coordinates(camera, 21, 5).&lt;&gt;</v>
       </c>
     </row>
     <row r="24" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4202,7 +4306,7 @@
       </c>
       <c r="AH24" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== eyes ===========&lt;&gt;section(eyes, 'I/O').&lt;&gt;subsection(eyes, 'imaging').&lt;&gt;description(eyes, 'input is commanded eye position, output is left and right eye cams').&lt;&gt;visual_style(eyes,  normal).&lt;&gt;inputs(eyes, [required('x'), required('y')]).&lt;&gt;outputs(eyes, ['OL', 'OR']).&lt;&gt;input_types(eyes, [proportion, proportion]).&lt;&gt;output_types(eyes, [rgb, rgb]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== eyes ===========&lt;&gt;section(eyes, 'I/O').&lt;&gt;subsection(eyes, 'imaging').&lt;&gt;description(eyes, 'input is commanded eye position, output is left and right eye cams').&lt;&gt;visual_style(eyes,  normal).&lt;&gt;inputs(eyes, [required('x'), required('y')]).&lt;&gt;outputs(eyes, ['OL', 'OR']).&lt;&gt;input_types(eyes, [proportion, proportion]).&lt;&gt;output_types(eyes, [rgb, rgb]).&lt;&gt;image_name(eyes, '/img/blocks/blocksheet1_07.png').&lt;&gt;</v>
       </c>
       <c r="AI24" t="str">
         <f t="shared" si="15"/>
@@ -4243,9 +4347,18 @@
       <c r="AS24">
         <v>1</v>
       </c>
+      <c r="BB24" t="s">
+        <v>278</v>
+      </c>
+      <c r="BC24">
+        <v>21</v>
+      </c>
+      <c r="BD24">
+        <v>6</v>
+      </c>
       <c r="BE24" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== eyes ===========&lt;&gt;section(eyes, 'I/O').&lt;&gt;subsection(eyes, 'imaging').&lt;&gt;description(eyes, 'input is commanded eye position, output is left and right eye cams').&lt;&gt;visual_style(eyes,  normal).&lt;&gt;inputs(eyes, [required('x'), required('y')]).&lt;&gt;outputs(eyes, ['OL', 'OR']).&lt;&gt;input_types(eyes, [proportion, proportion]).&lt;&gt;output_types(eyes, [rgb, rgb]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== eyes ===========&lt;&gt;section(eyes, 'I/O').&lt;&gt;subsection(eyes, 'imaging').&lt;&gt;description(eyes, 'input is commanded eye position, output is left and right eye cams').&lt;&gt;visual_style(eyes,  normal).&lt;&gt;inputs(eyes, [required('x'), required('y')]).&lt;&gt;outputs(eyes, ['OL', 'OR']).&lt;&gt;input_types(eyes, [proportion, proportion]).&lt;&gt;output_types(eyes, [rgb, rgb]).&lt;&gt;image_name(eyes, '/img/blocks/blocksheet1_07.png').&lt;&gt;prototype_coordinates(eyes, 21, 6).&lt;&gt;</v>
       </c>
     </row>
     <row r="25" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4588,7 +4701,7 @@
       </c>
       <c r="AH27" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== spectrum ===========&lt;&gt;section(spectrum, 'I/O').&lt;&gt;subsection(spectrum, 'imaging').&lt;&gt;description(spectrum, 'dancing spectrum display').&lt;&gt;visual_style(spectrum,  visual_style9).&lt;&gt;inputs(spectrum, [required('A')]).&lt;&gt;outputs(spectrum, []).&lt;&gt;input_types(spectrum, [sample]).&lt;&gt;output_types(spectrum, []).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== spectrum ===========&lt;&gt;section(spectrum, 'I/O').&lt;&gt;subsection(spectrum, 'imaging').&lt;&gt;description(spectrum, 'dancing spectrum display').&lt;&gt;visual_style(spectrum,  visual_style9).&lt;&gt;inputs(spectrum, [required('A')]).&lt;&gt;outputs(spectrum, []).&lt;&gt;input_types(spectrum, [sample]).&lt;&gt;output_types(spectrum, []).&lt;&gt;image_name(spectrum, '/img/blocks/blocksheet1_09.png').&lt;&gt;</v>
       </c>
       <c r="AI27" t="str">
         <f t="shared" si="15"/>
@@ -4629,9 +4742,18 @@
       <c r="AS27">
         <v>1</v>
       </c>
+      <c r="BB27" t="s">
+        <v>279</v>
+      </c>
+      <c r="BC27">
+        <v>21</v>
+      </c>
+      <c r="BD27">
+        <v>7</v>
+      </c>
       <c r="BE27" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== spectrum ===========&lt;&gt;section(spectrum, 'I/O').&lt;&gt;subsection(spectrum, 'imaging').&lt;&gt;description(spectrum, 'dancing spectrum display').&lt;&gt;visual_style(spectrum,  visual_style9).&lt;&gt;inputs(spectrum, [required('A')]).&lt;&gt;outputs(spectrum, []).&lt;&gt;input_types(spectrum, [sample]).&lt;&gt;output_types(spectrum, []).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== spectrum ===========&lt;&gt;section(spectrum, 'I/O').&lt;&gt;subsection(spectrum, 'imaging').&lt;&gt;description(spectrum, 'dancing spectrum display').&lt;&gt;visual_style(spectrum,  visual_style9).&lt;&gt;inputs(spectrum, [required('A')]).&lt;&gt;outputs(spectrum, []).&lt;&gt;input_types(spectrum, [sample]).&lt;&gt;output_types(spectrum, []).&lt;&gt;image_name(spectrum, '/img/blocks/blocksheet1_09.png').&lt;&gt;prototype_coordinates(spectrum, 21, 7).&lt;&gt;</v>
       </c>
     </row>
     <row r="28" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4838,7 +4960,7 @@
       </c>
       <c r="AH29" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== viewer ===========&lt;&gt;section(viewer, 'I/O').&lt;&gt;subsection(viewer, 'imaging').&lt;&gt;description(viewer, 'displays image').&lt;&gt;visual_style(viewer,  visual_style11).&lt;&gt;inputs(viewer, [required('A')]).&lt;&gt;outputs(viewer, []).&lt;&gt;input_types(viewer, [image]).&lt;&gt;output_types(viewer, []).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== viewer ===========&lt;&gt;section(viewer, 'I/O').&lt;&gt;subsection(viewer, 'imaging').&lt;&gt;description(viewer, 'displays image').&lt;&gt;visual_style(viewer,  visual_style11).&lt;&gt;inputs(viewer, [required('A')]).&lt;&gt;outputs(viewer, []).&lt;&gt;input_types(viewer, [image]).&lt;&gt;output_types(viewer, []).&lt;&gt;image_name(viewer, '/img/blocks/blocksheet1_13.png').&lt;&gt;</v>
       </c>
       <c r="AI29" t="str">
         <f t="shared" si="15"/>
@@ -4879,9 +5001,18 @@
       <c r="AS29">
         <v>1</v>
       </c>
+      <c r="BB29" t="s">
+        <v>280</v>
+      </c>
+      <c r="BC29">
+        <v>21</v>
+      </c>
+      <c r="BD29">
+        <v>8</v>
+      </c>
       <c r="BE29" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== viewer ===========&lt;&gt;section(viewer, 'I/O').&lt;&gt;subsection(viewer, 'imaging').&lt;&gt;description(viewer, 'displays image').&lt;&gt;visual_style(viewer,  visual_style11).&lt;&gt;inputs(viewer, [required('A')]).&lt;&gt;outputs(viewer, []).&lt;&gt;input_types(viewer, [image]).&lt;&gt;output_types(viewer, []).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== viewer ===========&lt;&gt;section(viewer, 'I/O').&lt;&gt;subsection(viewer, 'imaging').&lt;&gt;description(viewer, 'displays image').&lt;&gt;visual_style(viewer,  visual_style11).&lt;&gt;inputs(viewer, [required('A')]).&lt;&gt;outputs(viewer, []).&lt;&gt;input_types(viewer, [image]).&lt;&gt;output_types(viewer, []).&lt;&gt;image_name(viewer, '/img/blocks/blocksheet1_13.png').&lt;&gt;prototype_coordinates(viewer, 21, 8).&lt;&gt;</v>
       </c>
     </row>
     <row r="30" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4963,7 +5094,7 @@
       </c>
       <c r="AH30" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== kernal ===========&lt;&gt;section(kernal, 'I/O').&lt;&gt;subsection(kernal, 'imaging').&lt;&gt;description(kernal, 'kernal UI for defining kernals').&lt;&gt;visual_style(kernal,  visual_style12).&lt;&gt;inputs(kernal, []).&lt;&gt;outputs(kernal, ['O']).&lt;&gt;input_types(kernal, []).&lt;&gt;output_types(kernal, [kernal]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== kernal ===========&lt;&gt;section(kernal, 'I/O').&lt;&gt;subsection(kernal, 'imaging').&lt;&gt;description(kernal, 'kernal UI for defining kernals').&lt;&gt;visual_style(kernal,  visual_style12).&lt;&gt;inputs(kernal, []).&lt;&gt;outputs(kernal, ['O']).&lt;&gt;input_types(kernal, []).&lt;&gt;output_types(kernal, [kernal]).&lt;&gt;image_name(kernal, '/img/blocks/blocksheet1_14.png').&lt;&gt;</v>
       </c>
       <c r="AI30" t="str">
         <f t="shared" si="15"/>
@@ -5004,9 +5135,18 @@
       <c r="AS30">
         <v>1</v>
       </c>
+      <c r="BB30" t="s">
+        <v>281</v>
+      </c>
+      <c r="BC30">
+        <v>21</v>
+      </c>
+      <c r="BD30">
+        <v>9</v>
+      </c>
       <c r="BE30" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== kernal ===========&lt;&gt;section(kernal, 'I/O').&lt;&gt;subsection(kernal, 'imaging').&lt;&gt;description(kernal, 'kernal UI for defining kernals').&lt;&gt;visual_style(kernal,  visual_style12).&lt;&gt;inputs(kernal, []).&lt;&gt;outputs(kernal, ['O']).&lt;&gt;input_types(kernal, []).&lt;&gt;output_types(kernal, [kernal]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== kernal ===========&lt;&gt;section(kernal, 'I/O').&lt;&gt;subsection(kernal, 'imaging').&lt;&gt;description(kernal, 'kernal UI for defining kernals').&lt;&gt;visual_style(kernal,  visual_style12).&lt;&gt;inputs(kernal, []).&lt;&gt;outputs(kernal, ['O']).&lt;&gt;input_types(kernal, []).&lt;&gt;output_types(kernal, [kernal]).&lt;&gt;image_name(kernal, '/img/blocks/blocksheet1_14.png').&lt;&gt;prototype_coordinates(kernal, 21, 9).&lt;&gt;</v>
       </c>
     </row>
     <row r="31" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5199,7 +5339,7 @@
       </c>
       <c r="AH32" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== bodymask ===========&lt;&gt;section(bodymask, 'I/O').&lt;&gt;subsection(bodymask, 'body').&lt;&gt;description(bodymask, 'output is a vector of booleans for joints').&lt;&gt;visual_style(bodymask,  visual_style13).&lt;&gt;inputs(bodymask, []).&lt;&gt;outputs(bodymask, ['O']).&lt;&gt;input_types(bodymask, []).&lt;&gt;output_types(bodymask, [mask]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== bodymask ===========&lt;&gt;section(bodymask, 'I/O').&lt;&gt;subsection(bodymask, 'body').&lt;&gt;description(bodymask, 'output is a vector of booleans for joints').&lt;&gt;visual_style(bodymask,  visual_style13).&lt;&gt;inputs(bodymask, []).&lt;&gt;outputs(bodymask, ['O']).&lt;&gt;input_types(bodymask, []).&lt;&gt;output_types(bodymask, [mask]).&lt;&gt;image_name(bodymask, '/img/blocks/blocksheet1_10.png').&lt;&gt;</v>
       </c>
       <c r="AI32" t="str">
         <f t="shared" si="15"/>
@@ -5240,9 +5380,18 @@
       <c r="AS32">
         <v>1</v>
       </c>
+      <c r="BB32" t="s">
+        <v>282</v>
+      </c>
+      <c r="BC32">
+        <v>21</v>
+      </c>
+      <c r="BD32">
+        <v>10</v>
+      </c>
       <c r="BE32" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== bodymask ===========&lt;&gt;section(bodymask, 'I/O').&lt;&gt;subsection(bodymask, 'body').&lt;&gt;description(bodymask, 'output is a vector of booleans for joints').&lt;&gt;visual_style(bodymask,  visual_style13).&lt;&gt;inputs(bodymask, []).&lt;&gt;outputs(bodymask, ['O']).&lt;&gt;input_types(bodymask, []).&lt;&gt;output_types(bodymask, [mask]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== bodymask ===========&lt;&gt;section(bodymask, 'I/O').&lt;&gt;subsection(bodymask, 'body').&lt;&gt;description(bodymask, 'output is a vector of booleans for joints').&lt;&gt;visual_style(bodymask,  visual_style13).&lt;&gt;inputs(bodymask, []).&lt;&gt;outputs(bodymask, ['O']).&lt;&gt;input_types(bodymask, []).&lt;&gt;output_types(bodymask, [mask]).&lt;&gt;image_name(bodymask, '/img/blocks/blocksheet1_10.png').&lt;&gt;prototype_coordinates(bodymask, 21, 10).&lt;&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5321,7 +5470,7 @@
       </c>
       <c r="AH33" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== bodyposition ===========&lt;&gt;section(bodyposition, 'I/O').&lt;&gt;subsection(bodyposition, 'body').&lt;&gt;description(bodyposition, 'output is a vector of joint positions from physivcal bot').&lt;&gt;visual_style(bodyposition,  normal).&lt;&gt;inputs(bodyposition, []).&lt;&gt;outputs(bodyposition, ['O']).&lt;&gt;input_types(bodyposition, []).&lt;&gt;output_types(bodyposition, [joints]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== bodyposition ===========&lt;&gt;section(bodyposition, 'I/O').&lt;&gt;subsection(bodyposition, 'body').&lt;&gt;description(bodyposition, 'output is a vector of joint positions from physivcal bot').&lt;&gt;visual_style(bodyposition,  normal).&lt;&gt;inputs(bodyposition, []).&lt;&gt;outputs(bodyposition, ['O']).&lt;&gt;input_types(bodyposition, []).&lt;&gt;output_types(bodyposition, [joints]).&lt;&gt;image_name(bodyposition, '/img/blocks/blocksheet1_11.png').&lt;&gt;</v>
       </c>
       <c r="AI33" t="str">
         <f t="shared" si="15"/>
@@ -5362,9 +5511,18 @@
       <c r="AS33">
         <v>1</v>
       </c>
+      <c r="BB33" t="s">
+        <v>284</v>
+      </c>
+      <c r="BC33">
+        <v>21</v>
+      </c>
+      <c r="BD33">
+        <v>11</v>
+      </c>
       <c r="BE33" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== bodyposition ===========&lt;&gt;section(bodyposition, 'I/O').&lt;&gt;subsection(bodyposition, 'body').&lt;&gt;description(bodyposition, 'output is a vector of joint positions from physivcal bot').&lt;&gt;visual_style(bodyposition,  normal).&lt;&gt;inputs(bodyposition, []).&lt;&gt;outputs(bodyposition, ['O']).&lt;&gt;input_types(bodyposition, []).&lt;&gt;output_types(bodyposition, [joints]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== bodyposition ===========&lt;&gt;section(bodyposition, 'I/O').&lt;&gt;subsection(bodyposition, 'body').&lt;&gt;description(bodyposition, 'output is a vector of joint positions from physivcal bot').&lt;&gt;visual_style(bodyposition,  normal).&lt;&gt;inputs(bodyposition, []).&lt;&gt;outputs(bodyposition, ['O']).&lt;&gt;input_types(bodyposition, []).&lt;&gt;output_types(bodyposition, [joints]).&lt;&gt;image_name(bodyposition, '/img/blocks/blocksheet1_11.png').&lt;&gt;prototype_coordinates(bodyposition, 21, 11).&lt;&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5443,7 +5601,7 @@
       </c>
       <c r="AH34" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== bodypossim ===========&lt;&gt;section(bodypossim, 'I/O').&lt;&gt;subsection(bodypossim, 'body').&lt;&gt;description(bodypossim, 'as per bodyposition but from the simulator').&lt;&gt;visual_style(bodypossim,  normal).&lt;&gt;inputs(bodypossim, []).&lt;&gt;outputs(bodypossim, ['O']).&lt;&gt;input_types(bodypossim, []).&lt;&gt;output_types(bodypossim, [joints]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== bodypossim ===========&lt;&gt;section(bodypossim, 'I/O').&lt;&gt;subsection(bodypossim, 'body').&lt;&gt;description(bodypossim, 'as per bodyposition but from the simulator').&lt;&gt;visual_style(bodypossim,  normal).&lt;&gt;inputs(bodypossim, []).&lt;&gt;outputs(bodypossim, ['O']).&lt;&gt;input_types(bodypossim, []).&lt;&gt;output_types(bodypossim, [joints]).&lt;&gt;image_name(bodypossim, '/img/blocks/blocksheet1_16.png').&lt;&gt;</v>
       </c>
       <c r="AI34" t="str">
         <f t="shared" si="15"/>
@@ -5484,9 +5642,18 @@
       <c r="AS34">
         <v>1</v>
       </c>
+      <c r="BB34" t="s">
+        <v>285</v>
+      </c>
+      <c r="BC34">
+        <v>21</v>
+      </c>
+      <c r="BD34">
+        <v>12</v>
+      </c>
       <c r="BE34" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== bodypossim ===========&lt;&gt;section(bodypossim, 'I/O').&lt;&gt;subsection(bodypossim, 'body').&lt;&gt;description(bodypossim, 'as per bodyposition but from the simulator').&lt;&gt;visual_style(bodypossim,  normal).&lt;&gt;inputs(bodypossim, []).&lt;&gt;outputs(bodypossim, ['O']).&lt;&gt;input_types(bodypossim, []).&lt;&gt;output_types(bodypossim, [joints]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== bodypossim ===========&lt;&gt;section(bodypossim, 'I/O').&lt;&gt;subsection(bodypossim, 'body').&lt;&gt;description(bodypossim, 'as per bodyposition but from the simulator').&lt;&gt;visual_style(bodypossim,  normal).&lt;&gt;inputs(bodypossim, []).&lt;&gt;outputs(bodypossim, ['O']).&lt;&gt;input_types(bodypossim, []).&lt;&gt;output_types(bodypossim, [joints]).&lt;&gt;image_name(bodypossim, '/img/blocks/blocksheet1_16.png').&lt;&gt;prototype_coordinates(bodypossim, 21, 12).&lt;&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5570,7 +5737,7 @@
       </c>
       <c r="AH35" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== motors ===========&lt;&gt;section(motors, 'I/O').&lt;&gt;subsection(motors, 'body').&lt;&gt;description(motors, 'Send channels of vector A matching Mask to robot servos').&lt;&gt;visual_style(motors,  normal).&lt;&gt;inputs(motors, [required('A'), required('Mask')]).&lt;&gt;outputs(motors, []).&lt;&gt;input_types(motors, [joints, jointmask]).&lt;&gt;output_types(motors, []).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== motors ===========&lt;&gt;section(motors, 'I/O').&lt;&gt;subsection(motors, 'body').&lt;&gt;description(motors, 'Send channels of vector A matching Mask to robot servos').&lt;&gt;visual_style(motors,  normal).&lt;&gt;inputs(motors, [required('A'), required('Mask')]).&lt;&gt;outputs(motors, []).&lt;&gt;input_types(motors, [joints, jointmask]).&lt;&gt;output_types(motors, []).&lt;&gt;image_name(motors, '/img/blocks/blocksheet1_15.png').&lt;&gt;</v>
       </c>
       <c r="AI35" t="str">
         <f t="shared" si="15"/>
@@ -5611,9 +5778,18 @@
       <c r="AS35">
         <v>1</v>
       </c>
+      <c r="BB35" t="s">
+        <v>283</v>
+      </c>
+      <c r="BC35">
+        <v>21</v>
+      </c>
+      <c r="BD35">
+        <v>13</v>
+      </c>
       <c r="BE35" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== motors ===========&lt;&gt;section(motors, 'I/O').&lt;&gt;subsection(motors, 'body').&lt;&gt;description(motors, 'Send channels of vector A matching Mask to robot servos').&lt;&gt;visual_style(motors,  normal).&lt;&gt;inputs(motors, [required('A'), required('Mask')]).&lt;&gt;outputs(motors, []).&lt;&gt;input_types(motors, [joints, jointmask]).&lt;&gt;output_types(motors, []).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== motors ===========&lt;&gt;section(motors, 'I/O').&lt;&gt;subsection(motors, 'body').&lt;&gt;description(motors, 'Send channels of vector A matching Mask to robot servos').&lt;&gt;visual_style(motors,  normal).&lt;&gt;inputs(motors, [required('A'), required('Mask')]).&lt;&gt;outputs(motors, []).&lt;&gt;input_types(motors, [joints, jointmask]).&lt;&gt;output_types(motors, []).&lt;&gt;image_name(motors, '/img/blocks/blocksheet1_15.png').&lt;&gt;prototype_coordinates(motors, 21, 13).&lt;&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5697,7 +5873,7 @@
       </c>
       <c r="AH36" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== motorsim ===========&lt;&gt;section(motorsim, 'I/O').&lt;&gt;subsection(motorsim, 'body').&lt;&gt;description(motorsim, 'As per motors, but to simulator').&lt;&gt;visual_style(motorsim,  normal).&lt;&gt;inputs(motorsim, [required('A'), required('Mask')]).&lt;&gt;outputs(motorsim, []).&lt;&gt;input_types(motorsim, [joints, jointmask]).&lt;&gt;output_types(motorsim, []).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== motorsim ===========&lt;&gt;section(motorsim, 'I/O').&lt;&gt;subsection(motorsim, 'body').&lt;&gt;description(motorsim, 'As per motors, but to simulator').&lt;&gt;visual_style(motorsim,  normal).&lt;&gt;inputs(motorsim, [required('A'), required('Mask')]).&lt;&gt;outputs(motorsim, []).&lt;&gt;input_types(motorsim, [joints, jointmask]).&lt;&gt;output_types(motorsim, []).&lt;&gt;image_name(motorsim, '/img/blocks/blocksheet1_17.png').&lt;&gt;</v>
       </c>
       <c r="AI36" t="str">
         <f t="shared" si="15"/>
@@ -5738,9 +5914,18 @@
       <c r="AS36">
         <v>1</v>
       </c>
+      <c r="BB36" t="s">
+        <v>286</v>
+      </c>
+      <c r="BC36">
+        <v>21</v>
+      </c>
+      <c r="BD36">
+        <v>14</v>
+      </c>
       <c r="BE36" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== motorsim ===========&lt;&gt;section(motorsim, 'I/O').&lt;&gt;subsection(motorsim, 'body').&lt;&gt;description(motorsim, 'As per motors, but to simulator').&lt;&gt;visual_style(motorsim,  normal).&lt;&gt;inputs(motorsim, [required('A'), required('Mask')]).&lt;&gt;outputs(motorsim, []).&lt;&gt;input_types(motorsim, [joints, jointmask]).&lt;&gt;output_types(motorsim, []).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== motorsim ===========&lt;&gt;section(motorsim, 'I/O').&lt;&gt;subsection(motorsim, 'body').&lt;&gt;description(motorsim, 'As per motors, but to simulator').&lt;&gt;visual_style(motorsim,  normal).&lt;&gt;inputs(motorsim, [required('A'), required('Mask')]).&lt;&gt;outputs(motorsim, []).&lt;&gt;input_types(motorsim, [joints, jointmask]).&lt;&gt;output_types(motorsim, []).&lt;&gt;image_name(motorsim, '/img/blocks/blocksheet1_17.png').&lt;&gt;prototype_coordinates(motorsim, 21, 14).&lt;&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7182,7 +7367,7 @@
       </c>
       <c r="AH46" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== vertpipe ===========&lt;&gt;section(vertpipe, 'connector').&lt;&gt;subsection(vertpipe, 'pipe').&lt;&gt;description(vertpipe, 'bidi pipe connection').&lt;&gt;visual_style(vertpipe,  visual_style21).&lt;&gt;inputs(vertpipe, [required('A')]).&lt;&gt;outputs(vertpipe, ['OA']).&lt;&gt;input_types(vertpipe, [any]).&lt;&gt;output_types(vertpipe, [any]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== vertpipe ===========&lt;&gt;section(vertpipe, 'connector').&lt;&gt;subsection(vertpipe, 'pipe').&lt;&gt;description(vertpipe, 'bidi pipe connection').&lt;&gt;visual_style(vertpipe,  visual_style21).&lt;&gt;inputs(vertpipe, [required('A')]).&lt;&gt;outputs(vertpipe, ['OA']).&lt;&gt;input_types(vertpipe, [any]).&lt;&gt;output_types(vertpipe, [any]).&lt;&gt;image_name(vertpipe, '/img/blocks/blocksheet0-_08.png').&lt;&gt;</v>
       </c>
       <c r="AI46" t="str">
         <f t="shared" si="42"/>
@@ -7220,9 +7405,18 @@
         <f t="shared" si="50"/>
         <v>[any]</v>
       </c>
+      <c r="BB46" t="s">
+        <v>287</v>
+      </c>
+      <c r="BC46">
+        <v>20</v>
+      </c>
+      <c r="BD46">
+        <v>7</v>
+      </c>
       <c r="BE46" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== vertpipe ===========&lt;&gt;section(vertpipe, 'connector').&lt;&gt;subsection(vertpipe, 'pipe').&lt;&gt;description(vertpipe, 'bidi pipe connection').&lt;&gt;visual_style(vertpipe,  visual_style21).&lt;&gt;inputs(vertpipe, [required('A')]).&lt;&gt;outputs(vertpipe, ['OA']).&lt;&gt;input_types(vertpipe, [any]).&lt;&gt;output_types(vertpipe, [any]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== vertpipe ===========&lt;&gt;section(vertpipe, 'connector').&lt;&gt;subsection(vertpipe, 'pipe').&lt;&gt;description(vertpipe, 'bidi pipe connection').&lt;&gt;visual_style(vertpipe,  visual_style21).&lt;&gt;inputs(vertpipe, [required('A')]).&lt;&gt;outputs(vertpipe, ['OA']).&lt;&gt;input_types(vertpipe, [any]).&lt;&gt;output_types(vertpipe, [any]).&lt;&gt;image_name(vertpipe, '/img/blocks/blocksheet0-_08.png').&lt;&gt;prototype_coordinates(vertpipe, 20, 7).&lt;&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/doc/flo/Blocks.xlsx
+++ b/doc/flo/Blocks.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="555" windowWidth="12135" windowHeight="7770"/>
+    <workbookView xWindow="270" yWindow="555" windowWidth="12135" windowHeight="7770" tabRatio="842"/>
   </bookViews>
   <sheets>
     <sheet name="BlockTypes" sheetId="1" r:id="rId1"/>
     <sheet name="BaseTypes" sheetId="2" r:id="rId2"/>
     <sheet name="UI" sheetId="3" r:id="rId3"/>
+    <sheet name="BlockTypesHuman" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="296">
   <si>
     <t>Block Types</t>
   </si>
@@ -880,6 +881,30 @@
   </si>
   <si>
     <t>blocksheet0-_08.png</t>
+  </si>
+  <si>
+    <t>blocksheet0-_21.png</t>
+  </si>
+  <si>
+    <t>blocksheet0-_33.png</t>
+  </si>
+  <si>
+    <t>blocksheet0-_18.png</t>
+  </si>
+  <si>
+    <t>blocksheet0-_15.png</t>
+  </si>
+  <si>
+    <t>blocksheet0-_29.png</t>
+  </si>
+  <si>
+    <t>blocksheet0-_32.png</t>
+  </si>
+  <si>
+    <t>blocksheet0-_31.png</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -924,7 +949,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -981,11 +1006,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1028,10 +1073,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1342,7 +1417,7 @@
       <selection activeCell="AH1" sqref="AH1"/>
       <selection pane="topRight" activeCell="BE1" sqref="BE1"/>
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
-      <selection pane="bottomRight" activeCell="BD6" sqref="BD6"/>
+      <selection pane="bottomRight" activeCell="BE2" sqref="BE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1383,28 +1458,28 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14" t="s">
+      <c r="F1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14" t="s">
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
       <c r="T1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1441,10 +1516,10 @@
       <c r="BB1" t="s">
         <v>262</v>
       </c>
-      <c r="BC1" s="15" t="s">
+      <c r="BC1" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="BD1" s="15"/>
+      <c r="BD1" s="24"/>
       <c r="BE1" t="s">
         <v>164</v>
       </c>
@@ -1558,7 +1633,7 @@
       </c>
       <c r="AH3" t="str">
         <f>IF(ISBLANK(E3),"","&lt;&gt;%  ===== "&amp;E3&amp;" ===========&lt;&gt;"&amp;AE3&amp;").&lt;&gt;inputs("&amp;E3&amp;", "&amp;Z3&amp;").&lt;&gt;outputs("&amp;E3&amp;", "&amp;AD3&amp;").&lt;&gt;input_types("&amp;E3&amp;", "&amp;AP3&amp;").&lt;&gt;output_types("&amp;E3&amp;", "&amp;AQ3&amp;").&lt;&gt;"&amp;IF(OR(ISBLANK(E3),ISBLANK(BB3)),"","image_name("&amp;E3&amp;", '/img/blocks/"&amp;BB3&amp;"').&lt;&gt;"))</f>
-        <v>&lt;&gt;%  ===== if ===========&lt;&gt;section(if, 'Control').&lt;&gt;subsection(if, 'Control').&lt;&gt;description(if, 'If Cond is true, O is A, else O is B').&lt;&gt;visual_style(if,  normal).&lt;&gt;inputs(if, [required('Cond'), required('A'), required('B')]).&lt;&gt;outputs(if, ['O']).&lt;&gt;input_types(if, [scalar, object, object]).&lt;&gt;output_types(if, [object]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== if ===========&lt;&gt;section(if, 'Control').&lt;&gt;subsection(if, 'Control').&lt;&gt;description(if, 'If Cond is true, O is A, else O is B').&lt;&gt;visual_style(if,  normal).&lt;&gt;inputs(if, [required('Cond'), required('A'), required('B')]).&lt;&gt;outputs(if, ['O']).&lt;&gt;input_types(if, [scalar, object, object]).&lt;&gt;output_types(if, [object]).&lt;&gt;image_name(if, '/img/blocks/blocksheet0-_21.png').&lt;&gt;</v>
       </c>
       <c r="AI3" t="str">
         <f>IF(ISBLANK(J3),"[","["&amp;J3)</f>
@@ -1614,9 +1689,18 @@
       <c r="BA3">
         <v>1</v>
       </c>
+      <c r="BB3" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC3">
+        <v>22</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
       <c r="BE3" t="str">
-        <f>AH3&amp;IF(OR(ISBLANK(E3),ISBLANK(BC3)), "", "prototype_coordinates("&amp;E3&amp;", "&amp;BC3&amp;", "&amp;BD3&amp;").&lt;&gt;")</f>
-        <v>&lt;&gt;%  ===== if ===========&lt;&gt;section(if, 'Control').&lt;&gt;subsection(if, 'Control').&lt;&gt;description(if, 'If Cond is true, O is A, else O is B').&lt;&gt;visual_style(if,  normal).&lt;&gt;inputs(if, [required('Cond'), required('A'), required('B')]).&lt;&gt;outputs(if, ['O']).&lt;&gt;input_types(if, [scalar, object, object]).&lt;&gt;output_types(if, [object]).&lt;&gt;</v>
+        <f>AH3&amp;IF(OR(ISBLANK(E3),ISBLANK(BC3)), "", "prototype_coordinates("&amp;E3&amp;", "&amp;BC3&amp;", "&amp;BD3&amp;").&lt;&gt;icon_size("&amp;E3&amp;", "&amp;AZ3&amp;", "&amp;BA3&amp;").&lt;&gt;")</f>
+        <v>&lt;&gt;%  ===== if ===========&lt;&gt;section(if, 'Control').&lt;&gt;subsection(if, 'Control').&lt;&gt;description(if, 'If Cond is true, O is A, else O is B').&lt;&gt;visual_style(if,  normal).&lt;&gt;inputs(if, [required('Cond'), required('A'), required('B')]).&lt;&gt;outputs(if, ['O']).&lt;&gt;input_types(if, [scalar, object, object]).&lt;&gt;output_types(if, [object]).&lt;&gt;image_name(if, '/img/blocks/blocksheet0-_21.png').&lt;&gt;prototype_coordinates(if, 22, 0).&lt;&gt;icon_size(if, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1710,7 +1794,7 @@
       </c>
       <c r="AH4" t="str">
         <f t="shared" ref="AH4:AH67" si="14">IF(ISBLANK(E4),"","&lt;&gt;%  ===== "&amp;E4&amp;" ===========&lt;&gt;"&amp;AE4&amp;").&lt;&gt;inputs("&amp;E4&amp;", "&amp;Z4&amp;").&lt;&gt;outputs("&amp;E4&amp;", "&amp;AD4&amp;").&lt;&gt;input_types("&amp;E4&amp;", "&amp;AP4&amp;").&lt;&gt;output_types("&amp;E4&amp;", "&amp;AQ4&amp;").&lt;&gt;"&amp;IF(OR(ISBLANK(E4),ISBLANK(BB4)),"","image_name("&amp;E4&amp;", '/img/blocks/"&amp;BB4&amp;"').&lt;&gt;"))</f>
-        <v>&lt;&gt;%  ===== ifvar ===========&lt;&gt;section(ifvar, 'Control').&lt;&gt;subsection(ifvar, 'Control').&lt;&gt;description(ifvar, 'If the value of Va is true, O is A, else O is B. Var is some compile time variable (eg. DEV for development version).').&lt;&gt;visual_style(ifvar,  normal).&lt;&gt;inputs(ifvar, [required('Cond'), required('A'), required('B')]).&lt;&gt;outputs(ifvar, ['O']).&lt;&gt;input_types(ifvar, [string, object, object]).&lt;&gt;output_types(ifvar, [object]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== ifvar ===========&lt;&gt;section(ifvar, 'Control').&lt;&gt;subsection(ifvar, 'Control').&lt;&gt;description(ifvar, 'If the value of Va is true, O is A, else O is B. Var is some compile time variable (eg. DEV for development version).').&lt;&gt;visual_style(ifvar,  normal).&lt;&gt;inputs(ifvar, [required('Cond'), required('A'), required('B')]).&lt;&gt;outputs(ifvar, ['O']).&lt;&gt;input_types(ifvar, [string, object, object]).&lt;&gt;output_types(ifvar, [object]).&lt;&gt;image_name(ifvar, '/img/blocks/blocksheet0-_33.png').&lt;&gt;</v>
       </c>
       <c r="AI4" t="str">
         <f t="shared" ref="AI4:AI63" si="15">IF(ISBLANK(J4),"[","["&amp;J4)</f>
@@ -1766,9 +1850,18 @@
       <c r="BA4">
         <v>1</v>
       </c>
+      <c r="BB4" t="s">
+        <v>289</v>
+      </c>
+      <c r="BC4">
+        <v>22</v>
+      </c>
+      <c r="BD4">
+        <v>1</v>
+      </c>
       <c r="BE4" t="str">
-        <f t="shared" ref="BE4:BE67" si="24">AH4&amp;IF(OR(ISBLANK(E4),ISBLANK(BC4)), "", "prototype_coordinates("&amp;E4&amp;", "&amp;BC4&amp;", "&amp;BD4&amp;").&lt;&gt;")</f>
-        <v>&lt;&gt;%  ===== ifvar ===========&lt;&gt;section(ifvar, 'Control').&lt;&gt;subsection(ifvar, 'Control').&lt;&gt;description(ifvar, 'If the value of Va is true, O is A, else O is B. Var is some compile time variable (eg. DEV for development version).').&lt;&gt;visual_style(ifvar,  normal).&lt;&gt;inputs(ifvar, [required('Cond'), required('A'), required('B')]).&lt;&gt;outputs(ifvar, ['O']).&lt;&gt;input_types(ifvar, [string, object, object]).&lt;&gt;output_types(ifvar, [object]).&lt;&gt;</v>
+        <f t="shared" ref="BE4:BE67" si="24">AH4&amp;IF(OR(ISBLANK(E4),ISBLANK(BC4)), "", "prototype_coordinates("&amp;E4&amp;", "&amp;BC4&amp;", "&amp;BD4&amp;").&lt;&gt;icon_size("&amp;E4&amp;", "&amp;AZ4&amp;", "&amp;BA4&amp;").&lt;&gt;")</f>
+        <v>&lt;&gt;%  ===== ifvar ===========&lt;&gt;section(ifvar, 'Control').&lt;&gt;subsection(ifvar, 'Control').&lt;&gt;description(ifvar, 'If the value of Va is true, O is A, else O is B. Var is some compile time variable (eg. DEV for development version).').&lt;&gt;visual_style(ifvar,  normal).&lt;&gt;inputs(ifvar, [required('Cond'), required('A'), required('B')]).&lt;&gt;outputs(ifvar, ['O']).&lt;&gt;input_types(ifvar, [string, object, object]).&lt;&gt;output_types(ifvar, [object]).&lt;&gt;image_name(ifvar, '/img/blocks/blocksheet0-_33.png').&lt;&gt;prototype_coordinates(ifvar, 22, 1).&lt;&gt;icon_size(ifvar, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1856,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="AH5" t="str">
-        <f>IF(ISBLANK(E5),"","&lt;&gt;%  ===== "&amp;E5&amp;" ===========&lt;&gt;"&amp;AE5&amp;").&lt;&gt;inputs("&amp;E5&amp;", "&amp;Z5&amp;").&lt;&gt;outputs("&amp;E5&amp;", "&amp;AD5&amp;").&lt;&gt;input_types("&amp;E5&amp;", "&amp;AP5&amp;").&lt;&gt;output_types("&amp;E5&amp;", "&amp;AQ5&amp;").&lt;&gt;"&amp;IF(OR(ISBLANK(E5),ISBLANK(BB16)),"","image_name("&amp;E5&amp;", '/img/blocks/"&amp;BB16&amp;"').&lt;&gt;"))</f>
+        <f t="shared" si="14"/>
         <v>&lt;&gt;%  ===== flipflop ===========&lt;&gt;section(flipflop, 'Control').&lt;&gt;subsection(flipflop, 'Control').&lt;&gt;description(flipflop, 'a jk flipflop').&lt;&gt;visual_style(flipflop,  normal).&lt;&gt;inputs(flipflop, [required('J'), required('K')]).&lt;&gt;outputs(flipflop, ['O']).&lt;&gt;input_types(flipflop, [pulse, pulse]).&lt;&gt;output_types(flipflop, [int]).&lt;&gt;image_name(flipflop, '/img/blocks/blocksheet1_01.png').&lt;&gt;</v>
       </c>
       <c r="AI5" t="str">
@@ -1898,9 +1991,18 @@
       <c r="AS5">
         <v>1</v>
       </c>
+      <c r="BB5" t="s">
+        <v>272</v>
+      </c>
+      <c r="BC5">
+        <v>22</v>
+      </c>
+      <c r="BD5">
+        <v>2</v>
+      </c>
       <c r="BE5" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== flipflop ===========&lt;&gt;section(flipflop, 'Control').&lt;&gt;subsection(flipflop, 'Control').&lt;&gt;description(flipflop, 'a jk flipflop').&lt;&gt;visual_style(flipflop,  normal).&lt;&gt;inputs(flipflop, [required('J'), required('K')]).&lt;&gt;outputs(flipflop, ['O']).&lt;&gt;input_types(flipflop, [pulse, pulse]).&lt;&gt;output_types(flipflop, [int]).&lt;&gt;image_name(flipflop, '/img/blocks/blocksheet1_01.png').&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== flipflop ===========&lt;&gt;section(flipflop, 'Control').&lt;&gt;subsection(flipflop, 'Control').&lt;&gt;description(flipflop, 'a jk flipflop').&lt;&gt;visual_style(flipflop,  normal).&lt;&gt;inputs(flipflop, [required('J'), required('K')]).&lt;&gt;outputs(flipflop, ['O']).&lt;&gt;input_types(flipflop, [pulse, pulse]).&lt;&gt;output_types(flipflop, [int]).&lt;&gt;image_name(flipflop, '/img/blocks/blocksheet1_01.png').&lt;&gt;prototype_coordinates(flipflop, 22, 2).&lt;&gt;icon_size(flipflop, , ).&lt;&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2100,7 +2202,7 @@
       </c>
       <c r="AH7" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== isolate ===========&lt;&gt;section(isolate, 'Editor Support').&lt;&gt;subsection(isolate, 'Editor Support').&lt;&gt;description(isolate, 'if the connection to A is visible, runs the network beyond A and passes A to O. Otherwise passes default to O. Used during development to prevent, for example, having to run the entire sound system because the sound system sends a hint to the CV system.').&lt;&gt;visual_style(isolate,  normal).&lt;&gt;inputs(isolate, [required('A'), required('Default')]).&lt;&gt;outputs(isolate, ['O']).&lt;&gt;input_types(isolate, [object, object]).&lt;&gt;output_types(isolate, [object]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== isolate ===========&lt;&gt;section(isolate, 'Editor Support').&lt;&gt;subsection(isolate, 'Editor Support').&lt;&gt;description(isolate, 'if the connection to A is visible, runs the network beyond A and passes A to O. Otherwise passes default to O. Used during development to prevent, for example, having to run the entire sound system because the sound system sends a hint to the CV system.').&lt;&gt;visual_style(isolate,  normal).&lt;&gt;inputs(isolate, [required('A'), required('Default')]).&lt;&gt;outputs(isolate, ['O']).&lt;&gt;input_types(isolate, [object, object]).&lt;&gt;output_types(isolate, [object]).&lt;&gt;image_name(isolate, '/img/blocks/blocksheet0-_18.png').&lt;&gt;</v>
       </c>
       <c r="AI7" t="str">
         <f t="shared" si="15"/>
@@ -2156,9 +2258,18 @@
       <c r="BA7">
         <v>1</v>
       </c>
+      <c r="BB7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BC7">
+        <v>22</v>
+      </c>
+      <c r="BD7">
+        <v>3</v>
+      </c>
       <c r="BE7" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== isolate ===========&lt;&gt;section(isolate, 'Editor Support').&lt;&gt;subsection(isolate, 'Editor Support').&lt;&gt;description(isolate, 'if the connection to A is visible, runs the network beyond A and passes A to O. Otherwise passes default to O. Used during development to prevent, for example, having to run the entire sound system because the sound system sends a hint to the CV system.').&lt;&gt;visual_style(isolate,  normal).&lt;&gt;inputs(isolate, [required('A'), required('Default')]).&lt;&gt;outputs(isolate, ['O']).&lt;&gt;input_types(isolate, [object, object]).&lt;&gt;output_types(isolate, [object]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== isolate ===========&lt;&gt;section(isolate, 'Editor Support').&lt;&gt;subsection(isolate, 'Editor Support').&lt;&gt;description(isolate, 'if the connection to A is visible, runs the network beyond A and passes A to O. Otherwise passes default to O. Used during development to prevent, for example, having to run the entire sound system because the sound system sends a hint to the CV system.').&lt;&gt;visual_style(isolate,  normal).&lt;&gt;inputs(isolate, [required('A'), required('Default')]).&lt;&gt;outputs(isolate, ['O']).&lt;&gt;input_types(isolate, [object, object]).&lt;&gt;output_types(isolate, [object]).&lt;&gt;image_name(isolate, '/img/blocks/blocksheet0-_18.png').&lt;&gt;prototype_coordinates(isolate, 22, 3).&lt;&gt;icon_size(isolate, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2240,7 +2351,7 @@
       </c>
       <c r="AH8" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== inputparam ===========&lt;&gt;section(inputparam, 'Editor Support').&lt;&gt;subsection(inputparam, 'Editor Support').&lt;&gt;description(inputparam, 'used when defining new blocks').&lt;&gt;visual_style(inputparam,  visual_style0).&lt;&gt;inputs(inputparam, []).&lt;&gt;outputs(inputparam, ['O']).&lt;&gt;input_types(inputparam, []).&lt;&gt;output_types(inputparam, [object]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== inputparam ===========&lt;&gt;section(inputparam, 'Editor Support').&lt;&gt;subsection(inputparam, 'Editor Support').&lt;&gt;description(inputparam, 'used when defining new blocks').&lt;&gt;visual_style(inputparam,  visual_style0).&lt;&gt;inputs(inputparam, []).&lt;&gt;outputs(inputparam, ['O']).&lt;&gt;input_types(inputparam, []).&lt;&gt;output_types(inputparam, [object]).&lt;&gt;image_name(inputparam, '/img/blocks/blocksheet0-_15.png').&lt;&gt;</v>
       </c>
       <c r="AI8" t="str">
         <f t="shared" si="15"/>
@@ -2296,9 +2407,18 @@
       <c r="BA8">
         <v>1</v>
       </c>
+      <c r="BB8" t="s">
+        <v>291</v>
+      </c>
+      <c r="BC8">
+        <v>22</v>
+      </c>
+      <c r="BD8">
+        <v>4</v>
+      </c>
       <c r="BE8" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== inputparam ===========&lt;&gt;section(inputparam, 'Editor Support').&lt;&gt;subsection(inputparam, 'Editor Support').&lt;&gt;description(inputparam, 'used when defining new blocks').&lt;&gt;visual_style(inputparam,  visual_style0).&lt;&gt;inputs(inputparam, []).&lt;&gt;outputs(inputparam, ['O']).&lt;&gt;input_types(inputparam, []).&lt;&gt;output_types(inputparam, [object]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== inputparam ===========&lt;&gt;section(inputparam, 'Editor Support').&lt;&gt;subsection(inputparam, 'Editor Support').&lt;&gt;description(inputparam, 'used when defining new blocks').&lt;&gt;visual_style(inputparam,  visual_style0).&lt;&gt;inputs(inputparam, []).&lt;&gt;outputs(inputparam, ['O']).&lt;&gt;input_types(inputparam, []).&lt;&gt;output_types(inputparam, [object]).&lt;&gt;image_name(inputparam, '/img/blocks/blocksheet0-_15.png').&lt;&gt;prototype_coordinates(inputparam, 22, 4).&lt;&gt;icon_size(inputparam, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2380,7 +2500,7 @@
       </c>
       <c r="AH9" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== outputparam ===========&lt;&gt;section(outputparam, 'Editor Support').&lt;&gt;subsection(outputparam, 'Editor Support').&lt;&gt;description(outputparam, 'used when defining new blocks').&lt;&gt;visual_style(outputparam,  visual_style1).&lt;&gt;inputs(outputparam, [required('A')]).&lt;&gt;outputs(outputparam, []).&lt;&gt;input_types(outputparam, [object]).&lt;&gt;output_types(outputparam, []).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== outputparam ===========&lt;&gt;section(outputparam, 'Editor Support').&lt;&gt;subsection(outputparam, 'Editor Support').&lt;&gt;description(outputparam, 'used when defining new blocks').&lt;&gt;visual_style(outputparam,  visual_style1).&lt;&gt;inputs(outputparam, [required('A')]).&lt;&gt;outputs(outputparam, []).&lt;&gt;input_types(outputparam, [object]).&lt;&gt;output_types(outputparam, []).&lt;&gt;image_name(outputparam, '/img/blocks/blocksheet0-_29.png').&lt;&gt;</v>
       </c>
       <c r="AI9" t="str">
         <f t="shared" si="15"/>
@@ -2436,9 +2556,18 @@
       <c r="BA9">
         <v>1</v>
       </c>
+      <c r="BB9" t="s">
+        <v>292</v>
+      </c>
+      <c r="BC9">
+        <v>22</v>
+      </c>
+      <c r="BD9">
+        <v>5</v>
+      </c>
       <c r="BE9" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== outputparam ===========&lt;&gt;section(outputparam, 'Editor Support').&lt;&gt;subsection(outputparam, 'Editor Support').&lt;&gt;description(outputparam, 'used when defining new blocks').&lt;&gt;visual_style(outputparam,  visual_style1).&lt;&gt;inputs(outputparam, [required('A')]).&lt;&gt;outputs(outputparam, []).&lt;&gt;input_types(outputparam, [object]).&lt;&gt;output_types(outputparam, []).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== outputparam ===========&lt;&gt;section(outputparam, 'Editor Support').&lt;&gt;subsection(outputparam, 'Editor Support').&lt;&gt;description(outputparam, 'used when defining new blocks').&lt;&gt;visual_style(outputparam,  visual_style1).&lt;&gt;inputs(outputparam, [required('A')]).&lt;&gt;outputs(outputparam, []).&lt;&gt;input_types(outputparam, [object]).&lt;&gt;output_types(outputparam, []).&lt;&gt;image_name(outputparam, '/img/blocks/blocksheet0-_29.png').&lt;&gt;prototype_coordinates(outputparam, 22, 5).&lt;&gt;icon_size(outputparam, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2647,7 +2776,7 @@
       </c>
       <c r="AH11" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== func ===========&lt;&gt;section(func, 'Math').&lt;&gt;subsection(func, 'Math').&lt;&gt;description(func, 'This special block has a textbox for a formula. So if you type 3x+2 you see an input parameter x. Operator meaning depends on whats connected to x (scalar or vector). Understands LSL angle bracket quat syntax').&lt;&gt;visual_style(func,  normal).&lt;&gt;inputs(func, [required('A'), required('B'), required('C')]).&lt;&gt;outputs(func, ['O']).&lt;&gt;input_types(func, [scalar, scalar, scalar, scalar]).&lt;&gt;output_types(func, [object]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== func ===========&lt;&gt;section(func, 'Math').&lt;&gt;subsection(func, 'Math').&lt;&gt;description(func, 'This special block has a textbox for a formula. So if you type 3x+2 you see an input parameter x. Operator meaning depends on whats connected to x (scalar or vector). Understands LSL angle bracket quat syntax').&lt;&gt;visual_style(func,  normal).&lt;&gt;inputs(func, [required('A'), required('B'), required('C')]).&lt;&gt;outputs(func, ['O']).&lt;&gt;input_types(func, [scalar, scalar, scalar, scalar]).&lt;&gt;output_types(func, [object]).&lt;&gt;image_name(func, '/img/blocks/blocksheet0-_32.png').&lt;&gt;</v>
       </c>
       <c r="AI11" t="str">
         <f t="shared" si="15"/>
@@ -2703,9 +2832,18 @@
       <c r="BA11">
         <v>1</v>
       </c>
+      <c r="BB11" t="s">
+        <v>293</v>
+      </c>
+      <c r="BC11">
+        <v>23</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
       <c r="BE11" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== func ===========&lt;&gt;section(func, 'Math').&lt;&gt;subsection(func, 'Math').&lt;&gt;description(func, 'This special block has a textbox for a formula. So if you type 3x+2 you see an input parameter x. Operator meaning depends on whats connected to x (scalar or vector). Understands LSL angle bracket quat syntax').&lt;&gt;visual_style(func,  normal).&lt;&gt;inputs(func, [required('A'), required('B'), required('C')]).&lt;&gt;outputs(func, ['O']).&lt;&gt;input_types(func, [scalar, scalar, scalar, scalar]).&lt;&gt;output_types(func, [object]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== func ===========&lt;&gt;section(func, 'Math').&lt;&gt;subsection(func, 'Math').&lt;&gt;description(func, 'This special block has a textbox for a formula. So if you type 3x+2 you see an input parameter x. Operator meaning depends on whats connected to x (scalar or vector). Understands LSL angle bracket quat syntax').&lt;&gt;visual_style(func,  normal).&lt;&gt;inputs(func, [required('A'), required('B'), required('C')]).&lt;&gt;outputs(func, ['O']).&lt;&gt;input_types(func, [scalar, scalar, scalar, scalar]).&lt;&gt;output_types(func, [object]).&lt;&gt;image_name(func, '/img/blocks/blocksheet0-_32.png').&lt;&gt;prototype_coordinates(func, 23, 0).&lt;&gt;icon_size(func, 2, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2900,7 +3038,7 @@
       </c>
       <c r="AH13" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== delay ===========&lt;&gt;section(delay, 'Misc').&lt;&gt;subsection(delay, 'Misc').&lt;&gt;description(delay, 'O is the previous stable value of A').&lt;&gt;visual_style(delay,  normal).&lt;&gt;inputs(delay, [required('A')]).&lt;&gt;outputs(delay, ['O']).&lt;&gt;input_types(delay, [object]).&lt;&gt;output_types(delay, [object]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== delay ===========&lt;&gt;section(delay, 'Misc').&lt;&gt;subsection(delay, 'Misc').&lt;&gt;description(delay, 'O is the previous stable value of A').&lt;&gt;visual_style(delay,  normal).&lt;&gt;inputs(delay, [required('A')]).&lt;&gt;outputs(delay, ['O']).&lt;&gt;input_types(delay, [object]).&lt;&gt;output_types(delay, [object]).&lt;&gt;image_name(delay, '/img/blocks/blocksheet0-_31.png').&lt;&gt;</v>
       </c>
       <c r="AI13" t="str">
         <f t="shared" si="15"/>
@@ -2956,9 +3094,18 @@
       <c r="BA13">
         <v>1</v>
       </c>
+      <c r="BB13" t="s">
+        <v>294</v>
+      </c>
+      <c r="BC13">
+        <v>23</v>
+      </c>
+      <c r="BD13">
+        <v>1</v>
+      </c>
       <c r="BE13" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== delay ===========&lt;&gt;section(delay, 'Misc').&lt;&gt;subsection(delay, 'Misc').&lt;&gt;description(delay, 'O is the previous stable value of A').&lt;&gt;visual_style(delay,  normal).&lt;&gt;inputs(delay, [required('A')]).&lt;&gt;outputs(delay, ['O']).&lt;&gt;input_types(delay, [object]).&lt;&gt;output_types(delay, [object]).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== delay ===========&lt;&gt;section(delay, 'Misc').&lt;&gt;subsection(delay, 'Misc').&lt;&gt;description(delay, 'O is the previous stable value of A').&lt;&gt;visual_style(delay,  normal).&lt;&gt;inputs(delay, [required('A')]).&lt;&gt;outputs(delay, ['O']).&lt;&gt;input_types(delay, [object]).&lt;&gt;output_types(delay, [object]).&lt;&gt;image_name(delay, '/img/blocks/blocksheet0-_31.png').&lt;&gt;prototype_coordinates(delay, 23, 1).&lt;&gt;icon_size(delay, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3303,6 +3450,12 @@
       <c r="AS16">
         <v>1</v>
       </c>
+      <c r="AZ16">
+        <v>1</v>
+      </c>
+      <c r="BA16">
+        <v>1</v>
+      </c>
       <c r="BB16" t="s">
         <v>272</v>
       </c>
@@ -3314,7 +3467,7 @@
       </c>
       <c r="BE16" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== pulse ===========&lt;&gt;section(pulse, 'I/O').&lt;&gt;subsection(pulse, 'scalar').&lt;&gt;description(pulse, 'Is 1 on the next frame after mouseup').&lt;&gt;visual_style(pulse,  visual_style2).&lt;&gt;inputs(pulse, []).&lt;&gt;outputs(pulse, ['O']).&lt;&gt;input_types(pulse, []).&lt;&gt;output_types(pulse, [pulse]).&lt;&gt;image_name(pulse, '/img/blocks/blocksheet1_01.png').&lt;&gt;prototype_coordinates(pulse, 21, 0).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== pulse ===========&lt;&gt;section(pulse, 'I/O').&lt;&gt;subsection(pulse, 'scalar').&lt;&gt;description(pulse, 'Is 1 on the next frame after mouseup').&lt;&gt;visual_style(pulse,  visual_style2).&lt;&gt;inputs(pulse, []).&lt;&gt;outputs(pulse, ['O']).&lt;&gt;input_types(pulse, []).&lt;&gt;output_types(pulse, [pulse]).&lt;&gt;image_name(pulse, '/img/blocks/blocksheet1_01.png').&lt;&gt;prototype_coordinates(pulse, 21, 0).&lt;&gt;icon_size(pulse, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="17" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3437,6 +3590,12 @@
       <c r="AS17">
         <v>1</v>
       </c>
+      <c r="AZ17">
+        <v>1</v>
+      </c>
+      <c r="BA17">
+        <v>1</v>
+      </c>
       <c r="BB17" t="s">
         <v>273</v>
       </c>
@@ -3449,7 +3608,7 @@
       </c>
       <c r="BE17" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== proportion ===========&lt;&gt;section(proportion, 'I/O').&lt;&gt;subsection(proportion, 'scalar').&lt;&gt;description(proportion, 'slider value from 0-1').&lt;&gt;visual_style(proportion,  visual_style3).&lt;&gt;inputs(proportion, []).&lt;&gt;outputs(proportion, ['O']).&lt;&gt;input_types(proportion, []).&lt;&gt;output_types(proportion, [proportion]).&lt;&gt;image_name(proportion, '/img/blocks/blocksheet1_02.png').&lt;&gt;prototype_coordinates(proportion, 21, 1).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== proportion ===========&lt;&gt;section(proportion, 'I/O').&lt;&gt;subsection(proportion, 'scalar').&lt;&gt;description(proportion, 'slider value from 0-1').&lt;&gt;visual_style(proportion,  visual_style3).&lt;&gt;inputs(proportion, []).&lt;&gt;outputs(proportion, ['O']).&lt;&gt;input_types(proportion, []).&lt;&gt;output_types(proportion, [proportion]).&lt;&gt;image_name(proportion, '/img/blocks/blocksheet1_02.png').&lt;&gt;prototype_coordinates(proportion, 21, 1).&lt;&gt;icon_size(proportion, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="18" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3572,6 +3731,12 @@
       <c r="AS18">
         <v>1</v>
       </c>
+      <c r="AZ18">
+        <v>1</v>
+      </c>
+      <c r="BA18">
+        <v>1</v>
+      </c>
       <c r="BB18" t="s">
         <v>274</v>
       </c>
@@ -3584,7 +3749,7 @@
       </c>
       <c r="BE18" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== floatval ===========&lt;&gt;section(floatval, 'I/O').&lt;&gt;subsection(floatval, 'scalar').&lt;&gt;description(floatval, 'float value that varies over -inf to +inf').&lt;&gt;visual_style(floatval,  visual_style4).&lt;&gt;inputs(floatval, []).&lt;&gt;outputs(floatval, ['O']).&lt;&gt;input_types(floatval, []).&lt;&gt;output_types(floatval, [float]).&lt;&gt;image_name(floatval, '/img/blocks/blocksheet1_03.png').&lt;&gt;prototype_coordinates(floatval, 21, 2).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== floatval ===========&lt;&gt;section(floatval, 'I/O').&lt;&gt;subsection(floatval, 'scalar').&lt;&gt;description(floatval, 'float value that varies over -inf to +inf').&lt;&gt;visual_style(floatval,  visual_style4).&lt;&gt;inputs(floatval, []).&lt;&gt;outputs(floatval, ['O']).&lt;&gt;input_types(floatval, []).&lt;&gt;output_types(floatval, [float]).&lt;&gt;image_name(floatval, '/img/blocks/blocksheet1_03.png').&lt;&gt;prototype_coordinates(floatval, 21, 2).&lt;&gt;icon_size(floatval, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="19" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3815,6 +3980,12 @@
       <c r="AS20">
         <v>1</v>
       </c>
+      <c r="AZ20">
+        <v>1</v>
+      </c>
+      <c r="BA20">
+        <v>1</v>
+      </c>
       <c r="BB20" t="s">
         <v>275</v>
       </c>
@@ -3826,7 +3997,7 @@
       </c>
       <c r="BE20" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== mic ===========&lt;&gt;section(mic, 'I/O').&lt;&gt;subsection(mic, 'sound').&lt;&gt;description(mic, 'samples from mic').&lt;&gt;visual_style(mic,  normal).&lt;&gt;inputs(mic, []).&lt;&gt;outputs(mic, ['O']).&lt;&gt;input_types(mic, []).&lt;&gt;output_types(mic, [sample]).&lt;&gt;image_name(mic, '/img/blocks/blocksheet1_04.png').&lt;&gt;prototype_coordinates(mic, 21, 3).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== mic ===========&lt;&gt;section(mic, 'I/O').&lt;&gt;subsection(mic, 'sound').&lt;&gt;description(mic, 'samples from mic').&lt;&gt;visual_style(mic,  normal).&lt;&gt;inputs(mic, []).&lt;&gt;outputs(mic, ['O']).&lt;&gt;input_types(mic, []).&lt;&gt;output_types(mic, [sample]).&lt;&gt;image_name(mic, '/img/blocks/blocksheet1_04.png').&lt;&gt;prototype_coordinates(mic, 21, 3).&lt;&gt;icon_size(mic, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="21" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3949,6 +4120,12 @@
       <c r="AS21">
         <v>1</v>
       </c>
+      <c r="AZ21">
+        <v>1</v>
+      </c>
+      <c r="BA21">
+        <v>1</v>
+      </c>
       <c r="BB21" t="s">
         <v>276</v>
       </c>
@@ -3960,7 +4137,7 @@
       </c>
       <c r="BE21" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== listen ===========&lt;&gt;section(listen, 'I/O').&lt;&gt;subsection(listen, 'sound').&lt;&gt;description(listen, 'Sends sound to default output').&lt;&gt;visual_style(listen,  visual_style5).&lt;&gt;inputs(listen, [required('A')]).&lt;&gt;outputs(listen, []).&lt;&gt;input_types(listen, [sample]).&lt;&gt;output_types(listen, []).&lt;&gt;image_name(listen, '/img/blocks/blocksheet1_05.png').&lt;&gt;prototype_coordinates(listen, 21, 4).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== listen ===========&lt;&gt;section(listen, 'I/O').&lt;&gt;subsection(listen, 'sound').&lt;&gt;description(listen, 'Sends sound to default output').&lt;&gt;visual_style(listen,  visual_style5).&lt;&gt;inputs(listen, [required('A')]).&lt;&gt;outputs(listen, []).&lt;&gt;input_types(listen, [sample]).&lt;&gt;output_types(listen, []).&lt;&gt;image_name(listen, '/img/blocks/blocksheet1_05.png').&lt;&gt;prototype_coordinates(listen, 21, 4).&lt;&gt;icon_size(listen, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="22" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4200,6 +4377,12 @@
       <c r="AS23">
         <v>1</v>
       </c>
+      <c r="AZ23">
+        <v>1</v>
+      </c>
+      <c r="BA23">
+        <v>1</v>
+      </c>
       <c r="BB23" t="s">
         <v>277</v>
       </c>
@@ -4211,7 +4394,7 @@
       </c>
       <c r="BE23" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== camera ===========&lt;&gt;section(camera, 'I/O').&lt;&gt;subsection(camera, 'imaging').&lt;&gt;description(camera, 'O is frames out of camera, K is camera intrinsics').&lt;&gt;visual_style(camera,  visual_style6).&lt;&gt;inputs(camera, []).&lt;&gt;outputs(camera, ['O', 'K']).&lt;&gt;input_types(camera, []).&lt;&gt;output_types(camera, [rgb, intrinsics]).&lt;&gt;image_name(camera, '/img/blocks/blocksheet1_06.png').&lt;&gt;prototype_coordinates(camera, 21, 5).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== camera ===========&lt;&gt;section(camera, 'I/O').&lt;&gt;subsection(camera, 'imaging').&lt;&gt;description(camera, 'O is frames out of camera, K is camera intrinsics').&lt;&gt;visual_style(camera,  visual_style6).&lt;&gt;inputs(camera, []).&lt;&gt;outputs(camera, ['O', 'K']).&lt;&gt;input_types(camera, []).&lt;&gt;output_types(camera, [rgb, intrinsics]).&lt;&gt;image_name(camera, '/img/blocks/blocksheet1_06.png').&lt;&gt;prototype_coordinates(camera, 21, 5).&lt;&gt;icon_size(camera, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="24" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4347,6 +4530,12 @@
       <c r="AS24">
         <v>1</v>
       </c>
+      <c r="AZ24">
+        <v>2</v>
+      </c>
+      <c r="BA24">
+        <v>1</v>
+      </c>
       <c r="BB24" t="s">
         <v>278</v>
       </c>
@@ -4358,7 +4547,7 @@
       </c>
       <c r="BE24" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== eyes ===========&lt;&gt;section(eyes, 'I/O').&lt;&gt;subsection(eyes, 'imaging').&lt;&gt;description(eyes, 'input is commanded eye position, output is left and right eye cams').&lt;&gt;visual_style(eyes,  normal).&lt;&gt;inputs(eyes, [required('x'), required('y')]).&lt;&gt;outputs(eyes, ['OL', 'OR']).&lt;&gt;input_types(eyes, [proportion, proportion]).&lt;&gt;output_types(eyes, [rgb, rgb]).&lt;&gt;image_name(eyes, '/img/blocks/blocksheet1_07.png').&lt;&gt;prototype_coordinates(eyes, 21, 6).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== eyes ===========&lt;&gt;section(eyes, 'I/O').&lt;&gt;subsection(eyes, 'imaging').&lt;&gt;description(eyes, 'input is commanded eye position, output is left and right eye cams').&lt;&gt;visual_style(eyes,  normal).&lt;&gt;inputs(eyes, [required('x'), required('y')]).&lt;&gt;outputs(eyes, ['OL', 'OR']).&lt;&gt;input_types(eyes, [proportion, proportion]).&lt;&gt;output_types(eyes, [rgb, rgb]).&lt;&gt;image_name(eyes, '/img/blocks/blocksheet1_07.png').&lt;&gt;prototype_coordinates(eyes, 21, 6).&lt;&gt;icon_size(eyes, 2, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="25" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4742,6 +4931,12 @@
       <c r="AS27">
         <v>1</v>
       </c>
+      <c r="AZ27">
+        <v>1</v>
+      </c>
+      <c r="BA27">
+        <v>1</v>
+      </c>
       <c r="BB27" t="s">
         <v>279</v>
       </c>
@@ -4753,7 +4948,7 @@
       </c>
       <c r="BE27" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== spectrum ===========&lt;&gt;section(spectrum, 'I/O').&lt;&gt;subsection(spectrum, 'imaging').&lt;&gt;description(spectrum, 'dancing spectrum display').&lt;&gt;visual_style(spectrum,  visual_style9).&lt;&gt;inputs(spectrum, [required('A')]).&lt;&gt;outputs(spectrum, []).&lt;&gt;input_types(spectrum, [sample]).&lt;&gt;output_types(spectrum, []).&lt;&gt;image_name(spectrum, '/img/blocks/blocksheet1_09.png').&lt;&gt;prototype_coordinates(spectrum, 21, 7).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== spectrum ===========&lt;&gt;section(spectrum, 'I/O').&lt;&gt;subsection(spectrum, 'imaging').&lt;&gt;description(spectrum, 'dancing spectrum display').&lt;&gt;visual_style(spectrum,  visual_style9).&lt;&gt;inputs(spectrum, [required('A')]).&lt;&gt;outputs(spectrum, []).&lt;&gt;input_types(spectrum, [sample]).&lt;&gt;output_types(spectrum, []).&lt;&gt;image_name(spectrum, '/img/blocks/blocksheet1_09.png').&lt;&gt;prototype_coordinates(spectrum, 21, 7).&lt;&gt;icon_size(spectrum, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="28" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5001,6 +5196,12 @@
       <c r="AS29">
         <v>1</v>
       </c>
+      <c r="AZ29">
+        <v>1</v>
+      </c>
+      <c r="BA29">
+        <v>1</v>
+      </c>
       <c r="BB29" t="s">
         <v>280</v>
       </c>
@@ -5012,7 +5213,7 @@
       </c>
       <c r="BE29" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== viewer ===========&lt;&gt;section(viewer, 'I/O').&lt;&gt;subsection(viewer, 'imaging').&lt;&gt;description(viewer, 'displays image').&lt;&gt;visual_style(viewer,  visual_style11).&lt;&gt;inputs(viewer, [required('A')]).&lt;&gt;outputs(viewer, []).&lt;&gt;input_types(viewer, [image]).&lt;&gt;output_types(viewer, []).&lt;&gt;image_name(viewer, '/img/blocks/blocksheet1_13.png').&lt;&gt;prototype_coordinates(viewer, 21, 8).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== viewer ===========&lt;&gt;section(viewer, 'I/O').&lt;&gt;subsection(viewer, 'imaging').&lt;&gt;description(viewer, 'displays image').&lt;&gt;visual_style(viewer,  visual_style11).&lt;&gt;inputs(viewer, [required('A')]).&lt;&gt;outputs(viewer, []).&lt;&gt;input_types(viewer, [image]).&lt;&gt;output_types(viewer, []).&lt;&gt;image_name(viewer, '/img/blocks/blocksheet1_13.png').&lt;&gt;prototype_coordinates(viewer, 21, 8).&lt;&gt;icon_size(viewer, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="30" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5135,6 +5336,12 @@
       <c r="AS30">
         <v>1</v>
       </c>
+      <c r="AZ30">
+        <v>1</v>
+      </c>
+      <c r="BA30">
+        <v>1</v>
+      </c>
       <c r="BB30" t="s">
         <v>281</v>
       </c>
@@ -5146,7 +5353,7 @@
       </c>
       <c r="BE30" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== kernal ===========&lt;&gt;section(kernal, 'I/O').&lt;&gt;subsection(kernal, 'imaging').&lt;&gt;description(kernal, 'kernal UI for defining kernals').&lt;&gt;visual_style(kernal,  visual_style12).&lt;&gt;inputs(kernal, []).&lt;&gt;outputs(kernal, ['O']).&lt;&gt;input_types(kernal, []).&lt;&gt;output_types(kernal, [kernal]).&lt;&gt;image_name(kernal, '/img/blocks/blocksheet1_14.png').&lt;&gt;prototype_coordinates(kernal, 21, 9).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== kernal ===========&lt;&gt;section(kernal, 'I/O').&lt;&gt;subsection(kernal, 'imaging').&lt;&gt;description(kernal, 'kernal UI for defining kernals').&lt;&gt;visual_style(kernal,  visual_style12).&lt;&gt;inputs(kernal, []).&lt;&gt;outputs(kernal, ['O']).&lt;&gt;input_types(kernal, []).&lt;&gt;output_types(kernal, [kernal]).&lt;&gt;image_name(kernal, '/img/blocks/blocksheet1_14.png').&lt;&gt;prototype_coordinates(kernal, 21, 9).&lt;&gt;icon_size(kernal, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="31" spans="2:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5380,6 +5587,12 @@
       <c r="AS32">
         <v>1</v>
       </c>
+      <c r="AZ32">
+        <v>1</v>
+      </c>
+      <c r="BA32">
+        <v>1</v>
+      </c>
       <c r="BB32" t="s">
         <v>282</v>
       </c>
@@ -5391,7 +5604,7 @@
       </c>
       <c r="BE32" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== bodymask ===========&lt;&gt;section(bodymask, 'I/O').&lt;&gt;subsection(bodymask, 'body').&lt;&gt;description(bodymask, 'output is a vector of booleans for joints').&lt;&gt;visual_style(bodymask,  visual_style13).&lt;&gt;inputs(bodymask, []).&lt;&gt;outputs(bodymask, ['O']).&lt;&gt;input_types(bodymask, []).&lt;&gt;output_types(bodymask, [mask]).&lt;&gt;image_name(bodymask, '/img/blocks/blocksheet1_10.png').&lt;&gt;prototype_coordinates(bodymask, 21, 10).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== bodymask ===========&lt;&gt;section(bodymask, 'I/O').&lt;&gt;subsection(bodymask, 'body').&lt;&gt;description(bodymask, 'output is a vector of booleans for joints').&lt;&gt;visual_style(bodymask,  visual_style13).&lt;&gt;inputs(bodymask, []).&lt;&gt;outputs(bodymask, ['O']).&lt;&gt;input_types(bodymask, []).&lt;&gt;output_types(bodymask, [mask]).&lt;&gt;image_name(bodymask, '/img/blocks/blocksheet1_10.png').&lt;&gt;prototype_coordinates(bodymask, 21, 10).&lt;&gt;icon_size(bodymask, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5511,6 +5724,12 @@
       <c r="AS33">
         <v>1</v>
       </c>
+      <c r="AZ33">
+        <v>1</v>
+      </c>
+      <c r="BA33">
+        <v>1</v>
+      </c>
       <c r="BB33" t="s">
         <v>284</v>
       </c>
@@ -5522,7 +5741,7 @@
       </c>
       <c r="BE33" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== bodyposition ===========&lt;&gt;section(bodyposition, 'I/O').&lt;&gt;subsection(bodyposition, 'body').&lt;&gt;description(bodyposition, 'output is a vector of joint positions from physivcal bot').&lt;&gt;visual_style(bodyposition,  normal).&lt;&gt;inputs(bodyposition, []).&lt;&gt;outputs(bodyposition, ['O']).&lt;&gt;input_types(bodyposition, []).&lt;&gt;output_types(bodyposition, [joints]).&lt;&gt;image_name(bodyposition, '/img/blocks/blocksheet1_11.png').&lt;&gt;prototype_coordinates(bodyposition, 21, 11).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== bodyposition ===========&lt;&gt;section(bodyposition, 'I/O').&lt;&gt;subsection(bodyposition, 'body').&lt;&gt;description(bodyposition, 'output is a vector of joint positions from physivcal bot').&lt;&gt;visual_style(bodyposition,  normal).&lt;&gt;inputs(bodyposition, []).&lt;&gt;outputs(bodyposition, ['O']).&lt;&gt;input_types(bodyposition, []).&lt;&gt;output_types(bodyposition, [joints]).&lt;&gt;image_name(bodyposition, '/img/blocks/blocksheet1_11.png').&lt;&gt;prototype_coordinates(bodyposition, 21, 11).&lt;&gt;icon_size(bodyposition, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5642,6 +5861,12 @@
       <c r="AS34">
         <v>1</v>
       </c>
+      <c r="AZ34">
+        <v>1</v>
+      </c>
+      <c r="BA34">
+        <v>1</v>
+      </c>
       <c r="BB34" t="s">
         <v>285</v>
       </c>
@@ -5653,7 +5878,7 @@
       </c>
       <c r="BE34" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== bodypossim ===========&lt;&gt;section(bodypossim, 'I/O').&lt;&gt;subsection(bodypossim, 'body').&lt;&gt;description(bodypossim, 'as per bodyposition but from the simulator').&lt;&gt;visual_style(bodypossim,  normal).&lt;&gt;inputs(bodypossim, []).&lt;&gt;outputs(bodypossim, ['O']).&lt;&gt;input_types(bodypossim, []).&lt;&gt;output_types(bodypossim, [joints]).&lt;&gt;image_name(bodypossim, '/img/blocks/blocksheet1_16.png').&lt;&gt;prototype_coordinates(bodypossim, 21, 12).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== bodypossim ===========&lt;&gt;section(bodypossim, 'I/O').&lt;&gt;subsection(bodypossim, 'body').&lt;&gt;description(bodypossim, 'as per bodyposition but from the simulator').&lt;&gt;visual_style(bodypossim,  normal).&lt;&gt;inputs(bodypossim, []).&lt;&gt;outputs(bodypossim, ['O']).&lt;&gt;input_types(bodypossim, []).&lt;&gt;output_types(bodypossim, [joints]).&lt;&gt;image_name(bodypossim, '/img/blocks/blocksheet1_16.png').&lt;&gt;prototype_coordinates(bodypossim, 21, 12).&lt;&gt;icon_size(bodypossim, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5778,6 +6003,12 @@
       <c r="AS35">
         <v>1</v>
       </c>
+      <c r="AZ35">
+        <v>1</v>
+      </c>
+      <c r="BA35">
+        <v>1</v>
+      </c>
       <c r="BB35" t="s">
         <v>283</v>
       </c>
@@ -5789,7 +6020,7 @@
       </c>
       <c r="BE35" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== motors ===========&lt;&gt;section(motors, 'I/O').&lt;&gt;subsection(motors, 'body').&lt;&gt;description(motors, 'Send channels of vector A matching Mask to robot servos').&lt;&gt;visual_style(motors,  normal).&lt;&gt;inputs(motors, [required('A'), required('Mask')]).&lt;&gt;outputs(motors, []).&lt;&gt;input_types(motors, [joints, jointmask]).&lt;&gt;output_types(motors, []).&lt;&gt;image_name(motors, '/img/blocks/blocksheet1_15.png').&lt;&gt;prototype_coordinates(motors, 21, 13).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== motors ===========&lt;&gt;section(motors, 'I/O').&lt;&gt;subsection(motors, 'body').&lt;&gt;description(motors, 'Send channels of vector A matching Mask to robot servos').&lt;&gt;visual_style(motors,  normal).&lt;&gt;inputs(motors, [required('A'), required('Mask')]).&lt;&gt;outputs(motors, []).&lt;&gt;input_types(motors, [joints, jointmask]).&lt;&gt;output_types(motors, []).&lt;&gt;image_name(motors, '/img/blocks/blocksheet1_15.png').&lt;&gt;prototype_coordinates(motors, 21, 13).&lt;&gt;icon_size(motors, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5914,6 +6145,12 @@
       <c r="AS36">
         <v>1</v>
       </c>
+      <c r="AZ36">
+        <v>1</v>
+      </c>
+      <c r="BA36">
+        <v>1</v>
+      </c>
       <c r="BB36" t="s">
         <v>286</v>
       </c>
@@ -5925,7 +6162,7 @@
       </c>
       <c r="BE36" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== motorsim ===========&lt;&gt;section(motorsim, 'I/O').&lt;&gt;subsection(motorsim, 'body').&lt;&gt;description(motorsim, 'As per motors, but to simulator').&lt;&gt;visual_style(motorsim,  normal).&lt;&gt;inputs(motorsim, [required('A'), required('Mask')]).&lt;&gt;outputs(motorsim, []).&lt;&gt;input_types(motorsim, [joints, jointmask]).&lt;&gt;output_types(motorsim, []).&lt;&gt;image_name(motorsim, '/img/blocks/blocksheet1_17.png').&lt;&gt;prototype_coordinates(motorsim, 21, 14).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== motorsim ===========&lt;&gt;section(motorsim, 'I/O').&lt;&gt;subsection(motorsim, 'body').&lt;&gt;description(motorsim, 'As per motors, but to simulator').&lt;&gt;visual_style(motorsim,  normal).&lt;&gt;inputs(motorsim, [required('A'), required('Mask')]).&lt;&gt;outputs(motorsim, []).&lt;&gt;input_types(motorsim, [joints, jointmask]).&lt;&gt;output_types(motorsim, []).&lt;&gt;image_name(motorsim, '/img/blocks/blocksheet1_17.png').&lt;&gt;prototype_coordinates(motorsim, 21, 14).&lt;&gt;icon_size(motorsim, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6310,7 +6547,7 @@
       </c>
       <c r="BE39" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== drbend ===========&lt;&gt;section(drbend, 'connector').&lt;&gt;subsection(drbend, 'pipe').&lt;&gt;description(drbend, 'bidi pipe connection').&lt;&gt;visual_style(drbend,  visual_style14).&lt;&gt;inputs(drbend, [required('A')]).&lt;&gt;outputs(drbend, ['O']).&lt;&gt;input_types(drbend, [any]).&lt;&gt;output_types(drbend, [any]).&lt;&gt;image_name(drbend, '/img/blocks/blocksheet0-_02.png').&lt;&gt;prototype_coordinates(drbend, 20, 0).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== drbend ===========&lt;&gt;section(drbend, 'connector').&lt;&gt;subsection(drbend, 'pipe').&lt;&gt;description(drbend, 'bidi pipe connection').&lt;&gt;visual_style(drbend,  visual_style14).&lt;&gt;inputs(drbend, [required('A')]).&lt;&gt;outputs(drbend, ['O']).&lt;&gt;input_types(drbend, [any]).&lt;&gt;output_types(drbend, [any]).&lt;&gt;image_name(drbend, '/img/blocks/blocksheet0-_02.png').&lt;&gt;prototype_coordinates(drbend, 20, 0).&lt;&gt;icon_size(drbend, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6467,7 +6704,7 @@
       </c>
       <c r="BE40" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== dlbend ===========&lt;&gt;section(dlbend, 'connector').&lt;&gt;subsection(dlbend, 'pipe').&lt;&gt;description(dlbend, 'bidi pipe connection').&lt;&gt;visual_style(dlbend,  visual_style15).&lt;&gt;inputs(dlbend, [required('A')]).&lt;&gt;outputs(dlbend, ['O']).&lt;&gt;input_types(dlbend, [any]).&lt;&gt;output_types(dlbend, [any]).&lt;&gt;image_name(dlbend, '/img/blocks/blocksheet0-_03.png').&lt;&gt;prototype_coordinates(dlbend, 20, 1).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== dlbend ===========&lt;&gt;section(dlbend, 'connector').&lt;&gt;subsection(dlbend, 'pipe').&lt;&gt;description(dlbend, 'bidi pipe connection').&lt;&gt;visual_style(dlbend,  visual_style15).&lt;&gt;inputs(dlbend, [required('A')]).&lt;&gt;outputs(dlbend, ['O']).&lt;&gt;input_types(dlbend, [any]).&lt;&gt;output_types(dlbend, [any]).&lt;&gt;image_name(dlbend, '/img/blocks/blocksheet0-_03.png').&lt;&gt;prototype_coordinates(dlbend, 20, 1).&lt;&gt;icon_size(dlbend, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6625,7 +6862,7 @@
       </c>
       <c r="BE41" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== horpipe ===========&lt;&gt;section(horpipe, 'connector').&lt;&gt;subsection(horpipe, 'pipe').&lt;&gt;description(horpipe, 'bidi pipe connection').&lt;&gt;visual_style(horpipe,  visual_style16).&lt;&gt;inputs(horpipe, [required('A')]).&lt;&gt;outputs(horpipe, ['O']).&lt;&gt;input_types(horpipe, [any]).&lt;&gt;output_types(horpipe, [any]).&lt;&gt;image_name(horpipe, '/img/blocks/blocksheet0-_04.png').&lt;&gt;prototype_coordinates(horpipe, 20, 2).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== horpipe ===========&lt;&gt;section(horpipe, 'connector').&lt;&gt;subsection(horpipe, 'pipe').&lt;&gt;description(horpipe, 'bidi pipe connection').&lt;&gt;visual_style(horpipe,  visual_style16).&lt;&gt;inputs(horpipe, [required('A')]).&lt;&gt;outputs(horpipe, ['O']).&lt;&gt;input_types(horpipe, [any]).&lt;&gt;output_types(horpipe, [any]).&lt;&gt;image_name(horpipe, '/img/blocks/blocksheet0-_04.png').&lt;&gt;prototype_coordinates(horpipe, 20, 2).&lt;&gt;icon_size(horpipe, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6794,7 +7031,7 @@
       </c>
       <c r="BE42" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== cross ===========&lt;&gt;section(cross, 'connector').&lt;&gt;subsection(cross, 'pipe').&lt;&gt;description(cross, 'bidi pipe connection').&lt;&gt;visual_style(cross,  visual_style17).&lt;&gt;inputs(cross, [required('A'), required('B')]).&lt;&gt;outputs(cross, ['OA', 'OB']).&lt;&gt;input_types(cross, [any, any]).&lt;&gt;output_types(cross, [any, any]).&lt;&gt;image_name(cross, '/img/blocks/blocksheet0-_05.png').&lt;&gt;prototype_coordinates(cross, 20, 3).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== cross ===========&lt;&gt;section(cross, 'connector').&lt;&gt;subsection(cross, 'pipe').&lt;&gt;description(cross, 'bidi pipe connection').&lt;&gt;visual_style(cross,  visual_style17).&lt;&gt;inputs(cross, [required('A'), required('B')]).&lt;&gt;outputs(cross, ['OA', 'OB']).&lt;&gt;input_types(cross, [any, any]).&lt;&gt;output_types(cross, [any, any]).&lt;&gt;image_name(cross, '/img/blocks/blocksheet0-_05.png').&lt;&gt;prototype_coordinates(cross, 20, 3).&lt;&gt;icon_size(cross, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6952,7 +7189,7 @@
       </c>
       <c r="BE43" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== urbend ===========&lt;&gt;section(urbend, 'connector').&lt;&gt;subsection(urbend, 'pipe').&lt;&gt;description(urbend, 'bidi pipe connection').&lt;&gt;visual_style(urbend,  visual_style18).&lt;&gt;inputs(urbend, [required('A')]).&lt;&gt;outputs(urbend, ['O']).&lt;&gt;input_types(urbend, [any]).&lt;&gt;output_types(urbend, [any]).&lt;&gt;image_name(urbend, '/img/blocks/blocksheet0-_14.png').&lt;&gt;prototype_coordinates(urbend, 20, 4).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== urbend ===========&lt;&gt;section(urbend, 'connector').&lt;&gt;subsection(urbend, 'pipe').&lt;&gt;description(urbend, 'bidi pipe connection').&lt;&gt;visual_style(urbend,  visual_style18).&lt;&gt;inputs(urbend, [required('A')]).&lt;&gt;outputs(urbend, ['O']).&lt;&gt;input_types(urbend, [any]).&lt;&gt;output_types(urbend, [any]).&lt;&gt;image_name(urbend, '/img/blocks/blocksheet0-_14.png').&lt;&gt;prototype_coordinates(urbend, 20, 4).&lt;&gt;icon_size(urbend, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7110,7 +7347,7 @@
       </c>
       <c r="BE44" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== ulbend ===========&lt;&gt;section(ulbend, 'connector').&lt;&gt;subsection(ulbend, 'pipe').&lt;&gt;description(ulbend, 'bidi pipe connection').&lt;&gt;visual_style(ulbend,  visual_style19).&lt;&gt;inputs(ulbend, [required('A')]).&lt;&gt;outputs(ulbend, ['O']).&lt;&gt;input_types(ulbend, [any]).&lt;&gt;output_types(ulbend, [any]).&lt;&gt;image_name(ulbend, '/img/blocks/blocksheet0-_11.png').&lt;&gt;prototype_coordinates(ulbend, 20, 5).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== ulbend ===========&lt;&gt;section(ulbend, 'connector').&lt;&gt;subsection(ulbend, 'pipe').&lt;&gt;description(ulbend, 'bidi pipe connection').&lt;&gt;visual_style(ulbend,  visual_style19).&lt;&gt;inputs(ulbend, [required('A')]).&lt;&gt;outputs(ulbend, ['O']).&lt;&gt;input_types(ulbend, [any]).&lt;&gt;output_types(ulbend, [any]).&lt;&gt;image_name(ulbend, '/img/blocks/blocksheet0-_11.png').&lt;&gt;prototype_coordinates(ulbend, 20, 5).&lt;&gt;icon_size(ulbend, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7280,7 +7517,7 @@
       </c>
       <c r="BE45" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== distributor ===========&lt;&gt;section(distributor, 'connector').&lt;&gt;subsection(distributor, 'pipe').&lt;&gt;description(distributor, 'bidi pipe connection').&lt;&gt;visual_style(distributor,  visual_style20).&lt;&gt;inputs(distributor, [required('A')]).&lt;&gt;outputs(distributor, ['OA', 'OB', 'OC']).&lt;&gt;input_types(distributor, [any]).&lt;&gt;output_types(distributor, [any, any, any]).&lt;&gt;image_name(distributor, '/img/blocks/blocksheet0-_09.png').&lt;&gt;prototype_coordinates(distributor, 20, 6).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== distributor ===========&lt;&gt;section(distributor, 'connector').&lt;&gt;subsection(distributor, 'pipe').&lt;&gt;description(distributor, 'bidi pipe connection').&lt;&gt;visual_style(distributor,  visual_style20).&lt;&gt;inputs(distributor, [required('A')]).&lt;&gt;outputs(distributor, ['OA', 'OB', 'OC']).&lt;&gt;input_types(distributor, [any]).&lt;&gt;output_types(distributor, [any, any, any]).&lt;&gt;image_name(distributor, '/img/blocks/blocksheet0-_09.png').&lt;&gt;prototype_coordinates(distributor, 20, 6).&lt;&gt;icon_size(distributor, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7405,6 +7642,12 @@
         <f t="shared" si="50"/>
         <v>[any]</v>
       </c>
+      <c r="AZ46">
+        <v>1</v>
+      </c>
+      <c r="BA46">
+        <v>1</v>
+      </c>
       <c r="BB46" t="s">
         <v>287</v>
       </c>
@@ -7416,7 +7659,7 @@
       </c>
       <c r="BE46" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== vertpipe ===========&lt;&gt;section(vertpipe, 'connector').&lt;&gt;subsection(vertpipe, 'pipe').&lt;&gt;description(vertpipe, 'bidi pipe connection').&lt;&gt;visual_style(vertpipe,  visual_style21).&lt;&gt;inputs(vertpipe, [required('A')]).&lt;&gt;outputs(vertpipe, ['OA']).&lt;&gt;input_types(vertpipe, [any]).&lt;&gt;output_types(vertpipe, [any]).&lt;&gt;image_name(vertpipe, '/img/blocks/blocksheet0-_08.png').&lt;&gt;prototype_coordinates(vertpipe, 20, 7).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== vertpipe ===========&lt;&gt;section(vertpipe, 'connector').&lt;&gt;subsection(vertpipe, 'pipe').&lt;&gt;description(vertpipe, 'bidi pipe connection').&lt;&gt;visual_style(vertpipe,  visual_style21).&lt;&gt;inputs(vertpipe, [required('A')]).&lt;&gt;outputs(vertpipe, ['OA']).&lt;&gt;input_types(vertpipe, [any]).&lt;&gt;output_types(vertpipe, [any]).&lt;&gt;image_name(vertpipe, '/img/blocks/blocksheet0-_08.png').&lt;&gt;prototype_coordinates(vertpipe, 20, 7).&lt;&gt;icon_size(vertpipe, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9847,7 +10090,7 @@
         <v/>
       </c>
       <c r="BE68" t="str">
-        <f t="shared" ref="BE68:BE109" si="64">AH68&amp;IF(OR(ISBLANK(E68),ISBLANK(BC68)), "", "prototype_coordinates("&amp;E68&amp;", "&amp;BC68&amp;", "&amp;BD68&amp;").&lt;&gt;")</f>
+        <f t="shared" ref="BE68:BE109" si="64">AH68&amp;IF(OR(ISBLANK(E68),ISBLANK(BC68)), "", "prototype_coordinates("&amp;E68&amp;", "&amp;BC68&amp;", "&amp;BD68&amp;").&lt;&gt;icon_size("&amp;E68&amp;", "&amp;AZ68&amp;", "&amp;BA68&amp;").&lt;&gt;")</f>
         <v/>
       </c>
     </row>
@@ -12987,4 +13230,2580 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC117"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7050" ySplit="540" topLeftCell="W1" activePane="bottomRight"/>
+      <selection activeCell="C1" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="AD1" sqref="AD1:AD1048576"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="Y2" sqref="Y2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="17.140625" style="14"/>
+    <col min="4" max="4" width="8.5703125" style="16" customWidth="1"/>
+    <col min="5" max="7" width="8.5703125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="10" style="14" customWidth="1"/>
+    <col min="12" max="13" width="5.85546875" style="14" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" style="17" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" style="14" customWidth="1"/>
+    <col min="16" max="17" width="10.7109375" style="14" customWidth="1"/>
+    <col min="18" max="18" width="46.140625" style="15" customWidth="1"/>
+    <col min="19" max="19" width="25.7109375" style="14" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" style="14"/>
+    <col min="21" max="21" width="23.7109375" style="14" customWidth="1"/>
+    <col min="22" max="22" width="87.7109375" style="14" customWidth="1"/>
+    <col min="23" max="26" width="17.140625" style="14"/>
+    <col min="27" max="27" width="21.28515625" style="14" customWidth="1"/>
+    <col min="28" max="16384" width="17.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB1" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC1" s="25"/>
+    </row>
+    <row r="2" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>22</v>
+      </c>
+      <c r="AC3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB4" s="14">
+        <v>22</v>
+      </c>
+      <c r="AC4" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="U5" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>22</v>
+      </c>
+      <c r="AC5" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>22</v>
+      </c>
+      <c r="AC7" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="W8" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>22</v>
+      </c>
+      <c r="AC8" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="16"/>
+      <c r="R9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="W9" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB9" s="14">
+        <v>22</v>
+      </c>
+      <c r="AC9" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>23</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="R13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U13" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB13" s="14">
+        <v>23</v>
+      </c>
+      <c r="AC13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB16" s="14">
+        <v>21</v>
+      </c>
+      <c r="AC16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="U17" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB17" s="14">
+        <v>21</v>
+      </c>
+      <c r="AC17" s="14">
+        <f>AC16+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="U18" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB18" s="14">
+        <v>21</v>
+      </c>
+      <c r="AC18" s="14">
+        <f>AC17+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="2:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="U20" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB20" s="14">
+        <v>21</v>
+      </c>
+      <c r="AC20" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="16"/>
+      <c r="R21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="U21" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB21" s="14">
+        <v>21</v>
+      </c>
+      <c r="AC21" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="2:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="S23" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="U23" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB23" s="14">
+        <v>21</v>
+      </c>
+      <c r="AC23" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="U24" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="14">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB24" s="14">
+        <v>21</v>
+      </c>
+      <c r="AC24" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="R25" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="U25" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="16"/>
+      <c r="R26" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="U26" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="16"/>
+      <c r="R27" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="S27" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="U27" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB27" s="14">
+        <v>21</v>
+      </c>
+      <c r="AC27" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="R28" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="S28" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="U28" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="16"/>
+      <c r="R29" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="S29" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="U29" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB29" s="14">
+        <v>21</v>
+      </c>
+      <c r="AC29" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="R30" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="U30" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB30" s="14">
+        <v>21</v>
+      </c>
+      <c r="AC30" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="16"/>
+    </row>
+    <row r="32" spans="2:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="R32" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="S32" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="U32" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB32" s="14">
+        <v>21</v>
+      </c>
+      <c r="AC32" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="R33" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="U33" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB33" s="14">
+        <v>21</v>
+      </c>
+      <c r="AC33" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="R34" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="U34" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB34" s="14">
+        <v>21</v>
+      </c>
+      <c r="AC34" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="16"/>
+      <c r="R35" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="U35" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB35" s="14">
+        <v>21</v>
+      </c>
+      <c r="AC35" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="16"/>
+      <c r="R36" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="U36" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB36" s="14">
+        <v>21</v>
+      </c>
+      <c r="AC36" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="16"/>
+    </row>
+    <row r="38" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="G38" s="17"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="16"/>
+    </row>
+    <row r="39" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="17"/>
+      <c r="H39" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O39" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="S39" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="V39" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="W39" s="14">
+        <v>1</v>
+      </c>
+      <c r="X39" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB39" s="14">
+        <v>20</v>
+      </c>
+      <c r="AC39" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="17"/>
+      <c r="H40" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O40" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="R40" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="S40" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="W40" s="14">
+        <v>1</v>
+      </c>
+      <c r="X40" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB40" s="14">
+        <v>20</v>
+      </c>
+      <c r="AC40" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="17"/>
+      <c r="H41" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O41" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="R41" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="S41" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="W41" s="14">
+        <v>1</v>
+      </c>
+      <c r="X41" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB41" s="14">
+        <v>20</v>
+      </c>
+      <c r="AC41" s="14">
+        <f>AC40+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="17"/>
+      <c r="H42" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="M42" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="O42" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="P42" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="R42" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="S42" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="W42" s="14">
+        <v>1</v>
+      </c>
+      <c r="X42" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB42" s="14">
+        <v>20</v>
+      </c>
+      <c r="AC42" s="14">
+        <f t="shared" ref="AC42:AC45" si="0">AC41+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="17"/>
+      <c r="H43" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O43" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="R43" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="S43" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="W43" s="14">
+        <v>1</v>
+      </c>
+      <c r="X43" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB43" s="14">
+        <v>20</v>
+      </c>
+      <c r="AC43" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="17"/>
+      <c r="H44" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="R44" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="S44" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="W44" s="14">
+        <v>1</v>
+      </c>
+      <c r="X44" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB44" s="14">
+        <v>20</v>
+      </c>
+      <c r="AC44" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="17"/>
+      <c r="H45" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="N45" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="O45" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="P45" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q45" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="R45" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="S45" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="W45" s="14">
+        <v>1</v>
+      </c>
+      <c r="X45" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB45" s="14">
+        <v>20</v>
+      </c>
+      <c r="AC45" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="17"/>
+      <c r="H46" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="O46" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="R46" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="S46" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y46" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB46" s="14">
+        <v>20</v>
+      </c>
+      <c r="AC46" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G47" s="17"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="16"/>
+    </row>
+    <row r="48" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G48" s="17"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="16"/>
+    </row>
+    <row r="49" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G49" s="17"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O49" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="R49" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="V49" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G50" s="17"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O50" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="R50" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="V50" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G51" s="17"/>
+      <c r="H51" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O51" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="R51" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="V51" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="17"/>
+      <c r="H52" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O52" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R52" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="V52" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="17"/>
+      <c r="H53" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O53" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="R53" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="17"/>
+      <c r="H54" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O54" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="R54" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J55" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="K55" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="L55" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O55" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="R55" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="17"/>
+      <c r="H56" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="M56" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="N56" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="O56" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P56" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q56" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R56" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G57" s="17"/>
+      <c r="H57" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O57" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="R57" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="S57" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G58" s="17"/>
+      <c r="H58" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J58" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="K58" s="18"/>
+      <c r="L58" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O58" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="R58" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G59" s="17"/>
+      <c r="H59" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="I59" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="J59" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="K59" s="18"/>
+      <c r="L59" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O59" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="R59" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G60" s="17"/>
+      <c r="H60" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O60" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" s="17"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="16"/>
+    </row>
+    <row r="62" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="17"/>
+      <c r="H62" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O62" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="R62" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="21"/>
+      <c r="H63" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="L63" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N63" s="21"/>
+      <c r="O63" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="R63" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G64" s="17"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="16"/>
+    </row>
+    <row r="65" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G65" s="17"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="16"/>
+    </row>
+    <row r="66" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G66" s="17"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="16"/>
+    </row>
+    <row r="67" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G67" s="17"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="16"/>
+    </row>
+    <row r="68" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G68" s="17"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="16"/>
+    </row>
+    <row r="69" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G69" s="17"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="16"/>
+    </row>
+    <row r="70" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G70" s="17"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="16"/>
+    </row>
+    <row r="71" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G71" s="17"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="16"/>
+    </row>
+    <row r="72" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G72" s="17"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="16"/>
+    </row>
+    <row r="73" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G73" s="17"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="16"/>
+    </row>
+    <row r="74" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G74" s="17"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="16"/>
+    </row>
+    <row r="75" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G75" s="17"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="16"/>
+    </row>
+    <row r="76" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G76" s="17"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="16"/>
+    </row>
+    <row r="77" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G77" s="17"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="16"/>
+    </row>
+    <row r="78" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G78" s="17"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="16"/>
+    </row>
+    <row r="79" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G79" s="17"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="16"/>
+    </row>
+    <row r="80" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G80" s="17"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="16"/>
+    </row>
+    <row r="81" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G81" s="17"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="16"/>
+    </row>
+    <row r="82" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G82" s="17"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="16"/>
+    </row>
+    <row r="83" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G83" s="17"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="16"/>
+    </row>
+    <row r="84" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G84" s="17"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="16"/>
+    </row>
+    <row r="85" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G85" s="17"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="16"/>
+    </row>
+    <row r="86" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G86" s="17"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="16"/>
+    </row>
+    <row r="87" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G87" s="17"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="16"/>
+    </row>
+    <row r="88" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G88" s="17"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="16"/>
+    </row>
+    <row r="89" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G89" s="17"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="16"/>
+    </row>
+    <row r="90" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G90" s="17"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="16"/>
+    </row>
+    <row r="91" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G91" s="17"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="16"/>
+    </row>
+    <row r="92" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G92" s="17"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="16"/>
+    </row>
+    <row r="93" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G93" s="17"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="16"/>
+    </row>
+    <row r="94" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G94" s="17"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="16"/>
+    </row>
+    <row r="95" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G95" s="17"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="16"/>
+    </row>
+    <row r="96" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G96" s="17"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="16"/>
+    </row>
+    <row r="97" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G97" s="17"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="16"/>
+    </row>
+    <row r="98" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G98" s="17"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="16"/>
+    </row>
+    <row r="99" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G99" s="17"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="16"/>
+    </row>
+    <row r="100" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G100" s="17"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="18"/>
+      <c r="L100" s="16"/>
+    </row>
+    <row r="101" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G101" s="17"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="16"/>
+    </row>
+    <row r="102" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G102" s="17"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="16"/>
+    </row>
+    <row r="103" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G103" s="17"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="16"/>
+    </row>
+    <row r="104" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G104" s="17"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="18"/>
+      <c r="L104" s="16"/>
+    </row>
+    <row r="105" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G105" s="17"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="18"/>
+      <c r="L105" s="16"/>
+    </row>
+    <row r="106" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G106" s="17"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="18"/>
+      <c r="K106" s="18"/>
+      <c r="L106" s="16"/>
+    </row>
+    <row r="107" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G107" s="17"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="16"/>
+    </row>
+    <row r="108" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G108" s="17"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="18"/>
+      <c r="K108" s="18"/>
+      <c r="L108" s="16"/>
+    </row>
+    <row r="109" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G109" s="17"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="18"/>
+      <c r="K109" s="18"/>
+      <c r="L109" s="16"/>
+    </row>
+    <row r="110" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G110" s="17"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="18"/>
+      <c r="K110" s="18"/>
+      <c r="L110" s="16"/>
+    </row>
+    <row r="111" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G111" s="17"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="18"/>
+      <c r="K111" s="18"/>
+      <c r="L111" s="16"/>
+    </row>
+    <row r="112" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G112" s="17"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="16"/>
+    </row>
+    <row r="113" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G113" s="17"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="18"/>
+      <c r="K113" s="18"/>
+      <c r="L113" s="16"/>
+    </row>
+    <row r="114" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G114" s="17"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="16"/>
+    </row>
+    <row r="115" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G115" s="17"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="18"/>
+      <c r="L115" s="16"/>
+    </row>
+    <row r="116" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G116" s="17"/>
+      <c r="H116" s="18"/>
+      <c r="I116" s="18"/>
+      <c r="J116" s="18"/>
+      <c r="K116" s="18"/>
+      <c r="L116" s="16"/>
+    </row>
+    <row r="117" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G117" s="17"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="18"/>
+      <c r="J117" s="18"/>
+      <c r="K117" s="18"/>
+      <c r="L117" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="AB1:AC1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/flo/Blocks.xlsx
+++ b/doc/flo/Blocks.xlsx
@@ -1413,11 +1413,11 @@
   <dimension ref="A1:BE117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9000" ySplit="540" topLeftCell="BC1" activePane="bottomRight"/>
+      <pane xSplit="9000" ySplit="540" topLeftCell="AH35" activePane="bottomRight"/>
       <selection activeCell="AH1" sqref="AH1"/>
       <selection pane="topRight" activeCell="BE1" sqref="BE1"/>
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
-      <selection pane="bottomRight" activeCell="BE2" sqref="BE2"/>
+      <selection pane="bottomRight" activeCell="AH58" sqref="AH58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/doc/flo/Blocks.xlsx
+++ b/doc/flo/Blocks.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="301">
   <si>
     <t>Block Types</t>
   </si>
@@ -905,6 +905,21 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>combining</t>
+  </si>
+  <si>
+    <t>imgadd</t>
+  </si>
+  <si>
+    <t>Ox = (Ax+Bx), for each channel x in the image (r,g,b, or grey)</t>
+  </si>
+  <si>
+    <t>imgmax</t>
+  </si>
+  <si>
+    <t>takes the channel values from whichever image has R+G+B greatest</t>
   </si>
 </sst>
 </file>
@@ -1412,11 +1427,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9000" ySplit="540" topLeftCell="AH35" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9000" ySplit="540" topLeftCell="AH46" activePane="bottomLeft"/>
       <selection activeCell="AH1" sqref="AH1"/>
       <selection pane="topRight" activeCell="BE1" sqref="BE1"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="T67" sqref="T67"/>
       <selection pane="bottomRight" activeCell="AH58" sqref="AH58"/>
     </sheetView>
   </sheetViews>
@@ -9795,13 +9810,16 @@
       </c>
     </row>
     <row r="64" spans="1:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="C64" s="1" t="str">
         <f t="shared" si="54"/>
         <v>CV</v>
       </c>
       <c r="D64" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="10"/>
@@ -9849,6 +9867,44 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
+      <c r="AI64" t="str">
+        <f t="shared" ref="AI64:AI66" si="63">IF(ISBLANK(J64),"[","["&amp;J64)</f>
+        <v>[</v>
+      </c>
+      <c r="AJ64" t="str">
+        <f t="shared" ref="AJ64:AJ66" si="64">IF(ISBLANK(K64), "", ", "&amp;K64)</f>
+        <v/>
+      </c>
+      <c r="AK64" t="str">
+        <f t="shared" ref="AK64:AK66" si="65">IF(ISBLANK(L64), "", ", "&amp;L64)</f>
+        <v/>
+      </c>
+      <c r="AL64" s="11" t="str">
+        <f t="shared" ref="AL64:AL66" si="66">IF(ISBLANK(M64), "", ", "&amp;M64)</f>
+        <v/>
+      </c>
+      <c r="AM64" t="str">
+        <f t="shared" ref="AM64:AM67" si="67">IF(ISBLANK(Q64),"[","["&amp;Q64)</f>
+        <v>[</v>
+      </c>
+      <c r="AN64" t="str">
+        <f t="shared" ref="AN64:AN66" si="68">IF(ISBLANK(R64), "", ", "&amp;R64)</f>
+        <v/>
+      </c>
+      <c r="AO64" s="11" t="str">
+        <f t="shared" ref="AO64:AO66" si="69">IF(ISBLANK(S64), "", ", "&amp;S64)</f>
+        <v/>
+      </c>
+      <c r="AP64" t="str">
+        <f t="shared" ref="AP64:AP66" si="70">AI64&amp;AJ64&amp;AK64&amp;AL64&amp;"]"</f>
+        <v>[]</v>
+      </c>
+      <c r="AQ64" t="str">
+        <f t="shared" ref="AQ64:AQ66" si="71">AM64&amp;AN64&amp;AO64&amp;"]"</f>
+        <v>[]</v>
+      </c>
+      <c r="AR64" s="8"/>
+      <c r="AS64" s="8"/>
       <c r="BE64" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -9861,25 +9917,46 @@
       </c>
       <c r="D65" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="I65" s="3"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
+      <c r="J65" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="L65" s="10"/>
       <c r="M65" s="10"/>
-      <c r="N65" s="4"/>
+      <c r="N65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T65" s="2" t="s">
+        <v>298</v>
+      </c>
       <c r="V65" s="9" t="str">
         <f t="shared" si="61"/>
-        <v>[</v>
+        <v>[required('A')</v>
       </c>
       <c r="Z65" t="str">
         <f t="shared" si="7"/>
-        <v>[]</v>
+        <v>[required('A')]</v>
       </c>
       <c r="AA65" s="8" t="str">
         <f t="shared" si="62"/>
-        <v>[</v>
+        <v>['O'</v>
       </c>
       <c r="AB65" t="str">
         <f t="shared" si="56"/>
@@ -9891,11 +9968,11 @@
       </c>
       <c r="AD65" t="str">
         <f t="shared" si="58"/>
-        <v>[]</v>
+        <v>['O']</v>
       </c>
       <c r="AE65" t="str">
         <f t="shared" si="59"/>
-        <v/>
+        <v>section(imgadd, 'CV').&lt;&gt;subsection(imgadd, 'combining').&lt;&gt;description(imgadd, 'Ox = (Ax+Bx), for each channel x in the image (r,g,b, or grey)').&lt;&gt;visual_style(imgadd,  normal</v>
       </c>
       <c r="AF65" t="str">
         <f t="shared" si="13"/>
@@ -9907,11 +9984,49 @@
       </c>
       <c r="AH65" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
+        <v>&lt;&gt;%  ===== imgadd ===========&lt;&gt;section(imgadd, 'CV').&lt;&gt;subsection(imgadd, 'combining').&lt;&gt;description(imgadd, 'Ox = (Ax+Bx), for each channel x in the image (r,g,b, or grey)').&lt;&gt;visual_style(imgadd,  normal).&lt;&gt;inputs(imgadd, [required('A')]).&lt;&gt;outputs(imgadd, ['O']).&lt;&gt;input_types(imgadd, [image, image]).&lt;&gt;output_types(imgadd, [image]).&lt;&gt;</v>
+      </c>
+      <c r="AI65" t="str">
+        <f t="shared" si="63"/>
+        <v>[image</v>
+      </c>
+      <c r="AJ65" t="str">
+        <f t="shared" si="64"/>
+        <v>, image</v>
+      </c>
+      <c r="AK65" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="AL65" s="11" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="AM65" t="str">
+        <f t="shared" si="67"/>
+        <v>[image</v>
+      </c>
+      <c r="AN65" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+      <c r="AO65" s="11" t="str">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="AP65" t="str">
+        <f t="shared" si="70"/>
+        <v>[image, image]</v>
+      </c>
+      <c r="AQ65" t="str">
+        <f t="shared" si="71"/>
+        <v>[image]</v>
+      </c>
+      <c r="AR65" s="8"/>
+      <c r="AS65" s="8"/>
       <c r="BE65" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>&lt;&gt;%  ===== imgadd ===========&lt;&gt;section(imgadd, 'CV').&lt;&gt;subsection(imgadd, 'combining').&lt;&gt;description(imgadd, 'Ox = (Ax+Bx), for each channel x in the image (r,g,b, or grey)').&lt;&gt;visual_style(imgadd,  normal).&lt;&gt;inputs(imgadd, [required('A')]).&lt;&gt;outputs(imgadd, ['O']).&lt;&gt;input_types(imgadd, [image, image]).&lt;&gt;output_types(imgadd, [image]).&lt;&gt;</v>
       </c>
     </row>
     <row r="66" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9921,25 +10036,46 @@
       </c>
       <c r="D66" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="I66" s="3"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
+      <c r="J66" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
-      <c r="N66" s="4"/>
+      <c r="N66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="V66" s="9" t="str">
         <f t="shared" si="61"/>
-        <v>[</v>
+        <v>[required('A')</v>
       </c>
       <c r="Z66" t="str">
         <f t="shared" si="7"/>
-        <v>[]</v>
+        <v>[required('A')]</v>
       </c>
       <c r="AA66" s="8" t="str">
         <f t="shared" si="62"/>
-        <v>[</v>
+        <v>['O'</v>
       </c>
       <c r="AB66" t="str">
         <f t="shared" si="56"/>
@@ -9951,11 +10087,11 @@
       </c>
       <c r="AD66" t="str">
         <f t="shared" si="58"/>
-        <v>[]</v>
+        <v>['O']</v>
       </c>
       <c r="AE66" t="str">
         <f t="shared" si="59"/>
-        <v/>
+        <v>section(imgmax, 'CV').&lt;&gt;subsection(imgmax, 'combining').&lt;&gt;description(imgmax, 'takes the channel values from whichever image has R+G+B greatest').&lt;&gt;visual_style(imgmax,  normal</v>
       </c>
       <c r="AF66" t="str">
         <f t="shared" si="13"/>
@@ -9967,11 +10103,49 @@
       </c>
       <c r="AH66" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
+        <v>&lt;&gt;%  ===== imgmax ===========&lt;&gt;section(imgmax, 'CV').&lt;&gt;subsection(imgmax, 'combining').&lt;&gt;description(imgmax, 'takes the channel values from whichever image has R+G+B greatest').&lt;&gt;visual_style(imgmax,  normal).&lt;&gt;inputs(imgmax, [required('A')]).&lt;&gt;outputs(imgmax, ['O']).&lt;&gt;input_types(imgmax, [image, image]).&lt;&gt;output_types(imgmax, [image]).&lt;&gt;</v>
+      </c>
+      <c r="AI66" t="str">
+        <f t="shared" si="63"/>
+        <v>[image</v>
+      </c>
+      <c r="AJ66" t="str">
+        <f t="shared" si="64"/>
+        <v>, image</v>
+      </c>
+      <c r="AK66" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="AL66" s="11" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="AM66" t="str">
+        <f t="shared" si="67"/>
+        <v>[image</v>
+      </c>
+      <c r="AN66" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+      <c r="AO66" s="11" t="str">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="AP66" t="str">
+        <f t="shared" si="70"/>
+        <v>[image, image]</v>
+      </c>
+      <c r="AQ66" t="str">
+        <f t="shared" si="71"/>
+        <v>[image]</v>
+      </c>
+      <c r="AR66" s="8"/>
+      <c r="AS66" s="8"/>
       <c r="BE66" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>&lt;&gt;%  ===== imgmax ===========&lt;&gt;section(imgmax, 'CV').&lt;&gt;subsection(imgmax, 'combining').&lt;&gt;description(imgmax, 'takes the channel values from whichever image has R+G+B greatest').&lt;&gt;visual_style(imgmax,  normal).&lt;&gt;inputs(imgmax, [required('A')]).&lt;&gt;outputs(imgmax, ['O']).&lt;&gt;input_types(imgmax, [image, image]).&lt;&gt;output_types(imgmax, [image]).&lt;&gt;</v>
       </c>
     </row>
     <row r="67" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9981,7 +10155,7 @@
       </c>
       <c r="D67" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="10"/>
@@ -10029,6 +10203,10 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
+      <c r="AM67" t="str">
+        <f t="shared" si="67"/>
+        <v>[</v>
+      </c>
       <c r="BE67" t="str">
         <f t="shared" si="24"/>
         <v/>
@@ -10041,7 +10219,7 @@
       </c>
       <c r="D68" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="10"/>
@@ -10086,11 +10264,11 @@
         <v>23</v>
       </c>
       <c r="AH68" t="str">
-        <f t="shared" ref="AH68:AH109" si="63">IF(ISBLANK(E68),"","&lt;&gt;%  ===== "&amp;E68&amp;" ===========&lt;&gt;"&amp;AE68&amp;").&lt;&gt;inputs("&amp;E68&amp;", "&amp;Z68&amp;").&lt;&gt;outputs("&amp;E68&amp;", "&amp;AD68&amp;").&lt;&gt;input_types("&amp;E68&amp;", "&amp;AP68&amp;").&lt;&gt;output_types("&amp;E68&amp;", "&amp;AQ68&amp;").&lt;&gt;"&amp;IF(OR(ISBLANK(E68),ISBLANK(BB68)),"","image_name("&amp;E68&amp;", '/img/blocks/"&amp;BB68&amp;"').&lt;&gt;"))</f>
+        <f t="shared" ref="AH68:AH109" si="72">IF(ISBLANK(E68),"","&lt;&gt;%  ===== "&amp;E68&amp;" ===========&lt;&gt;"&amp;AE68&amp;").&lt;&gt;inputs("&amp;E68&amp;", "&amp;Z68&amp;").&lt;&gt;outputs("&amp;E68&amp;", "&amp;AD68&amp;").&lt;&gt;input_types("&amp;E68&amp;", "&amp;AP68&amp;").&lt;&gt;output_types("&amp;E68&amp;", "&amp;AQ68&amp;").&lt;&gt;"&amp;IF(OR(ISBLANK(E68),ISBLANK(BB68)),"","image_name("&amp;E68&amp;", '/img/blocks/"&amp;BB68&amp;"').&lt;&gt;"))</f>
         <v/>
       </c>
       <c r="BE68" t="str">
-        <f t="shared" ref="BE68:BE109" si="64">AH68&amp;IF(OR(ISBLANK(E68),ISBLANK(BC68)), "", "prototype_coordinates("&amp;E68&amp;", "&amp;BC68&amp;", "&amp;BD68&amp;").&lt;&gt;icon_size("&amp;E68&amp;", "&amp;AZ68&amp;", "&amp;BA68&amp;").&lt;&gt;")</f>
+        <f t="shared" ref="BE68:BE109" si="73">AH68&amp;IF(OR(ISBLANK(E68),ISBLANK(BC68)), "", "prototype_coordinates("&amp;E68&amp;", "&amp;BC68&amp;", "&amp;BD68&amp;").&lt;&gt;icon_size("&amp;E68&amp;", "&amp;AZ68&amp;", "&amp;BA68&amp;").&lt;&gt;")</f>
         <v/>
       </c>
     </row>
@@ -10101,7 +10279,7 @@
       </c>
       <c r="D69" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="10"/>
@@ -10146,11 +10324,11 @@
         <v>23</v>
       </c>
       <c r="AH69" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE69" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
@@ -10161,7 +10339,7 @@
       </c>
       <c r="D70" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="10"/>
@@ -10206,11 +10384,11 @@
         <v>23</v>
       </c>
       <c r="AH70" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE70" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
@@ -10221,7 +10399,7 @@
       </c>
       <c r="D71" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="10"/>
@@ -10266,11 +10444,11 @@
         <v>23</v>
       </c>
       <c r="AH71" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE71" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
@@ -10281,7 +10459,7 @@
       </c>
       <c r="D72" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="10"/>
@@ -10326,11 +10504,11 @@
         <v>23</v>
       </c>
       <c r="AH72" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE72" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
@@ -10341,7 +10519,7 @@
       </c>
       <c r="D73" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="10"/>
@@ -10386,11 +10564,11 @@
         <v>23</v>
       </c>
       <c r="AH73" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE73" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
@@ -10401,7 +10579,7 @@
       </c>
       <c r="D74" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="10"/>
@@ -10446,11 +10624,11 @@
         <v>23</v>
       </c>
       <c r="AH74" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE74" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
@@ -10461,7 +10639,7 @@
       </c>
       <c r="D75" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="10"/>
@@ -10506,11 +10684,11 @@
         <v>23</v>
       </c>
       <c r="AH75" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE75" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
@@ -10521,7 +10699,7 @@
       </c>
       <c r="D76" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="10"/>
@@ -10566,11 +10744,11 @@
         <v>23</v>
       </c>
       <c r="AH76" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE76" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
@@ -10581,7 +10759,7 @@
       </c>
       <c r="D77" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="10"/>
@@ -10594,7 +10772,7 @@
         <v>[</v>
       </c>
       <c r="Z77" t="str">
-        <f t="shared" ref="Z77:Z109" si="65">V77&amp;W77&amp;X77&amp;"]"</f>
+        <f t="shared" ref="Z77:Z109" si="74">V77&amp;W77&amp;X77&amp;"]"</f>
         <v>[]</v>
       </c>
       <c r="AA77" s="8" t="str">
@@ -10618,7 +10796,7 @@
         <v/>
       </c>
       <c r="AF77" t="str">
-        <f t="shared" ref="AF77:AF109" si="66">"visual_style"&amp;AG77</f>
+        <f t="shared" ref="AF77:AF109" si="75">"visual_style"&amp;AG77</f>
         <v>visual_style23</v>
       </c>
       <c r="AG77">
@@ -10626,11 +10804,11 @@
         <v>23</v>
       </c>
       <c r="AH77" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE77" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
@@ -10641,7 +10819,7 @@
       </c>
       <c r="D78" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="10"/>
@@ -10654,7 +10832,7 @@
         <v>[</v>
       </c>
       <c r="Z78" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA78" s="8" t="str">
@@ -10678,7 +10856,7 @@
         <v/>
       </c>
       <c r="AF78" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG78">
@@ -10686,11 +10864,11 @@
         <v>23</v>
       </c>
       <c r="AH78" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE78" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
@@ -10701,7 +10879,7 @@
       </c>
       <c r="D79" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="10"/>
@@ -10714,7 +10892,7 @@
         <v>[</v>
       </c>
       <c r="Z79" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA79" s="8" t="str">
@@ -10738,7 +10916,7 @@
         <v/>
       </c>
       <c r="AF79" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG79">
@@ -10746,11 +10924,11 @@
         <v>23</v>
       </c>
       <c r="AH79" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE79" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
@@ -10761,7 +10939,7 @@
       </c>
       <c r="D80" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="10"/>
@@ -10774,7 +10952,7 @@
         <v>[</v>
       </c>
       <c r="Z80" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA80" s="8" t="str">
@@ -10798,7 +10976,7 @@
         <v/>
       </c>
       <c r="AF80" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG80">
@@ -10806,11 +10984,11 @@
         <v>23</v>
       </c>
       <c r="AH80" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE80" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
@@ -10821,7 +10999,7 @@
       </c>
       <c r="D81" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="10"/>
@@ -10834,7 +11012,7 @@
         <v>[</v>
       </c>
       <c r="Z81" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA81" s="8" t="str">
@@ -10858,7 +11036,7 @@
         <v/>
       </c>
       <c r="AF81" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG81">
@@ -10866,11 +11044,11 @@
         <v>23</v>
       </c>
       <c r="AH81" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE81" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
@@ -10881,7 +11059,7 @@
       </c>
       <c r="D82" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
       </c>
       <c r="I82" s="3"/>
       <c r="J82" s="10"/>
@@ -10894,7 +11072,7 @@
         <v>[</v>
       </c>
       <c r="Z82" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA82" s="8" t="str">
@@ -10918,7 +11096,7 @@
         <v/>
       </c>
       <c r="AF82" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG82">
@@ -10926,11 +11104,11 @@
         <v>23</v>
       </c>
       <c r="AH82" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE82" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
@@ -10941,7 +11119,7 @@
       </c>
       <c r="D83" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="10"/>
@@ -10954,7 +11132,7 @@
         <v>[</v>
       </c>
       <c r="Z83" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA83" s="8" t="str">
@@ -10978,7 +11156,7 @@
         <v/>
       </c>
       <c r="AF83" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG83">
@@ -10986,11 +11164,11 @@
         <v>23</v>
       </c>
       <c r="AH83" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE83" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
@@ -11001,7 +11179,7 @@
       </c>
       <c r="D84" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="10"/>
@@ -11014,7 +11192,7 @@
         <v>[</v>
       </c>
       <c r="Z84" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA84" s="8" t="str">
@@ -11038,7 +11216,7 @@
         <v/>
       </c>
       <c r="AF84" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG84">
@@ -11046,11 +11224,11 @@
         <v>23</v>
       </c>
       <c r="AH84" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE84" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
@@ -11061,7 +11239,7 @@
       </c>
       <c r="D85" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="10"/>
@@ -11074,7 +11252,7 @@
         <v>[</v>
       </c>
       <c r="Z85" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA85" s="8" t="str">
@@ -11098,7 +11276,7 @@
         <v/>
       </c>
       <c r="AF85" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG85">
@@ -11106,11 +11284,11 @@
         <v>23</v>
       </c>
       <c r="AH85" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE85" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
@@ -11121,7 +11299,7 @@
       </c>
       <c r="D86" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="10"/>
@@ -11134,7 +11312,7 @@
         <v>[</v>
       </c>
       <c r="Z86" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA86" s="8" t="str">
@@ -11158,7 +11336,7 @@
         <v/>
       </c>
       <c r="AF86" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG86">
@@ -11166,11 +11344,11 @@
         <v>23</v>
       </c>
       <c r="AH86" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE86" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
@@ -11181,7 +11359,7 @@
       </c>
       <c r="D87" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="10"/>
@@ -11194,7 +11372,7 @@
         <v>[</v>
       </c>
       <c r="Z87" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA87" s="8" t="str">
@@ -11218,7 +11396,7 @@
         <v/>
       </c>
       <c r="AF87" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG87">
@@ -11226,11 +11404,11 @@
         <v>23</v>
       </c>
       <c r="AH87" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE87" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
@@ -11241,7 +11419,7 @@
       </c>
       <c r="D88" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="10"/>
@@ -11254,7 +11432,7 @@
         <v>[</v>
       </c>
       <c r="Z88" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA88" s="8" t="str">
@@ -11278,7 +11456,7 @@
         <v/>
       </c>
       <c r="AF88" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG88">
@@ -11286,11 +11464,11 @@
         <v>23</v>
       </c>
       <c r="AH88" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE88" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
@@ -11301,7 +11479,7 @@
       </c>
       <c r="D89" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>FrequencyDomain</v>
+        <v>combining</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="10"/>
@@ -11314,7 +11492,7 @@
         <v>[</v>
       </c>
       <c r="Z89" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA89" s="8" t="str">
@@ -11338,7 +11516,7 @@
         <v/>
       </c>
       <c r="AF89" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG89">
@@ -11346,22 +11524,22 @@
         <v>23</v>
       </c>
       <c r="AH89" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE89" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="str">
-        <f t="shared" ref="C90:C109" si="67">IF(ISBLANK(A90),C89,A90)</f>
+        <f t="shared" ref="C90:C109" si="76">IF(ISBLANK(A90),C89,A90)</f>
         <v>CV</v>
       </c>
       <c r="D90" s="1" t="str">
-        <f t="shared" ref="D90:D109" si="68">IF(NOT(ISBLANK(B90)), B90, IF(ISBLANK(A90), D89,A90))</f>
-        <v>FrequencyDomain</v>
+        <f t="shared" ref="D90:D109" si="77">IF(NOT(ISBLANK(B90)), B90, IF(ISBLANK(A90), D89,A90))</f>
+        <v>combining</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="10"/>
@@ -11374,7 +11552,7 @@
         <v>[</v>
       </c>
       <c r="Z90" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA90" s="8" t="str">
@@ -11398,7 +11576,7 @@
         <v/>
       </c>
       <c r="AF90" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG90">
@@ -11406,22 +11584,22 @@
         <v>23</v>
       </c>
       <c r="AH90" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE90" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>CV</v>
       </c>
       <c r="D91" s="1" t="str">
-        <f t="shared" si="68"/>
-        <v>FrequencyDomain</v>
+        <f t="shared" si="77"/>
+        <v>combining</v>
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="10"/>
@@ -11434,7 +11612,7 @@
         <v>[</v>
       </c>
       <c r="Z91" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA91" s="8" t="str">
@@ -11458,7 +11636,7 @@
         <v/>
       </c>
       <c r="AF91" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG91">
@@ -11466,22 +11644,22 @@
         <v>23</v>
       </c>
       <c r="AH91" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE91" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>CV</v>
       </c>
       <c r="D92" s="1" t="str">
-        <f t="shared" si="68"/>
-        <v>FrequencyDomain</v>
+        <f t="shared" si="77"/>
+        <v>combining</v>
       </c>
       <c r="I92" s="3"/>
       <c r="J92" s="10"/>
@@ -11494,7 +11672,7 @@
         <v>[</v>
       </c>
       <c r="Z92" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA92" s="8" t="str">
@@ -11518,7 +11696,7 @@
         <v/>
       </c>
       <c r="AF92" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG92">
@@ -11526,22 +11704,22 @@
         <v>23</v>
       </c>
       <c r="AH92" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE92" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>CV</v>
       </c>
       <c r="D93" s="1" t="str">
-        <f t="shared" si="68"/>
-        <v>FrequencyDomain</v>
+        <f t="shared" si="77"/>
+        <v>combining</v>
       </c>
       <c r="I93" s="3"/>
       <c r="J93" s="10"/>
@@ -11554,7 +11732,7 @@
         <v>[</v>
       </c>
       <c r="Z93" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA93" s="8" t="str">
@@ -11578,7 +11756,7 @@
         <v/>
       </c>
       <c r="AF93" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG93">
@@ -11586,22 +11764,22 @@
         <v>23</v>
       </c>
       <c r="AH93" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE93" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>CV</v>
       </c>
       <c r="D94" s="1" t="str">
-        <f t="shared" si="68"/>
-        <v>FrequencyDomain</v>
+        <f t="shared" si="77"/>
+        <v>combining</v>
       </c>
       <c r="I94" s="3"/>
       <c r="J94" s="10"/>
@@ -11614,7 +11792,7 @@
         <v>[</v>
       </c>
       <c r="Z94" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA94" s="8" t="str">
@@ -11638,7 +11816,7 @@
         <v/>
       </c>
       <c r="AF94" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG94">
@@ -11646,22 +11824,22 @@
         <v>23</v>
       </c>
       <c r="AH94" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE94" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>CV</v>
       </c>
       <c r="D95" s="1" t="str">
-        <f t="shared" si="68"/>
-        <v>FrequencyDomain</v>
+        <f t="shared" si="77"/>
+        <v>combining</v>
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="10"/>
@@ -11674,7 +11852,7 @@
         <v>[</v>
       </c>
       <c r="Z95" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA95" s="8" t="str">
@@ -11698,7 +11876,7 @@
         <v/>
       </c>
       <c r="AF95" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG95">
@@ -11706,22 +11884,22 @@
         <v>23</v>
       </c>
       <c r="AH95" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE95" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>CV</v>
       </c>
       <c r="D96" s="1" t="str">
-        <f t="shared" si="68"/>
-        <v>FrequencyDomain</v>
+        <f t="shared" si="77"/>
+        <v>combining</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="10"/>
@@ -11734,7 +11912,7 @@
         <v>[</v>
       </c>
       <c r="Z96" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA96" s="8" t="str">
@@ -11758,7 +11936,7 @@
         <v/>
       </c>
       <c r="AF96" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG96">
@@ -11766,22 +11944,22 @@
         <v>23</v>
       </c>
       <c r="AH96" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE96" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>CV</v>
       </c>
       <c r="D97" s="1" t="str">
-        <f t="shared" si="68"/>
-        <v>FrequencyDomain</v>
+        <f t="shared" si="77"/>
+        <v>combining</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="10"/>
@@ -11794,7 +11972,7 @@
         <v>[</v>
       </c>
       <c r="Z97" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA97" s="8" t="str">
@@ -11818,7 +11996,7 @@
         <v/>
       </c>
       <c r="AF97" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG97">
@@ -11826,22 +12004,22 @@
         <v>23</v>
       </c>
       <c r="AH97" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE97" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>CV</v>
       </c>
       <c r="D98" s="1" t="str">
-        <f t="shared" si="68"/>
-        <v>FrequencyDomain</v>
+        <f t="shared" si="77"/>
+        <v>combining</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="10"/>
@@ -11854,7 +12032,7 @@
         <v>[</v>
       </c>
       <c r="Z98" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA98" s="8" t="str">
@@ -11878,7 +12056,7 @@
         <v/>
       </c>
       <c r="AF98" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG98">
@@ -11886,22 +12064,22 @@
         <v>23</v>
       </c>
       <c r="AH98" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE98" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>CV</v>
       </c>
       <c r="D99" s="1" t="str">
-        <f t="shared" si="68"/>
-        <v>FrequencyDomain</v>
+        <f t="shared" si="77"/>
+        <v>combining</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="10"/>
@@ -11914,7 +12092,7 @@
         <v>[</v>
       </c>
       <c r="Z99" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA99" s="8" t="str">
@@ -11938,7 +12116,7 @@
         <v/>
       </c>
       <c r="AF99" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG99">
@@ -11946,22 +12124,22 @@
         <v>23</v>
       </c>
       <c r="AH99" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE99" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>CV</v>
       </c>
       <c r="D100" s="1" t="str">
-        <f t="shared" si="68"/>
-        <v>FrequencyDomain</v>
+        <f t="shared" si="77"/>
+        <v>combining</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="10"/>
@@ -11974,7 +12152,7 @@
         <v>[</v>
       </c>
       <c r="Z100" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA100" s="8" t="str">
@@ -11998,7 +12176,7 @@
         <v/>
       </c>
       <c r="AF100" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG100">
@@ -12006,22 +12184,22 @@
         <v>23</v>
       </c>
       <c r="AH100" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE100" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>CV</v>
       </c>
       <c r="D101" s="1" t="str">
-        <f t="shared" si="68"/>
-        <v>FrequencyDomain</v>
+        <f t="shared" si="77"/>
+        <v>combining</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="10"/>
@@ -12034,7 +12212,7 @@
         <v>[</v>
       </c>
       <c r="Z101" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA101" s="8" t="str">
@@ -12058,7 +12236,7 @@
         <v/>
       </c>
       <c r="AF101" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG101">
@@ -12066,22 +12244,22 @@
         <v>23</v>
       </c>
       <c r="AH101" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE101" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>CV</v>
       </c>
       <c r="D102" s="1" t="str">
-        <f t="shared" si="68"/>
-        <v>FrequencyDomain</v>
+        <f t="shared" si="77"/>
+        <v>combining</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="10"/>
@@ -12094,7 +12272,7 @@
         <v>[</v>
       </c>
       <c r="Z102" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA102" s="8" t="str">
@@ -12118,7 +12296,7 @@
         <v/>
       </c>
       <c r="AF102" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG102">
@@ -12126,22 +12304,22 @@
         <v>23</v>
       </c>
       <c r="AH102" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE102" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="1" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>CV</v>
       </c>
       <c r="D103" s="1" t="str">
-        <f t="shared" si="68"/>
-        <v>FrequencyDomain</v>
+        <f t="shared" si="77"/>
+        <v>combining</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="10"/>
@@ -12154,7 +12332,7 @@
         <v>[</v>
       </c>
       <c r="Z103" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA103" s="8" t="str">
@@ -12178,7 +12356,7 @@
         <v/>
       </c>
       <c r="AF103" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG103">
@@ -12186,22 +12364,22 @@
         <v>23</v>
       </c>
       <c r="AH103" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE103" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="1" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>CV</v>
       </c>
       <c r="D104" s="1" t="str">
-        <f t="shared" si="68"/>
-        <v>FrequencyDomain</v>
+        <f t="shared" si="77"/>
+        <v>combining</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="10"/>
@@ -12214,7 +12392,7 @@
         <v>[</v>
       </c>
       <c r="Z104" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA104" s="8" t="str">
@@ -12238,7 +12416,7 @@
         <v/>
       </c>
       <c r="AF104" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG104">
@@ -12246,22 +12424,22 @@
         <v>23</v>
       </c>
       <c r="AH104" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE104" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="1" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>CV</v>
       </c>
       <c r="D105" s="1" t="str">
-        <f t="shared" si="68"/>
-        <v>FrequencyDomain</v>
+        <f t="shared" si="77"/>
+        <v>combining</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="10"/>
@@ -12274,7 +12452,7 @@
         <v>[</v>
       </c>
       <c r="Z105" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA105" s="8" t="str">
@@ -12298,7 +12476,7 @@
         <v/>
       </c>
       <c r="AF105" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG105">
@@ -12306,22 +12484,22 @@
         <v>23</v>
       </c>
       <c r="AH105" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE105" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="1" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>CV</v>
       </c>
       <c r="D106" s="1" t="str">
-        <f t="shared" si="68"/>
-        <v>FrequencyDomain</v>
+        <f t="shared" si="77"/>
+        <v>combining</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="10"/>
@@ -12334,7 +12512,7 @@
         <v>[</v>
       </c>
       <c r="Z106" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA106" s="8" t="str">
@@ -12358,7 +12536,7 @@
         <v/>
       </c>
       <c r="AF106" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG106">
@@ -12366,22 +12544,22 @@
         <v>23</v>
       </c>
       <c r="AH106" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE106" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="1" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>CV</v>
       </c>
       <c r="D107" s="1" t="str">
-        <f t="shared" si="68"/>
-        <v>FrequencyDomain</v>
+        <f t="shared" si="77"/>
+        <v>combining</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="10"/>
@@ -12394,7 +12572,7 @@
         <v>[</v>
       </c>
       <c r="Z107" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA107" s="8" t="str">
@@ -12418,7 +12596,7 @@
         <v/>
       </c>
       <c r="AF107" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG107">
@@ -12426,22 +12604,22 @@
         <v>23</v>
       </c>
       <c r="AH107" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE107" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="1" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>CV</v>
       </c>
       <c r="D108" s="1" t="str">
-        <f t="shared" si="68"/>
-        <v>FrequencyDomain</v>
+        <f t="shared" si="77"/>
+        <v>combining</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="10"/>
@@ -12454,7 +12632,7 @@
         <v>[</v>
       </c>
       <c r="Z108" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA108" s="8" t="str">
@@ -12478,7 +12656,7 @@
         <v/>
       </c>
       <c r="AF108" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG108">
@@ -12486,22 +12664,22 @@
         <v>23</v>
       </c>
       <c r="AH108" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE108" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="3:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="1" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>CV</v>
       </c>
       <c r="D109" s="1" t="str">
-        <f t="shared" si="68"/>
-        <v>FrequencyDomain</v>
+        <f t="shared" si="77"/>
+        <v>combining</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="10"/>
@@ -12514,7 +12692,7 @@
         <v>[</v>
       </c>
       <c r="Z109" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>[]</v>
       </c>
       <c r="AA109" s="8" t="str">
@@ -12538,7 +12716,7 @@
         <v/>
       </c>
       <c r="AF109" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>visual_style23</v>
       </c>
       <c r="AG109">
@@ -12546,11 +12724,11 @@
         <v>23</v>
       </c>
       <c r="AH109" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="BE109" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
     </row>

--- a/doc/flo/Blocks.xlsx
+++ b/doc/flo/Blocks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="555" windowWidth="12135" windowHeight="7770" tabRatio="842"/>
+    <workbookView xWindow="270" yWindow="555" windowWidth="12135" windowHeight="7350" tabRatio="842"/>
   </bookViews>
   <sheets>
     <sheet name="BlockTypes" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="311">
   <si>
     <t>Block Types</t>
   </si>
@@ -920,6 +920,36 @@
   </si>
   <si>
     <t>takes the channel values from whichever image has R+G+B greatest</t>
+  </si>
+  <si>
+    <t>% = FloFlipFlop.newFlipFlop();</t>
+  </si>
+  <si>
+    <t>FloRT.if($Cond, $A, $B, #O);</t>
+  </si>
+  <si>
+    <t>%.pulse(#O);</t>
+  </si>
+  <si>
+    <t>FloRT.isolate($A, $Default, #O);</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>% = FloInput($Name);</t>
+  </si>
+  <si>
+    <t>FloRT.input(%, #O);</t>
+  </si>
+  <si>
+    <t>% = FloOutput($Name);</t>
+  </si>
+  <si>
+    <t>FloRT.output($A, %, $Name);</t>
+  </si>
+  <si>
+    <t>Formula</t>
   </si>
 </sst>
 </file>
@@ -1427,12 +1457,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9000" ySplit="540" topLeftCell="AH46" activePane="bottomLeft"/>
-      <selection activeCell="AH1" sqref="AH1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="11835" ySplit="495" topLeftCell="AS1" activePane="bottomLeft"/>
+      <selection activeCell="AT43" sqref="AT43"/>
       <selection pane="topRight" activeCell="BE1" sqref="BE1"/>
-      <selection pane="bottomLeft" activeCell="T67" sqref="T67"/>
-      <selection pane="bottomRight" activeCell="AH58" sqref="AH58"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="AS11" sqref="AS11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1463,7 +1493,7 @@
     <col min="40" max="40" width="8.5703125" customWidth="1"/>
     <col min="41" max="41" width="9.42578125" style="11" customWidth="1"/>
     <col min="42" max="42" width="24" customWidth="1"/>
-    <col min="45" max="45" width="23.7109375" customWidth="1"/>
+    <col min="45" max="45" width="29.28515625" customWidth="1"/>
     <col min="46" max="46" width="87.7109375" customWidth="1"/>
     <col min="54" max="54" width="21.28515625" customWidth="1"/>
     <col min="57" max="57" width="41.28515625" customWidth="1"/>
@@ -1687,7 +1717,7 @@
         <v>[object]</v>
       </c>
       <c r="AT3" t="s">
-        <v>170</v>
+        <v>302</v>
       </c>
       <c r="AW3">
         <v>0</v>
@@ -1848,7 +1878,7 @@
         <v>[object]</v>
       </c>
       <c r="AT4" t="s">
-        <v>167</v>
+        <v>302</v>
       </c>
       <c r="AW4">
         <v>0</v>
@@ -2003,8 +2033,11 @@
         <f t="shared" si="23"/>
         <v>[int]</v>
       </c>
-      <c r="AS5">
-        <v>1</v>
+      <c r="AS5" t="s">
+        <v>301</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>303</v>
       </c>
       <c r="BB5" t="s">
         <v>272</v>
@@ -2255,8 +2288,8 @@
         <f t="shared" si="23"/>
         <v>[object]</v>
       </c>
-      <c r="AS7">
-        <v>1</v>
+      <c r="AT7" t="s">
+        <v>304</v>
       </c>
       <c r="AW7">
         <v>0</v>
@@ -2299,8 +2332,13 @@
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="10"/>
+      <c r="J8" s="10" t="s">
+        <v>162</v>
+      </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -2318,7 +2356,7 @@
       </c>
       <c r="V8" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>[</v>
+        <v>[required('Name')</v>
       </c>
       <c r="W8" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2334,7 +2372,7 @@
       </c>
       <c r="Z8" t="str">
         <f t="shared" si="7"/>
-        <v>[]</v>
+        <v>[required('Name')]</v>
       </c>
       <c r="AA8" s="1" t="str">
         <f t="shared" si="8"/>
@@ -2366,11 +2404,11 @@
       </c>
       <c r="AH8" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== inputparam ===========&lt;&gt;section(inputparam, 'Editor Support').&lt;&gt;subsection(inputparam, 'Editor Support').&lt;&gt;description(inputparam, 'used when defining new blocks').&lt;&gt;visual_style(inputparam,  visual_style0).&lt;&gt;inputs(inputparam, []).&lt;&gt;outputs(inputparam, ['O']).&lt;&gt;input_types(inputparam, []).&lt;&gt;output_types(inputparam, [object]).&lt;&gt;image_name(inputparam, '/img/blocks/blocksheet0-_15.png').&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== inputparam ===========&lt;&gt;section(inputparam, 'Editor Support').&lt;&gt;subsection(inputparam, 'Editor Support').&lt;&gt;description(inputparam, 'used when defining new blocks').&lt;&gt;visual_style(inputparam,  visual_style0).&lt;&gt;inputs(inputparam, [required('Name')]).&lt;&gt;outputs(inputparam, ['O']).&lt;&gt;input_types(inputparam, [string]).&lt;&gt;output_types(inputparam, [object]).&lt;&gt;image_name(inputparam, '/img/blocks/blocksheet0-_15.png').&lt;&gt;</v>
       </c>
       <c r="AI8" t="str">
         <f t="shared" si="15"/>
-        <v>[</v>
+        <v>[string</v>
       </c>
       <c r="AJ8" t="str">
         <f t="shared" si="16"/>
@@ -2398,12 +2436,18 @@
       </c>
       <c r="AP8" t="str">
         <f t="shared" si="22"/>
-        <v>[]</v>
+        <v>[string]</v>
       </c>
       <c r="AQ8" t="str">
         <f t="shared" si="23"/>
         <v>[object]</v>
       </c>
+      <c r="AS8" t="s">
+        <v>306</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>307</v>
+      </c>
       <c r="AU8">
         <v>1</v>
       </c>
@@ -2433,7 +2477,7 @@
       </c>
       <c r="BE8" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== inputparam ===========&lt;&gt;section(inputparam, 'Editor Support').&lt;&gt;subsection(inputparam, 'Editor Support').&lt;&gt;description(inputparam, 'used when defining new blocks').&lt;&gt;visual_style(inputparam,  visual_style0).&lt;&gt;inputs(inputparam, []).&lt;&gt;outputs(inputparam, ['O']).&lt;&gt;input_types(inputparam, []).&lt;&gt;output_types(inputparam, [object]).&lt;&gt;image_name(inputparam, '/img/blocks/blocksheet0-_15.png').&lt;&gt;prototype_coordinates(inputparam, 22, 4).&lt;&gt;icon_size(inputparam, 1, 1).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== inputparam ===========&lt;&gt;section(inputparam, 'Editor Support').&lt;&gt;subsection(inputparam, 'Editor Support').&lt;&gt;description(inputparam, 'used when defining new blocks').&lt;&gt;visual_style(inputparam,  visual_style0).&lt;&gt;inputs(inputparam, [required('Name')]).&lt;&gt;outputs(inputparam, ['O']).&lt;&gt;input_types(inputparam, [string]).&lt;&gt;output_types(inputparam, [object]).&lt;&gt;image_name(inputparam, '/img/blocks/blocksheet0-_15.png').&lt;&gt;prototype_coordinates(inputparam, 22, 4).&lt;&gt;icon_size(inputparam, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2451,11 +2495,16 @@
       <c r="F9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="G9" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="K9" s="10"/>
+      <c r="K9" s="10" t="s">
+        <v>162</v>
+      </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="4"/>
@@ -2471,7 +2520,7 @@
       </c>
       <c r="W9" s="9" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>, required('Name')</v>
       </c>
       <c r="X9" s="9" t="str">
         <f t="shared" si="5"/>
@@ -2483,7 +2532,7 @@
       </c>
       <c r="Z9" t="str">
         <f t="shared" si="7"/>
-        <v>[required('A')]</v>
+        <v>[required('A'), required('Name')]</v>
       </c>
       <c r="AA9" s="1" t="str">
         <f t="shared" si="8"/>
@@ -2515,7 +2564,7 @@
       </c>
       <c r="AH9" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== outputparam ===========&lt;&gt;section(outputparam, 'Editor Support').&lt;&gt;subsection(outputparam, 'Editor Support').&lt;&gt;description(outputparam, 'used when defining new blocks').&lt;&gt;visual_style(outputparam,  visual_style1).&lt;&gt;inputs(outputparam, [required('A')]).&lt;&gt;outputs(outputparam, []).&lt;&gt;input_types(outputparam, [object]).&lt;&gt;output_types(outputparam, []).&lt;&gt;image_name(outputparam, '/img/blocks/blocksheet0-_29.png').&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== outputparam ===========&lt;&gt;section(outputparam, 'Editor Support').&lt;&gt;subsection(outputparam, 'Editor Support').&lt;&gt;description(outputparam, 'used when defining new blocks').&lt;&gt;visual_style(outputparam,  visual_style1).&lt;&gt;inputs(outputparam, [required('A'), required('Name')]).&lt;&gt;outputs(outputparam, []).&lt;&gt;input_types(outputparam, [object, string]).&lt;&gt;output_types(outputparam, []).&lt;&gt;image_name(outputparam, '/img/blocks/blocksheet0-_29.png').&lt;&gt;</v>
       </c>
       <c r="AI9" t="str">
         <f t="shared" si="15"/>
@@ -2523,7 +2572,7 @@
       </c>
       <c r="AJ9" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>, string</v>
       </c>
       <c r="AK9" t="str">
         <f t="shared" si="17"/>
@@ -2547,12 +2596,18 @@
       </c>
       <c r="AP9" t="str">
         <f t="shared" si="22"/>
-        <v>[object]</v>
+        <v>[object, string]</v>
       </c>
       <c r="AQ9" t="str">
         <f t="shared" si="23"/>
         <v>[]</v>
       </c>
+      <c r="AS9" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>309</v>
+      </c>
       <c r="AU9">
         <v>1</v>
       </c>
@@ -2582,7 +2637,7 @@
       </c>
       <c r="BE9" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== outputparam ===========&lt;&gt;section(outputparam, 'Editor Support').&lt;&gt;subsection(outputparam, 'Editor Support').&lt;&gt;description(outputparam, 'used when defining new blocks').&lt;&gt;visual_style(outputparam,  visual_style1).&lt;&gt;inputs(outputparam, [required('A')]).&lt;&gt;outputs(outputparam, []).&lt;&gt;input_types(outputparam, [object]).&lt;&gt;output_types(outputparam, []).&lt;&gt;image_name(outputparam, '/img/blocks/blocksheet0-_29.png').&lt;&gt;prototype_coordinates(outputparam, 22, 5).&lt;&gt;icon_size(outputparam, 1, 1).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== outputparam ===========&lt;&gt;section(outputparam, 'Editor Support').&lt;&gt;subsection(outputparam, 'Editor Support').&lt;&gt;description(outputparam, 'used when defining new blocks').&lt;&gt;visual_style(outputparam,  visual_style1).&lt;&gt;inputs(outputparam, [required('A'), required('Name')]).&lt;&gt;outputs(outputparam, []).&lt;&gt;input_types(outputparam, [object, string]).&lt;&gt;output_types(outputparam, []).&lt;&gt;image_name(outputparam, '/img/blocks/blocksheet0-_29.png').&lt;&gt;prototype_coordinates(outputparam, 22, 5).&lt;&gt;icon_size(outputparam, 1, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2709,19 +2764,19 @@
         <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="J11" s="10" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>33</v>
@@ -2743,23 +2798,23 @@
       </c>
       <c r="V11" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>[required('A')</v>
+        <v>[required('Formula')</v>
       </c>
       <c r="W11" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>, required('B')</v>
+        <v>, required('A')</v>
       </c>
       <c r="X11" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>, required('C')</v>
+        <v>, required('B')</v>
       </c>
       <c r="Y11" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>, required('D')</v>
+        <v>, required('C')</v>
       </c>
       <c r="Z11" t="str">
         <f t="shared" si="7"/>
-        <v>[required('A'), required('B'), required('C')]</v>
+        <v>[required('Formula'), required('A'), required('B')]</v>
       </c>
       <c r="AA11" s="1" t="str">
         <f t="shared" si="8"/>
@@ -2791,11 +2846,11 @@
       </c>
       <c r="AH11" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;&gt;%  ===== func ===========&lt;&gt;section(func, 'Math').&lt;&gt;subsection(func, 'Math').&lt;&gt;description(func, 'This special block has a textbox for a formula. So if you type 3x+2 you see an input parameter x. Operator meaning depends on whats connected to x (scalar or vector). Understands LSL angle bracket quat syntax').&lt;&gt;visual_style(func,  normal).&lt;&gt;inputs(func, [required('A'), required('B'), required('C')]).&lt;&gt;outputs(func, ['O']).&lt;&gt;input_types(func, [scalar, scalar, scalar, scalar]).&lt;&gt;output_types(func, [object]).&lt;&gt;image_name(func, '/img/blocks/blocksheet0-_32.png').&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== func ===========&lt;&gt;section(func, 'Math').&lt;&gt;subsection(func, 'Math').&lt;&gt;description(func, 'This special block has a textbox for a formula. So if you type 3x+2 you see an input parameter x. Operator meaning depends on whats connected to x (scalar or vector). Understands LSL angle bracket quat syntax').&lt;&gt;visual_style(func,  normal).&lt;&gt;inputs(func, [required('Formula'), required('A'), required('B')]).&lt;&gt;outputs(func, ['O']).&lt;&gt;input_types(func, [string, scalar, scalar, scalar]).&lt;&gt;output_types(func, [object]).&lt;&gt;image_name(func, '/img/blocks/blocksheet0-_32.png').&lt;&gt;</v>
       </c>
       <c r="AI11" t="str">
         <f t="shared" si="15"/>
-        <v>[scalar</v>
+        <v>[string</v>
       </c>
       <c r="AJ11" t="str">
         <f t="shared" si="16"/>
@@ -2823,7 +2878,7 @@
       </c>
       <c r="AP11" t="str">
         <f t="shared" si="22"/>
-        <v>[scalar, scalar, scalar, scalar]</v>
+        <v>[string, scalar, scalar, scalar]</v>
       </c>
       <c r="AQ11" t="str">
         <f t="shared" si="23"/>
@@ -2858,7 +2913,7 @@
       </c>
       <c r="BE11" t="str">
         <f t="shared" si="24"/>
-        <v>&lt;&gt;%  ===== func ===========&lt;&gt;section(func, 'Math').&lt;&gt;subsection(func, 'Math').&lt;&gt;description(func, 'This special block has a textbox for a formula. So if you type 3x+2 you see an input parameter x. Operator meaning depends on whats connected to x (scalar or vector). Understands LSL angle bracket quat syntax').&lt;&gt;visual_style(func,  normal).&lt;&gt;inputs(func, [required('A'), required('B'), required('C')]).&lt;&gt;outputs(func, ['O']).&lt;&gt;input_types(func, [scalar, scalar, scalar, scalar]).&lt;&gt;output_types(func, [object]).&lt;&gt;image_name(func, '/img/blocks/blocksheet0-_32.png').&lt;&gt;prototype_coordinates(func, 23, 0).&lt;&gt;icon_size(func, 2, 1).&lt;&gt;</v>
+        <v>&lt;&gt;%  ===== func ===========&lt;&gt;section(func, 'Math').&lt;&gt;subsection(func, 'Math').&lt;&gt;description(func, 'This special block has a textbox for a formula. So if you type 3x+2 you see an input parameter x. Operator meaning depends on whats connected to x (scalar or vector). Understands LSL angle bracket quat syntax').&lt;&gt;visual_style(func,  normal).&lt;&gt;inputs(func, [required('Formula'), required('A'), required('B')]).&lt;&gt;outputs(func, ['O']).&lt;&gt;input_types(func, [string, scalar, scalar, scalar]).&lt;&gt;output_types(func, [object]).&lt;&gt;image_name(func, '/img/blocks/blocksheet0-_32.png').&lt;&gt;prototype_coordinates(func, 23, 0).&lt;&gt;icon_size(func, 2, 1).&lt;&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/doc/flo/Blocks.xlsx
+++ b/doc/flo/Blocks.xlsx
@@ -1457,12 +1457,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="11835" ySplit="495" topLeftCell="AS1" activePane="bottomLeft"/>
-      <selection activeCell="AT43" sqref="AT43"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="12120" ySplit="495" topLeftCell="BC91" activePane="bottomRight"/>
+      <selection activeCell="J11" sqref="J11"/>
       <selection pane="topRight" activeCell="BE1" sqref="BE1"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
-      <selection pane="bottomRight" activeCell="AS11" sqref="AS11"/>
+      <selection pane="bottomLeft" activeCell="AX1" sqref="AX1"/>
+      <selection pane="bottomRight" activeCell="BE100" sqref="BE100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/doc/flo/Blocks.xlsx
+++ b/doc/flo/Blocks.xlsx
@@ -1458,18 +1458,18 @@
   <dimension ref="A1:BE117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AX1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="12120" ySplit="495" topLeftCell="BC91" activePane="bottomRight"/>
+      <pane xSplit="12120" ySplit="495" topLeftCell="A50" activePane="bottomLeft"/>
       <selection activeCell="J11" sqref="J11"/>
       <selection pane="topRight" activeCell="BE1" sqref="BE1"/>
-      <selection pane="bottomLeft" activeCell="AX1" sqref="AX1"/>
-      <selection pane="bottomRight" activeCell="BE100" sqref="BE100"/>
+      <selection pane="bottomLeft" activeCell="BB68" sqref="BB68"/>
+      <selection pane="bottomRight" activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="17.140625" style="2"/>
     <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" style="2"/>
     <col min="6" max="9" width="8.5703125" style="2" customWidth="1"/>
     <col min="10" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
